--- a/math-decks/basic-arithmetic-number-sense/Card Types/{Data Sheet Chunk} 3. Basic Operations, Single Items.xlsx
+++ b/math-decks/basic-arithmetic-number-sense/Card Types/{Data Sheet Chunk} 3. Basic Operations, Single Items.xlsx
@@ -157,7 +157,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -189,8 +194,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -578,6 +583,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <v>10</v>
       </c>
@@ -615,6 +623,9 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="G4">
         <v>10</v>
       </c>
@@ -651,6 +662,9 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="G5">
         <v>10</v>
       </c>
@@ -681,6 +695,9 @@
       <c r="E6">
         <v>4</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="G6">
         <v>10</v>
       </c>
@@ -717,6 +734,9 @@
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7">
         <v>10</v>
       </c>
@@ -753,6 +773,9 @@
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
       <c r="G8">
         <v>10</v>
       </c>
@@ -789,6 +812,9 @@
       <c r="E9">
         <v>7</v>
       </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
       <c r="G9">
         <v>10</v>
       </c>
@@ -825,6 +851,9 @@
       <c r="E10">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
       <c r="G10">
         <v>10</v>
       </c>
@@ -861,6 +890,9 @@
       <c r="E11">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
       <c r="G11">
         <v>10</v>
       </c>
@@ -926,9 +958,9 @@
         <f>IF(ISNUMBER(E3), E3, "")</f>
         <v>1</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <f>IF(ISNUMBER(F3), F3, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13">
         <f>IF(ISNUMBER(G3), G3, "")</f>
@@ -968,9 +1000,9 @@
         <f t="shared" ref="E14:G14" si="4">IF(ISNUMBER(E4), E4, "")</f>
         <v>2</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -1010,9 +1042,9 @@
         <f t="shared" ref="E15:G15" si="7">IF(ISNUMBER(E5), E5, "")</f>
         <v>3</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <f t="shared" si="7"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
@@ -1052,9 +1084,9 @@
         <f t="shared" ref="E16:G16" si="8">IF(ISNUMBER(E6), E6, "")</f>
         <v>4</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <f t="shared" si="8"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G16">
         <f t="shared" si="8"/>
@@ -1094,9 +1126,9 @@
         <f t="shared" ref="E17:G17" si="9">IF(ISNUMBER(E7), E7, "")</f>
         <v>5</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <f t="shared" si="9"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
@@ -1136,9 +1168,9 @@
         <f t="shared" ref="E18:G18" si="10">IF(ISNUMBER(E8), E8, "")</f>
         <v>6</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
         <f t="shared" si="10"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G18">
         <f t="shared" si="10"/>
@@ -1178,9 +1210,9 @@
         <f t="shared" ref="E19:G19" si="11">IF(ISNUMBER(E9), E9, "")</f>
         <v>7</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <f t="shared" si="11"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G19">
         <f t="shared" si="11"/>
@@ -1220,9 +1252,9 @@
         <f t="shared" ref="E20:G20" si="12">IF(ISNUMBER(E10), E10, "")</f>
         <v>8</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
         <f t="shared" si="12"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G20">
         <f t="shared" si="12"/>
@@ -1262,9 +1294,9 @@
         <f t="shared" ref="E21:G21" si="13">IF(ISNUMBER(E11), E11, "")</f>
         <v>9</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <f t="shared" si="13"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G21">
         <f t="shared" si="13"/>
@@ -1346,9 +1378,9 @@
         <f t="shared" ref="E23:G23" si="15">IF(ISNUMBER(E13), E13, "")</f>
         <v>1</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G23">
         <f t="shared" si="15"/>
@@ -1388,9 +1420,9 @@
         <f t="shared" ref="E24:G24" si="16">IF(ISNUMBER(E14), E14, "")</f>
         <v>2</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f t="shared" si="16"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G24">
         <f t="shared" si="16"/>
@@ -1430,9 +1462,9 @@
         <f t="shared" ref="E25:G25" si="17">IF(ISNUMBER(E15), E15, "")</f>
         <v>3</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <f t="shared" si="17"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G25">
         <f t="shared" si="17"/>
@@ -1472,9 +1504,9 @@
         <f t="shared" ref="E26:G26" si="18">IF(ISNUMBER(E16), E16, "")</f>
         <v>4</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f t="shared" si="18"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G26">
         <f t="shared" si="18"/>
@@ -1514,9 +1546,9 @@
         <f t="shared" ref="E27:G27" si="19">IF(ISNUMBER(E17), E17, "")</f>
         <v>5</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f t="shared" si="19"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G27">
         <f t="shared" si="19"/>
@@ -1556,9 +1588,9 @@
         <f t="shared" ref="E28:G28" si="20">IF(ISNUMBER(E18), E18, "")</f>
         <v>6</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28">
         <f t="shared" si="20"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G28">
         <f t="shared" si="20"/>
@@ -1598,9 +1630,9 @@
         <f t="shared" ref="E29:G29" si="21">IF(ISNUMBER(E19), E19, "")</f>
         <v>7</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29">
         <f t="shared" si="21"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G29">
         <f t="shared" si="21"/>
@@ -1640,9 +1672,9 @@
         <f t="shared" ref="E30:G30" si="22">IF(ISNUMBER(E20), E20, "")</f>
         <v>8</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f t="shared" si="22"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G30">
         <f t="shared" si="22"/>
@@ -1682,9 +1714,9 @@
         <f t="shared" ref="E31:G31" si="23">IF(ISNUMBER(E21), E21, "")</f>
         <v>9</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <f t="shared" si="23"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G31">
         <f t="shared" si="23"/>
@@ -1766,9 +1798,9 @@
         <f t="shared" ref="E33:G33" si="25">IF(ISNUMBER(E23), E23, "")</f>
         <v>1</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="25"/>
@@ -1808,9 +1840,9 @@
         <f t="shared" ref="E34:G34" si="26">IF(ISNUMBER(E24), E24, "")</f>
         <v>2</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34">
         <f t="shared" si="26"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G34">
         <f t="shared" si="26"/>
@@ -1850,9 +1882,9 @@
         <f t="shared" ref="E35:G35" si="27">IF(ISNUMBER(E25), E25, "")</f>
         <v>3</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35">
         <f t="shared" si="27"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G35">
         <f t="shared" si="27"/>
@@ -1892,9 +1924,9 @@
         <f t="shared" ref="E36:G36" si="28">IF(ISNUMBER(E26), E26, "")</f>
         <v>4</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36">
         <f t="shared" si="28"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G36">
         <f t="shared" si="28"/>
@@ -1934,9 +1966,9 @@
         <f t="shared" ref="E37:G37" si="29">IF(ISNUMBER(E27), E27, "")</f>
         <v>5</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37">
         <f t="shared" si="29"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G37">
         <f t="shared" si="29"/>
@@ -1976,9 +2008,9 @@
         <f t="shared" ref="E38:G38" si="30">IF(ISNUMBER(E28), E28, "")</f>
         <v>6</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38">
         <f t="shared" si="30"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G38">
         <f t="shared" si="30"/>
@@ -2018,9 +2050,9 @@
         <f t="shared" ref="E39:G39" si="31">IF(ISNUMBER(E29), E29, "")</f>
         <v>7</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39">
         <f t="shared" si="31"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G39">
         <f t="shared" si="31"/>
@@ -2060,9 +2092,9 @@
         <f t="shared" ref="E40:G40" si="32">IF(ISNUMBER(E30), E30, "")</f>
         <v>8</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40">
         <f t="shared" si="32"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G40">
         <f t="shared" si="32"/>
@@ -2102,9 +2134,9 @@
         <f t="shared" ref="E41:G41" si="33">IF(ISNUMBER(E31), E31, "")</f>
         <v>9</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41">
         <f t="shared" si="33"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G41">
         <f t="shared" si="33"/>
@@ -2186,9 +2218,9 @@
         <f t="shared" ref="E43:G43" si="35">IF(ISNUMBER(E33), E33, "")</f>
         <v>1</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43">
         <f t="shared" si="35"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G43">
         <f t="shared" si="35"/>
@@ -2228,9 +2260,9 @@
         <f t="shared" ref="E44:G44" si="36">IF(ISNUMBER(E34), E34, "")</f>
         <v>2</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44">
         <f t="shared" si="36"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G44">
         <f t="shared" si="36"/>
@@ -2270,9 +2302,9 @@
         <f t="shared" ref="E45:G45" si="37">IF(ISNUMBER(E35), E35, "")</f>
         <v>3</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <f t="shared" si="37"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G45">
         <f t="shared" si="37"/>
@@ -2312,9 +2344,9 @@
         <f t="shared" ref="E46:G46" si="38">IF(ISNUMBER(E36), E36, "")</f>
         <v>4</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46">
         <f t="shared" si="38"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" si="38"/>
@@ -2354,9 +2386,9 @@
         <f t="shared" ref="E47:G47" si="39">IF(ISNUMBER(E37), E37, "")</f>
         <v>5</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47">
         <f t="shared" si="39"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G47">
         <f t="shared" si="39"/>
@@ -2396,9 +2428,9 @@
         <f t="shared" ref="E48:G48" si="40">IF(ISNUMBER(E38), E38, "")</f>
         <v>6</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48">
         <f t="shared" si="40"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G48">
         <f t="shared" si="40"/>
@@ -2438,9 +2470,9 @@
         <f t="shared" ref="E49:G49" si="41">IF(ISNUMBER(E39), E39, "")</f>
         <v>7</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49">
         <f t="shared" si="41"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G49">
         <f t="shared" si="41"/>
@@ -2480,9 +2512,9 @@
         <f t="shared" ref="E50:G50" si="42">IF(ISNUMBER(E40), E40, "")</f>
         <v>8</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50">
         <f t="shared" si="42"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G50">
         <f t="shared" si="42"/>
@@ -2522,9 +2554,9 @@
         <f t="shared" ref="E51:G51" si="43">IF(ISNUMBER(E41), E41, "")</f>
         <v>9</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51">
         <f t="shared" si="43"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G51">
         <f t="shared" si="43"/>
@@ -2606,9 +2638,9 @@
         <f t="shared" ref="E53:G53" si="45">IF(ISNUMBER(E43), E43, "")</f>
         <v>1</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53">
         <f t="shared" si="45"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G53">
         <f t="shared" si="45"/>
@@ -2648,9 +2680,9 @@
         <f t="shared" ref="E54:G54" si="46">IF(ISNUMBER(E44), E44, "")</f>
         <v>2</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54">
         <f t="shared" si="46"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G54">
         <f t="shared" si="46"/>
@@ -2690,9 +2722,9 @@
         <f t="shared" ref="E55:G55" si="47">IF(ISNUMBER(E45), E45, "")</f>
         <v>3</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55">
         <f t="shared" si="47"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G55">
         <f t="shared" si="47"/>
@@ -2732,9 +2764,9 @@
         <f t="shared" ref="E56:G56" si="48">IF(ISNUMBER(E46), E46, "")</f>
         <v>4</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56">
         <f t="shared" si="48"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G56">
         <f t="shared" si="48"/>
@@ -2774,9 +2806,9 @@
         <f t="shared" ref="E57:G57" si="49">IF(ISNUMBER(E47), E47, "")</f>
         <v>5</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57">
         <f t="shared" si="49"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G57">
         <f t="shared" si="49"/>
@@ -2816,9 +2848,9 @@
         <f t="shared" ref="E58:G58" si="50">IF(ISNUMBER(E48), E48, "")</f>
         <v>6</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58">
         <f t="shared" si="50"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G58">
         <f t="shared" si="50"/>
@@ -2858,9 +2890,9 @@
         <f t="shared" ref="E59:G59" si="51">IF(ISNUMBER(E49), E49, "")</f>
         <v>7</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59">
         <f t="shared" si="51"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G59">
         <f t="shared" si="51"/>
@@ -2900,9 +2932,9 @@
         <f t="shared" ref="E60:G60" si="52">IF(ISNUMBER(E50), E50, "")</f>
         <v>8</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60">
         <f t="shared" si="52"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G60">
         <f t="shared" si="52"/>
@@ -2942,9 +2974,9 @@
         <f t="shared" ref="E61:G61" si="53">IF(ISNUMBER(E51), E51, "")</f>
         <v>9</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61">
         <f t="shared" si="53"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G61">
         <f t="shared" si="53"/>
@@ -3026,9 +3058,9 @@
         <f t="shared" ref="E63:G63" si="55">IF(ISNUMBER(E53), E53, "")</f>
         <v>1</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63">
         <f t="shared" si="55"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G63">
         <f t="shared" si="55"/>
@@ -3068,9 +3100,9 @@
         <f t="shared" ref="E64:G64" si="56">IF(ISNUMBER(E54), E54, "")</f>
         <v>2</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f t="shared" si="56"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G64">
         <f t="shared" si="56"/>
@@ -3110,9 +3142,9 @@
         <f t="shared" ref="E65:G65" si="57">IF(ISNUMBER(E55), E55, "")</f>
         <v>3</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65">
         <f t="shared" si="57"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G65">
         <f t="shared" si="57"/>
@@ -3152,9 +3184,9 @@
         <f t="shared" ref="E66:G66" si="58">IF(ISNUMBER(E56), E56, "")</f>
         <v>4</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66">
         <f t="shared" si="58"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G66">
         <f t="shared" si="58"/>
@@ -3194,9 +3226,9 @@
         <f t="shared" ref="E67:G67" si="59">IF(ISNUMBER(E57), E57, "")</f>
         <v>5</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67">
         <f t="shared" si="59"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G67">
         <f t="shared" si="59"/>
@@ -3236,9 +3268,9 @@
         <f t="shared" ref="E68:G68" si="60">IF(ISNUMBER(E58), E58, "")</f>
         <v>6</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68">
         <f t="shared" si="60"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G68">
         <f t="shared" si="60"/>
@@ -3278,9 +3310,9 @@
         <f t="shared" ref="E69:G69" si="61">IF(ISNUMBER(E59), E59, "")</f>
         <v>7</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69">
         <f t="shared" si="61"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G69">
         <f t="shared" si="61"/>
@@ -3320,9 +3352,9 @@
         <f t="shared" ref="E70:G70" si="62">IF(ISNUMBER(E60), E60, "")</f>
         <v>8</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70">
         <f t="shared" si="62"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G70">
         <f t="shared" si="62"/>
@@ -3362,9 +3394,9 @@
         <f t="shared" ref="E71:G71" si="63">IF(ISNUMBER(E61), E61, "")</f>
         <v>9</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71">
         <f t="shared" si="63"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G71">
         <f t="shared" si="63"/>
@@ -3446,9 +3478,9 @@
         <f t="shared" ref="E73:G73" si="65">IF(ISNUMBER(E63), E63, "")</f>
         <v>1</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73">
         <f t="shared" si="65"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G73">
         <f t="shared" si="65"/>
@@ -3488,9 +3520,9 @@
         <f t="shared" ref="E74:G74" si="66">IF(ISNUMBER(E64), E64, "")</f>
         <v>2</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74">
         <f t="shared" si="66"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G74">
         <f t="shared" si="66"/>
@@ -3530,9 +3562,9 @@
         <f t="shared" ref="E75:G75" si="67">IF(ISNUMBER(E65), E65, "")</f>
         <v>3</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75">
         <f t="shared" si="67"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G75">
         <f t="shared" si="67"/>
@@ -3572,9 +3604,9 @@
         <f t="shared" ref="E76:G76" si="68">IF(ISNUMBER(E66), E66, "")</f>
         <v>4</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76">
         <f t="shared" si="68"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G76">
         <f t="shared" si="68"/>
@@ -3614,9 +3646,9 @@
         <f t="shared" ref="E77:G77" si="71">IF(ISNUMBER(E67), E67, "")</f>
         <v>5</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77">
         <f t="shared" si="71"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G77">
         <f t="shared" si="71"/>
@@ -3656,9 +3688,9 @@
         <f t="shared" ref="E78:G78" si="73">IF(ISNUMBER(E68), E68, "")</f>
         <v>6</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78">
         <f t="shared" si="73"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G78">
         <f t="shared" si="73"/>
@@ -3698,9 +3730,9 @@
         <f t="shared" ref="E79:G79" si="76">IF(ISNUMBER(E69), E69, "")</f>
         <v>7</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79">
         <f t="shared" si="76"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G79">
         <f t="shared" si="76"/>
@@ -3740,9 +3772,9 @@
         <f t="shared" ref="E80:G80" si="77">IF(ISNUMBER(E70), E70, "")</f>
         <v>8</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80">
         <f t="shared" si="77"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G80">
         <f t="shared" si="77"/>
@@ -3782,9 +3814,9 @@
         <f t="shared" ref="E81:G81" si="78">IF(ISNUMBER(E71), E71, "")</f>
         <v>9</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81">
         <f t="shared" si="78"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G81">
         <f t="shared" si="78"/>
@@ -3866,9 +3898,9 @@
         <f t="shared" ref="E83:G83" si="80">IF(ISNUMBER(E73), E73, "")</f>
         <v>1</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83">
         <f t="shared" si="80"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G83">
         <f t="shared" si="80"/>
@@ -3908,9 +3940,9 @@
         <f t="shared" ref="E84:G84" si="81">IF(ISNUMBER(E74), E74, "")</f>
         <v>2</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84">
         <f t="shared" si="81"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G84">
         <f t="shared" si="81"/>
@@ -3950,9 +3982,9 @@
         <f t="shared" ref="E85:G85" si="82">IF(ISNUMBER(E75), E75, "")</f>
         <v>3</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85">
         <f t="shared" si="82"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G85">
         <f t="shared" si="82"/>
@@ -3992,9 +4024,9 @@
         <f t="shared" ref="E86:G86" si="83">IF(ISNUMBER(E76), E76, "")</f>
         <v>4</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86">
         <f t="shared" si="83"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G86">
         <f t="shared" si="83"/>
@@ -4034,9 +4066,9 @@
         <f t="shared" ref="E87:G87" si="84">IF(ISNUMBER(E77), E77, "")</f>
         <v>5</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87">
         <f t="shared" si="84"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G87">
         <f t="shared" si="84"/>
@@ -4076,9 +4108,9 @@
         <f t="shared" ref="E88:G88" si="85">IF(ISNUMBER(E78), E78, "")</f>
         <v>6</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88">
         <f t="shared" si="85"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G88">
         <f t="shared" si="85"/>
@@ -4118,9 +4150,9 @@
         <f t="shared" ref="E89:G89" si="86">IF(ISNUMBER(E79), E79, "")</f>
         <v>7</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89">
         <f t="shared" si="86"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G89">
         <f t="shared" si="86"/>
@@ -4160,9 +4192,9 @@
         <f t="shared" ref="E90:G90" si="87">IF(ISNUMBER(E80), E80, "")</f>
         <v>8</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90">
         <f t="shared" si="87"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G90">
         <f t="shared" si="87"/>
@@ -4202,9 +4234,9 @@
         <f t="shared" ref="E91:G91" si="88">IF(ISNUMBER(E81), E81, "")</f>
         <v>9</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91">
         <f t="shared" si="88"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G91">
         <f t="shared" si="88"/>
@@ -4286,9 +4318,9 @@
         <f t="shared" ref="E93:G93" si="90">IF(ISNUMBER(E83), E83, "")</f>
         <v>1</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93">
         <f t="shared" si="90"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G93">
         <f t="shared" si="90"/>
@@ -4328,9 +4360,9 @@
         <f t="shared" ref="E94:G94" si="91">IF(ISNUMBER(E84), E84, "")</f>
         <v>2</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94">
         <f t="shared" si="91"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G94">
         <f t="shared" si="91"/>
@@ -4370,9 +4402,9 @@
         <f t="shared" ref="E95:G95" si="92">IF(ISNUMBER(E85), E85, "")</f>
         <v>3</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95">
         <f t="shared" si="92"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G95">
         <f t="shared" si="92"/>
@@ -4412,9 +4444,9 @@
         <f t="shared" ref="E96:G96" si="93">IF(ISNUMBER(E86), E86, "")</f>
         <v>4</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96">
         <f t="shared" si="93"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G96">
         <f t="shared" si="93"/>
@@ -4454,9 +4486,9 @@
         <f t="shared" ref="E97:G97" si="94">IF(ISNUMBER(E87), E87, "")</f>
         <v>5</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97">
         <f t="shared" si="94"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G97">
         <f t="shared" si="94"/>
@@ -4496,9 +4528,9 @@
         <f t="shared" ref="E98:G98" si="95">IF(ISNUMBER(E88), E88, "")</f>
         <v>6</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98">
         <f t="shared" si="95"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G98">
         <f t="shared" si="95"/>
@@ -4538,9 +4570,9 @@
         <f t="shared" ref="E99:G99" si="96">IF(ISNUMBER(E89), E89, "")</f>
         <v>7</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99">
         <f t="shared" si="96"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G99">
         <f t="shared" si="96"/>
@@ -4580,9 +4612,9 @@
         <f t="shared" ref="E100:G100" si="97">IF(ISNUMBER(E90), E90, "")</f>
         <v>8</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100">
         <f t="shared" si="97"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G100">
         <f t="shared" si="97"/>
@@ -4622,9 +4654,9 @@
         <f t="shared" ref="E101:G101" si="98">IF(ISNUMBER(E91), E91, "")</f>
         <v>9</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101">
         <f t="shared" si="98"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G101">
         <f t="shared" si="98"/>
@@ -4706,9 +4738,9 @@
         <f t="shared" ref="E103:G103" si="100">IF(ISNUMBER(E93), E93, "")</f>
         <v>1</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103">
         <f t="shared" si="100"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G103">
         <f t="shared" si="100"/>
@@ -4748,9 +4780,9 @@
         <f t="shared" ref="E104:G104" si="101">IF(ISNUMBER(E94), E94, "")</f>
         <v>2</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104">
         <f t="shared" si="101"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G104">
         <f t="shared" si="101"/>
@@ -4790,9 +4822,9 @@
         <f t="shared" ref="E105:G105" si="102">IF(ISNUMBER(E95), E95, "")</f>
         <v>3</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105">
         <f t="shared" si="102"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G105">
         <f t="shared" si="102"/>
@@ -4832,9 +4864,9 @@
         <f t="shared" ref="E106:G106" si="103">IF(ISNUMBER(E96), E96, "")</f>
         <v>4</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106">
         <f t="shared" si="103"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G106">
         <f t="shared" si="103"/>
@@ -4874,9 +4906,9 @@
         <f t="shared" ref="E107:G107" si="104">IF(ISNUMBER(E97), E97, "")</f>
         <v>5</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F107">
         <f t="shared" si="104"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G107">
         <f t="shared" si="104"/>
@@ -4916,9 +4948,9 @@
         <f t="shared" ref="E108:G108" si="105">IF(ISNUMBER(E98), E98, "")</f>
         <v>6</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F108">
         <f t="shared" si="105"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G108">
         <f t="shared" si="105"/>
@@ -4958,9 +4990,9 @@
         <f t="shared" ref="E109:G109" si="106">IF(ISNUMBER(E99), E99, "")</f>
         <v>7</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F109">
         <f t="shared" si="106"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G109">
         <f t="shared" si="106"/>
@@ -5000,9 +5032,9 @@
         <f t="shared" ref="E110:G110" si="107">IF(ISNUMBER(E100), E100, "")</f>
         <v>8</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F110">
         <f t="shared" si="107"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G110">
         <f t="shared" si="107"/>
@@ -5042,9 +5074,9 @@
         <f t="shared" ref="E111:G111" si="108">IF(ISNUMBER(E101), E101, "")</f>
         <v>9</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F111">
         <f t="shared" si="108"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G111">
         <f t="shared" si="108"/>
@@ -5126,9 +5158,9 @@
         <f t="shared" ref="E113:G113" si="110">IF(ISNUMBER(E103), E103, "")</f>
         <v>1</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F113">
         <f t="shared" si="110"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G113">
         <f t="shared" si="110"/>
@@ -5168,9 +5200,9 @@
         <f t="shared" ref="E114:G114" si="111">IF(ISNUMBER(E104), E104, "")</f>
         <v>2</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F114">
         <f t="shared" si="111"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G114">
         <f t="shared" si="111"/>
@@ -5210,9 +5242,9 @@
         <f t="shared" ref="E115:G115" si="112">IF(ISNUMBER(E105), E105, "")</f>
         <v>3</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F115">
         <f t="shared" si="112"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G115">
         <f t="shared" si="112"/>
@@ -5252,9 +5284,9 @@
         <f t="shared" ref="E116:G116" si="113">IF(ISNUMBER(E106), E106, "")</f>
         <v>4</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F116">
         <f t="shared" si="113"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G116">
         <f t="shared" si="113"/>
@@ -5294,9 +5326,9 @@
         <f t="shared" ref="E117:G117" si="114">IF(ISNUMBER(E107), E107, "")</f>
         <v>5</v>
       </c>
-      <c r="F117" t="str">
+      <c r="F117">
         <f t="shared" si="114"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G117">
         <f t="shared" si="114"/>
@@ -5336,9 +5368,9 @@
         <f t="shared" ref="E118:G118" si="115">IF(ISNUMBER(E108), E108, "")</f>
         <v>6</v>
       </c>
-      <c r="F118" t="str">
+      <c r="F118">
         <f t="shared" si="115"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G118">
         <f t="shared" si="115"/>
@@ -5378,9 +5410,9 @@
         <f t="shared" ref="E119:G119" si="116">IF(ISNUMBER(E109), E109, "")</f>
         <v>7</v>
       </c>
-      <c r="F119" t="str">
+      <c r="F119">
         <f t="shared" si="116"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G119">
         <f t="shared" si="116"/>
@@ -5420,9 +5452,9 @@
         <f t="shared" ref="E120:G120" si="117">IF(ISNUMBER(E110), E110, "")</f>
         <v>8</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F120">
         <f t="shared" si="117"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G120">
         <f t="shared" si="117"/>
@@ -5462,9 +5494,9 @@
         <f t="shared" ref="E121:G121" si="118">IF(ISNUMBER(E111), E111, "")</f>
         <v>9</v>
       </c>
-      <c r="F121" t="str">
+      <c r="F121">
         <f t="shared" si="118"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G121">
         <f t="shared" si="118"/>
@@ -5546,9 +5578,9 @@
         <f t="shared" ref="E123:G123" si="120">IF(ISNUMBER(E113), E113, "")</f>
         <v>1</v>
       </c>
-      <c r="F123" t="str">
+      <c r="F123">
         <f t="shared" si="120"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G123">
         <f t="shared" si="120"/>
@@ -5588,9 +5620,9 @@
         <f t="shared" ref="E124:G124" si="121">IF(ISNUMBER(E114), E114, "")</f>
         <v>2</v>
       </c>
-      <c r="F124" t="str">
+      <c r="F124">
         <f t="shared" si="121"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G124">
         <f t="shared" si="121"/>
@@ -5630,9 +5662,9 @@
         <f t="shared" ref="E125:G125" si="122">IF(ISNUMBER(E115), E115, "")</f>
         <v>3</v>
       </c>
-      <c r="F125" t="str">
+      <c r="F125">
         <f t="shared" si="122"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G125">
         <f t="shared" si="122"/>
@@ -5672,9 +5704,9 @@
         <f t="shared" ref="E126:G126" si="123">IF(ISNUMBER(E116), E116, "")</f>
         <v>4</v>
       </c>
-      <c r="F126" t="str">
+      <c r="F126">
         <f t="shared" si="123"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G126">
         <f t="shared" si="123"/>
@@ -5714,9 +5746,9 @@
         <f t="shared" ref="E127:G127" si="124">IF(ISNUMBER(E117), E117, "")</f>
         <v>5</v>
       </c>
-      <c r="F127" t="str">
+      <c r="F127">
         <f t="shared" si="124"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G127">
         <f t="shared" si="124"/>
@@ -5756,9 +5788,9 @@
         <f t="shared" ref="E128:G128" si="125">IF(ISNUMBER(E118), E118, "")</f>
         <v>6</v>
       </c>
-      <c r="F128" t="str">
+      <c r="F128">
         <f t="shared" si="125"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G128">
         <f t="shared" si="125"/>
@@ -5798,9 +5830,9 @@
         <f t="shared" ref="E129:G129" si="126">IF(ISNUMBER(E119), E119, "")</f>
         <v>7</v>
       </c>
-      <c r="F129" t="str">
+      <c r="F129">
         <f t="shared" si="126"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G129">
         <f t="shared" si="126"/>
@@ -5840,9 +5872,9 @@
         <f t="shared" ref="E130:G130" si="127">IF(ISNUMBER(E120), E120, "")</f>
         <v>8</v>
       </c>
-      <c r="F130" t="str">
+      <c r="F130">
         <f t="shared" si="127"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G130">
         <f t="shared" si="127"/>
@@ -5882,9 +5914,9 @@
         <f t="shared" ref="E131:G131" si="128">IF(ISNUMBER(E121), E121, "")</f>
         <v>9</v>
       </c>
-      <c r="F131" t="str">
+      <c r="F131">
         <f t="shared" si="128"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G131">
         <f t="shared" si="128"/>
@@ -5966,9 +5998,9 @@
         <f t="shared" ref="E133:G133" si="130">IF(ISNUMBER(E123), E123, "")</f>
         <v>1</v>
       </c>
-      <c r="F133" t="str">
+      <c r="F133">
         <f t="shared" si="130"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G133">
         <f t="shared" si="130"/>
@@ -6008,9 +6040,9 @@
         <f t="shared" ref="E134:G134" si="131">IF(ISNUMBER(E124), E124, "")</f>
         <v>2</v>
       </c>
-      <c r="F134" t="str">
+      <c r="F134">
         <f t="shared" si="131"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G134">
         <f t="shared" si="131"/>
@@ -6050,9 +6082,9 @@
         <f t="shared" ref="E135:G135" si="132">IF(ISNUMBER(E125), E125, "")</f>
         <v>3</v>
       </c>
-      <c r="F135" t="str">
+      <c r="F135">
         <f t="shared" si="132"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G135">
         <f t="shared" si="132"/>
@@ -6092,9 +6124,9 @@
         <f t="shared" ref="E136:G136" si="133">IF(ISNUMBER(E126), E126, "")</f>
         <v>4</v>
       </c>
-      <c r="F136" t="str">
+      <c r="F136">
         <f t="shared" si="133"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G136">
         <f t="shared" si="133"/>
@@ -6134,9 +6166,9 @@
         <f t="shared" ref="E137:G137" si="134">IF(ISNUMBER(E127), E127, "")</f>
         <v>5</v>
       </c>
-      <c r="F137" t="str">
+      <c r="F137">
         <f t="shared" si="134"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G137">
         <f t="shared" si="134"/>
@@ -6176,9 +6208,9 @@
         <f t="shared" ref="E138:G138" si="135">IF(ISNUMBER(E128), E128, "")</f>
         <v>6</v>
       </c>
-      <c r="F138" t="str">
+      <c r="F138">
         <f t="shared" si="135"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G138">
         <f t="shared" si="135"/>
@@ -6218,9 +6250,9 @@
         <f t="shared" ref="E139:G139" si="136">IF(ISNUMBER(E129), E129, "")</f>
         <v>7</v>
       </c>
-      <c r="F139" t="str">
+      <c r="F139">
         <f t="shared" si="136"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G139">
         <f t="shared" si="136"/>
@@ -6260,9 +6292,9 @@
         <f t="shared" ref="E140:G140" si="137">IF(ISNUMBER(E130), E130, "")</f>
         <v>8</v>
       </c>
-      <c r="F140" t="str">
+      <c r="F140">
         <f t="shared" si="137"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G140">
         <f t="shared" si="137"/>
@@ -6302,9 +6334,9 @@
         <f t="shared" ref="E141:G141" si="140">IF(ISNUMBER(E131), E131, "")</f>
         <v>9</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F141">
         <f t="shared" si="140"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G141">
         <f t="shared" si="140"/>
@@ -6386,9 +6418,9 @@
         <f t="shared" ref="E143:G143" si="145">IF(ISNUMBER(E133), E133, "")</f>
         <v>1</v>
       </c>
-      <c r="F143" t="str">
+      <c r="F143">
         <f t="shared" si="145"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G143">
         <f t="shared" si="145"/>
@@ -6428,9 +6460,9 @@
         <f t="shared" ref="E144:G144" si="146">IF(ISNUMBER(E134), E134, "")</f>
         <v>2</v>
       </c>
-      <c r="F144" t="str">
+      <c r="F144">
         <f t="shared" si="146"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G144">
         <f t="shared" si="146"/>
@@ -6470,9 +6502,9 @@
         <f t="shared" ref="E145:G145" si="147">IF(ISNUMBER(E135), E135, "")</f>
         <v>3</v>
       </c>
-      <c r="F145" t="str">
+      <c r="F145">
         <f t="shared" si="147"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G145">
         <f t="shared" si="147"/>
@@ -6512,9 +6544,9 @@
         <f t="shared" ref="E146:G146" si="148">IF(ISNUMBER(E136), E136, "")</f>
         <v>4</v>
       </c>
-      <c r="F146" t="str">
+      <c r="F146">
         <f t="shared" si="148"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G146">
         <f t="shared" si="148"/>
@@ -6554,9 +6586,9 @@
         <f t="shared" ref="E147:G147" si="149">IF(ISNUMBER(E137), E137, "")</f>
         <v>5</v>
       </c>
-      <c r="F147" t="str">
+      <c r="F147">
         <f t="shared" si="149"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G147">
         <f t="shared" si="149"/>
@@ -6596,9 +6628,9 @@
         <f t="shared" ref="E148:G148" si="150">IF(ISNUMBER(E138), E138, "")</f>
         <v>6</v>
       </c>
-      <c r="F148" t="str">
+      <c r="F148">
         <f t="shared" si="150"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G148">
         <f t="shared" si="150"/>
@@ -6638,9 +6670,9 @@
         <f t="shared" ref="E149:G149" si="151">IF(ISNUMBER(E139), E139, "")</f>
         <v>7</v>
       </c>
-      <c r="F149" t="str">
+      <c r="F149">
         <f t="shared" si="151"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G149">
         <f t="shared" si="151"/>
@@ -6680,9 +6712,9 @@
         <f t="shared" ref="E150:G150" si="152">IF(ISNUMBER(E140), E140, "")</f>
         <v>8</v>
       </c>
-      <c r="F150" t="str">
+      <c r="F150">
         <f t="shared" si="152"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G150">
         <f t="shared" si="152"/>
@@ -6722,9 +6754,9 @@
         <f t="shared" ref="E151:G151" si="153">IF(ISNUMBER(E141), E141, "")</f>
         <v>9</v>
       </c>
-      <c r="F151" t="str">
+      <c r="F151">
         <f t="shared" si="153"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G151">
         <f t="shared" si="153"/>
@@ -6806,9 +6838,9 @@
         <f t="shared" ref="E153:G153" si="155">IF(ISNUMBER(E143), E143, "")</f>
         <v>1</v>
       </c>
-      <c r="F153" t="str">
+      <c r="F153">
         <f t="shared" si="155"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G153">
         <f t="shared" si="155"/>
@@ -6848,9 +6880,9 @@
         <f t="shared" ref="E154:G154" si="156">IF(ISNUMBER(E144), E144, "")</f>
         <v>2</v>
       </c>
-      <c r="F154" t="str">
+      <c r="F154">
         <f t="shared" si="156"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G154">
         <f t="shared" si="156"/>
@@ -6890,9 +6922,9 @@
         <f t="shared" ref="E155:G155" si="157">IF(ISNUMBER(E145), E145, "")</f>
         <v>3</v>
       </c>
-      <c r="F155" t="str">
+      <c r="F155">
         <f t="shared" si="157"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G155">
         <f t="shared" si="157"/>
@@ -6932,9 +6964,9 @@
         <f t="shared" ref="E156:G156" si="158">IF(ISNUMBER(E146), E146, "")</f>
         <v>4</v>
       </c>
-      <c r="F156" t="str">
+      <c r="F156">
         <f t="shared" si="158"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G156">
         <f t="shared" si="158"/>
@@ -6974,9 +7006,9 @@
         <f t="shared" ref="E157:G157" si="159">IF(ISNUMBER(E147), E147, "")</f>
         <v>5</v>
       </c>
-      <c r="F157" t="str">
+      <c r="F157">
         <f t="shared" si="159"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G157">
         <f t="shared" si="159"/>
@@ -7016,9 +7048,9 @@
         <f t="shared" ref="E158:G158" si="160">IF(ISNUMBER(E148), E148, "")</f>
         <v>6</v>
       </c>
-      <c r="F158" t="str">
+      <c r="F158">
         <f t="shared" si="160"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G158">
         <f t="shared" si="160"/>
@@ -7058,9 +7090,9 @@
         <f t="shared" ref="E159:G159" si="161">IF(ISNUMBER(E149), E149, "")</f>
         <v>7</v>
       </c>
-      <c r="F159" t="str">
+      <c r="F159">
         <f t="shared" si="161"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G159">
         <f t="shared" si="161"/>
@@ -7100,9 +7132,9 @@
         <f t="shared" ref="E160:G160" si="162">IF(ISNUMBER(E150), E150, "")</f>
         <v>8</v>
       </c>
-      <c r="F160" t="str">
+      <c r="F160">
         <f t="shared" si="162"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G160">
         <f t="shared" si="162"/>
@@ -7142,9 +7174,9 @@
         <f t="shared" ref="E161:G161" si="163">IF(ISNUMBER(E151), E151, "")</f>
         <v>9</v>
       </c>
-      <c r="F161" t="str">
+      <c r="F161">
         <f t="shared" si="163"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G161">
         <f t="shared" si="163"/>
@@ -7226,9 +7258,9 @@
         <f t="shared" ref="E163:G163" si="165">IF(ISNUMBER(E153), E153, "")</f>
         <v>1</v>
       </c>
-      <c r="F163" t="str">
+      <c r="F163">
         <f t="shared" si="165"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G163">
         <f t="shared" si="165"/>
@@ -7268,9 +7300,9 @@
         <f t="shared" ref="E164:G164" si="166">IF(ISNUMBER(E154), E154, "")</f>
         <v>2</v>
       </c>
-      <c r="F164" t="str">
+      <c r="F164">
         <f t="shared" si="166"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G164">
         <f t="shared" si="166"/>
@@ -7310,9 +7342,9 @@
         <f t="shared" ref="E165:G165" si="167">IF(ISNUMBER(E155), E155, "")</f>
         <v>3</v>
       </c>
-      <c r="F165" t="str">
+      <c r="F165">
         <f t="shared" si="167"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G165">
         <f t="shared" si="167"/>
@@ -7352,9 +7384,9 @@
         <f t="shared" ref="E166:G166" si="168">IF(ISNUMBER(E156), E156, "")</f>
         <v>4</v>
       </c>
-      <c r="F166" t="str">
+      <c r="F166">
         <f t="shared" si="168"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G166">
         <f t="shared" si="168"/>
@@ -7394,9 +7426,9 @@
         <f t="shared" ref="E167:G167" si="169">IF(ISNUMBER(E157), E157, "")</f>
         <v>5</v>
       </c>
-      <c r="F167" t="str">
+      <c r="F167">
         <f t="shared" si="169"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G167">
         <f t="shared" si="169"/>
@@ -7436,9 +7468,9 @@
         <f t="shared" ref="E168:G168" si="170">IF(ISNUMBER(E158), E158, "")</f>
         <v>6</v>
       </c>
-      <c r="F168" t="str">
+      <c r="F168">
         <f t="shared" si="170"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G168">
         <f t="shared" si="170"/>
@@ -7478,9 +7510,9 @@
         <f t="shared" ref="E169:G169" si="171">IF(ISNUMBER(E159), E159, "")</f>
         <v>7</v>
       </c>
-      <c r="F169" t="str">
+      <c r="F169">
         <f t="shared" si="171"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G169">
         <f t="shared" si="171"/>
@@ -7520,9 +7552,9 @@
         <f t="shared" ref="E170:G170" si="172">IF(ISNUMBER(E160), E160, "")</f>
         <v>8</v>
       </c>
-      <c r="F170" t="str">
+      <c r="F170">
         <f t="shared" si="172"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G170">
         <f t="shared" si="172"/>
@@ -7562,9 +7594,9 @@
         <f t="shared" ref="E171:G171" si="173">IF(ISNUMBER(E161), E161, "")</f>
         <v>9</v>
       </c>
-      <c r="F171" t="str">
+      <c r="F171">
         <f t="shared" si="173"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G171">
         <f t="shared" si="173"/>
@@ -7646,9 +7678,9 @@
         <f t="shared" ref="E173:G173" si="175">IF(ISNUMBER(E163), E163, "")</f>
         <v>1</v>
       </c>
-      <c r="F173" t="str">
+      <c r="F173">
         <f t="shared" si="175"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G173">
         <f t="shared" si="175"/>
@@ -7688,9 +7720,9 @@
         <f t="shared" ref="E174:G174" si="176">IF(ISNUMBER(E164), E164, "")</f>
         <v>2</v>
       </c>
-      <c r="F174" t="str">
+      <c r="F174">
         <f t="shared" si="176"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G174">
         <f t="shared" si="176"/>
@@ -7730,9 +7762,9 @@
         <f t="shared" ref="E175:G175" si="177">IF(ISNUMBER(E165), E165, "")</f>
         <v>3</v>
       </c>
-      <c r="F175" t="str">
+      <c r="F175">
         <f t="shared" si="177"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G175">
         <f t="shared" si="177"/>
@@ -7772,9 +7804,9 @@
         <f t="shared" ref="E176:G176" si="178">IF(ISNUMBER(E166), E166, "")</f>
         <v>4</v>
       </c>
-      <c r="F176" t="str">
+      <c r="F176">
         <f t="shared" si="178"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G176">
         <f t="shared" si="178"/>
@@ -7814,9 +7846,9 @@
         <f t="shared" ref="E177:G177" si="179">IF(ISNUMBER(E167), E167, "")</f>
         <v>5</v>
       </c>
-      <c r="F177" t="str">
+      <c r="F177">
         <f t="shared" si="179"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G177">
         <f t="shared" si="179"/>
@@ -7856,9 +7888,9 @@
         <f t="shared" ref="E178:G178" si="180">IF(ISNUMBER(E168), E168, "")</f>
         <v>6</v>
       </c>
-      <c r="F178" t="str">
+      <c r="F178">
         <f t="shared" si="180"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G178">
         <f t="shared" si="180"/>
@@ -7898,9 +7930,9 @@
         <f t="shared" ref="E179:G179" si="181">IF(ISNUMBER(E169), E169, "")</f>
         <v>7</v>
       </c>
-      <c r="F179" t="str">
+      <c r="F179">
         <f t="shared" si="181"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G179">
         <f t="shared" si="181"/>
@@ -7940,9 +7972,9 @@
         <f t="shared" ref="E180:G180" si="182">IF(ISNUMBER(E170), E170, "")</f>
         <v>8</v>
       </c>
-      <c r="F180" t="str">
+      <c r="F180">
         <f t="shared" si="182"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G180">
         <f t="shared" si="182"/>
@@ -7982,9 +8014,9 @@
         <f t="shared" ref="E181:G181" si="183">IF(ISNUMBER(E171), E171, "")</f>
         <v>9</v>
       </c>
-      <c r="F181" t="str">
+      <c r="F181">
         <f t="shared" si="183"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G181">
         <f t="shared" si="183"/>
@@ -8066,9 +8098,9 @@
         <f t="shared" ref="E183:G183" si="185">IF(ISNUMBER(E173), E173, "")</f>
         <v>1</v>
       </c>
-      <c r="F183" t="str">
+      <c r="F183">
         <f t="shared" si="185"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G183">
         <f t="shared" si="185"/>
@@ -8108,9 +8140,9 @@
         <f t="shared" ref="E184:G184" si="186">IF(ISNUMBER(E174), E174, "")</f>
         <v>2</v>
       </c>
-      <c r="F184" t="str">
+      <c r="F184">
         <f t="shared" si="186"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G184">
         <f t="shared" si="186"/>
@@ -8150,9 +8182,9 @@
         <f t="shared" ref="E185:G185" si="187">IF(ISNUMBER(E175), E175, "")</f>
         <v>3</v>
       </c>
-      <c r="F185" t="str">
+      <c r="F185">
         <f t="shared" si="187"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G185">
         <f t="shared" si="187"/>
@@ -8192,9 +8224,9 @@
         <f t="shared" ref="E186:G186" si="188">IF(ISNUMBER(E176), E176, "")</f>
         <v>4</v>
       </c>
-      <c r="F186" t="str">
+      <c r="F186">
         <f t="shared" si="188"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G186">
         <f t="shared" si="188"/>
@@ -8234,9 +8266,9 @@
         <f t="shared" ref="E187:G187" si="189">IF(ISNUMBER(E177), E177, "")</f>
         <v>5</v>
       </c>
-      <c r="F187" t="str">
+      <c r="F187">
         <f t="shared" si="189"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G187">
         <f t="shared" si="189"/>
@@ -8276,9 +8308,9 @@
         <f t="shared" ref="E188:G188" si="190">IF(ISNUMBER(E178), E178, "")</f>
         <v>6</v>
       </c>
-      <c r="F188" t="str">
+      <c r="F188">
         <f t="shared" si="190"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G188">
         <f t="shared" si="190"/>
@@ -8318,9 +8350,9 @@
         <f t="shared" ref="E189:G189" si="191">IF(ISNUMBER(E179), E179, "")</f>
         <v>7</v>
       </c>
-      <c r="F189" t="str">
+      <c r="F189">
         <f t="shared" si="191"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G189">
         <f t="shared" si="191"/>
@@ -8360,9 +8392,9 @@
         <f t="shared" ref="E190:G190" si="192">IF(ISNUMBER(E180), E180, "")</f>
         <v>8</v>
       </c>
-      <c r="F190" t="str">
+      <c r="F190">
         <f t="shared" si="192"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G190">
         <f t="shared" si="192"/>
@@ -8402,9 +8434,9 @@
         <f t="shared" ref="E191:G191" si="193">IF(ISNUMBER(E181), E181, "")</f>
         <v>9</v>
       </c>
-      <c r="F191" t="str">
+      <c r="F191">
         <f t="shared" si="193"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G191">
         <f t="shared" si="193"/>
@@ -8486,9 +8518,9 @@
         <f t="shared" ref="E193:G193" si="195">IF(ISNUMBER(E183), E183, "")</f>
         <v>1</v>
       </c>
-      <c r="F193" t="str">
+      <c r="F193">
         <f t="shared" si="195"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G193">
         <f t="shared" si="195"/>
@@ -8528,9 +8560,9 @@
         <f t="shared" ref="E194:G194" si="196">IF(ISNUMBER(E184), E184, "")</f>
         <v>2</v>
       </c>
-      <c r="F194" t="str">
+      <c r="F194">
         <f t="shared" si="196"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G194">
         <f t="shared" si="196"/>
@@ -8570,9 +8602,9 @@
         <f t="shared" ref="E195:G195" si="197">IF(ISNUMBER(E185), E185, "")</f>
         <v>3</v>
       </c>
-      <c r="F195" t="str">
+      <c r="F195">
         <f t="shared" si="197"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G195">
         <f t="shared" si="197"/>
@@ -8612,9 +8644,9 @@
         <f t="shared" ref="E196:G196" si="198">IF(ISNUMBER(E186), E186, "")</f>
         <v>4</v>
       </c>
-      <c r="F196" t="str">
+      <c r="F196">
         <f t="shared" si="198"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G196">
         <f t="shared" si="198"/>
@@ -8654,9 +8686,9 @@
         <f t="shared" ref="E197:G197" si="199">IF(ISNUMBER(E187), E187, "")</f>
         <v>5</v>
       </c>
-      <c r="F197" t="str">
+      <c r="F197">
         <f t="shared" si="199"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G197">
         <f t="shared" si="199"/>
@@ -8696,9 +8728,9 @@
         <f t="shared" ref="E198:G198" si="200">IF(ISNUMBER(E188), E188, "")</f>
         <v>6</v>
       </c>
-      <c r="F198" t="str">
+      <c r="F198">
         <f t="shared" si="200"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G198">
         <f t="shared" si="200"/>
@@ -8738,9 +8770,9 @@
         <f t="shared" ref="E199:G199" si="201">IF(ISNUMBER(E189), E189, "")</f>
         <v>7</v>
       </c>
-      <c r="F199" t="str">
+      <c r="F199">
         <f t="shared" si="201"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G199">
         <f t="shared" si="201"/>
@@ -8780,9 +8812,9 @@
         <f t="shared" ref="E200:G200" si="202">IF(ISNUMBER(E190), E190, "")</f>
         <v>8</v>
       </c>
-      <c r="F200" t="str">
+      <c r="F200">
         <f t="shared" si="202"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G200">
         <f t="shared" si="202"/>
@@ -8822,9 +8854,9 @@
         <f t="shared" ref="E201:G201" si="203">IF(ISNUMBER(E191), E191, "")</f>
         <v>9</v>
       </c>
-      <c r="F201" t="str">
+      <c r="F201">
         <f t="shared" si="203"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G201">
         <f t="shared" si="203"/>
@@ -8906,9 +8938,9 @@
         <f t="shared" ref="E203:G203" si="205">IF(ISNUMBER(E193), E193, "")</f>
         <v>1</v>
       </c>
-      <c r="F203" t="str">
+      <c r="F203">
         <f t="shared" si="205"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G203">
         <f t="shared" si="205"/>
@@ -8951,9 +8983,9 @@
         <f t="shared" ref="E204:G204" si="206">IF(ISNUMBER(E194), E194, "")</f>
         <v>2</v>
       </c>
-      <c r="F204" t="str">
+      <c r="F204">
         <f t="shared" si="206"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G204">
         <f t="shared" si="206"/>
@@ -8993,9 +9025,9 @@
         <f t="shared" ref="E205:G205" si="209">IF(ISNUMBER(E195), E195, "")</f>
         <v>3</v>
       </c>
-      <c r="F205" t="str">
+      <c r="F205">
         <f t="shared" si="209"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G205">
         <f t="shared" si="209"/>
@@ -9035,9 +9067,9 @@
         <f t="shared" ref="E206:G206" si="211">IF(ISNUMBER(E196), E196, "")</f>
         <v>4</v>
       </c>
-      <c r="F206" t="str">
+      <c r="F206">
         <f t="shared" si="211"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G206">
         <f t="shared" si="211"/>
@@ -9077,9 +9109,9 @@
         <f t="shared" ref="E207:G207" si="214">IF(ISNUMBER(E197), E197, "")</f>
         <v>5</v>
       </c>
-      <c r="F207" t="str">
+      <c r="F207">
         <f t="shared" si="214"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G207">
         <f t="shared" si="214"/>
@@ -9119,9 +9151,9 @@
         <f t="shared" ref="E208:G208" si="215">IF(ISNUMBER(E198), E198, "")</f>
         <v>6</v>
       </c>
-      <c r="F208" t="str">
+      <c r="F208">
         <f t="shared" si="215"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G208">
         <f t="shared" si="215"/>
@@ -9161,9 +9193,9 @@
         <f t="shared" ref="E209:G209" si="216">IF(ISNUMBER(E199), E199, "")</f>
         <v>7</v>
       </c>
-      <c r="F209" t="str">
+      <c r="F209">
         <f t="shared" si="216"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G209">
         <f t="shared" si="216"/>
@@ -9203,9 +9235,9 @@
         <f t="shared" ref="E210:G210" si="217">IF(ISNUMBER(E200), E200, "")</f>
         <v>8</v>
       </c>
-      <c r="F210" t="str">
+      <c r="F210">
         <f t="shared" si="217"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G210">
         <f t="shared" si="217"/>
@@ -9245,9 +9277,9 @@
         <f t="shared" ref="E211:G211" si="218">IF(ISNUMBER(E201), E201, "")</f>
         <v>9</v>
       </c>
-      <c r="F211" t="str">
+      <c r="F211">
         <f t="shared" si="218"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G211">
         <f t="shared" si="218"/>
@@ -9329,9 +9361,9 @@
         <f t="shared" ref="E213:G213" si="220">IF(ISNUMBER(E203), E203, "")</f>
         <v>1</v>
       </c>
-      <c r="F213" t="str">
+      <c r="F213">
         <f t="shared" si="220"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G213">
         <f t="shared" si="220"/>
@@ -9371,9 +9403,9 @@
         <f t="shared" ref="E214:G214" si="221">IF(ISNUMBER(E204), E204, "")</f>
         <v>2</v>
       </c>
-      <c r="F214" t="str">
+      <c r="F214">
         <f t="shared" si="221"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G214">
         <f t="shared" si="221"/>
@@ -9413,9 +9445,9 @@
         <f t="shared" ref="E215:G215" si="222">IF(ISNUMBER(E205), E205, "")</f>
         <v>3</v>
       </c>
-      <c r="F215" t="str">
+      <c r="F215">
         <f t="shared" si="222"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G215">
         <f t="shared" si="222"/>
@@ -9455,9 +9487,9 @@
         <f t="shared" ref="E216:G216" si="223">IF(ISNUMBER(E206), E206, "")</f>
         <v>4</v>
       </c>
-      <c r="F216" t="str">
+      <c r="F216">
         <f t="shared" si="223"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G216">
         <f t="shared" si="223"/>
@@ -9497,9 +9529,9 @@
         <f t="shared" ref="E217:G217" si="224">IF(ISNUMBER(E207), E207, "")</f>
         <v>5</v>
       </c>
-      <c r="F217" t="str">
+      <c r="F217">
         <f t="shared" si="224"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G217">
         <f t="shared" si="224"/>
@@ -9539,9 +9571,9 @@
         <f t="shared" ref="E218:G218" si="225">IF(ISNUMBER(E208), E208, "")</f>
         <v>6</v>
       </c>
-      <c r="F218" t="str">
+      <c r="F218">
         <f t="shared" si="225"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G218">
         <f t="shared" si="225"/>
@@ -9581,9 +9613,9 @@
         <f t="shared" ref="E219:G219" si="226">IF(ISNUMBER(E209), E209, "")</f>
         <v>7</v>
       </c>
-      <c r="F219" t="str">
+      <c r="F219">
         <f t="shared" si="226"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G219">
         <f t="shared" si="226"/>
@@ -9623,9 +9655,9 @@
         <f t="shared" ref="E220:G220" si="227">IF(ISNUMBER(E210), E210, "")</f>
         <v>8</v>
       </c>
-      <c r="F220" t="str">
+      <c r="F220">
         <f t="shared" si="227"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G220">
         <f t="shared" si="227"/>
@@ -9665,9 +9697,9 @@
         <f t="shared" ref="E221:G221" si="228">IF(ISNUMBER(E211), E211, "")</f>
         <v>9</v>
       </c>
-      <c r="F221" t="str">
+      <c r="F221">
         <f t="shared" si="228"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G221">
         <f t="shared" si="228"/>
@@ -9749,9 +9781,9 @@
         <f t="shared" ref="E223:G223" si="230">IF(ISNUMBER(E213), E213, "")</f>
         <v>1</v>
       </c>
-      <c r="F223" t="str">
+      <c r="F223">
         <f t="shared" si="230"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G223">
         <f t="shared" si="230"/>
@@ -9791,9 +9823,9 @@
         <f t="shared" ref="E224:G224" si="231">IF(ISNUMBER(E214), E214, "")</f>
         <v>2</v>
       </c>
-      <c r="F224" t="str">
+      <c r="F224">
         <f t="shared" si="231"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G224">
         <f t="shared" si="231"/>
@@ -9833,9 +9865,9 @@
         <f t="shared" ref="E225:G225" si="232">IF(ISNUMBER(E215), E215, "")</f>
         <v>3</v>
       </c>
-      <c r="F225" t="str">
+      <c r="F225">
         <f t="shared" si="232"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G225">
         <f t="shared" si="232"/>
@@ -9875,9 +9907,9 @@
         <f t="shared" ref="E226:G226" si="233">IF(ISNUMBER(E216), E216, "")</f>
         <v>4</v>
       </c>
-      <c r="F226" t="str">
+      <c r="F226">
         <f t="shared" si="233"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G226">
         <f t="shared" si="233"/>
@@ -9917,9 +9949,9 @@
         <f t="shared" ref="E227:G227" si="234">IF(ISNUMBER(E217), E217, "")</f>
         <v>5</v>
       </c>
-      <c r="F227" t="str">
+      <c r="F227">
         <f t="shared" si="234"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G227">
         <f t="shared" si="234"/>
@@ -9959,9 +9991,9 @@
         <f t="shared" ref="E228:G228" si="235">IF(ISNUMBER(E218), E218, "")</f>
         <v>6</v>
       </c>
-      <c r="F228" t="str">
+      <c r="F228">
         <f t="shared" si="235"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G228">
         <f t="shared" si="235"/>
@@ -10001,9 +10033,9 @@
         <f t="shared" ref="E229:G229" si="236">IF(ISNUMBER(E219), E219, "")</f>
         <v>7</v>
       </c>
-      <c r="F229" t="str">
+      <c r="F229">
         <f t="shared" si="236"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G229">
         <f t="shared" si="236"/>
@@ -10043,9 +10075,9 @@
         <f t="shared" ref="E230:G230" si="237">IF(ISNUMBER(E220), E220, "")</f>
         <v>8</v>
       </c>
-      <c r="F230" t="str">
+      <c r="F230">
         <f t="shared" si="237"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G230">
         <f t="shared" si="237"/>
@@ -10085,9 +10117,9 @@
         <f t="shared" ref="E231:G231" si="238">IF(ISNUMBER(E221), E221, "")</f>
         <v>9</v>
       </c>
-      <c r="F231" t="str">
+      <c r="F231">
         <f t="shared" si="238"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G231">
         <f t="shared" si="238"/>
@@ -10169,9 +10201,9 @@
         <f t="shared" ref="E233:G233" si="240">IF(ISNUMBER(E223), E223, "")</f>
         <v>1</v>
       </c>
-      <c r="F233" t="str">
+      <c r="F233">
         <f t="shared" si="240"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G233">
         <f t="shared" si="240"/>
@@ -10211,9 +10243,9 @@
         <f t="shared" ref="E234:G234" si="241">IF(ISNUMBER(E224), E224, "")</f>
         <v>2</v>
       </c>
-      <c r="F234" t="str">
+      <c r="F234">
         <f t="shared" si="241"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G234">
         <f t="shared" si="241"/>
@@ -10253,9 +10285,9 @@
         <f t="shared" ref="E235:G235" si="242">IF(ISNUMBER(E225), E225, "")</f>
         <v>3</v>
       </c>
-      <c r="F235" t="str">
+      <c r="F235">
         <f t="shared" si="242"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G235">
         <f t="shared" si="242"/>
@@ -10295,9 +10327,9 @@
         <f t="shared" ref="E236:G236" si="243">IF(ISNUMBER(E226), E226, "")</f>
         <v>4</v>
       </c>
-      <c r="F236" t="str">
+      <c r="F236">
         <f t="shared" si="243"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G236">
         <f t="shared" si="243"/>
@@ -10337,9 +10369,9 @@
         <f t="shared" ref="E237:G237" si="244">IF(ISNUMBER(E227), E227, "")</f>
         <v>5</v>
       </c>
-      <c r="F237" t="str">
+      <c r="F237">
         <f t="shared" si="244"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G237">
         <f t="shared" si="244"/>
@@ -10379,9 +10411,9 @@
         <f t="shared" ref="E238:G238" si="245">IF(ISNUMBER(E228), E228, "")</f>
         <v>6</v>
       </c>
-      <c r="F238" t="str">
+      <c r="F238">
         <f t="shared" si="245"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G238">
         <f t="shared" si="245"/>
@@ -10421,9 +10453,9 @@
         <f t="shared" ref="E239:G239" si="246">IF(ISNUMBER(E229), E229, "")</f>
         <v>7</v>
       </c>
-      <c r="F239" t="str">
+      <c r="F239">
         <f t="shared" si="246"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G239">
         <f t="shared" si="246"/>
@@ -10463,9 +10495,9 @@
         <f t="shared" ref="E240:G240" si="247">IF(ISNUMBER(E230), E230, "")</f>
         <v>8</v>
       </c>
-      <c r="F240" t="str">
+      <c r="F240">
         <f t="shared" si="247"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G240">
         <f t="shared" si="247"/>
@@ -10505,9 +10537,9 @@
         <f t="shared" ref="E241:G241" si="248">IF(ISNUMBER(E231), E231, "")</f>
         <v>9</v>
       </c>
-      <c r="F241" t="str">
+      <c r="F241">
         <f t="shared" si="248"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G241">
         <f t="shared" si="248"/>
@@ -10589,9 +10621,9 @@
         <f t="shared" ref="E243:G243" si="250">IF(ISNUMBER(E233), E233, "")</f>
         <v>1</v>
       </c>
-      <c r="F243" t="str">
+      <c r="F243">
         <f t="shared" si="250"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G243">
         <f t="shared" si="250"/>
@@ -10631,9 +10663,9 @@
         <f t="shared" ref="E244:G244" si="251">IF(ISNUMBER(E234), E234, "")</f>
         <v>2</v>
       </c>
-      <c r="F244" t="str">
+      <c r="F244">
         <f t="shared" si="251"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G244">
         <f t="shared" si="251"/>
@@ -10673,9 +10705,9 @@
         <f t="shared" ref="E245:G245" si="252">IF(ISNUMBER(E235), E235, "")</f>
         <v>3</v>
       </c>
-      <c r="F245" t="str">
+      <c r="F245">
         <f t="shared" si="252"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G245">
         <f t="shared" si="252"/>
@@ -10715,9 +10747,9 @@
         <f t="shared" ref="E246:G246" si="253">IF(ISNUMBER(E236), E236, "")</f>
         <v>4</v>
       </c>
-      <c r="F246" t="str">
+      <c r="F246">
         <f t="shared" si="253"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G246">
         <f t="shared" si="253"/>
@@ -10757,9 +10789,9 @@
         <f t="shared" ref="E247:G247" si="254">IF(ISNUMBER(E237), E237, "")</f>
         <v>5</v>
       </c>
-      <c r="F247" t="str">
+      <c r="F247">
         <f t="shared" si="254"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G247">
         <f t="shared" si="254"/>
@@ -10799,9 +10831,9 @@
         <f t="shared" ref="E248:G248" si="255">IF(ISNUMBER(E238), E238, "")</f>
         <v>6</v>
       </c>
-      <c r="F248" t="str">
+      <c r="F248">
         <f t="shared" si="255"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G248">
         <f t="shared" si="255"/>
@@ -10841,9 +10873,9 @@
         <f t="shared" ref="E249:G249" si="256">IF(ISNUMBER(E239), E239, "")</f>
         <v>7</v>
       </c>
-      <c r="F249" t="str">
+      <c r="F249">
         <f t="shared" si="256"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G249">
         <f t="shared" si="256"/>
@@ -10883,9 +10915,9 @@
         <f t="shared" ref="E250:G250" si="257">IF(ISNUMBER(E240), E240, "")</f>
         <v>8</v>
       </c>
-      <c r="F250" t="str">
+      <c r="F250">
         <f t="shared" si="257"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G250">
         <f t="shared" si="257"/>
@@ -10925,9 +10957,9 @@
         <f t="shared" ref="E251:G251" si="258">IF(ISNUMBER(E241), E241, "")</f>
         <v>9</v>
       </c>
-      <c r="F251" t="str">
+      <c r="F251">
         <f t="shared" si="258"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G251">
         <f t="shared" si="258"/>
@@ -11009,9 +11041,9 @@
         <f t="shared" ref="E253:G253" si="260">IF(ISNUMBER(E243), E243, "")</f>
         <v>1</v>
       </c>
-      <c r="F253" t="str">
+      <c r="F253">
         <f t="shared" si="260"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G253">
         <f t="shared" si="260"/>
@@ -11051,9 +11083,9 @@
         <f t="shared" ref="E254:G254" si="261">IF(ISNUMBER(E244), E244, "")</f>
         <v>2</v>
       </c>
-      <c r="F254" t="str">
+      <c r="F254">
         <f t="shared" si="261"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G254">
         <f t="shared" si="261"/>
@@ -11093,9 +11125,9 @@
         <f t="shared" ref="E255:G255" si="262">IF(ISNUMBER(E245), E245, "")</f>
         <v>3</v>
       </c>
-      <c r="F255" t="str">
+      <c r="F255">
         <f t="shared" si="262"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G255">
         <f t="shared" si="262"/>
@@ -11135,9 +11167,9 @@
         <f t="shared" ref="E256:G256" si="263">IF(ISNUMBER(E246), E246, "")</f>
         <v>4</v>
       </c>
-      <c r="F256" t="str">
+      <c r="F256">
         <f t="shared" si="263"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G256">
         <f t="shared" si="263"/>
@@ -11177,9 +11209,9 @@
         <f t="shared" ref="E257:G257" si="264">IF(ISNUMBER(E247), E247, "")</f>
         <v>5</v>
       </c>
-      <c r="F257" t="str">
+      <c r="F257">
         <f t="shared" si="264"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G257">
         <f t="shared" si="264"/>
@@ -11219,9 +11251,9 @@
         <f t="shared" ref="E258:G258" si="265">IF(ISNUMBER(E248), E248, "")</f>
         <v>6</v>
       </c>
-      <c r="F258" t="str">
+      <c r="F258">
         <f t="shared" si="265"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G258">
         <f t="shared" si="265"/>
@@ -11261,9 +11293,9 @@
         <f t="shared" ref="E259:G259" si="266">IF(ISNUMBER(E249), E249, "")</f>
         <v>7</v>
       </c>
-      <c r="F259" t="str">
+      <c r="F259">
         <f t="shared" si="266"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G259">
         <f t="shared" si="266"/>
@@ -11303,9 +11335,9 @@
         <f t="shared" ref="E260:G260" si="267">IF(ISNUMBER(E250), E250, "")</f>
         <v>8</v>
       </c>
-      <c r="F260" t="str">
+      <c r="F260">
         <f t="shared" si="267"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G260">
         <f t="shared" si="267"/>
@@ -11345,9 +11377,9 @@
         <f t="shared" ref="E261:G261" si="268">IF(ISNUMBER(E251), E251, "")</f>
         <v>9</v>
       </c>
-      <c r="F261" t="str">
+      <c r="F261">
         <f t="shared" si="268"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G261">
         <f t="shared" si="268"/>
@@ -11429,9 +11461,9 @@
         <f t="shared" ref="E263:G263" si="270">IF(ISNUMBER(E253), E253, "")</f>
         <v>1</v>
       </c>
-      <c r="F263" t="str">
+      <c r="F263">
         <f t="shared" si="270"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G263">
         <f t="shared" si="270"/>
@@ -11471,9 +11503,9 @@
         <f t="shared" ref="E264:G264" si="271">IF(ISNUMBER(E254), E254, "")</f>
         <v>2</v>
       </c>
-      <c r="F264" t="str">
+      <c r="F264">
         <f t="shared" si="271"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G264">
         <f t="shared" si="271"/>
@@ -11513,9 +11545,9 @@
         <f t="shared" ref="E265:G265" si="272">IF(ISNUMBER(E255), E255, "")</f>
         <v>3</v>
       </c>
-      <c r="F265" t="str">
+      <c r="F265">
         <f t="shared" si="272"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G265">
         <f t="shared" si="272"/>
@@ -11555,9 +11587,9 @@
         <f t="shared" ref="E266:G266" si="273">IF(ISNUMBER(E256), E256, "")</f>
         <v>4</v>
       </c>
-      <c r="F266" t="str">
+      <c r="F266">
         <f t="shared" si="273"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G266">
         <f t="shared" si="273"/>
@@ -11597,9 +11629,9 @@
         <f t="shared" ref="E267:G267" si="274">IF(ISNUMBER(E257), E257, "")</f>
         <v>5</v>
       </c>
-      <c r="F267" t="str">
+      <c r="F267">
         <f t="shared" si="274"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G267">
         <f t="shared" si="274"/>
@@ -11639,9 +11671,9 @@
         <f t="shared" ref="E268:G268" si="275">IF(ISNUMBER(E258), E258, "")</f>
         <v>6</v>
       </c>
-      <c r="F268" t="str">
+      <c r="F268">
         <f t="shared" si="275"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G268">
         <f t="shared" si="275"/>
@@ -11681,9 +11713,9 @@
         <f t="shared" ref="E269:G269" si="278">IF(ISNUMBER(E259), E259, "")</f>
         <v>7</v>
       </c>
-      <c r="F269" t="str">
+      <c r="F269">
         <f t="shared" si="278"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G269">
         <f t="shared" si="278"/>
@@ -11723,9 +11755,9 @@
         <f t="shared" ref="E270:G270" si="280">IF(ISNUMBER(E260), E260, "")</f>
         <v>8</v>
       </c>
-      <c r="F270" t="str">
+      <c r="F270">
         <f t="shared" si="280"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G270">
         <f t="shared" si="280"/>
@@ -11765,9 +11797,9 @@
         <f t="shared" ref="E271:G271" si="283">IF(ISNUMBER(E261), E261, "")</f>
         <v>9</v>
       </c>
-      <c r="F271" t="str">
+      <c r="F271">
         <f t="shared" si="283"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G271">
         <f t="shared" si="283"/>
@@ -11849,9 +11881,9 @@
         <f t="shared" ref="E273:G273" si="285">IF(ISNUMBER(E263), E263, "")</f>
         <v>1</v>
       </c>
-      <c r="F273" t="str">
+      <c r="F273">
         <f t="shared" si="285"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G273">
         <f t="shared" si="285"/>
@@ -11891,9 +11923,9 @@
         <f t="shared" ref="E274:G274" si="286">IF(ISNUMBER(E264), E264, "")</f>
         <v>2</v>
       </c>
-      <c r="F274" t="str">
+      <c r="F274">
         <f t="shared" si="286"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G274">
         <f t="shared" si="286"/>
@@ -11933,9 +11965,9 @@
         <f t="shared" ref="E275:G275" si="287">IF(ISNUMBER(E265), E265, "")</f>
         <v>3</v>
       </c>
-      <c r="F275" t="str">
+      <c r="F275">
         <f t="shared" si="287"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G275">
         <f t="shared" si="287"/>
@@ -11975,9 +12007,9 @@
         <f t="shared" ref="E276:G276" si="288">IF(ISNUMBER(E266), E266, "")</f>
         <v>4</v>
       </c>
-      <c r="F276" t="str">
+      <c r="F276">
         <f t="shared" si="288"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G276">
         <f t="shared" si="288"/>
@@ -12017,9 +12049,9 @@
         <f t="shared" ref="E277:G277" si="289">IF(ISNUMBER(E267), E267, "")</f>
         <v>5</v>
       </c>
-      <c r="F277" t="str">
+      <c r="F277">
         <f t="shared" si="289"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G277">
         <f t="shared" si="289"/>
@@ -12059,9 +12091,9 @@
         <f t="shared" ref="E278:G278" si="290">IF(ISNUMBER(E268), E268, "")</f>
         <v>6</v>
       </c>
-      <c r="F278" t="str">
+      <c r="F278">
         <f t="shared" si="290"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G278">
         <f t="shared" si="290"/>
@@ -12101,9 +12133,9 @@
         <f t="shared" ref="E279:G279" si="291">IF(ISNUMBER(E269), E269, "")</f>
         <v>7</v>
       </c>
-      <c r="F279" t="str">
+      <c r="F279">
         <f t="shared" si="291"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G279">
         <f t="shared" si="291"/>
@@ -12143,9 +12175,9 @@
         <f t="shared" ref="E280:G280" si="292">IF(ISNUMBER(E270), E270, "")</f>
         <v>8</v>
       </c>
-      <c r="F280" t="str">
+      <c r="F280">
         <f t="shared" si="292"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G280">
         <f t="shared" si="292"/>
@@ -12185,9 +12217,9 @@
         <f t="shared" ref="E281:G281" si="293">IF(ISNUMBER(E271), E271, "")</f>
         <v>9</v>
       </c>
-      <c r="F281" t="str">
+      <c r="F281">
         <f t="shared" si="293"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G281">
         <f t="shared" si="293"/>
@@ -12269,9 +12301,9 @@
         <f t="shared" ref="E283:G283" si="295">IF(ISNUMBER(E273), E273, "")</f>
         <v>1</v>
       </c>
-      <c r="F283" t="str">
+      <c r="F283">
         <f t="shared" si="295"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G283">
         <f t="shared" si="295"/>
@@ -12311,9 +12343,9 @@
         <f t="shared" ref="E284:G284" si="296">IF(ISNUMBER(E274), E274, "")</f>
         <v>2</v>
       </c>
-      <c r="F284" t="str">
+      <c r="F284">
         <f t="shared" si="296"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G284">
         <f t="shared" si="296"/>
@@ -12353,9 +12385,9 @@
         <f t="shared" ref="E285:G285" si="297">IF(ISNUMBER(E275), E275, "")</f>
         <v>3</v>
       </c>
-      <c r="F285" t="str">
+      <c r="F285">
         <f t="shared" si="297"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G285">
         <f t="shared" si="297"/>
@@ -12395,9 +12427,9 @@
         <f t="shared" ref="E286:G286" si="298">IF(ISNUMBER(E276), E276, "")</f>
         <v>4</v>
       </c>
-      <c r="F286" t="str">
+      <c r="F286">
         <f t="shared" si="298"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G286">
         <f t="shared" si="298"/>
@@ -12437,9 +12469,9 @@
         <f t="shared" ref="E287:G287" si="299">IF(ISNUMBER(E277), E277, "")</f>
         <v>5</v>
       </c>
-      <c r="F287" t="str">
+      <c r="F287">
         <f t="shared" si="299"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G287">
         <f t="shared" si="299"/>
@@ -12479,9 +12511,9 @@
         <f t="shared" ref="E288:G288" si="300">IF(ISNUMBER(E278), E278, "")</f>
         <v>6</v>
       </c>
-      <c r="F288" t="str">
+      <c r="F288">
         <f t="shared" si="300"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G288">
         <f t="shared" si="300"/>
@@ -12521,9 +12553,9 @@
         <f t="shared" ref="E289:G289" si="301">IF(ISNUMBER(E279), E279, "")</f>
         <v>7</v>
       </c>
-      <c r="F289" t="str">
+      <c r="F289">
         <f t="shared" si="301"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G289">
         <f t="shared" si="301"/>
@@ -12563,9 +12595,9 @@
         <f t="shared" ref="E290:G290" si="302">IF(ISNUMBER(E280), E280, "")</f>
         <v>8</v>
       </c>
-      <c r="F290" t="str">
+      <c r="F290">
         <f t="shared" si="302"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G290">
         <f t="shared" si="302"/>
@@ -12605,9 +12637,9 @@
         <f t="shared" ref="E291:G291" si="303">IF(ISNUMBER(E281), E281, "")</f>
         <v>9</v>
       </c>
-      <c r="F291" t="str">
+      <c r="F291">
         <f t="shared" si="303"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G291">
         <f t="shared" si="303"/>
@@ -12689,9 +12721,9 @@
         <f t="shared" ref="E293:G293" si="305">IF(ISNUMBER(E283), E283, "")</f>
         <v>1</v>
       </c>
-      <c r="F293" t="str">
+      <c r="F293">
         <f t="shared" si="305"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G293">
         <f t="shared" si="305"/>
@@ -12731,9 +12763,9 @@
         <f t="shared" ref="E294:G294" si="306">IF(ISNUMBER(E284), E284, "")</f>
         <v>2</v>
       </c>
-      <c r="F294" t="str">
+      <c r="F294">
         <f t="shared" si="306"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G294">
         <f t="shared" si="306"/>
@@ -12773,9 +12805,9 @@
         <f t="shared" ref="E295:G295" si="307">IF(ISNUMBER(E285), E285, "")</f>
         <v>3</v>
       </c>
-      <c r="F295" t="str">
+      <c r="F295">
         <f t="shared" si="307"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G295">
         <f t="shared" si="307"/>
@@ -12815,9 +12847,9 @@
         <f t="shared" ref="E296:G296" si="308">IF(ISNUMBER(E286), E286, "")</f>
         <v>4</v>
       </c>
-      <c r="F296" t="str">
+      <c r="F296">
         <f t="shared" si="308"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G296">
         <f t="shared" si="308"/>
@@ -12857,9 +12889,9 @@
         <f t="shared" ref="E297:G297" si="309">IF(ISNUMBER(E287), E287, "")</f>
         <v>5</v>
       </c>
-      <c r="F297" t="str">
+      <c r="F297">
         <f t="shared" si="309"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G297">
         <f t="shared" si="309"/>
@@ -12899,9 +12931,9 @@
         <f t="shared" ref="E298:G298" si="310">IF(ISNUMBER(E288), E288, "")</f>
         <v>6</v>
       </c>
-      <c r="F298" t="str">
+      <c r="F298">
         <f t="shared" si="310"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G298">
         <f t="shared" si="310"/>
@@ -12941,9 +12973,9 @@
         <f t="shared" ref="E299:G299" si="311">IF(ISNUMBER(E289), E289, "")</f>
         <v>7</v>
       </c>
-      <c r="F299" t="str">
+      <c r="F299">
         <f t="shared" si="311"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G299">
         <f t="shared" si="311"/>
@@ -12983,9 +13015,9 @@
         <f t="shared" ref="E300:G300" si="312">IF(ISNUMBER(E290), E290, "")</f>
         <v>8</v>
       </c>
-      <c r="F300" t="str">
+      <c r="F300">
         <f t="shared" si="312"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G300">
         <f t="shared" si="312"/>
@@ -13025,9 +13057,9 @@
         <f t="shared" ref="E301:G301" si="313">IF(ISNUMBER(E291), E291, "")</f>
         <v>9</v>
       </c>
-      <c r="F301" t="str">
+      <c r="F301">
         <f t="shared" si="313"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G301">
         <f t="shared" si="313"/>
@@ -13109,9 +13141,9 @@
         <f t="shared" ref="E303:G303" si="315">IF(ISNUMBER(E293), E293, "")</f>
         <v>1</v>
       </c>
-      <c r="F303" t="str">
+      <c r="F303">
         <f t="shared" si="315"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G303">
         <f t="shared" si="315"/>
@@ -13151,9 +13183,9 @@
         <f t="shared" ref="E304:G304" si="316">IF(ISNUMBER(E294), E294, "")</f>
         <v>2</v>
       </c>
-      <c r="F304" t="str">
+      <c r="F304">
         <f t="shared" si="316"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G304">
         <f t="shared" si="316"/>
@@ -13193,9 +13225,9 @@
         <f t="shared" ref="E305:G305" si="317">IF(ISNUMBER(E295), E295, "")</f>
         <v>3</v>
       </c>
-      <c r="F305" t="str">
+      <c r="F305">
         <f t="shared" si="317"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G305">
         <f t="shared" si="317"/>
@@ -13235,9 +13267,9 @@
         <f t="shared" ref="E306:G306" si="318">IF(ISNUMBER(E296), E296, "")</f>
         <v>4</v>
       </c>
-      <c r="F306" t="str">
+      <c r="F306">
         <f t="shared" si="318"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G306">
         <f t="shared" si="318"/>
@@ -13277,9 +13309,9 @@
         <f t="shared" ref="E307:G307" si="319">IF(ISNUMBER(E297), E297, "")</f>
         <v>5</v>
       </c>
-      <c r="F307" t="str">
+      <c r="F307">
         <f t="shared" si="319"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G307">
         <f t="shared" si="319"/>
@@ -13319,9 +13351,9 @@
         <f t="shared" ref="E308:G308" si="320">IF(ISNUMBER(E298), E298, "")</f>
         <v>6</v>
       </c>
-      <c r="F308" t="str">
+      <c r="F308">
         <f t="shared" si="320"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G308">
         <f t="shared" si="320"/>
@@ -13361,9 +13393,9 @@
         <f t="shared" ref="E309:G309" si="321">IF(ISNUMBER(E299), E299, "")</f>
         <v>7</v>
       </c>
-      <c r="F309" t="str">
+      <c r="F309">
         <f t="shared" si="321"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G309">
         <f t="shared" si="321"/>
@@ -13403,9 +13435,9 @@
         <f t="shared" ref="E310:G310" si="322">IF(ISNUMBER(E300), E300, "")</f>
         <v>8</v>
       </c>
-      <c r="F310" t="str">
+      <c r="F310">
         <f t="shared" si="322"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G310">
         <f t="shared" si="322"/>
@@ -13445,9 +13477,9 @@
         <f t="shared" ref="E311:G311" si="323">IF(ISNUMBER(E301), E301, "")</f>
         <v>9</v>
       </c>
-      <c r="F311" t="str">
+      <c r="F311">
         <f t="shared" si="323"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G311">
         <f t="shared" si="323"/>
@@ -13529,9 +13561,9 @@
         <f t="shared" ref="E313:G313" si="325">IF(ISNUMBER(E303), E303, "")</f>
         <v>1</v>
       </c>
-      <c r="F313" t="str">
+      <c r="F313">
         <f t="shared" si="325"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G313">
         <f t="shared" si="325"/>
@@ -13571,9 +13603,9 @@
         <f t="shared" ref="E314:G314" si="326">IF(ISNUMBER(E304), E304, "")</f>
         <v>2</v>
       </c>
-      <c r="F314" t="str">
+      <c r="F314">
         <f t="shared" si="326"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G314">
         <f t="shared" si="326"/>
@@ -13613,9 +13645,9 @@
         <f t="shared" ref="E315:G315" si="327">IF(ISNUMBER(E305), E305, "")</f>
         <v>3</v>
       </c>
-      <c r="F315" t="str">
+      <c r="F315">
         <f t="shared" si="327"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G315">
         <f t="shared" si="327"/>
@@ -13655,9 +13687,9 @@
         <f t="shared" ref="E316:G316" si="328">IF(ISNUMBER(E306), E306, "")</f>
         <v>4</v>
       </c>
-      <c r="F316" t="str">
+      <c r="F316">
         <f t="shared" si="328"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G316">
         <f t="shared" si="328"/>
@@ -13697,9 +13729,9 @@
         <f t="shared" ref="E317:G317" si="329">IF(ISNUMBER(E307), E307, "")</f>
         <v>5</v>
       </c>
-      <c r="F317" t="str">
+      <c r="F317">
         <f t="shared" si="329"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G317">
         <f t="shared" si="329"/>
@@ -13739,9 +13771,9 @@
         <f t="shared" ref="E318:G318" si="330">IF(ISNUMBER(E308), E308, "")</f>
         <v>6</v>
       </c>
-      <c r="F318" t="str">
+      <c r="F318">
         <f t="shared" si="330"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G318">
         <f t="shared" si="330"/>
@@ -13781,9 +13813,9 @@
         <f t="shared" ref="E319:G319" si="331">IF(ISNUMBER(E309), E309, "")</f>
         <v>7</v>
       </c>
-      <c r="F319" t="str">
+      <c r="F319">
         <f t="shared" si="331"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G319">
         <f t="shared" si="331"/>
@@ -13823,9 +13855,9 @@
         <f t="shared" ref="E320:G320" si="332">IF(ISNUMBER(E310), E310, "")</f>
         <v>8</v>
       </c>
-      <c r="F320" t="str">
+      <c r="F320">
         <f t="shared" si="332"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G320">
         <f t="shared" si="332"/>
@@ -13865,9 +13897,9 @@
         <f t="shared" ref="E321:G321" si="333">IF(ISNUMBER(E311), E311, "")</f>
         <v>9</v>
       </c>
-      <c r="F321" t="str">
+      <c r="F321">
         <f t="shared" si="333"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G321">
         <f t="shared" si="333"/>
@@ -13949,9 +13981,9 @@
         <f t="shared" ref="E323:G323" si="335">IF(ISNUMBER(E313), E313, "")</f>
         <v>1</v>
       </c>
-      <c r="F323" t="str">
+      <c r="F323">
         <f t="shared" si="335"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G323">
         <f t="shared" si="335"/>
@@ -13991,9 +14023,9 @@
         <f t="shared" ref="E324:G324" si="336">IF(ISNUMBER(E314), E314, "")</f>
         <v>2</v>
       </c>
-      <c r="F324" t="str">
+      <c r="F324">
         <f t="shared" si="336"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G324">
         <f t="shared" si="336"/>
@@ -14033,9 +14065,9 @@
         <f t="shared" ref="E325:G325" si="337">IF(ISNUMBER(E315), E315, "")</f>
         <v>3</v>
       </c>
-      <c r="F325" t="str">
+      <c r="F325">
         <f t="shared" si="337"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G325">
         <f t="shared" si="337"/>
@@ -14075,9 +14107,9 @@
         <f t="shared" ref="E326:G326" si="338">IF(ISNUMBER(E316), E316, "")</f>
         <v>4</v>
       </c>
-      <c r="F326" t="str">
+      <c r="F326">
         <f t="shared" si="338"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G326">
         <f t="shared" si="338"/>
@@ -14117,9 +14149,9 @@
         <f t="shared" ref="E327:G327" si="339">IF(ISNUMBER(E317), E317, "")</f>
         <v>5</v>
       </c>
-      <c r="F327" t="str">
+      <c r="F327">
         <f t="shared" si="339"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G327">
         <f t="shared" si="339"/>
@@ -14159,9 +14191,9 @@
         <f t="shared" ref="E328:G328" si="340">IF(ISNUMBER(E318), E318, "")</f>
         <v>6</v>
       </c>
-      <c r="F328" t="str">
+      <c r="F328">
         <f t="shared" si="340"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G328">
         <f t="shared" si="340"/>
@@ -14201,9 +14233,9 @@
         <f t="shared" ref="E329:G329" si="341">IF(ISNUMBER(E319), E319, "")</f>
         <v>7</v>
       </c>
-      <c r="F329" t="str">
+      <c r="F329">
         <f t="shared" si="341"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G329">
         <f t="shared" si="341"/>
@@ -14243,9 +14275,9 @@
         <f t="shared" ref="E330:G330" si="342">IF(ISNUMBER(E320), E320, "")</f>
         <v>8</v>
       </c>
-      <c r="F330" t="str">
+      <c r="F330">
         <f t="shared" si="342"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G330">
         <f t="shared" si="342"/>
@@ -14285,9 +14317,9 @@
         <f t="shared" ref="E331:G331" si="343">IF(ISNUMBER(E321), E321, "")</f>
         <v>9</v>
       </c>
-      <c r="F331" t="str">
+      <c r="F331">
         <f t="shared" si="343"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G331">
         <f t="shared" si="343"/>
@@ -14369,9 +14401,9 @@
         <f t="shared" ref="E333:G333" si="347">IF(ISNUMBER(E323), E323, "")</f>
         <v>1</v>
       </c>
-      <c r="F333" t="str">
+      <c r="F333">
         <f t="shared" si="347"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G333">
         <f t="shared" si="347"/>
@@ -14411,9 +14443,9 @@
         <f t="shared" ref="E334:G334" si="349">IF(ISNUMBER(E324), E324, "")</f>
         <v>2</v>
       </c>
-      <c r="F334" t="str">
+      <c r="F334">
         <f t="shared" si="349"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G334">
         <f t="shared" si="349"/>
@@ -14453,9 +14485,9 @@
         <f t="shared" ref="E335:G335" si="352">IF(ISNUMBER(E325), E325, "")</f>
         <v>3</v>
       </c>
-      <c r="F335" t="str">
+      <c r="F335">
         <f t="shared" si="352"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G335">
         <f t="shared" si="352"/>
@@ -14495,9 +14527,9 @@
         <f t="shared" ref="E336:G336" si="353">IF(ISNUMBER(E326), E326, "")</f>
         <v>4</v>
       </c>
-      <c r="F336" t="str">
+      <c r="F336">
         <f t="shared" si="353"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G336">
         <f t="shared" si="353"/>
@@ -14537,9 +14569,9 @@
         <f t="shared" ref="E337:G337" si="354">IF(ISNUMBER(E327), E327, "")</f>
         <v>5</v>
       </c>
-      <c r="F337" t="str">
+      <c r="F337">
         <f t="shared" si="354"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G337">
         <f t="shared" si="354"/>
@@ -14579,9 +14611,9 @@
         <f t="shared" ref="E338:G338" si="355">IF(ISNUMBER(E328), E328, "")</f>
         <v>6</v>
       </c>
-      <c r="F338" t="str">
+      <c r="F338">
         <f t="shared" si="355"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G338">
         <f t="shared" si="355"/>
@@ -14621,9 +14653,9 @@
         <f t="shared" ref="E339:G339" si="356">IF(ISNUMBER(E329), E329, "")</f>
         <v>7</v>
       </c>
-      <c r="F339" t="str">
+      <c r="F339">
         <f t="shared" si="356"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G339">
         <f t="shared" si="356"/>
@@ -14663,9 +14695,9 @@
         <f t="shared" ref="E340:G340" si="357">IF(ISNUMBER(E330), E330, "")</f>
         <v>8</v>
       </c>
-      <c r="F340" t="str">
+      <c r="F340">
         <f t="shared" si="357"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G340">
         <f t="shared" si="357"/>
@@ -14705,9 +14737,9 @@
         <f t="shared" ref="E341:G341" si="358">IF(ISNUMBER(E331), E331, "")</f>
         <v>9</v>
       </c>
-      <c r="F341" t="str">
+      <c r="F341">
         <f t="shared" si="358"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G341">
         <f t="shared" si="358"/>
@@ -14789,9 +14821,9 @@
         <f t="shared" ref="E343:G343" si="360">IF(ISNUMBER(E333), E333, "")</f>
         <v>1</v>
       </c>
-      <c r="F343" t="str">
+      <c r="F343">
         <f t="shared" si="360"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G343">
         <f t="shared" si="360"/>
@@ -14831,9 +14863,9 @@
         <f t="shared" ref="E344:G344" si="361">IF(ISNUMBER(E334), E334, "")</f>
         <v>2</v>
       </c>
-      <c r="F344" t="str">
+      <c r="F344">
         <f t="shared" si="361"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G344">
         <f t="shared" si="361"/>
@@ -14873,9 +14905,9 @@
         <f t="shared" ref="E345:G345" si="362">IF(ISNUMBER(E335), E335, "")</f>
         <v>3</v>
       </c>
-      <c r="F345" t="str">
+      <c r="F345">
         <f t="shared" si="362"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G345">
         <f t="shared" si="362"/>
@@ -14915,9 +14947,9 @@
         <f t="shared" ref="E346:G346" si="363">IF(ISNUMBER(E336), E336, "")</f>
         <v>4</v>
       </c>
-      <c r="F346" t="str">
+      <c r="F346">
         <f t="shared" si="363"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G346">
         <f t="shared" si="363"/>
@@ -14957,9 +14989,9 @@
         <f t="shared" ref="E347:G347" si="364">IF(ISNUMBER(E337), E337, "")</f>
         <v>5</v>
       </c>
-      <c r="F347" t="str">
+      <c r="F347">
         <f t="shared" si="364"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G347">
         <f t="shared" si="364"/>
@@ -14999,9 +15031,9 @@
         <f t="shared" ref="E348:G348" si="365">IF(ISNUMBER(E338), E338, "")</f>
         <v>6</v>
       </c>
-      <c r="F348" t="str">
+      <c r="F348">
         <f t="shared" si="365"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G348">
         <f t="shared" si="365"/>
@@ -15041,9 +15073,9 @@
         <f t="shared" ref="E349:G349" si="366">IF(ISNUMBER(E339), E339, "")</f>
         <v>7</v>
       </c>
-      <c r="F349" t="str">
+      <c r="F349">
         <f t="shared" si="366"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G349">
         <f t="shared" si="366"/>
@@ -15083,9 +15115,9 @@
         <f t="shared" ref="E350:G350" si="367">IF(ISNUMBER(E340), E340, "")</f>
         <v>8</v>
       </c>
-      <c r="F350" t="str">
+      <c r="F350">
         <f t="shared" si="367"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G350">
         <f t="shared" si="367"/>
@@ -15125,9 +15157,9 @@
         <f t="shared" ref="E351:G351" si="368">IF(ISNUMBER(E341), E341, "")</f>
         <v>9</v>
       </c>
-      <c r="F351" t="str">
+      <c r="F351">
         <f t="shared" si="368"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G351">
         <f t="shared" si="368"/>
@@ -15209,9 +15241,9 @@
         <f t="shared" ref="E353:G353" si="370">IF(ISNUMBER(E343), E343, "")</f>
         <v>1</v>
       </c>
-      <c r="F353" t="str">
+      <c r="F353">
         <f t="shared" si="370"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G353">
         <f t="shared" si="370"/>
@@ -15251,9 +15283,9 @@
         <f t="shared" ref="E354:G354" si="371">IF(ISNUMBER(E344), E344, "")</f>
         <v>2</v>
       </c>
-      <c r="F354" t="str">
+      <c r="F354">
         <f t="shared" si="371"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G354">
         <f t="shared" si="371"/>
@@ -15293,9 +15325,9 @@
         <f t="shared" ref="E355:G355" si="372">IF(ISNUMBER(E345), E345, "")</f>
         <v>3</v>
       </c>
-      <c r="F355" t="str">
+      <c r="F355">
         <f t="shared" si="372"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G355">
         <f t="shared" si="372"/>
@@ -15335,9 +15367,9 @@
         <f t="shared" ref="E356:G356" si="373">IF(ISNUMBER(E346), E346, "")</f>
         <v>4</v>
       </c>
-      <c r="F356" t="str">
+      <c r="F356">
         <f t="shared" si="373"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G356">
         <f t="shared" si="373"/>
@@ -15377,9 +15409,9 @@
         <f t="shared" ref="E357:G357" si="374">IF(ISNUMBER(E347), E347, "")</f>
         <v>5</v>
       </c>
-      <c r="F357" t="str">
+      <c r="F357">
         <f t="shared" si="374"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G357">
         <f t="shared" si="374"/>
@@ -15419,9 +15451,9 @@
         <f t="shared" ref="E358:G358" si="375">IF(ISNUMBER(E348), E348, "")</f>
         <v>6</v>
       </c>
-      <c r="F358" t="str">
+      <c r="F358">
         <f t="shared" si="375"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G358">
         <f t="shared" si="375"/>
@@ -15461,9 +15493,9 @@
         <f t="shared" ref="E359:G359" si="376">IF(ISNUMBER(E349), E349, "")</f>
         <v>7</v>
       </c>
-      <c r="F359" t="str">
+      <c r="F359">
         <f t="shared" si="376"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G359">
         <f t="shared" si="376"/>
@@ -15503,9 +15535,9 @@
         <f t="shared" ref="E360:G360" si="377">IF(ISNUMBER(E350), E350, "")</f>
         <v>8</v>
       </c>
-      <c r="F360" t="str">
+      <c r="F360">
         <f t="shared" si="377"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G360">
         <f t="shared" si="377"/>
@@ -15545,9 +15577,9 @@
         <f t="shared" ref="E361:G361" si="378">IF(ISNUMBER(E351), E351, "")</f>
         <v>9</v>
       </c>
-      <c r="F361" t="str">
+      <c r="F361">
         <f t="shared" si="378"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G361">
         <f t="shared" si="378"/>
@@ -15629,9 +15661,9 @@
         <f t="shared" ref="E363:G363" si="380">IF(ISNUMBER(E353), E353, "")</f>
         <v>1</v>
       </c>
-      <c r="F363" t="str">
+      <c r="F363">
         <f t="shared" si="380"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G363">
         <f t="shared" si="380"/>
@@ -15671,9 +15703,9 @@
         <f t="shared" ref="E364:G364" si="381">IF(ISNUMBER(E354), E354, "")</f>
         <v>2</v>
       </c>
-      <c r="F364" t="str">
+      <c r="F364">
         <f t="shared" si="381"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G364">
         <f t="shared" si="381"/>
@@ -15713,9 +15745,9 @@
         <f t="shared" ref="E365:G365" si="382">IF(ISNUMBER(E355), E355, "")</f>
         <v>3</v>
       </c>
-      <c r="F365" t="str">
+      <c r="F365">
         <f t="shared" si="382"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G365">
         <f t="shared" si="382"/>
@@ -15755,9 +15787,9 @@
         <f t="shared" ref="E366:G366" si="383">IF(ISNUMBER(E356), E356, "")</f>
         <v>4</v>
       </c>
-      <c r="F366" t="str">
+      <c r="F366">
         <f t="shared" si="383"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G366">
         <f t="shared" si="383"/>
@@ -15797,9 +15829,9 @@
         <f t="shared" ref="E367:G367" si="384">IF(ISNUMBER(E357), E357, "")</f>
         <v>5</v>
       </c>
-      <c r="F367" t="str">
+      <c r="F367">
         <f t="shared" si="384"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G367">
         <f t="shared" si="384"/>
@@ -15839,9 +15871,9 @@
         <f t="shared" ref="E368:G368" si="385">IF(ISNUMBER(E358), E358, "")</f>
         <v>6</v>
       </c>
-      <c r="F368" t="str">
+      <c r="F368">
         <f t="shared" si="385"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G368">
         <f t="shared" si="385"/>
@@ -15881,9 +15913,9 @@
         <f t="shared" ref="E369:G369" si="386">IF(ISNUMBER(E359), E359, "")</f>
         <v>7</v>
       </c>
-      <c r="F369" t="str">
+      <c r="F369">
         <f t="shared" si="386"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G369">
         <f t="shared" si="386"/>
@@ -15923,9 +15955,9 @@
         <f t="shared" ref="E370:G370" si="387">IF(ISNUMBER(E360), E360, "")</f>
         <v>8</v>
       </c>
-      <c r="F370" t="str">
+      <c r="F370">
         <f t="shared" si="387"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G370">
         <f t="shared" si="387"/>
@@ -15965,9 +15997,9 @@
         <f t="shared" ref="E371:G371" si="388">IF(ISNUMBER(E361), E361, "")</f>
         <v>9</v>
       </c>
-      <c r="F371" t="str">
+      <c r="F371">
         <f t="shared" si="388"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G371">
         <f t="shared" si="388"/>
@@ -16049,9 +16081,9 @@
         <f t="shared" ref="E373:G373" si="390">IF(ISNUMBER(E363), E363, "")</f>
         <v>1</v>
       </c>
-      <c r="F373" t="str">
+      <c r="F373">
         <f t="shared" si="390"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G373">
         <f t="shared" si="390"/>
@@ -16091,9 +16123,9 @@
         <f t="shared" ref="E374:G374" si="391">IF(ISNUMBER(E364), E364, "")</f>
         <v>2</v>
       </c>
-      <c r="F374" t="str">
+      <c r="F374">
         <f t="shared" si="391"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G374">
         <f t="shared" si="391"/>
@@ -16133,9 +16165,9 @@
         <f t="shared" ref="E375:G375" si="392">IF(ISNUMBER(E365), E365, "")</f>
         <v>3</v>
       </c>
-      <c r="F375" t="str">
+      <c r="F375">
         <f t="shared" si="392"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G375">
         <f t="shared" si="392"/>
@@ -16175,9 +16207,9 @@
         <f t="shared" ref="E376:G376" si="393">IF(ISNUMBER(E366), E366, "")</f>
         <v>4</v>
       </c>
-      <c r="F376" t="str">
+      <c r="F376">
         <f t="shared" si="393"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G376">
         <f t="shared" si="393"/>
@@ -16217,9 +16249,9 @@
         <f t="shared" ref="E377:G377" si="394">IF(ISNUMBER(E367), E367, "")</f>
         <v>5</v>
       </c>
-      <c r="F377" t="str">
+      <c r="F377">
         <f t="shared" si="394"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G377">
         <f t="shared" si="394"/>
@@ -16259,9 +16291,9 @@
         <f t="shared" ref="E378:G378" si="395">IF(ISNUMBER(E368), E368, "")</f>
         <v>6</v>
       </c>
-      <c r="F378" t="str">
+      <c r="F378">
         <f t="shared" si="395"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G378">
         <f t="shared" si="395"/>
@@ -16301,9 +16333,9 @@
         <f t="shared" ref="E379:G379" si="396">IF(ISNUMBER(E369), E369, "")</f>
         <v>7</v>
       </c>
-      <c r="F379" t="str">
+      <c r="F379">
         <f t="shared" si="396"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G379">
         <f t="shared" si="396"/>
@@ -16343,9 +16375,9 @@
         <f t="shared" ref="E380:G380" si="397">IF(ISNUMBER(E370), E370, "")</f>
         <v>8</v>
       </c>
-      <c r="F380" t="str">
+      <c r="F380">
         <f t="shared" si="397"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G380">
         <f t="shared" si="397"/>
@@ -16385,9 +16417,9 @@
         <f t="shared" ref="E381:G381" si="398">IF(ISNUMBER(E371), E371, "")</f>
         <v>9</v>
       </c>
-      <c r="F381" t="str">
+      <c r="F381">
         <f t="shared" si="398"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G381">
         <f t="shared" si="398"/>
@@ -16469,9 +16501,9 @@
         <f t="shared" ref="E383:G383" si="400">IF(ISNUMBER(E373), E373, "")</f>
         <v>1</v>
       </c>
-      <c r="F383" t="str">
+      <c r="F383">
         <f t="shared" si="400"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G383">
         <f t="shared" si="400"/>
@@ -16511,9 +16543,9 @@
         <f t="shared" ref="E384:G384" si="401">IF(ISNUMBER(E374), E374, "")</f>
         <v>2</v>
       </c>
-      <c r="F384" t="str">
+      <c r="F384">
         <f t="shared" si="401"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G384">
         <f t="shared" si="401"/>
@@ -16553,9 +16585,9 @@
         <f t="shared" ref="E385:G385" si="402">IF(ISNUMBER(E375), E375, "")</f>
         <v>3</v>
       </c>
-      <c r="F385" t="str">
+      <c r="F385">
         <f t="shared" si="402"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G385">
         <f t="shared" si="402"/>
@@ -16595,9 +16627,9 @@
         <f t="shared" ref="E386:G386" si="403">IF(ISNUMBER(E376), E376, "")</f>
         <v>4</v>
       </c>
-      <c r="F386" t="str">
+      <c r="F386">
         <f t="shared" si="403"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G386">
         <f t="shared" si="403"/>
@@ -16637,9 +16669,9 @@
         <f t="shared" ref="E387:G387" si="404">IF(ISNUMBER(E377), E377, "")</f>
         <v>5</v>
       </c>
-      <c r="F387" t="str">
+      <c r="F387">
         <f t="shared" si="404"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G387">
         <f t="shared" si="404"/>
@@ -16679,9 +16711,9 @@
         <f t="shared" ref="E388:G388" si="405">IF(ISNUMBER(E378), E378, "")</f>
         <v>6</v>
       </c>
-      <c r="F388" t="str">
+      <c r="F388">
         <f t="shared" si="405"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G388">
         <f t="shared" si="405"/>
@@ -16721,9 +16753,9 @@
         <f t="shared" ref="E389:G389" si="406">IF(ISNUMBER(E379), E379, "")</f>
         <v>7</v>
       </c>
-      <c r="F389" t="str">
+      <c r="F389">
         <f t="shared" si="406"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G389">
         <f t="shared" si="406"/>
@@ -16763,9 +16795,9 @@
         <f t="shared" ref="E390:G390" si="407">IF(ISNUMBER(E380), E380, "")</f>
         <v>8</v>
       </c>
-      <c r="F390" t="str">
+      <c r="F390">
         <f t="shared" si="407"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G390">
         <f t="shared" si="407"/>
@@ -16805,9 +16837,9 @@
         <f t="shared" ref="E391:G391" si="408">IF(ISNUMBER(E381), E381, "")</f>
         <v>9</v>
       </c>
-      <c r="F391" t="str">
+      <c r="F391">
         <f t="shared" si="408"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G391">
         <f t="shared" si="408"/>
@@ -16889,9 +16921,9 @@
         <f t="shared" ref="E393:G393" si="410">IF(ISNUMBER(E383), E383, "")</f>
         <v>1</v>
       </c>
-      <c r="F393" t="str">
+      <c r="F393">
         <f t="shared" si="410"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G393">
         <f t="shared" si="410"/>
@@ -16931,9 +16963,9 @@
         <f t="shared" ref="E394:G394" si="411">IF(ISNUMBER(E384), E384, "")</f>
         <v>2</v>
       </c>
-      <c r="F394" t="str">
+      <c r="F394">
         <f t="shared" si="411"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G394">
         <f t="shared" si="411"/>
@@ -16973,9 +17005,9 @@
         <f t="shared" ref="E395:G395" si="412">IF(ISNUMBER(E385), E385, "")</f>
         <v>3</v>
       </c>
-      <c r="F395" t="str">
+      <c r="F395">
         <f t="shared" si="412"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G395">
         <f t="shared" si="412"/>
@@ -17015,9 +17047,9 @@
         <f t="shared" ref="E396:G396" si="413">IF(ISNUMBER(E386), E386, "")</f>
         <v>4</v>
       </c>
-      <c r="F396" t="str">
+      <c r="F396">
         <f t="shared" si="413"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G396">
         <f t="shared" si="413"/>
@@ -17057,9 +17089,9 @@
         <f t="shared" ref="E397:G397" si="416">IF(ISNUMBER(E387), E387, "")</f>
         <v>5</v>
       </c>
-      <c r="F397" t="str">
+      <c r="F397">
         <f t="shared" si="416"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G397">
         <f t="shared" si="416"/>
@@ -17099,9 +17131,9 @@
         <f t="shared" ref="E398:G398" si="418">IF(ISNUMBER(E388), E388, "")</f>
         <v>6</v>
       </c>
-      <c r="F398" t="str">
+      <c r="F398">
         <f t="shared" si="418"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G398">
         <f t="shared" si="418"/>
@@ -17141,9 +17173,9 @@
         <f t="shared" ref="E399:G399" si="421">IF(ISNUMBER(E389), E389, "")</f>
         <v>7</v>
       </c>
-      <c r="F399" t="str">
+      <c r="F399">
         <f t="shared" si="421"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G399">
         <f t="shared" si="421"/>
@@ -17183,9 +17215,9 @@
         <f t="shared" ref="E400:G400" si="422">IF(ISNUMBER(E390), E390, "")</f>
         <v>8</v>
       </c>
-      <c r="F400" t="str">
+      <c r="F400">
         <f t="shared" si="422"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G400">
         <f t="shared" si="422"/>
@@ -17225,9 +17257,9 @@
         <f t="shared" ref="E401:G401" si="423">IF(ISNUMBER(E391), E391, "")</f>
         <v>9</v>
       </c>
-      <c r="F401" t="str">
+      <c r="F401">
         <f t="shared" si="423"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="G401">
         <f t="shared" si="423"/>
@@ -17293,7 +17325,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/math-decks/basic-arithmetic-number-sense/Card Types/{Data Sheet Chunk} 3. Basic Operations, Single Items.xlsx
+++ b/math-decks/basic-arithmetic-number-sense/Card Types/{Data Sheet Chunk} 3. Basic Operations, Single Items.xlsx
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(ISNUMBER(C3),"arith_" &amp; INDEX(Operations[],J3,2) &amp; "_g" &amp; TEXT(C3, "00") &amp; "_" &amp; TEXT(D3, "00") &amp; "_o" &amp; TEXT(E3, "00") &amp; IF(AND(ISNUMBER(F3), F3&lt;&gt;E3), "_" &amp; TEXT(F3, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C3),"arith_" &amp; INDEX(Operations[],J3,2) &amp; "_g" &amp; TEXT(C3, "00") &amp; "_" &amp; TEXT(D3, "00") &amp; "_o" &amp; TEXT(E3, "00") &amp; IF(AND(ISNUMBER(F3), F3&gt;E3), "_" &amp; TEXT(F3, "00"), ""), "")</f>
         <v>arith_add_g01_00_o01</v>
       </c>
       <c r="B3" t="str">
@@ -610,7 +610,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>IF(ISNUMBER(C4),"arith_" &amp; INDEX(Operations[],J4,2) &amp; "_g" &amp; TEXT(C4, "00") &amp; "_" &amp; TEXT(D4, "00") &amp; "_o" &amp; TEXT(E4, "00") &amp; IF(AND(ISNUMBER(F4), F4&lt;&gt;E4), "_" &amp; TEXT(F4, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C4),"arith_" &amp; INDEX(Operations[],J4,2) &amp; "_g" &amp; TEXT(C4, "00") &amp; "_" &amp; TEXT(D4, "00") &amp; "_o" &amp; TEXT(E4, "00") &amp; IF(AND(ISNUMBER(F4), F4&gt;E4), "_" &amp; TEXT(F4, "00"), ""), "")</f>
         <v>arith_add_g01_00_o02</v>
       </c>
       <c r="B4" t="str">
@@ -649,7 +649,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>IF(ISNUMBER(C5),"arith_" &amp; INDEX(Operations[],J5,2) &amp; "_g" &amp; TEXT(C5, "00") &amp; "_" &amp; TEXT(D5, "00") &amp; "_o" &amp; TEXT(E5, "00") &amp; IF(AND(ISNUMBER(F5), F5&lt;&gt;E5), "_" &amp; TEXT(F5, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C5),"arith_" &amp; INDEX(Operations[],J5,2) &amp; "_g" &amp; TEXT(C5, "00") &amp; "_" &amp; TEXT(D5, "00") &amp; "_o" &amp; TEXT(E5, "00") &amp; IF(AND(ISNUMBER(F5), F5&gt;E5), "_" &amp; TEXT(F5, "00"), ""), "")</f>
         <v>arith_add_g01_00_o03</v>
       </c>
       <c r="B5" t="str">
@@ -682,7 +682,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(ISNUMBER(C6),"arith_" &amp; INDEX(Operations[],J6,2) &amp; "_g" &amp; TEXT(C6, "00") &amp; "_" &amp; TEXT(D6, "00") &amp; "_o" &amp; TEXT(E6, "00") &amp; IF(AND(ISNUMBER(F6), F6&lt;&gt;E6), "_" &amp; TEXT(F6, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C6),"arith_" &amp; INDEX(Operations[],J6,2) &amp; "_g" &amp; TEXT(C6, "00") &amp; "_" &amp; TEXT(D6, "00") &amp; "_o" &amp; TEXT(E6, "00") &amp; IF(AND(ISNUMBER(F6), F6&gt;E6), "_" &amp; TEXT(F6, "00"), ""), "")</f>
         <v>arith_add_g01_00_o04</v>
       </c>
       <c r="B6" t="str">
@@ -721,7 +721,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(ISNUMBER(C7),"arith_" &amp; INDEX(Operations[],J7,2) &amp; "_g" &amp; TEXT(C7, "00") &amp; "_" &amp; TEXT(D7, "00") &amp; "_o" &amp; TEXT(E7, "00") &amp; IF(AND(ISNUMBER(F7), F7&lt;&gt;E7), "_" &amp; TEXT(F7, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C7),"arith_" &amp; INDEX(Operations[],J7,2) &amp; "_g" &amp; TEXT(C7, "00") &amp; "_" &amp; TEXT(D7, "00") &amp; "_o" &amp; TEXT(E7, "00") &amp; IF(AND(ISNUMBER(F7), F7&gt;E7), "_" &amp; TEXT(F7, "00"), ""), "")</f>
         <v>arith_add_g01_00_o05</v>
       </c>
       <c r="B7" t="str">
@@ -760,7 +760,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(ISNUMBER(C8),"arith_" &amp; INDEX(Operations[],J8,2) &amp; "_g" &amp; TEXT(C8, "00") &amp; "_" &amp; TEXT(D8, "00") &amp; "_o" &amp; TEXT(E8, "00") &amp; IF(AND(ISNUMBER(F8), F8&lt;&gt;E8), "_" &amp; TEXT(F8, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C8),"arith_" &amp; INDEX(Operations[],J8,2) &amp; "_g" &amp; TEXT(C8, "00") &amp; "_" &amp; TEXT(D8, "00") &amp; "_o" &amp; TEXT(E8, "00") &amp; IF(AND(ISNUMBER(F8), F8&gt;E8), "_" &amp; TEXT(F8, "00"), ""), "")</f>
         <v>arith_add_g01_00_o06</v>
       </c>
       <c r="B8" t="str">
@@ -799,7 +799,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(ISNUMBER(C9),"arith_" &amp; INDEX(Operations[],J9,2) &amp; "_g" &amp; TEXT(C9, "00") &amp; "_" &amp; TEXT(D9, "00") &amp; "_o" &amp; TEXT(E9, "00") &amp; IF(AND(ISNUMBER(F9), F9&lt;&gt;E9), "_" &amp; TEXT(F9, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C9),"arith_" &amp; INDEX(Operations[],J9,2) &amp; "_g" &amp; TEXT(C9, "00") &amp; "_" &amp; TEXT(D9, "00") &amp; "_o" &amp; TEXT(E9, "00") &amp; IF(AND(ISNUMBER(F9), F9&gt;E9), "_" &amp; TEXT(F9, "00"), ""), "")</f>
         <v>arith_add_g01_00_o07</v>
       </c>
       <c r="B9" t="str">
@@ -838,7 +838,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(ISNUMBER(C10),"arith_" &amp; INDEX(Operations[],J10,2) &amp; "_g" &amp; TEXT(C10, "00") &amp; "_" &amp; TEXT(D10, "00") &amp; "_o" &amp; TEXT(E10, "00") &amp; IF(AND(ISNUMBER(F10), F10&lt;&gt;E10), "_" &amp; TEXT(F10, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C10),"arith_" &amp; INDEX(Operations[],J10,2) &amp; "_g" &amp; TEXT(C10, "00") &amp; "_" &amp; TEXT(D10, "00") &amp; "_o" &amp; TEXT(E10, "00") &amp; IF(AND(ISNUMBER(F10), F10&gt;E10), "_" &amp; TEXT(F10, "00"), ""), "")</f>
         <v>arith_add_g01_00_o08</v>
       </c>
       <c r="B10" t="str">
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISNUMBER(C11),"arith_" &amp; INDEX(Operations[],J11,2) &amp; "_g" &amp; TEXT(C11, "00") &amp; "_" &amp; TEXT(D11, "00") &amp; "_o" &amp; TEXT(E11, "00") &amp; IF(AND(ISNUMBER(F11), F11&lt;&gt;E11), "_" &amp; TEXT(F11, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C11),"arith_" &amp; INDEX(Operations[],J11,2) &amp; "_g" &amp; TEXT(C11, "00") &amp; "_" &amp; TEXT(D11, "00") &amp; "_o" &amp; TEXT(E11, "00") &amp; IF(AND(ISNUMBER(F11), F11&gt;E11), "_" &amp; TEXT(F11, "00"), ""), "")</f>
         <v>arith_add_g01_00_o09</v>
       </c>
       <c r="B11" t="str">
@@ -910,7 +910,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(ISNUMBER(C12),"arith_" &amp; INDEX(Operations[],J12,2) &amp; "_g" &amp; TEXT(C12, "00") &amp; "_" &amp; TEXT(D12, "00") &amp; "_o" &amp; TEXT(E12, "00") &amp; IF(AND(ISNUMBER(F12), F12&lt;&gt;E12), "_" &amp; TEXT(F12, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C12),"arith_" &amp; INDEX(Operations[],J12,2) &amp; "_g" &amp; TEXT(C12, "00") &amp; "_" &amp; TEXT(D12, "00") &amp; "_o" &amp; TEXT(E12, "00") &amp; IF(AND(ISNUMBER(F12), F12&gt;E12), "_" &amp; TEXT(F12, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B12" t="str">
@@ -939,7 +939,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(ISNUMBER(C13),"arith_" &amp; INDEX(Operations[],J13,2) &amp; "_g" &amp; TEXT(C13, "00") &amp; "_" &amp; TEXT(D13, "00") &amp; "_o" &amp; TEXT(E13, "00") &amp; IF(AND(ISNUMBER(F13), F13&lt;&gt;E13), "_" &amp; TEXT(F13, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C13),"arith_" &amp; INDEX(Operations[],J13,2) &amp; "_g" &amp; TEXT(C13, "00") &amp; "_" &amp; TEXT(D13, "00") &amp; "_o" &amp; TEXT(E13, "00") &amp; IF(AND(ISNUMBER(F13), F13&gt;E13), "_" &amp; TEXT(F13, "00"), ""), "")</f>
         <v>arith_add_g02_00_o01</v>
       </c>
       <c r="B13" t="str">
@@ -981,7 +981,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(ISNUMBER(C14),"arith_" &amp; INDEX(Operations[],J14,2) &amp; "_g" &amp; TEXT(C14, "00") &amp; "_" &amp; TEXT(D14, "00") &amp; "_o" &amp; TEXT(E14, "00") &amp; IF(AND(ISNUMBER(F14), F14&lt;&gt;E14), "_" &amp; TEXT(F14, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C14),"arith_" &amp; INDEX(Operations[],J14,2) &amp; "_g" &amp; TEXT(C14, "00") &amp; "_" &amp; TEXT(D14, "00") &amp; "_o" &amp; TEXT(E14, "00") &amp; IF(AND(ISNUMBER(F14), F14&gt;E14), "_" &amp; TEXT(F14, "00"), ""), "")</f>
         <v>arith_add_g02_00_o02</v>
       </c>
       <c r="B14" t="str">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(ISNUMBER(C15),"arith_" &amp; INDEX(Operations[],J15,2) &amp; "_g" &amp; TEXT(C15, "00") &amp; "_" &amp; TEXT(D15, "00") &amp; "_o" &amp; TEXT(E15, "00") &amp; IF(AND(ISNUMBER(F15), F15&lt;&gt;E15), "_" &amp; TEXT(F15, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C15),"arith_" &amp; INDEX(Operations[],J15,2) &amp; "_g" &amp; TEXT(C15, "00") &amp; "_" &amp; TEXT(D15, "00") &amp; "_o" &amp; TEXT(E15, "00") &amp; IF(AND(ISNUMBER(F15), F15&gt;E15), "_" &amp; TEXT(F15, "00"), ""), "")</f>
         <v>arith_add_g02_00_o03</v>
       </c>
       <c r="B15" t="str">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(ISNUMBER(C16),"arith_" &amp; INDEX(Operations[],J16,2) &amp; "_g" &amp; TEXT(C16, "00") &amp; "_" &amp; TEXT(D16, "00") &amp; "_o" &amp; TEXT(E16, "00") &amp; IF(AND(ISNUMBER(F16), F16&lt;&gt;E16), "_" &amp; TEXT(F16, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C16),"arith_" &amp; INDEX(Operations[],J16,2) &amp; "_g" &amp; TEXT(C16, "00") &amp; "_" &amp; TEXT(D16, "00") &amp; "_o" &amp; TEXT(E16, "00") &amp; IF(AND(ISNUMBER(F16), F16&gt;E16), "_" &amp; TEXT(F16, "00"), ""), "")</f>
         <v>arith_add_g02_00_o04</v>
       </c>
       <c r="B16" t="str">
@@ -1107,7 +1107,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(ISNUMBER(C17),"arith_" &amp; INDEX(Operations[],J17,2) &amp; "_g" &amp; TEXT(C17, "00") &amp; "_" &amp; TEXT(D17, "00") &amp; "_o" &amp; TEXT(E17, "00") &amp; IF(AND(ISNUMBER(F17), F17&lt;&gt;E17), "_" &amp; TEXT(F17, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C17),"arith_" &amp; INDEX(Operations[],J17,2) &amp; "_g" &amp; TEXT(C17, "00") &amp; "_" &amp; TEXT(D17, "00") &amp; "_o" &amp; TEXT(E17, "00") &amp; IF(AND(ISNUMBER(F17), F17&gt;E17), "_" &amp; TEXT(F17, "00"), ""), "")</f>
         <v>arith_add_g02_00_o05</v>
       </c>
       <c r="B17" t="str">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(ISNUMBER(C18),"arith_" &amp; INDEX(Operations[],J18,2) &amp; "_g" &amp; TEXT(C18, "00") &amp; "_" &amp; TEXT(D18, "00") &amp; "_o" &amp; TEXT(E18, "00") &amp; IF(AND(ISNUMBER(F18), F18&lt;&gt;E18), "_" &amp; TEXT(F18, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C18),"arith_" &amp; INDEX(Operations[],J18,2) &amp; "_g" &amp; TEXT(C18, "00") &amp; "_" &amp; TEXT(D18, "00") &amp; "_o" &amp; TEXT(E18, "00") &amp; IF(AND(ISNUMBER(F18), F18&gt;E18), "_" &amp; TEXT(F18, "00"), ""), "")</f>
         <v>arith_add_g02_00_o06</v>
       </c>
       <c r="B18" t="str">
@@ -1191,7 +1191,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(ISNUMBER(C19),"arith_" &amp; INDEX(Operations[],J19,2) &amp; "_g" &amp; TEXT(C19, "00") &amp; "_" &amp; TEXT(D19, "00") &amp; "_o" &amp; TEXT(E19, "00") &amp; IF(AND(ISNUMBER(F19), F19&lt;&gt;E19), "_" &amp; TEXT(F19, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C19),"arith_" &amp; INDEX(Operations[],J19,2) &amp; "_g" &amp; TEXT(C19, "00") &amp; "_" &amp; TEXT(D19, "00") &amp; "_o" &amp; TEXT(E19, "00") &amp; IF(AND(ISNUMBER(F19), F19&gt;E19), "_" &amp; TEXT(F19, "00"), ""), "")</f>
         <v>arith_add_g02_00_o07</v>
       </c>
       <c r="B19" t="str">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(ISNUMBER(C20),"arith_" &amp; INDEX(Operations[],J20,2) &amp; "_g" &amp; TEXT(C20, "00") &amp; "_" &amp; TEXT(D20, "00") &amp; "_o" &amp; TEXT(E20, "00") &amp; IF(AND(ISNUMBER(F20), F20&lt;&gt;E20), "_" &amp; TEXT(F20, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C20),"arith_" &amp; INDEX(Operations[],J20,2) &amp; "_g" &amp; TEXT(C20, "00") &amp; "_" &amp; TEXT(D20, "00") &amp; "_o" &amp; TEXT(E20, "00") &amp; IF(AND(ISNUMBER(F20), F20&gt;E20), "_" &amp; TEXT(F20, "00"), ""), "")</f>
         <v>arith_add_g02_00_o08</v>
       </c>
       <c r="B20" t="str">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(ISNUMBER(C21),"arith_" &amp; INDEX(Operations[],J21,2) &amp; "_g" &amp; TEXT(C21, "00") &amp; "_" &amp; TEXT(D21, "00") &amp; "_o" &amp; TEXT(E21, "00") &amp; IF(AND(ISNUMBER(F21), F21&lt;&gt;E21), "_" &amp; TEXT(F21, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C21),"arith_" &amp; INDEX(Operations[],J21,2) &amp; "_g" &amp; TEXT(C21, "00") &amp; "_" &amp; TEXT(D21, "00") &amp; "_o" &amp; TEXT(E21, "00") &amp; IF(AND(ISNUMBER(F21), F21&gt;E21), "_" &amp; TEXT(F21, "00"), ""), "")</f>
         <v>arith_add_g02_00_o09</v>
       </c>
       <c r="B21" t="str">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(ISNUMBER(C22),"arith_" &amp; INDEX(Operations[],J22,2) &amp; "_g" &amp; TEXT(C22, "00") &amp; "_" &amp; TEXT(D22, "00") &amp; "_o" &amp; TEXT(E22, "00") &amp; IF(AND(ISNUMBER(F22), F22&lt;&gt;E22), "_" &amp; TEXT(F22, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C22),"arith_" &amp; INDEX(Operations[],J22,2) &amp; "_g" &amp; TEXT(C22, "00") &amp; "_" &amp; TEXT(D22, "00") &amp; "_o" &amp; TEXT(E22, "00") &amp; IF(AND(ISNUMBER(F22), F22&gt;E22), "_" &amp; TEXT(F22, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B22" t="str">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(ISNUMBER(C23),"arith_" &amp; INDEX(Operations[],J23,2) &amp; "_g" &amp; TEXT(C23, "00") &amp; "_" &amp; TEXT(D23, "00") &amp; "_o" &amp; TEXT(E23, "00") &amp; IF(AND(ISNUMBER(F23), F23&lt;&gt;E23), "_" &amp; TEXT(F23, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C23),"arith_" &amp; INDEX(Operations[],J23,2) &amp; "_g" &amp; TEXT(C23, "00") &amp; "_" &amp; TEXT(D23, "00") &amp; "_o" &amp; TEXT(E23, "00") &amp; IF(AND(ISNUMBER(F23), F23&gt;E23), "_" &amp; TEXT(F23, "00"), ""), "")</f>
         <v>arith_add_g03_00_o01</v>
       </c>
       <c r="B23" t="str">
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(ISNUMBER(C24),"arith_" &amp; INDEX(Operations[],J24,2) &amp; "_g" &amp; TEXT(C24, "00") &amp; "_" &amp; TEXT(D24, "00") &amp; "_o" &amp; TEXT(E24, "00") &amp; IF(AND(ISNUMBER(F24), F24&lt;&gt;E24), "_" &amp; TEXT(F24, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C24),"arith_" &amp; INDEX(Operations[],J24,2) &amp; "_g" &amp; TEXT(C24, "00") &amp; "_" &amp; TEXT(D24, "00") &amp; "_o" &amp; TEXT(E24, "00") &amp; IF(AND(ISNUMBER(F24), F24&gt;E24), "_" &amp; TEXT(F24, "00"), ""), "")</f>
         <v>arith_add_g03_00_o02</v>
       </c>
       <c r="B24" t="str">
@@ -1443,7 +1443,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(ISNUMBER(C25),"arith_" &amp; INDEX(Operations[],J25,2) &amp; "_g" &amp; TEXT(C25, "00") &amp; "_" &amp; TEXT(D25, "00") &amp; "_o" &amp; TEXT(E25, "00") &amp; IF(AND(ISNUMBER(F25), F25&lt;&gt;E25), "_" &amp; TEXT(F25, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C25),"arith_" &amp; INDEX(Operations[],J25,2) &amp; "_g" &amp; TEXT(C25, "00") &amp; "_" &amp; TEXT(D25, "00") &amp; "_o" &amp; TEXT(E25, "00") &amp; IF(AND(ISNUMBER(F25), F25&gt;E25), "_" &amp; TEXT(F25, "00"), ""), "")</f>
         <v>arith_add_g03_00_o03</v>
       </c>
       <c r="B25" t="str">
@@ -1485,7 +1485,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(ISNUMBER(C26),"arith_" &amp; INDEX(Operations[],J26,2) &amp; "_g" &amp; TEXT(C26, "00") &amp; "_" &amp; TEXT(D26, "00") &amp; "_o" &amp; TEXT(E26, "00") &amp; IF(AND(ISNUMBER(F26), F26&lt;&gt;E26), "_" &amp; TEXT(F26, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C26),"arith_" &amp; INDEX(Operations[],J26,2) &amp; "_g" &amp; TEXT(C26, "00") &amp; "_" &amp; TEXT(D26, "00") &amp; "_o" &amp; TEXT(E26, "00") &amp; IF(AND(ISNUMBER(F26), F26&gt;E26), "_" &amp; TEXT(F26, "00"), ""), "")</f>
         <v>arith_add_g03_00_o04</v>
       </c>
       <c r="B26" t="str">
@@ -1527,7 +1527,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(ISNUMBER(C27),"arith_" &amp; INDEX(Operations[],J27,2) &amp; "_g" &amp; TEXT(C27, "00") &amp; "_" &amp; TEXT(D27, "00") &amp; "_o" &amp; TEXT(E27, "00") &amp; IF(AND(ISNUMBER(F27), F27&lt;&gt;E27), "_" &amp; TEXT(F27, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C27),"arith_" &amp; INDEX(Operations[],J27,2) &amp; "_g" &amp; TEXT(C27, "00") &amp; "_" &amp; TEXT(D27, "00") &amp; "_o" &amp; TEXT(E27, "00") &amp; IF(AND(ISNUMBER(F27), F27&gt;E27), "_" &amp; TEXT(F27, "00"), ""), "")</f>
         <v>arith_add_g03_00_o05</v>
       </c>
       <c r="B27" t="str">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(ISNUMBER(C28),"arith_" &amp; INDEX(Operations[],J28,2) &amp; "_g" &amp; TEXT(C28, "00") &amp; "_" &amp; TEXT(D28, "00") &amp; "_o" &amp; TEXT(E28, "00") &amp; IF(AND(ISNUMBER(F28), F28&lt;&gt;E28), "_" &amp; TEXT(F28, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C28),"arith_" &amp; INDEX(Operations[],J28,2) &amp; "_g" &amp; TEXT(C28, "00") &amp; "_" &amp; TEXT(D28, "00") &amp; "_o" &amp; TEXT(E28, "00") &amp; IF(AND(ISNUMBER(F28), F28&gt;E28), "_" &amp; TEXT(F28, "00"), ""), "")</f>
         <v>arith_add_g03_00_o06</v>
       </c>
       <c r="B28" t="str">
@@ -1611,7 +1611,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(ISNUMBER(C29),"arith_" &amp; INDEX(Operations[],J29,2) &amp; "_g" &amp; TEXT(C29, "00") &amp; "_" &amp; TEXT(D29, "00") &amp; "_o" &amp; TEXT(E29, "00") &amp; IF(AND(ISNUMBER(F29), F29&lt;&gt;E29), "_" &amp; TEXT(F29, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C29),"arith_" &amp; INDEX(Operations[],J29,2) &amp; "_g" &amp; TEXT(C29, "00") &amp; "_" &amp; TEXT(D29, "00") &amp; "_o" &amp; TEXT(E29, "00") &amp; IF(AND(ISNUMBER(F29), F29&gt;E29), "_" &amp; TEXT(F29, "00"), ""), "")</f>
         <v>arith_add_g03_00_o07</v>
       </c>
       <c r="B29" t="str">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(ISNUMBER(C30),"arith_" &amp; INDEX(Operations[],J30,2) &amp; "_g" &amp; TEXT(C30, "00") &amp; "_" &amp; TEXT(D30, "00") &amp; "_o" &amp; TEXT(E30, "00") &amp; IF(AND(ISNUMBER(F30), F30&lt;&gt;E30), "_" &amp; TEXT(F30, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C30),"arith_" &amp; INDEX(Operations[],J30,2) &amp; "_g" &amp; TEXT(C30, "00") &amp; "_" &amp; TEXT(D30, "00") &amp; "_o" &amp; TEXT(E30, "00") &amp; IF(AND(ISNUMBER(F30), F30&gt;E30), "_" &amp; TEXT(F30, "00"), ""), "")</f>
         <v>arith_add_g03_00_o08</v>
       </c>
       <c r="B30" t="str">
@@ -1695,7 +1695,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(ISNUMBER(C31),"arith_" &amp; INDEX(Operations[],J31,2) &amp; "_g" &amp; TEXT(C31, "00") &amp; "_" &amp; TEXT(D31, "00") &amp; "_o" &amp; TEXT(E31, "00") &amp; IF(AND(ISNUMBER(F31), F31&lt;&gt;E31), "_" &amp; TEXT(F31, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C31),"arith_" &amp; INDEX(Operations[],J31,2) &amp; "_g" &amp; TEXT(C31, "00") &amp; "_" &amp; TEXT(D31, "00") &amp; "_o" &amp; TEXT(E31, "00") &amp; IF(AND(ISNUMBER(F31), F31&gt;E31), "_" &amp; TEXT(F31, "00"), ""), "")</f>
         <v>arith_add_g03_00_o09</v>
       </c>
       <c r="B31" t="str">
@@ -1737,7 +1737,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(ISNUMBER(C32),"arith_" &amp; INDEX(Operations[],J32,2) &amp; "_g" &amp; TEXT(C32, "00") &amp; "_" &amp; TEXT(D32, "00") &amp; "_o" &amp; TEXT(E32, "00") &amp; IF(AND(ISNUMBER(F32), F32&lt;&gt;E32), "_" &amp; TEXT(F32, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C32),"arith_" &amp; INDEX(Operations[],J32,2) &amp; "_g" &amp; TEXT(C32, "00") &amp; "_" &amp; TEXT(D32, "00") &amp; "_o" &amp; TEXT(E32, "00") &amp; IF(AND(ISNUMBER(F32), F32&gt;E32), "_" &amp; TEXT(F32, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B32" t="str">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(ISNUMBER(C33),"arith_" &amp; INDEX(Operations[],J33,2) &amp; "_g" &amp; TEXT(C33, "00") &amp; "_" &amp; TEXT(D33, "00") &amp; "_o" &amp; TEXT(E33, "00") &amp; IF(AND(ISNUMBER(F33), F33&lt;&gt;E33), "_" &amp; TEXT(F33, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C33),"arith_" &amp; INDEX(Operations[],J33,2) &amp; "_g" &amp; TEXT(C33, "00") &amp; "_" &amp; TEXT(D33, "00") &amp; "_o" &amp; TEXT(E33, "00") &amp; IF(AND(ISNUMBER(F33), F33&gt;E33), "_" &amp; TEXT(F33, "00"), ""), "")</f>
         <v>arith_add_g04_00_o01</v>
       </c>
       <c r="B33" t="str">
@@ -1821,7 +1821,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(ISNUMBER(C34),"arith_" &amp; INDEX(Operations[],J34,2) &amp; "_g" &amp; TEXT(C34, "00") &amp; "_" &amp; TEXT(D34, "00") &amp; "_o" &amp; TEXT(E34, "00") &amp; IF(AND(ISNUMBER(F34), F34&lt;&gt;E34), "_" &amp; TEXT(F34, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C34),"arith_" &amp; INDEX(Operations[],J34,2) &amp; "_g" &amp; TEXT(C34, "00") &amp; "_" &amp; TEXT(D34, "00") &amp; "_o" &amp; TEXT(E34, "00") &amp; IF(AND(ISNUMBER(F34), F34&gt;E34), "_" &amp; TEXT(F34, "00"), ""), "")</f>
         <v>arith_add_g04_00_o02</v>
       </c>
       <c r="B34" t="str">
@@ -1863,7 +1863,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(ISNUMBER(C35),"arith_" &amp; INDEX(Operations[],J35,2) &amp; "_g" &amp; TEXT(C35, "00") &amp; "_" &amp; TEXT(D35, "00") &amp; "_o" &amp; TEXT(E35, "00") &amp; IF(AND(ISNUMBER(F35), F35&lt;&gt;E35), "_" &amp; TEXT(F35, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C35),"arith_" &amp; INDEX(Operations[],J35,2) &amp; "_g" &amp; TEXT(C35, "00") &amp; "_" &amp; TEXT(D35, "00") &amp; "_o" &amp; TEXT(E35, "00") &amp; IF(AND(ISNUMBER(F35), F35&gt;E35), "_" &amp; TEXT(F35, "00"), ""), "")</f>
         <v>arith_add_g04_00_o03</v>
       </c>
       <c r="B35" t="str">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(ISNUMBER(C36),"arith_" &amp; INDEX(Operations[],J36,2) &amp; "_g" &amp; TEXT(C36, "00") &amp; "_" &amp; TEXT(D36, "00") &amp; "_o" &amp; TEXT(E36, "00") &amp; IF(AND(ISNUMBER(F36), F36&lt;&gt;E36), "_" &amp; TEXT(F36, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C36),"arith_" &amp; INDEX(Operations[],J36,2) &amp; "_g" &amp; TEXT(C36, "00") &amp; "_" &amp; TEXT(D36, "00") &amp; "_o" &amp; TEXT(E36, "00") &amp; IF(AND(ISNUMBER(F36), F36&gt;E36), "_" &amp; TEXT(F36, "00"), ""), "")</f>
         <v>arith_add_g04_00_o04</v>
       </c>
       <c r="B36" t="str">
@@ -1947,7 +1947,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(ISNUMBER(C37),"arith_" &amp; INDEX(Operations[],J37,2) &amp; "_g" &amp; TEXT(C37, "00") &amp; "_" &amp; TEXT(D37, "00") &amp; "_o" &amp; TEXT(E37, "00") &amp; IF(AND(ISNUMBER(F37), F37&lt;&gt;E37), "_" &amp; TEXT(F37, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C37),"arith_" &amp; INDEX(Operations[],J37,2) &amp; "_g" &amp; TEXT(C37, "00") &amp; "_" &amp; TEXT(D37, "00") &amp; "_o" &amp; TEXT(E37, "00") &amp; IF(AND(ISNUMBER(F37), F37&gt;E37), "_" &amp; TEXT(F37, "00"), ""), "")</f>
         <v>arith_add_g04_00_o05</v>
       </c>
       <c r="B37" t="str">
@@ -1989,7 +1989,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(ISNUMBER(C38),"arith_" &amp; INDEX(Operations[],J38,2) &amp; "_g" &amp; TEXT(C38, "00") &amp; "_" &amp; TEXT(D38, "00") &amp; "_o" &amp; TEXT(E38, "00") &amp; IF(AND(ISNUMBER(F38), F38&lt;&gt;E38), "_" &amp; TEXT(F38, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C38),"arith_" &amp; INDEX(Operations[],J38,2) &amp; "_g" &amp; TEXT(C38, "00") &amp; "_" &amp; TEXT(D38, "00") &amp; "_o" &amp; TEXT(E38, "00") &amp; IF(AND(ISNUMBER(F38), F38&gt;E38), "_" &amp; TEXT(F38, "00"), ""), "")</f>
         <v>arith_add_g04_00_o06</v>
       </c>
       <c r="B38" t="str">
@@ -2031,7 +2031,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(ISNUMBER(C39),"arith_" &amp; INDEX(Operations[],J39,2) &amp; "_g" &amp; TEXT(C39, "00") &amp; "_" &amp; TEXT(D39, "00") &amp; "_o" &amp; TEXT(E39, "00") &amp; IF(AND(ISNUMBER(F39), F39&lt;&gt;E39), "_" &amp; TEXT(F39, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C39),"arith_" &amp; INDEX(Operations[],J39,2) &amp; "_g" &amp; TEXT(C39, "00") &amp; "_" &amp; TEXT(D39, "00") &amp; "_o" &amp; TEXT(E39, "00") &amp; IF(AND(ISNUMBER(F39), F39&gt;E39), "_" &amp; TEXT(F39, "00"), ""), "")</f>
         <v>arith_add_g04_00_o07</v>
       </c>
       <c r="B39" t="str">
@@ -2073,7 +2073,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(ISNUMBER(C40),"arith_" &amp; INDEX(Operations[],J40,2) &amp; "_g" &amp; TEXT(C40, "00") &amp; "_" &amp; TEXT(D40, "00") &amp; "_o" &amp; TEXT(E40, "00") &amp; IF(AND(ISNUMBER(F40), F40&lt;&gt;E40), "_" &amp; TEXT(F40, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C40),"arith_" &amp; INDEX(Operations[],J40,2) &amp; "_g" &amp; TEXT(C40, "00") &amp; "_" &amp; TEXT(D40, "00") &amp; "_o" &amp; TEXT(E40, "00") &amp; IF(AND(ISNUMBER(F40), F40&gt;E40), "_" &amp; TEXT(F40, "00"), ""), "")</f>
         <v>arith_add_g04_00_o08</v>
       </c>
       <c r="B40" t="str">
@@ -2115,7 +2115,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(ISNUMBER(C41),"arith_" &amp; INDEX(Operations[],J41,2) &amp; "_g" &amp; TEXT(C41, "00") &amp; "_" &amp; TEXT(D41, "00") &amp; "_o" &amp; TEXT(E41, "00") &amp; IF(AND(ISNUMBER(F41), F41&lt;&gt;E41), "_" &amp; TEXT(F41, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C41),"arith_" &amp; INDEX(Operations[],J41,2) &amp; "_g" &amp; TEXT(C41, "00") &amp; "_" &amp; TEXT(D41, "00") &amp; "_o" &amp; TEXT(E41, "00") &amp; IF(AND(ISNUMBER(F41), F41&gt;E41), "_" &amp; TEXT(F41, "00"), ""), "")</f>
         <v>arith_add_g04_00_o09</v>
       </c>
       <c r="B41" t="str">
@@ -2157,7 +2157,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(ISNUMBER(C42),"arith_" &amp; INDEX(Operations[],J42,2) &amp; "_g" &amp; TEXT(C42, "00") &amp; "_" &amp; TEXT(D42, "00") &amp; "_o" &amp; TEXT(E42, "00") &amp; IF(AND(ISNUMBER(F42), F42&lt;&gt;E42), "_" &amp; TEXT(F42, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C42),"arith_" &amp; INDEX(Operations[],J42,2) &amp; "_g" &amp; TEXT(C42, "00") &amp; "_" &amp; TEXT(D42, "00") &amp; "_o" &amp; TEXT(E42, "00") &amp; IF(AND(ISNUMBER(F42), F42&gt;E42), "_" &amp; TEXT(F42, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B42" t="str">
@@ -2199,7 +2199,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(ISNUMBER(C43),"arith_" &amp; INDEX(Operations[],J43,2) &amp; "_g" &amp; TEXT(C43, "00") &amp; "_" &amp; TEXT(D43, "00") &amp; "_o" &amp; TEXT(E43, "00") &amp; IF(AND(ISNUMBER(F43), F43&lt;&gt;E43), "_" &amp; TEXT(F43, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C43),"arith_" &amp; INDEX(Operations[],J43,2) &amp; "_g" &amp; TEXT(C43, "00") &amp; "_" &amp; TEXT(D43, "00") &amp; "_o" &amp; TEXT(E43, "00") &amp; IF(AND(ISNUMBER(F43), F43&gt;E43), "_" &amp; TEXT(F43, "00"), ""), "")</f>
         <v>arith_add_g05_00_o01</v>
       </c>
       <c r="B43" t="str">
@@ -2241,7 +2241,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(ISNUMBER(C44),"arith_" &amp; INDEX(Operations[],J44,2) &amp; "_g" &amp; TEXT(C44, "00") &amp; "_" &amp; TEXT(D44, "00") &amp; "_o" &amp; TEXT(E44, "00") &amp; IF(AND(ISNUMBER(F44), F44&lt;&gt;E44), "_" &amp; TEXT(F44, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C44),"arith_" &amp; INDEX(Operations[],J44,2) &amp; "_g" &amp; TEXT(C44, "00") &amp; "_" &amp; TEXT(D44, "00") &amp; "_o" &amp; TEXT(E44, "00") &amp; IF(AND(ISNUMBER(F44), F44&gt;E44), "_" &amp; TEXT(F44, "00"), ""), "")</f>
         <v>arith_add_g05_00_o02</v>
       </c>
       <c r="B44" t="str">
@@ -2283,7 +2283,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(ISNUMBER(C45),"arith_" &amp; INDEX(Operations[],J45,2) &amp; "_g" &amp; TEXT(C45, "00") &amp; "_" &amp; TEXT(D45, "00") &amp; "_o" &amp; TEXT(E45, "00") &amp; IF(AND(ISNUMBER(F45), F45&lt;&gt;E45), "_" &amp; TEXT(F45, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C45),"arith_" &amp; INDEX(Operations[],J45,2) &amp; "_g" &amp; TEXT(C45, "00") &amp; "_" &amp; TEXT(D45, "00") &amp; "_o" &amp; TEXT(E45, "00") &amp; IF(AND(ISNUMBER(F45), F45&gt;E45), "_" &amp; TEXT(F45, "00"), ""), "")</f>
         <v>arith_add_g05_00_o03</v>
       </c>
       <c r="B45" t="str">
@@ -2325,7 +2325,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(ISNUMBER(C46),"arith_" &amp; INDEX(Operations[],J46,2) &amp; "_g" &amp; TEXT(C46, "00") &amp; "_" &amp; TEXT(D46, "00") &amp; "_o" &amp; TEXT(E46, "00") &amp; IF(AND(ISNUMBER(F46), F46&lt;&gt;E46), "_" &amp; TEXT(F46, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C46),"arith_" &amp; INDEX(Operations[],J46,2) &amp; "_g" &amp; TEXT(C46, "00") &amp; "_" &amp; TEXT(D46, "00") &amp; "_o" &amp; TEXT(E46, "00") &amp; IF(AND(ISNUMBER(F46), F46&gt;E46), "_" &amp; TEXT(F46, "00"), ""), "")</f>
         <v>arith_add_g05_00_o04</v>
       </c>
       <c r="B46" t="str">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(ISNUMBER(C47),"arith_" &amp; INDEX(Operations[],J47,2) &amp; "_g" &amp; TEXT(C47, "00") &amp; "_" &amp; TEXT(D47, "00") &amp; "_o" &amp; TEXT(E47, "00") &amp; IF(AND(ISNUMBER(F47), F47&lt;&gt;E47), "_" &amp; TEXT(F47, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C47),"arith_" &amp; INDEX(Operations[],J47,2) &amp; "_g" &amp; TEXT(C47, "00") &amp; "_" &amp; TEXT(D47, "00") &amp; "_o" &amp; TEXT(E47, "00") &amp; IF(AND(ISNUMBER(F47), F47&gt;E47), "_" &amp; TEXT(F47, "00"), ""), "")</f>
         <v>arith_add_g05_00_o05</v>
       </c>
       <c r="B47" t="str">
@@ -2409,7 +2409,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(ISNUMBER(C48),"arith_" &amp; INDEX(Operations[],J48,2) &amp; "_g" &amp; TEXT(C48, "00") &amp; "_" &amp; TEXT(D48, "00") &amp; "_o" &amp; TEXT(E48, "00") &amp; IF(AND(ISNUMBER(F48), F48&lt;&gt;E48), "_" &amp; TEXT(F48, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C48),"arith_" &amp; INDEX(Operations[],J48,2) &amp; "_g" &amp; TEXT(C48, "00") &amp; "_" &amp; TEXT(D48, "00") &amp; "_o" &amp; TEXT(E48, "00") &amp; IF(AND(ISNUMBER(F48), F48&gt;E48), "_" &amp; TEXT(F48, "00"), ""), "")</f>
         <v>arith_add_g05_00_o06</v>
       </c>
       <c r="B48" t="str">
@@ -2451,7 +2451,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(ISNUMBER(C49),"arith_" &amp; INDEX(Operations[],J49,2) &amp; "_g" &amp; TEXT(C49, "00") &amp; "_" &amp; TEXT(D49, "00") &amp; "_o" &amp; TEXT(E49, "00") &amp; IF(AND(ISNUMBER(F49), F49&lt;&gt;E49), "_" &amp; TEXT(F49, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C49),"arith_" &amp; INDEX(Operations[],J49,2) &amp; "_g" &amp; TEXT(C49, "00") &amp; "_" &amp; TEXT(D49, "00") &amp; "_o" &amp; TEXT(E49, "00") &amp; IF(AND(ISNUMBER(F49), F49&gt;E49), "_" &amp; TEXT(F49, "00"), ""), "")</f>
         <v>arith_add_g05_00_o07</v>
       </c>
       <c r="B49" t="str">
@@ -2493,7 +2493,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(ISNUMBER(C50),"arith_" &amp; INDEX(Operations[],J50,2) &amp; "_g" &amp; TEXT(C50, "00") &amp; "_" &amp; TEXT(D50, "00") &amp; "_o" &amp; TEXT(E50, "00") &amp; IF(AND(ISNUMBER(F50), F50&lt;&gt;E50), "_" &amp; TEXT(F50, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C50),"arith_" &amp; INDEX(Operations[],J50,2) &amp; "_g" &amp; TEXT(C50, "00") &amp; "_" &amp; TEXT(D50, "00") &amp; "_o" &amp; TEXT(E50, "00") &amp; IF(AND(ISNUMBER(F50), F50&gt;E50), "_" &amp; TEXT(F50, "00"), ""), "")</f>
         <v>arith_add_g05_00_o08</v>
       </c>
       <c r="B50" t="str">
@@ -2535,7 +2535,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(ISNUMBER(C51),"arith_" &amp; INDEX(Operations[],J51,2) &amp; "_g" &amp; TEXT(C51, "00") &amp; "_" &amp; TEXT(D51, "00") &amp; "_o" &amp; TEXT(E51, "00") &amp; IF(AND(ISNUMBER(F51), F51&lt;&gt;E51), "_" &amp; TEXT(F51, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C51),"arith_" &amp; INDEX(Operations[],J51,2) &amp; "_g" &amp; TEXT(C51, "00") &amp; "_" &amp; TEXT(D51, "00") &amp; "_o" &amp; TEXT(E51, "00") &amp; IF(AND(ISNUMBER(F51), F51&gt;E51), "_" &amp; TEXT(F51, "00"), ""), "")</f>
         <v>arith_add_g05_00_o09</v>
       </c>
       <c r="B51" t="str">
@@ -2577,7 +2577,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(ISNUMBER(C52),"arith_" &amp; INDEX(Operations[],J52,2) &amp; "_g" &amp; TEXT(C52, "00") &amp; "_" &amp; TEXT(D52, "00") &amp; "_o" &amp; TEXT(E52, "00") &amp; IF(AND(ISNUMBER(F52), F52&lt;&gt;E52), "_" &amp; TEXT(F52, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C52),"arith_" &amp; INDEX(Operations[],J52,2) &amp; "_g" &amp; TEXT(C52, "00") &amp; "_" &amp; TEXT(D52, "00") &amp; "_o" &amp; TEXT(E52, "00") &amp; IF(AND(ISNUMBER(F52), F52&gt;E52), "_" &amp; TEXT(F52, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B52" t="str">
@@ -2619,7 +2619,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISNUMBER(C53),"arith_" &amp; INDEX(Operations[],J53,2) &amp; "_g" &amp; TEXT(C53, "00") &amp; "_" &amp; TEXT(D53, "00") &amp; "_o" &amp; TEXT(E53, "00") &amp; IF(AND(ISNUMBER(F53), F53&lt;&gt;E53), "_" &amp; TEXT(F53, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C53),"arith_" &amp; INDEX(Operations[],J53,2) &amp; "_g" &amp; TEXT(C53, "00") &amp; "_" &amp; TEXT(D53, "00") &amp; "_o" &amp; TEXT(E53, "00") &amp; IF(AND(ISNUMBER(F53), F53&gt;E53), "_" &amp; TEXT(F53, "00"), ""), "")</f>
         <v>arith_add_g06_00_o01</v>
       </c>
       <c r="B53" t="str">
@@ -2661,7 +2661,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISNUMBER(C54),"arith_" &amp; INDEX(Operations[],J54,2) &amp; "_g" &amp; TEXT(C54, "00") &amp; "_" &amp; TEXT(D54, "00") &amp; "_o" &amp; TEXT(E54, "00") &amp; IF(AND(ISNUMBER(F54), F54&lt;&gt;E54), "_" &amp; TEXT(F54, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C54),"arith_" &amp; INDEX(Operations[],J54,2) &amp; "_g" &amp; TEXT(C54, "00") &amp; "_" &amp; TEXT(D54, "00") &amp; "_o" &amp; TEXT(E54, "00") &amp; IF(AND(ISNUMBER(F54), F54&gt;E54), "_" &amp; TEXT(F54, "00"), ""), "")</f>
         <v>arith_add_g06_00_o02</v>
       </c>
       <c r="B54" t="str">
@@ -2703,7 +2703,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(ISNUMBER(C55),"arith_" &amp; INDEX(Operations[],J55,2) &amp; "_g" &amp; TEXT(C55, "00") &amp; "_" &amp; TEXT(D55, "00") &amp; "_o" &amp; TEXT(E55, "00") &amp; IF(AND(ISNUMBER(F55), F55&lt;&gt;E55), "_" &amp; TEXT(F55, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C55),"arith_" &amp; INDEX(Operations[],J55,2) &amp; "_g" &amp; TEXT(C55, "00") &amp; "_" &amp; TEXT(D55, "00") &amp; "_o" &amp; TEXT(E55, "00") &amp; IF(AND(ISNUMBER(F55), F55&gt;E55), "_" &amp; TEXT(F55, "00"), ""), "")</f>
         <v>arith_add_g06_00_o03</v>
       </c>
       <c r="B55" t="str">
@@ -2745,7 +2745,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(ISNUMBER(C56),"arith_" &amp; INDEX(Operations[],J56,2) &amp; "_g" &amp; TEXT(C56, "00") &amp; "_" &amp; TEXT(D56, "00") &amp; "_o" &amp; TEXT(E56, "00") &amp; IF(AND(ISNUMBER(F56), F56&lt;&gt;E56), "_" &amp; TEXT(F56, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C56),"arith_" &amp; INDEX(Operations[],J56,2) &amp; "_g" &amp; TEXT(C56, "00") &amp; "_" &amp; TEXT(D56, "00") &amp; "_o" &amp; TEXT(E56, "00") &amp; IF(AND(ISNUMBER(F56), F56&gt;E56), "_" &amp; TEXT(F56, "00"), ""), "")</f>
         <v>arith_add_g06_00_o04</v>
       </c>
       <c r="B56" t="str">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(ISNUMBER(C57),"arith_" &amp; INDEX(Operations[],J57,2) &amp; "_g" &amp; TEXT(C57, "00") &amp; "_" &amp; TEXT(D57, "00") &amp; "_o" &amp; TEXT(E57, "00") &amp; IF(AND(ISNUMBER(F57), F57&lt;&gt;E57), "_" &amp; TEXT(F57, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C57),"arith_" &amp; INDEX(Operations[],J57,2) &amp; "_g" &amp; TEXT(C57, "00") &amp; "_" &amp; TEXT(D57, "00") &amp; "_o" &amp; TEXT(E57, "00") &amp; IF(AND(ISNUMBER(F57), F57&gt;E57), "_" &amp; TEXT(F57, "00"), ""), "")</f>
         <v>arith_add_g06_00_o05</v>
       </c>
       <c r="B57" t="str">
@@ -2829,7 +2829,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(ISNUMBER(C58),"arith_" &amp; INDEX(Operations[],J58,2) &amp; "_g" &amp; TEXT(C58, "00") &amp; "_" &amp; TEXT(D58, "00") &amp; "_o" &amp; TEXT(E58, "00") &amp; IF(AND(ISNUMBER(F58), F58&lt;&gt;E58), "_" &amp; TEXT(F58, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C58),"arith_" &amp; INDEX(Operations[],J58,2) &amp; "_g" &amp; TEXT(C58, "00") &amp; "_" &amp; TEXT(D58, "00") &amp; "_o" &amp; TEXT(E58, "00") &amp; IF(AND(ISNUMBER(F58), F58&gt;E58), "_" &amp; TEXT(F58, "00"), ""), "")</f>
         <v>arith_add_g06_00_o06</v>
       </c>
       <c r="B58" t="str">
@@ -2871,7 +2871,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(ISNUMBER(C59),"arith_" &amp; INDEX(Operations[],J59,2) &amp; "_g" &amp; TEXT(C59, "00") &amp; "_" &amp; TEXT(D59, "00") &amp; "_o" &amp; TEXT(E59, "00") &amp; IF(AND(ISNUMBER(F59), F59&lt;&gt;E59), "_" &amp; TEXT(F59, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C59),"arith_" &amp; INDEX(Operations[],J59,2) &amp; "_g" &amp; TEXT(C59, "00") &amp; "_" &amp; TEXT(D59, "00") &amp; "_o" &amp; TEXT(E59, "00") &amp; IF(AND(ISNUMBER(F59), F59&gt;E59), "_" &amp; TEXT(F59, "00"), ""), "")</f>
         <v>arith_add_g06_00_o07</v>
       </c>
       <c r="B59" t="str">
@@ -2913,7 +2913,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(ISNUMBER(C60),"arith_" &amp; INDEX(Operations[],J60,2) &amp; "_g" &amp; TEXT(C60, "00") &amp; "_" &amp; TEXT(D60, "00") &amp; "_o" &amp; TEXT(E60, "00") &amp; IF(AND(ISNUMBER(F60), F60&lt;&gt;E60), "_" &amp; TEXT(F60, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C60),"arith_" &amp; INDEX(Operations[],J60,2) &amp; "_g" &amp; TEXT(C60, "00") &amp; "_" &amp; TEXT(D60, "00") &amp; "_o" &amp; TEXT(E60, "00") &amp; IF(AND(ISNUMBER(F60), F60&gt;E60), "_" &amp; TEXT(F60, "00"), ""), "")</f>
         <v>arith_add_g06_00_o08</v>
       </c>
       <c r="B60" t="str">
@@ -2955,7 +2955,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(ISNUMBER(C61),"arith_" &amp; INDEX(Operations[],J61,2) &amp; "_g" &amp; TEXT(C61, "00") &amp; "_" &amp; TEXT(D61, "00") &amp; "_o" &amp; TEXT(E61, "00") &amp; IF(AND(ISNUMBER(F61), F61&lt;&gt;E61), "_" &amp; TEXT(F61, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C61),"arith_" &amp; INDEX(Operations[],J61,2) &amp; "_g" &amp; TEXT(C61, "00") &amp; "_" &amp; TEXT(D61, "00") &amp; "_o" &amp; TEXT(E61, "00") &amp; IF(AND(ISNUMBER(F61), F61&gt;E61), "_" &amp; TEXT(F61, "00"), ""), "")</f>
         <v>arith_add_g06_00_o09</v>
       </c>
       <c r="B61" t="str">
@@ -2997,7 +2997,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(ISNUMBER(C62),"arith_" &amp; INDEX(Operations[],J62,2) &amp; "_g" &amp; TEXT(C62, "00") &amp; "_" &amp; TEXT(D62, "00") &amp; "_o" &amp; TEXT(E62, "00") &amp; IF(AND(ISNUMBER(F62), F62&lt;&gt;E62), "_" &amp; TEXT(F62, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C62),"arith_" &amp; INDEX(Operations[],J62,2) &amp; "_g" &amp; TEXT(C62, "00") &amp; "_" &amp; TEXT(D62, "00") &amp; "_o" &amp; TEXT(E62, "00") &amp; IF(AND(ISNUMBER(F62), F62&gt;E62), "_" &amp; TEXT(F62, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B62" t="str">
@@ -3039,7 +3039,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(ISNUMBER(C63),"arith_" &amp; INDEX(Operations[],J63,2) &amp; "_g" &amp; TEXT(C63, "00") &amp; "_" &amp; TEXT(D63, "00") &amp; "_o" &amp; TEXT(E63, "00") &amp; IF(AND(ISNUMBER(F63), F63&lt;&gt;E63), "_" &amp; TEXT(F63, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C63),"arith_" &amp; INDEX(Operations[],J63,2) &amp; "_g" &amp; TEXT(C63, "00") &amp; "_" &amp; TEXT(D63, "00") &amp; "_o" &amp; TEXT(E63, "00") &amp; IF(AND(ISNUMBER(F63), F63&gt;E63), "_" &amp; TEXT(F63, "00"), ""), "")</f>
         <v>arith_add_g07_00_o01</v>
       </c>
       <c r="B63" t="str">
@@ -3081,7 +3081,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(ISNUMBER(C64),"arith_" &amp; INDEX(Operations[],J64,2) &amp; "_g" &amp; TEXT(C64, "00") &amp; "_" &amp; TEXT(D64, "00") &amp; "_o" &amp; TEXT(E64, "00") &amp; IF(AND(ISNUMBER(F64), F64&lt;&gt;E64), "_" &amp; TEXT(F64, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C64),"arith_" &amp; INDEX(Operations[],J64,2) &amp; "_g" &amp; TEXT(C64, "00") &amp; "_" &amp; TEXT(D64, "00") &amp; "_o" &amp; TEXT(E64, "00") &amp; IF(AND(ISNUMBER(F64), F64&gt;E64), "_" &amp; TEXT(F64, "00"), ""), "")</f>
         <v>arith_add_g07_00_o02</v>
       </c>
       <c r="B64" t="str">
@@ -3123,7 +3123,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(ISNUMBER(C65),"arith_" &amp; INDEX(Operations[],J65,2) &amp; "_g" &amp; TEXT(C65, "00") &amp; "_" &amp; TEXT(D65, "00") &amp; "_o" &amp; TEXT(E65, "00") &amp; IF(AND(ISNUMBER(F65), F65&lt;&gt;E65), "_" &amp; TEXT(F65, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C65),"arith_" &amp; INDEX(Operations[],J65,2) &amp; "_g" &amp; TEXT(C65, "00") &amp; "_" &amp; TEXT(D65, "00") &amp; "_o" &amp; TEXT(E65, "00") &amp; IF(AND(ISNUMBER(F65), F65&gt;E65), "_" &amp; TEXT(F65, "00"), ""), "")</f>
         <v>arith_add_g07_00_o03</v>
       </c>
       <c r="B65" t="str">
@@ -3165,7 +3165,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(ISNUMBER(C66),"arith_" &amp; INDEX(Operations[],J66,2) &amp; "_g" &amp; TEXT(C66, "00") &amp; "_" &amp; TEXT(D66, "00") &amp; "_o" &amp; TEXT(E66, "00") &amp; IF(AND(ISNUMBER(F66), F66&lt;&gt;E66), "_" &amp; TEXT(F66, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C66),"arith_" &amp; INDEX(Operations[],J66,2) &amp; "_g" &amp; TEXT(C66, "00") &amp; "_" &amp; TEXT(D66, "00") &amp; "_o" &amp; TEXT(E66, "00") &amp; IF(AND(ISNUMBER(F66), F66&gt;E66), "_" &amp; TEXT(F66, "00"), ""), "")</f>
         <v>arith_add_g07_00_o04</v>
       </c>
       <c r="B66" t="str">
@@ -3207,7 +3207,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(ISNUMBER(C67),"arith_" &amp; INDEX(Operations[],J67,2) &amp; "_g" &amp; TEXT(C67, "00") &amp; "_" &amp; TEXT(D67, "00") &amp; "_o" &amp; TEXT(E67, "00") &amp; IF(AND(ISNUMBER(F67), F67&lt;&gt;E67), "_" &amp; TEXT(F67, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C67),"arith_" &amp; INDEX(Operations[],J67,2) &amp; "_g" &amp; TEXT(C67, "00") &amp; "_" &amp; TEXT(D67, "00") &amp; "_o" &amp; TEXT(E67, "00") &amp; IF(AND(ISNUMBER(F67), F67&gt;E67), "_" &amp; TEXT(F67, "00"), ""), "")</f>
         <v>arith_add_g07_00_o05</v>
       </c>
       <c r="B67" t="str">
@@ -3249,7 +3249,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(ISNUMBER(C68),"arith_" &amp; INDEX(Operations[],J68,2) &amp; "_g" &amp; TEXT(C68, "00") &amp; "_" &amp; TEXT(D68, "00") &amp; "_o" &amp; TEXT(E68, "00") &amp; IF(AND(ISNUMBER(F68), F68&lt;&gt;E68), "_" &amp; TEXT(F68, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C68),"arith_" &amp; INDEX(Operations[],J68,2) &amp; "_g" &amp; TEXT(C68, "00") &amp; "_" &amp; TEXT(D68, "00") &amp; "_o" &amp; TEXT(E68, "00") &amp; IF(AND(ISNUMBER(F68), F68&gt;E68), "_" &amp; TEXT(F68, "00"), ""), "")</f>
         <v>arith_add_g07_00_o06</v>
       </c>
       <c r="B68" t="str">
@@ -3291,7 +3291,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(ISNUMBER(C69),"arith_" &amp; INDEX(Operations[],J69,2) &amp; "_g" &amp; TEXT(C69, "00") &amp; "_" &amp; TEXT(D69, "00") &amp; "_o" &amp; TEXT(E69, "00") &amp; IF(AND(ISNUMBER(F69), F69&lt;&gt;E69), "_" &amp; TEXT(F69, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C69),"arith_" &amp; INDEX(Operations[],J69,2) &amp; "_g" &amp; TEXT(C69, "00") &amp; "_" &amp; TEXT(D69, "00") &amp; "_o" &amp; TEXT(E69, "00") &amp; IF(AND(ISNUMBER(F69), F69&gt;E69), "_" &amp; TEXT(F69, "00"), ""), "")</f>
         <v>arith_add_g07_00_o07</v>
       </c>
       <c r="B69" t="str">
@@ -3333,7 +3333,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(ISNUMBER(C70),"arith_" &amp; INDEX(Operations[],J70,2) &amp; "_g" &amp; TEXT(C70, "00") &amp; "_" &amp; TEXT(D70, "00") &amp; "_o" &amp; TEXT(E70, "00") &amp; IF(AND(ISNUMBER(F70), F70&lt;&gt;E70), "_" &amp; TEXT(F70, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C70),"arith_" &amp; INDEX(Operations[],J70,2) &amp; "_g" &amp; TEXT(C70, "00") &amp; "_" &amp; TEXT(D70, "00") &amp; "_o" &amp; TEXT(E70, "00") &amp; IF(AND(ISNUMBER(F70), F70&gt;E70), "_" &amp; TEXT(F70, "00"), ""), "")</f>
         <v>arith_add_g07_00_o08</v>
       </c>
       <c r="B70" t="str">
@@ -3375,7 +3375,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(ISNUMBER(C71),"arith_" &amp; INDEX(Operations[],J71,2) &amp; "_g" &amp; TEXT(C71, "00") &amp; "_" &amp; TEXT(D71, "00") &amp; "_o" &amp; TEXT(E71, "00") &amp; IF(AND(ISNUMBER(F71), F71&lt;&gt;E71), "_" &amp; TEXT(F71, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C71),"arith_" &amp; INDEX(Operations[],J71,2) &amp; "_g" &amp; TEXT(C71, "00") &amp; "_" &amp; TEXT(D71, "00") &amp; "_o" &amp; TEXT(E71, "00") &amp; IF(AND(ISNUMBER(F71), F71&gt;E71), "_" &amp; TEXT(F71, "00"), ""), "")</f>
         <v>arith_add_g07_00_o09</v>
       </c>
       <c r="B71" t="str">
@@ -3417,7 +3417,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(ISNUMBER(C72),"arith_" &amp; INDEX(Operations[],J72,2) &amp; "_g" &amp; TEXT(C72, "00") &amp; "_" &amp; TEXT(D72, "00") &amp; "_o" &amp; TEXT(E72, "00") &amp; IF(AND(ISNUMBER(F72), F72&lt;&gt;E72), "_" &amp; TEXT(F72, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C72),"arith_" &amp; INDEX(Operations[],J72,2) &amp; "_g" &amp; TEXT(C72, "00") &amp; "_" &amp; TEXT(D72, "00") &amp; "_o" &amp; TEXT(E72, "00") &amp; IF(AND(ISNUMBER(F72), F72&gt;E72), "_" &amp; TEXT(F72, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B72" t="str">
@@ -3459,7 +3459,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(ISNUMBER(C73),"arith_" &amp; INDEX(Operations[],J73,2) &amp; "_g" &amp; TEXT(C73, "00") &amp; "_" &amp; TEXT(D73, "00") &amp; "_o" &amp; TEXT(E73, "00") &amp; IF(AND(ISNUMBER(F73), F73&lt;&gt;E73), "_" &amp; TEXT(F73, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C73),"arith_" &amp; INDEX(Operations[],J73,2) &amp; "_g" &amp; TEXT(C73, "00") &amp; "_" &amp; TEXT(D73, "00") &amp; "_o" &amp; TEXT(E73, "00") &amp; IF(AND(ISNUMBER(F73), F73&gt;E73), "_" &amp; TEXT(F73, "00"), ""), "")</f>
         <v>arith_add_g08_00_o01</v>
       </c>
       <c r="B73" t="str">
@@ -3501,7 +3501,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(ISNUMBER(C74),"arith_" &amp; INDEX(Operations[],J74,2) &amp; "_g" &amp; TEXT(C74, "00") &amp; "_" &amp; TEXT(D74, "00") &amp; "_o" &amp; TEXT(E74, "00") &amp; IF(AND(ISNUMBER(F74), F74&lt;&gt;E74), "_" &amp; TEXT(F74, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C74),"arith_" &amp; INDEX(Operations[],J74,2) &amp; "_g" &amp; TEXT(C74, "00") &amp; "_" &amp; TEXT(D74, "00") &amp; "_o" &amp; TEXT(E74, "00") &amp; IF(AND(ISNUMBER(F74), F74&gt;E74), "_" &amp; TEXT(F74, "00"), ""), "")</f>
         <v>arith_add_g08_00_o02</v>
       </c>
       <c r="B74" t="str">
@@ -3543,7 +3543,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(ISNUMBER(C75),"arith_" &amp; INDEX(Operations[],J75,2) &amp; "_g" &amp; TEXT(C75, "00") &amp; "_" &amp; TEXT(D75, "00") &amp; "_o" &amp; TEXT(E75, "00") &amp; IF(AND(ISNUMBER(F75), F75&lt;&gt;E75), "_" &amp; TEXT(F75, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C75),"arith_" &amp; INDEX(Operations[],J75,2) &amp; "_g" &amp; TEXT(C75, "00") &amp; "_" &amp; TEXT(D75, "00") &amp; "_o" &amp; TEXT(E75, "00") &amp; IF(AND(ISNUMBER(F75), F75&gt;E75), "_" &amp; TEXT(F75, "00"), ""), "")</f>
         <v>arith_add_g08_00_o03</v>
       </c>
       <c r="B75" t="str">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(ISNUMBER(C76),"arith_" &amp; INDEX(Operations[],J76,2) &amp; "_g" &amp; TEXT(C76, "00") &amp; "_" &amp; TEXT(D76, "00") &amp; "_o" &amp; TEXT(E76, "00") &amp; IF(AND(ISNUMBER(F76), F76&lt;&gt;E76), "_" &amp; TEXT(F76, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C76),"arith_" &amp; INDEX(Operations[],J76,2) &amp; "_g" &amp; TEXT(C76, "00") &amp; "_" &amp; TEXT(D76, "00") &amp; "_o" &amp; TEXT(E76, "00") &amp; IF(AND(ISNUMBER(F76), F76&gt;E76), "_" &amp; TEXT(F76, "00"), ""), "")</f>
         <v>arith_add_g08_00_o04</v>
       </c>
       <c r="B76" t="str">
@@ -3627,7 +3627,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(ISNUMBER(C77),"arith_" &amp; INDEX(Operations[],J77,2) &amp; "_g" &amp; TEXT(C77, "00") &amp; "_" &amp; TEXT(D77, "00") &amp; "_o" &amp; TEXT(E77, "00") &amp; IF(AND(ISNUMBER(F77), F77&lt;&gt;E77), "_" &amp; TEXT(F77, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C77),"arith_" &amp; INDEX(Operations[],J77,2) &amp; "_g" &amp; TEXT(C77, "00") &amp; "_" &amp; TEXT(D77, "00") &amp; "_o" &amp; TEXT(E77, "00") &amp; IF(AND(ISNUMBER(F77), F77&gt;E77), "_" &amp; TEXT(F77, "00"), ""), "")</f>
         <v>arith_add_g08_00_o05</v>
       </c>
       <c r="B77" t="str">
@@ -3669,7 +3669,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(ISNUMBER(C78),"arith_" &amp; INDEX(Operations[],J78,2) &amp; "_g" &amp; TEXT(C78, "00") &amp; "_" &amp; TEXT(D78, "00") &amp; "_o" &amp; TEXT(E78, "00") &amp; IF(AND(ISNUMBER(F78), F78&lt;&gt;E78), "_" &amp; TEXT(F78, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C78),"arith_" &amp; INDEX(Operations[],J78,2) &amp; "_g" &amp; TEXT(C78, "00") &amp; "_" &amp; TEXT(D78, "00") &amp; "_o" &amp; TEXT(E78, "00") &amp; IF(AND(ISNUMBER(F78), F78&gt;E78), "_" &amp; TEXT(F78, "00"), ""), "")</f>
         <v>arith_add_g08_00_o06</v>
       </c>
       <c r="B78" t="str">
@@ -3711,7 +3711,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(ISNUMBER(C79),"arith_" &amp; INDEX(Operations[],J79,2) &amp; "_g" &amp; TEXT(C79, "00") &amp; "_" &amp; TEXT(D79, "00") &amp; "_o" &amp; TEXT(E79, "00") &amp; IF(AND(ISNUMBER(F79), F79&lt;&gt;E79), "_" &amp; TEXT(F79, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C79),"arith_" &amp; INDEX(Operations[],J79,2) &amp; "_g" &amp; TEXT(C79, "00") &amp; "_" &amp; TEXT(D79, "00") &amp; "_o" &amp; TEXT(E79, "00") &amp; IF(AND(ISNUMBER(F79), F79&gt;E79), "_" &amp; TEXT(F79, "00"), ""), "")</f>
         <v>arith_add_g08_00_o07</v>
       </c>
       <c r="B79" t="str">
@@ -3753,7 +3753,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(ISNUMBER(C80),"arith_" &amp; INDEX(Operations[],J80,2) &amp; "_g" &amp; TEXT(C80, "00") &amp; "_" &amp; TEXT(D80, "00") &amp; "_o" &amp; TEXT(E80, "00") &amp; IF(AND(ISNUMBER(F80), F80&lt;&gt;E80), "_" &amp; TEXT(F80, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C80),"arith_" &amp; INDEX(Operations[],J80,2) &amp; "_g" &amp; TEXT(C80, "00") &amp; "_" &amp; TEXT(D80, "00") &amp; "_o" &amp; TEXT(E80, "00") &amp; IF(AND(ISNUMBER(F80), F80&gt;E80), "_" &amp; TEXT(F80, "00"), ""), "")</f>
         <v>arith_add_g08_00_o08</v>
       </c>
       <c r="B80" t="str">
@@ -3795,7 +3795,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(ISNUMBER(C81),"arith_" &amp; INDEX(Operations[],J81,2) &amp; "_g" &amp; TEXT(C81, "00") &amp; "_" &amp; TEXT(D81, "00") &amp; "_o" &amp; TEXT(E81, "00") &amp; IF(AND(ISNUMBER(F81), F81&lt;&gt;E81), "_" &amp; TEXT(F81, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C81),"arith_" &amp; INDEX(Operations[],J81,2) &amp; "_g" &amp; TEXT(C81, "00") &amp; "_" &amp; TEXT(D81, "00") &amp; "_o" &amp; TEXT(E81, "00") &amp; IF(AND(ISNUMBER(F81), F81&gt;E81), "_" &amp; TEXT(F81, "00"), ""), "")</f>
         <v>arith_add_g08_00_o09</v>
       </c>
       <c r="B81" t="str">
@@ -3837,7 +3837,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(ISNUMBER(C82),"arith_" &amp; INDEX(Operations[],J82,2) &amp; "_g" &amp; TEXT(C82, "00") &amp; "_" &amp; TEXT(D82, "00") &amp; "_o" &amp; TEXT(E82, "00") &amp; IF(AND(ISNUMBER(F82), F82&lt;&gt;E82), "_" &amp; TEXT(F82, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C82),"arith_" &amp; INDEX(Operations[],J82,2) &amp; "_g" &amp; TEXT(C82, "00") &amp; "_" &amp; TEXT(D82, "00") &amp; "_o" &amp; TEXT(E82, "00") &amp; IF(AND(ISNUMBER(F82), F82&gt;E82), "_" &amp; TEXT(F82, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B82" t="str">
@@ -3879,7 +3879,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(ISNUMBER(C83),"arith_" &amp; INDEX(Operations[],J83,2) &amp; "_g" &amp; TEXT(C83, "00") &amp; "_" &amp; TEXT(D83, "00") &amp; "_o" &amp; TEXT(E83, "00") &amp; IF(AND(ISNUMBER(F83), F83&lt;&gt;E83), "_" &amp; TEXT(F83, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C83),"arith_" &amp; INDEX(Operations[],J83,2) &amp; "_g" &amp; TEXT(C83, "00") &amp; "_" &amp; TEXT(D83, "00") &amp; "_o" &amp; TEXT(E83, "00") &amp; IF(AND(ISNUMBER(F83), F83&gt;E83), "_" &amp; TEXT(F83, "00"), ""), "")</f>
         <v>arith_add_g09_00_o01</v>
       </c>
       <c r="B83" t="str">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(ISNUMBER(C84),"arith_" &amp; INDEX(Operations[],J84,2) &amp; "_g" &amp; TEXT(C84, "00") &amp; "_" &amp; TEXT(D84, "00") &amp; "_o" &amp; TEXT(E84, "00") &amp; IF(AND(ISNUMBER(F84), F84&lt;&gt;E84), "_" &amp; TEXT(F84, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C84),"arith_" &amp; INDEX(Operations[],J84,2) &amp; "_g" &amp; TEXT(C84, "00") &amp; "_" &amp; TEXT(D84, "00") &amp; "_o" &amp; TEXT(E84, "00") &amp; IF(AND(ISNUMBER(F84), F84&gt;E84), "_" &amp; TEXT(F84, "00"), ""), "")</f>
         <v>arith_add_g09_00_o02</v>
       </c>
       <c r="B84" t="str">
@@ -3963,7 +3963,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(ISNUMBER(C85),"arith_" &amp; INDEX(Operations[],J85,2) &amp; "_g" &amp; TEXT(C85, "00") &amp; "_" &amp; TEXT(D85, "00") &amp; "_o" &amp; TEXT(E85, "00") &amp; IF(AND(ISNUMBER(F85), F85&lt;&gt;E85), "_" &amp; TEXT(F85, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C85),"arith_" &amp; INDEX(Operations[],J85,2) &amp; "_g" &amp; TEXT(C85, "00") &amp; "_" &amp; TEXT(D85, "00") &amp; "_o" &amp; TEXT(E85, "00") &amp; IF(AND(ISNUMBER(F85), F85&gt;E85), "_" &amp; TEXT(F85, "00"), ""), "")</f>
         <v>arith_add_g09_00_o03</v>
       </c>
       <c r="B85" t="str">
@@ -4005,7 +4005,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(ISNUMBER(C86),"arith_" &amp; INDEX(Operations[],J86,2) &amp; "_g" &amp; TEXT(C86, "00") &amp; "_" &amp; TEXT(D86, "00") &amp; "_o" &amp; TEXT(E86, "00") &amp; IF(AND(ISNUMBER(F86), F86&lt;&gt;E86), "_" &amp; TEXT(F86, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C86),"arith_" &amp; INDEX(Operations[],J86,2) &amp; "_g" &amp; TEXT(C86, "00") &amp; "_" &amp; TEXT(D86, "00") &amp; "_o" &amp; TEXT(E86, "00") &amp; IF(AND(ISNUMBER(F86), F86&gt;E86), "_" &amp; TEXT(F86, "00"), ""), "")</f>
         <v>arith_add_g09_00_o04</v>
       </c>
       <c r="B86" t="str">
@@ -4047,7 +4047,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(ISNUMBER(C87),"arith_" &amp; INDEX(Operations[],J87,2) &amp; "_g" &amp; TEXT(C87, "00") &amp; "_" &amp; TEXT(D87, "00") &amp; "_o" &amp; TEXT(E87, "00") &amp; IF(AND(ISNUMBER(F87), F87&lt;&gt;E87), "_" &amp; TEXT(F87, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C87),"arith_" &amp; INDEX(Operations[],J87,2) &amp; "_g" &amp; TEXT(C87, "00") &amp; "_" &amp; TEXT(D87, "00") &amp; "_o" &amp; TEXT(E87, "00") &amp; IF(AND(ISNUMBER(F87), F87&gt;E87), "_" &amp; TEXT(F87, "00"), ""), "")</f>
         <v>arith_add_g09_00_o05</v>
       </c>
       <c r="B87" t="str">
@@ -4089,7 +4089,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(ISNUMBER(C88),"arith_" &amp; INDEX(Operations[],J88,2) &amp; "_g" &amp; TEXT(C88, "00") &amp; "_" &amp; TEXT(D88, "00") &amp; "_o" &amp; TEXT(E88, "00") &amp; IF(AND(ISNUMBER(F88), F88&lt;&gt;E88), "_" &amp; TEXT(F88, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C88),"arith_" &amp; INDEX(Operations[],J88,2) &amp; "_g" &amp; TEXT(C88, "00") &amp; "_" &amp; TEXT(D88, "00") &amp; "_o" &amp; TEXT(E88, "00") &amp; IF(AND(ISNUMBER(F88), F88&gt;E88), "_" &amp; TEXT(F88, "00"), ""), "")</f>
         <v>arith_add_g09_00_o06</v>
       </c>
       <c r="B88" t="str">
@@ -4131,7 +4131,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(ISNUMBER(C89),"arith_" &amp; INDEX(Operations[],J89,2) &amp; "_g" &amp; TEXT(C89, "00") &amp; "_" &amp; TEXT(D89, "00") &amp; "_o" &amp; TEXT(E89, "00") &amp; IF(AND(ISNUMBER(F89), F89&lt;&gt;E89), "_" &amp; TEXT(F89, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C89),"arith_" &amp; INDEX(Operations[],J89,2) &amp; "_g" &amp; TEXT(C89, "00") &amp; "_" &amp; TEXT(D89, "00") &amp; "_o" &amp; TEXT(E89, "00") &amp; IF(AND(ISNUMBER(F89), F89&gt;E89), "_" &amp; TEXT(F89, "00"), ""), "")</f>
         <v>arith_add_g09_00_o07</v>
       </c>
       <c r="B89" t="str">
@@ -4173,7 +4173,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(ISNUMBER(C90),"arith_" &amp; INDEX(Operations[],J90,2) &amp; "_g" &amp; TEXT(C90, "00") &amp; "_" &amp; TEXT(D90, "00") &amp; "_o" &amp; TEXT(E90, "00") &amp; IF(AND(ISNUMBER(F90), F90&lt;&gt;E90), "_" &amp; TEXT(F90, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C90),"arith_" &amp; INDEX(Operations[],J90,2) &amp; "_g" &amp; TEXT(C90, "00") &amp; "_" &amp; TEXT(D90, "00") &amp; "_o" &amp; TEXT(E90, "00") &amp; IF(AND(ISNUMBER(F90), F90&gt;E90), "_" &amp; TEXT(F90, "00"), ""), "")</f>
         <v>arith_add_g09_00_o08</v>
       </c>
       <c r="B90" t="str">
@@ -4215,7 +4215,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(ISNUMBER(C91),"arith_" &amp; INDEX(Operations[],J91,2) &amp; "_g" &amp; TEXT(C91, "00") &amp; "_" &amp; TEXT(D91, "00") &amp; "_o" &amp; TEXT(E91, "00") &amp; IF(AND(ISNUMBER(F91), F91&lt;&gt;E91), "_" &amp; TEXT(F91, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C91),"arith_" &amp; INDEX(Operations[],J91,2) &amp; "_g" &amp; TEXT(C91, "00") &amp; "_" &amp; TEXT(D91, "00") &amp; "_o" &amp; TEXT(E91, "00") &amp; IF(AND(ISNUMBER(F91), F91&gt;E91), "_" &amp; TEXT(F91, "00"), ""), "")</f>
         <v>arith_add_g09_00_o09</v>
       </c>
       <c r="B91" t="str">
@@ -4257,7 +4257,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(ISNUMBER(C92),"arith_" &amp; INDEX(Operations[],J92,2) &amp; "_g" &amp; TEXT(C92, "00") &amp; "_" &amp; TEXT(D92, "00") &amp; "_o" &amp; TEXT(E92, "00") &amp; IF(AND(ISNUMBER(F92), F92&lt;&gt;E92), "_" &amp; TEXT(F92, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C92),"arith_" &amp; INDEX(Operations[],J92,2) &amp; "_g" &amp; TEXT(C92, "00") &amp; "_" &amp; TEXT(D92, "00") &amp; "_o" &amp; TEXT(E92, "00") &amp; IF(AND(ISNUMBER(F92), F92&gt;E92), "_" &amp; TEXT(F92, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B92" t="str">
@@ -4299,7 +4299,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(ISNUMBER(C93),"arith_" &amp; INDEX(Operations[],J93,2) &amp; "_g" &amp; TEXT(C93, "00") &amp; "_" &amp; TEXT(D93, "00") &amp; "_o" &amp; TEXT(E93, "00") &amp; IF(AND(ISNUMBER(F93), F93&lt;&gt;E93), "_" &amp; TEXT(F93, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C93),"arith_" &amp; INDEX(Operations[],J93,2) &amp; "_g" &amp; TEXT(C93, "00") &amp; "_" &amp; TEXT(D93, "00") &amp; "_o" &amp; TEXT(E93, "00") &amp; IF(AND(ISNUMBER(F93), F93&gt;E93), "_" &amp; TEXT(F93, "00"), ""), "")</f>
         <v>arith_add_g10_00_o01</v>
       </c>
       <c r="B93" t="str">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(ISNUMBER(C94),"arith_" &amp; INDEX(Operations[],J94,2) &amp; "_g" &amp; TEXT(C94, "00") &amp; "_" &amp; TEXT(D94, "00") &amp; "_o" &amp; TEXT(E94, "00") &amp; IF(AND(ISNUMBER(F94), F94&lt;&gt;E94), "_" &amp; TEXT(F94, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C94),"arith_" &amp; INDEX(Operations[],J94,2) &amp; "_g" &amp; TEXT(C94, "00") &amp; "_" &amp; TEXT(D94, "00") &amp; "_o" &amp; TEXT(E94, "00") &amp; IF(AND(ISNUMBER(F94), F94&gt;E94), "_" &amp; TEXT(F94, "00"), ""), "")</f>
         <v>arith_add_g10_00_o02</v>
       </c>
       <c r="B94" t="str">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(ISNUMBER(C95),"arith_" &amp; INDEX(Operations[],J95,2) &amp; "_g" &amp; TEXT(C95, "00") &amp; "_" &amp; TEXT(D95, "00") &amp; "_o" &amp; TEXT(E95, "00") &amp; IF(AND(ISNUMBER(F95), F95&lt;&gt;E95), "_" &amp; TEXT(F95, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C95),"arith_" &amp; INDEX(Operations[],J95,2) &amp; "_g" &amp; TEXT(C95, "00") &amp; "_" &amp; TEXT(D95, "00") &amp; "_o" &amp; TEXT(E95, "00") &amp; IF(AND(ISNUMBER(F95), F95&gt;E95), "_" &amp; TEXT(F95, "00"), ""), "")</f>
         <v>arith_add_g10_00_o03</v>
       </c>
       <c r="B95" t="str">
@@ -4425,7 +4425,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(ISNUMBER(C96),"arith_" &amp; INDEX(Operations[],J96,2) &amp; "_g" &amp; TEXT(C96, "00") &amp; "_" &amp; TEXT(D96, "00") &amp; "_o" &amp; TEXT(E96, "00") &amp; IF(AND(ISNUMBER(F96), F96&lt;&gt;E96), "_" &amp; TEXT(F96, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C96),"arith_" &amp; INDEX(Operations[],J96,2) &amp; "_g" &amp; TEXT(C96, "00") &amp; "_" &amp; TEXT(D96, "00") &amp; "_o" &amp; TEXT(E96, "00") &amp; IF(AND(ISNUMBER(F96), F96&gt;E96), "_" &amp; TEXT(F96, "00"), ""), "")</f>
         <v>arith_add_g10_00_o04</v>
       </c>
       <c r="B96" t="str">
@@ -4467,7 +4467,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(ISNUMBER(C97),"arith_" &amp; INDEX(Operations[],J97,2) &amp; "_g" &amp; TEXT(C97, "00") &amp; "_" &amp; TEXT(D97, "00") &amp; "_o" &amp; TEXT(E97, "00") &amp; IF(AND(ISNUMBER(F97), F97&lt;&gt;E97), "_" &amp; TEXT(F97, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C97),"arith_" &amp; INDEX(Operations[],J97,2) &amp; "_g" &amp; TEXT(C97, "00") &amp; "_" &amp; TEXT(D97, "00") &amp; "_o" &amp; TEXT(E97, "00") &amp; IF(AND(ISNUMBER(F97), F97&gt;E97), "_" &amp; TEXT(F97, "00"), ""), "")</f>
         <v>arith_add_g10_00_o05</v>
       </c>
       <c r="B97" t="str">
@@ -4509,7 +4509,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(ISNUMBER(C98),"arith_" &amp; INDEX(Operations[],J98,2) &amp; "_g" &amp; TEXT(C98, "00") &amp; "_" &amp; TEXT(D98, "00") &amp; "_o" &amp; TEXT(E98, "00") &amp; IF(AND(ISNUMBER(F98), F98&lt;&gt;E98), "_" &amp; TEXT(F98, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C98),"arith_" &amp; INDEX(Operations[],J98,2) &amp; "_g" &amp; TEXT(C98, "00") &amp; "_" &amp; TEXT(D98, "00") &amp; "_o" &amp; TEXT(E98, "00") &amp; IF(AND(ISNUMBER(F98), F98&gt;E98), "_" &amp; TEXT(F98, "00"), ""), "")</f>
         <v>arith_add_g10_00_o06</v>
       </c>
       <c r="B98" t="str">
@@ -4551,7 +4551,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(ISNUMBER(C99),"arith_" &amp; INDEX(Operations[],J99,2) &amp; "_g" &amp; TEXT(C99, "00") &amp; "_" &amp; TEXT(D99, "00") &amp; "_o" &amp; TEXT(E99, "00") &amp; IF(AND(ISNUMBER(F99), F99&lt;&gt;E99), "_" &amp; TEXT(F99, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C99),"arith_" &amp; INDEX(Operations[],J99,2) &amp; "_g" &amp; TEXT(C99, "00") &amp; "_" &amp; TEXT(D99, "00") &amp; "_o" &amp; TEXT(E99, "00") &amp; IF(AND(ISNUMBER(F99), F99&gt;E99), "_" &amp; TEXT(F99, "00"), ""), "")</f>
         <v>arith_add_g10_00_o07</v>
       </c>
       <c r="B99" t="str">
@@ -4593,7 +4593,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(ISNUMBER(C100),"arith_" &amp; INDEX(Operations[],J100,2) &amp; "_g" &amp; TEXT(C100, "00") &amp; "_" &amp; TEXT(D100, "00") &amp; "_o" &amp; TEXT(E100, "00") &amp; IF(AND(ISNUMBER(F100), F100&lt;&gt;E100), "_" &amp; TEXT(F100, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C100),"arith_" &amp; INDEX(Operations[],J100,2) &amp; "_g" &amp; TEXT(C100, "00") &amp; "_" &amp; TEXT(D100, "00") &amp; "_o" &amp; TEXT(E100, "00") &amp; IF(AND(ISNUMBER(F100), F100&gt;E100), "_" &amp; TEXT(F100, "00"), ""), "")</f>
         <v>arith_add_g10_00_o08</v>
       </c>
       <c r="B100" t="str">
@@ -4635,7 +4635,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>IF(ISNUMBER(C101),"arith_" &amp; INDEX(Operations[],J101,2) &amp; "_g" &amp; TEXT(C101, "00") &amp; "_" &amp; TEXT(D101, "00") &amp; "_o" &amp; TEXT(E101, "00") &amp; IF(AND(ISNUMBER(F101), F101&lt;&gt;E101), "_" &amp; TEXT(F101, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C101),"arith_" &amp; INDEX(Operations[],J101,2) &amp; "_g" &amp; TEXT(C101, "00") &amp; "_" &amp; TEXT(D101, "00") &amp; "_o" &amp; TEXT(E101, "00") &amp; IF(AND(ISNUMBER(F101), F101&gt;E101), "_" &amp; TEXT(F101, "00"), ""), "")</f>
         <v>arith_add_g10_00_o09</v>
       </c>
       <c r="B101" t="str">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>IF(ISNUMBER(C102),"arith_" &amp; INDEX(Operations[],J102,2) &amp; "_g" &amp; TEXT(C102, "00") &amp; "_" &amp; TEXT(D102, "00") &amp; "_o" &amp; TEXT(E102, "00") &amp; IF(AND(ISNUMBER(F102), F102&lt;&gt;E102), "_" &amp; TEXT(F102, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C102),"arith_" &amp; INDEX(Operations[],J102,2) &amp; "_g" &amp; TEXT(C102, "00") &amp; "_" &amp; TEXT(D102, "00") &amp; "_o" &amp; TEXT(E102, "00") &amp; IF(AND(ISNUMBER(F102), F102&gt;E102), "_" &amp; TEXT(F102, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B102" t="str">
@@ -4719,7 +4719,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>IF(ISNUMBER(C103),"arith_" &amp; INDEX(Operations[],J103,2) &amp; "_g" &amp; TEXT(C103, "00") &amp; "_" &amp; TEXT(D103, "00") &amp; "_o" &amp; TEXT(E103, "00") &amp; IF(AND(ISNUMBER(F103), F103&lt;&gt;E103), "_" &amp; TEXT(F103, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C103),"arith_" &amp; INDEX(Operations[],J103,2) &amp; "_g" &amp; TEXT(C103, "00") &amp; "_" &amp; TEXT(D103, "00") &amp; "_o" &amp; TEXT(E103, "00") &amp; IF(AND(ISNUMBER(F103), F103&gt;E103), "_" &amp; TEXT(F103, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o01</v>
       </c>
       <c r="B103" t="str">
@@ -4761,7 +4761,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>IF(ISNUMBER(C104),"arith_" &amp; INDEX(Operations[],J104,2) &amp; "_g" &amp; TEXT(C104, "00") &amp; "_" &amp; TEXT(D104, "00") &amp; "_o" &amp; TEXT(E104, "00") &amp; IF(AND(ISNUMBER(F104), F104&lt;&gt;E104), "_" &amp; TEXT(F104, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C104),"arith_" &amp; INDEX(Operations[],J104,2) &amp; "_g" &amp; TEXT(C104, "00") &amp; "_" &amp; TEXT(D104, "00") &amp; "_o" &amp; TEXT(E104, "00") &amp; IF(AND(ISNUMBER(F104), F104&gt;E104), "_" &amp; TEXT(F104, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o02</v>
       </c>
       <c r="B104" t="str">
@@ -4803,7 +4803,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>IF(ISNUMBER(C105),"arith_" &amp; INDEX(Operations[],J105,2) &amp; "_g" &amp; TEXT(C105, "00") &amp; "_" &amp; TEXT(D105, "00") &amp; "_o" &amp; TEXT(E105, "00") &amp; IF(AND(ISNUMBER(F105), F105&lt;&gt;E105), "_" &amp; TEXT(F105, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C105),"arith_" &amp; INDEX(Operations[],J105,2) &amp; "_g" &amp; TEXT(C105, "00") &amp; "_" &amp; TEXT(D105, "00") &amp; "_o" &amp; TEXT(E105, "00") &amp; IF(AND(ISNUMBER(F105), F105&gt;E105), "_" &amp; TEXT(F105, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o03</v>
       </c>
       <c r="B105" t="str">
@@ -4845,7 +4845,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>IF(ISNUMBER(C106),"arith_" &amp; INDEX(Operations[],J106,2) &amp; "_g" &amp; TEXT(C106, "00") &amp; "_" &amp; TEXT(D106, "00") &amp; "_o" &amp; TEXT(E106, "00") &amp; IF(AND(ISNUMBER(F106), F106&lt;&gt;E106), "_" &amp; TEXT(F106, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C106),"arith_" &amp; INDEX(Operations[],J106,2) &amp; "_g" &amp; TEXT(C106, "00") &amp; "_" &amp; TEXT(D106, "00") &amp; "_o" &amp; TEXT(E106, "00") &amp; IF(AND(ISNUMBER(F106), F106&gt;E106), "_" &amp; TEXT(F106, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o04</v>
       </c>
       <c r="B106" t="str">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>IF(ISNUMBER(C107),"arith_" &amp; INDEX(Operations[],J107,2) &amp; "_g" &amp; TEXT(C107, "00") &amp; "_" &amp; TEXT(D107, "00") &amp; "_o" &amp; TEXT(E107, "00") &amp; IF(AND(ISNUMBER(F107), F107&lt;&gt;E107), "_" &amp; TEXT(F107, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C107),"arith_" &amp; INDEX(Operations[],J107,2) &amp; "_g" &amp; TEXT(C107, "00") &amp; "_" &amp; TEXT(D107, "00") &amp; "_o" &amp; TEXT(E107, "00") &amp; IF(AND(ISNUMBER(F107), F107&gt;E107), "_" &amp; TEXT(F107, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o05</v>
       </c>
       <c r="B107" t="str">
@@ -4929,7 +4929,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>IF(ISNUMBER(C108),"arith_" &amp; INDEX(Operations[],J108,2) &amp; "_g" &amp; TEXT(C108, "00") &amp; "_" &amp; TEXT(D108, "00") &amp; "_o" &amp; TEXT(E108, "00") &amp; IF(AND(ISNUMBER(F108), F108&lt;&gt;E108), "_" &amp; TEXT(F108, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C108),"arith_" &amp; INDEX(Operations[],J108,2) &amp; "_g" &amp; TEXT(C108, "00") &amp; "_" &amp; TEXT(D108, "00") &amp; "_o" &amp; TEXT(E108, "00") &amp; IF(AND(ISNUMBER(F108), F108&gt;E108), "_" &amp; TEXT(F108, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o06</v>
       </c>
       <c r="B108" t="str">
@@ -4971,7 +4971,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>IF(ISNUMBER(C109),"arith_" &amp; INDEX(Operations[],J109,2) &amp; "_g" &amp; TEXT(C109, "00") &amp; "_" &amp; TEXT(D109, "00") &amp; "_o" &amp; TEXT(E109, "00") &amp; IF(AND(ISNUMBER(F109), F109&lt;&gt;E109), "_" &amp; TEXT(F109, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C109),"arith_" &amp; INDEX(Operations[],J109,2) &amp; "_g" &amp; TEXT(C109, "00") &amp; "_" &amp; TEXT(D109, "00") &amp; "_o" &amp; TEXT(E109, "00") &amp; IF(AND(ISNUMBER(F109), F109&gt;E109), "_" &amp; TEXT(F109, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o07</v>
       </c>
       <c r="B109" t="str">
@@ -5013,7 +5013,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>IF(ISNUMBER(C110),"arith_" &amp; INDEX(Operations[],J110,2) &amp; "_g" &amp; TEXT(C110, "00") &amp; "_" &amp; TEXT(D110, "00") &amp; "_o" &amp; TEXT(E110, "00") &amp; IF(AND(ISNUMBER(F110), F110&lt;&gt;E110), "_" &amp; TEXT(F110, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C110),"arith_" &amp; INDEX(Operations[],J110,2) &amp; "_g" &amp; TEXT(C110, "00") &amp; "_" &amp; TEXT(D110, "00") &amp; "_o" &amp; TEXT(E110, "00") &amp; IF(AND(ISNUMBER(F110), F110&gt;E110), "_" &amp; TEXT(F110, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o08</v>
       </c>
       <c r="B110" t="str">
@@ -5055,7 +5055,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>IF(ISNUMBER(C111),"arith_" &amp; INDEX(Operations[],J111,2) &amp; "_g" &amp; TEXT(C111, "00") &amp; "_" &amp; TEXT(D111, "00") &amp; "_o" &amp; TEXT(E111, "00") &amp; IF(AND(ISNUMBER(F111), F111&lt;&gt;E111), "_" &amp; TEXT(F111, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C111),"arith_" &amp; INDEX(Operations[],J111,2) &amp; "_g" &amp; TEXT(C111, "00") &amp; "_" &amp; TEXT(D111, "00") &amp; "_o" &amp; TEXT(E111, "00") &amp; IF(AND(ISNUMBER(F111), F111&gt;E111), "_" &amp; TEXT(F111, "00"), ""), "")</f>
         <v>arith_sub_g01_00_o09</v>
       </c>
       <c r="B111" t="str">
@@ -5097,7 +5097,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>IF(ISNUMBER(C112),"arith_" &amp; INDEX(Operations[],J112,2) &amp; "_g" &amp; TEXT(C112, "00") &amp; "_" &amp; TEXT(D112, "00") &amp; "_o" &amp; TEXT(E112, "00") &amp; IF(AND(ISNUMBER(F112), F112&lt;&gt;E112), "_" &amp; TEXT(F112, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C112),"arith_" &amp; INDEX(Operations[],J112,2) &amp; "_g" &amp; TEXT(C112, "00") &amp; "_" &amp; TEXT(D112, "00") &amp; "_o" &amp; TEXT(E112, "00") &amp; IF(AND(ISNUMBER(F112), F112&gt;E112), "_" &amp; TEXT(F112, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B112" t="str">
@@ -5139,7 +5139,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>IF(ISNUMBER(C113),"arith_" &amp; INDEX(Operations[],J113,2) &amp; "_g" &amp; TEXT(C113, "00") &amp; "_" &amp; TEXT(D113, "00") &amp; "_o" &amp; TEXT(E113, "00") &amp; IF(AND(ISNUMBER(F113), F113&lt;&gt;E113), "_" &amp; TEXT(F113, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C113),"arith_" &amp; INDEX(Operations[],J113,2) &amp; "_g" &amp; TEXT(C113, "00") &amp; "_" &amp; TEXT(D113, "00") &amp; "_o" &amp; TEXT(E113, "00") &amp; IF(AND(ISNUMBER(F113), F113&gt;E113), "_" &amp; TEXT(F113, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o01</v>
       </c>
       <c r="B113" t="str">
@@ -5181,7 +5181,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>IF(ISNUMBER(C114),"arith_" &amp; INDEX(Operations[],J114,2) &amp; "_g" &amp; TEXT(C114, "00") &amp; "_" &amp; TEXT(D114, "00") &amp; "_o" &amp; TEXT(E114, "00") &amp; IF(AND(ISNUMBER(F114), F114&lt;&gt;E114), "_" &amp; TEXT(F114, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C114),"arith_" &amp; INDEX(Operations[],J114,2) &amp; "_g" &amp; TEXT(C114, "00") &amp; "_" &amp; TEXT(D114, "00") &amp; "_o" &amp; TEXT(E114, "00") &amp; IF(AND(ISNUMBER(F114), F114&gt;E114), "_" &amp; TEXT(F114, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o02</v>
       </c>
       <c r="B114" t="str">
@@ -5223,7 +5223,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>IF(ISNUMBER(C115),"arith_" &amp; INDEX(Operations[],J115,2) &amp; "_g" &amp; TEXT(C115, "00") &amp; "_" &amp; TEXT(D115, "00") &amp; "_o" &amp; TEXT(E115, "00") &amp; IF(AND(ISNUMBER(F115), F115&lt;&gt;E115), "_" &amp; TEXT(F115, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C115),"arith_" &amp; INDEX(Operations[],J115,2) &amp; "_g" &amp; TEXT(C115, "00") &amp; "_" &amp; TEXT(D115, "00") &amp; "_o" &amp; TEXT(E115, "00") &amp; IF(AND(ISNUMBER(F115), F115&gt;E115), "_" &amp; TEXT(F115, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o03</v>
       </c>
       <c r="B115" t="str">
@@ -5265,7 +5265,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>IF(ISNUMBER(C116),"arith_" &amp; INDEX(Operations[],J116,2) &amp; "_g" &amp; TEXT(C116, "00") &amp; "_" &amp; TEXT(D116, "00") &amp; "_o" &amp; TEXT(E116, "00") &amp; IF(AND(ISNUMBER(F116), F116&lt;&gt;E116), "_" &amp; TEXT(F116, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C116),"arith_" &amp; INDEX(Operations[],J116,2) &amp; "_g" &amp; TEXT(C116, "00") &amp; "_" &amp; TEXT(D116, "00") &amp; "_o" &amp; TEXT(E116, "00") &amp; IF(AND(ISNUMBER(F116), F116&gt;E116), "_" &amp; TEXT(F116, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o04</v>
       </c>
       <c r="B116" t="str">
@@ -5307,7 +5307,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>IF(ISNUMBER(C117),"arith_" &amp; INDEX(Operations[],J117,2) &amp; "_g" &amp; TEXT(C117, "00") &amp; "_" &amp; TEXT(D117, "00") &amp; "_o" &amp; TEXT(E117, "00") &amp; IF(AND(ISNUMBER(F117), F117&lt;&gt;E117), "_" &amp; TEXT(F117, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C117),"arith_" &amp; INDEX(Operations[],J117,2) &amp; "_g" &amp; TEXT(C117, "00") &amp; "_" &amp; TEXT(D117, "00") &amp; "_o" &amp; TEXT(E117, "00") &amp; IF(AND(ISNUMBER(F117), F117&gt;E117), "_" &amp; TEXT(F117, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o05</v>
       </c>
       <c r="B117" t="str">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>IF(ISNUMBER(C118),"arith_" &amp; INDEX(Operations[],J118,2) &amp; "_g" &amp; TEXT(C118, "00") &amp; "_" &amp; TEXT(D118, "00") &amp; "_o" &amp; TEXT(E118, "00") &amp; IF(AND(ISNUMBER(F118), F118&lt;&gt;E118), "_" &amp; TEXT(F118, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C118),"arith_" &amp; INDEX(Operations[],J118,2) &amp; "_g" &amp; TEXT(C118, "00") &amp; "_" &amp; TEXT(D118, "00") &amp; "_o" &amp; TEXT(E118, "00") &amp; IF(AND(ISNUMBER(F118), F118&gt;E118), "_" &amp; TEXT(F118, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o06</v>
       </c>
       <c r="B118" t="str">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>IF(ISNUMBER(C119),"arith_" &amp; INDEX(Operations[],J119,2) &amp; "_g" &amp; TEXT(C119, "00") &amp; "_" &amp; TEXT(D119, "00") &amp; "_o" &amp; TEXT(E119, "00") &amp; IF(AND(ISNUMBER(F119), F119&lt;&gt;E119), "_" &amp; TEXT(F119, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C119),"arith_" &amp; INDEX(Operations[],J119,2) &amp; "_g" &amp; TEXT(C119, "00") &amp; "_" &amp; TEXT(D119, "00") &amp; "_o" &amp; TEXT(E119, "00") &amp; IF(AND(ISNUMBER(F119), F119&gt;E119), "_" &amp; TEXT(F119, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o07</v>
       </c>
       <c r="B119" t="str">
@@ -5433,7 +5433,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>IF(ISNUMBER(C120),"arith_" &amp; INDEX(Operations[],J120,2) &amp; "_g" &amp; TEXT(C120, "00") &amp; "_" &amp; TEXT(D120, "00") &amp; "_o" &amp; TEXT(E120, "00") &amp; IF(AND(ISNUMBER(F120), F120&lt;&gt;E120), "_" &amp; TEXT(F120, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C120),"arith_" &amp; INDEX(Operations[],J120,2) &amp; "_g" &amp; TEXT(C120, "00") &amp; "_" &amp; TEXT(D120, "00") &amp; "_o" &amp; TEXT(E120, "00") &amp; IF(AND(ISNUMBER(F120), F120&gt;E120), "_" &amp; TEXT(F120, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o08</v>
       </c>
       <c r="B120" t="str">
@@ -5475,7 +5475,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>IF(ISNUMBER(C121),"arith_" &amp; INDEX(Operations[],J121,2) &amp; "_g" &amp; TEXT(C121, "00") &amp; "_" &amp; TEXT(D121, "00") &amp; "_o" &amp; TEXT(E121, "00") &amp; IF(AND(ISNUMBER(F121), F121&lt;&gt;E121), "_" &amp; TEXT(F121, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C121),"arith_" &amp; INDEX(Operations[],J121,2) &amp; "_g" &amp; TEXT(C121, "00") &amp; "_" &amp; TEXT(D121, "00") &amp; "_o" &amp; TEXT(E121, "00") &amp; IF(AND(ISNUMBER(F121), F121&gt;E121), "_" &amp; TEXT(F121, "00"), ""), "")</f>
         <v>arith_sub_g02_00_o09</v>
       </c>
       <c r="B121" t="str">
@@ -5517,7 +5517,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>IF(ISNUMBER(C122),"arith_" &amp; INDEX(Operations[],J122,2) &amp; "_g" &amp; TEXT(C122, "00") &amp; "_" &amp; TEXT(D122, "00") &amp; "_o" &amp; TEXT(E122, "00") &amp; IF(AND(ISNUMBER(F122), F122&lt;&gt;E122), "_" &amp; TEXT(F122, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C122),"arith_" &amp; INDEX(Operations[],J122,2) &amp; "_g" &amp; TEXT(C122, "00") &amp; "_" &amp; TEXT(D122, "00") &amp; "_o" &amp; TEXT(E122, "00") &amp; IF(AND(ISNUMBER(F122), F122&gt;E122), "_" &amp; TEXT(F122, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B122" t="str">
@@ -5559,7 +5559,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>IF(ISNUMBER(C123),"arith_" &amp; INDEX(Operations[],J123,2) &amp; "_g" &amp; TEXT(C123, "00") &amp; "_" &amp; TEXT(D123, "00") &amp; "_o" &amp; TEXT(E123, "00") &amp; IF(AND(ISNUMBER(F123), F123&lt;&gt;E123), "_" &amp; TEXT(F123, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C123),"arith_" &amp; INDEX(Operations[],J123,2) &amp; "_g" &amp; TEXT(C123, "00") &amp; "_" &amp; TEXT(D123, "00") &amp; "_o" &amp; TEXT(E123, "00") &amp; IF(AND(ISNUMBER(F123), F123&gt;E123), "_" &amp; TEXT(F123, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o01</v>
       </c>
       <c r="B123" t="str">
@@ -5601,7 +5601,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>IF(ISNUMBER(C124),"arith_" &amp; INDEX(Operations[],J124,2) &amp; "_g" &amp; TEXT(C124, "00") &amp; "_" &amp; TEXT(D124, "00") &amp; "_o" &amp; TEXT(E124, "00") &amp; IF(AND(ISNUMBER(F124), F124&lt;&gt;E124), "_" &amp; TEXT(F124, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C124),"arith_" &amp; INDEX(Operations[],J124,2) &amp; "_g" &amp; TEXT(C124, "00") &amp; "_" &amp; TEXT(D124, "00") &amp; "_o" &amp; TEXT(E124, "00") &amp; IF(AND(ISNUMBER(F124), F124&gt;E124), "_" &amp; TEXT(F124, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o02</v>
       </c>
       <c r="B124" t="str">
@@ -5643,7 +5643,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>IF(ISNUMBER(C125),"arith_" &amp; INDEX(Operations[],J125,2) &amp; "_g" &amp; TEXT(C125, "00") &amp; "_" &amp; TEXT(D125, "00") &amp; "_o" &amp; TEXT(E125, "00") &amp; IF(AND(ISNUMBER(F125), F125&lt;&gt;E125), "_" &amp; TEXT(F125, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C125),"arith_" &amp; INDEX(Operations[],J125,2) &amp; "_g" &amp; TEXT(C125, "00") &amp; "_" &amp; TEXT(D125, "00") &amp; "_o" &amp; TEXT(E125, "00") &amp; IF(AND(ISNUMBER(F125), F125&gt;E125), "_" &amp; TEXT(F125, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o03</v>
       </c>
       <c r="B125" t="str">
@@ -5685,7 +5685,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>IF(ISNUMBER(C126),"arith_" &amp; INDEX(Operations[],J126,2) &amp; "_g" &amp; TEXT(C126, "00") &amp; "_" &amp; TEXT(D126, "00") &amp; "_o" &amp; TEXT(E126, "00") &amp; IF(AND(ISNUMBER(F126), F126&lt;&gt;E126), "_" &amp; TEXT(F126, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C126),"arith_" &amp; INDEX(Operations[],J126,2) &amp; "_g" &amp; TEXT(C126, "00") &amp; "_" &amp; TEXT(D126, "00") &amp; "_o" &amp; TEXT(E126, "00") &amp; IF(AND(ISNUMBER(F126), F126&gt;E126), "_" &amp; TEXT(F126, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o04</v>
       </c>
       <c r="B126" t="str">
@@ -5727,7 +5727,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>IF(ISNUMBER(C127),"arith_" &amp; INDEX(Operations[],J127,2) &amp; "_g" &amp; TEXT(C127, "00") &amp; "_" &amp; TEXT(D127, "00") &amp; "_o" &amp; TEXT(E127, "00") &amp; IF(AND(ISNUMBER(F127), F127&lt;&gt;E127), "_" &amp; TEXT(F127, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C127),"arith_" &amp; INDEX(Operations[],J127,2) &amp; "_g" &amp; TEXT(C127, "00") &amp; "_" &amp; TEXT(D127, "00") &amp; "_o" &amp; TEXT(E127, "00") &amp; IF(AND(ISNUMBER(F127), F127&gt;E127), "_" &amp; TEXT(F127, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o05</v>
       </c>
       <c r="B127" t="str">
@@ -5769,7 +5769,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>IF(ISNUMBER(C128),"arith_" &amp; INDEX(Operations[],J128,2) &amp; "_g" &amp; TEXT(C128, "00") &amp; "_" &amp; TEXT(D128, "00") &amp; "_o" &amp; TEXT(E128, "00") &amp; IF(AND(ISNUMBER(F128), F128&lt;&gt;E128), "_" &amp; TEXT(F128, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C128),"arith_" &amp; INDEX(Operations[],J128,2) &amp; "_g" &amp; TEXT(C128, "00") &amp; "_" &amp; TEXT(D128, "00") &amp; "_o" &amp; TEXT(E128, "00") &amp; IF(AND(ISNUMBER(F128), F128&gt;E128), "_" &amp; TEXT(F128, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o06</v>
       </c>
       <c r="B128" t="str">
@@ -5811,7 +5811,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>IF(ISNUMBER(C129),"arith_" &amp; INDEX(Operations[],J129,2) &amp; "_g" &amp; TEXT(C129, "00") &amp; "_" &amp; TEXT(D129, "00") &amp; "_o" &amp; TEXT(E129, "00") &amp; IF(AND(ISNUMBER(F129), F129&lt;&gt;E129), "_" &amp; TEXT(F129, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C129),"arith_" &amp; INDEX(Operations[],J129,2) &amp; "_g" &amp; TEXT(C129, "00") &amp; "_" &amp; TEXT(D129, "00") &amp; "_o" &amp; TEXT(E129, "00") &amp; IF(AND(ISNUMBER(F129), F129&gt;E129), "_" &amp; TEXT(F129, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o07</v>
       </c>
       <c r="B129" t="str">
@@ -5853,7 +5853,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>IF(ISNUMBER(C130),"arith_" &amp; INDEX(Operations[],J130,2) &amp; "_g" &amp; TEXT(C130, "00") &amp; "_" &amp; TEXT(D130, "00") &amp; "_o" &amp; TEXT(E130, "00") &amp; IF(AND(ISNUMBER(F130), F130&lt;&gt;E130), "_" &amp; TEXT(F130, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C130),"arith_" &amp; INDEX(Operations[],J130,2) &amp; "_g" &amp; TEXT(C130, "00") &amp; "_" &amp; TEXT(D130, "00") &amp; "_o" &amp; TEXT(E130, "00") &amp; IF(AND(ISNUMBER(F130), F130&gt;E130), "_" &amp; TEXT(F130, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o08</v>
       </c>
       <c r="B130" t="str">
@@ -5895,7 +5895,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>IF(ISNUMBER(C131),"arith_" &amp; INDEX(Operations[],J131,2) &amp; "_g" &amp; TEXT(C131, "00") &amp; "_" &amp; TEXT(D131, "00") &amp; "_o" &amp; TEXT(E131, "00") &amp; IF(AND(ISNUMBER(F131), F131&lt;&gt;E131), "_" &amp; TEXT(F131, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C131),"arith_" &amp; INDEX(Operations[],J131,2) &amp; "_g" &amp; TEXT(C131, "00") &amp; "_" &amp; TEXT(D131, "00") &amp; "_o" &amp; TEXT(E131, "00") &amp; IF(AND(ISNUMBER(F131), F131&gt;E131), "_" &amp; TEXT(F131, "00"), ""), "")</f>
         <v>arith_sub_g03_00_o09</v>
       </c>
       <c r="B131" t="str">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>IF(ISNUMBER(C132),"arith_" &amp; INDEX(Operations[],J132,2) &amp; "_g" &amp; TEXT(C132, "00") &amp; "_" &amp; TEXT(D132, "00") &amp; "_o" &amp; TEXT(E132, "00") &amp; IF(AND(ISNUMBER(F132), F132&lt;&gt;E132), "_" &amp; TEXT(F132, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C132),"arith_" &amp; INDEX(Operations[],J132,2) &amp; "_g" &amp; TEXT(C132, "00") &amp; "_" &amp; TEXT(D132, "00") &amp; "_o" &amp; TEXT(E132, "00") &amp; IF(AND(ISNUMBER(F132), F132&gt;E132), "_" &amp; TEXT(F132, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B132" t="str">
@@ -5979,7 +5979,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>IF(ISNUMBER(C133),"arith_" &amp; INDEX(Operations[],J133,2) &amp; "_g" &amp; TEXT(C133, "00") &amp; "_" &amp; TEXT(D133, "00") &amp; "_o" &amp; TEXT(E133, "00") &amp; IF(AND(ISNUMBER(F133), F133&lt;&gt;E133), "_" &amp; TEXT(F133, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C133),"arith_" &amp; INDEX(Operations[],J133,2) &amp; "_g" &amp; TEXT(C133, "00") &amp; "_" &amp; TEXT(D133, "00") &amp; "_o" &amp; TEXT(E133, "00") &amp; IF(AND(ISNUMBER(F133), F133&gt;E133), "_" &amp; TEXT(F133, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o01</v>
       </c>
       <c r="B133" t="str">
@@ -6021,7 +6021,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>IF(ISNUMBER(C134),"arith_" &amp; INDEX(Operations[],J134,2) &amp; "_g" &amp; TEXT(C134, "00") &amp; "_" &amp; TEXT(D134, "00") &amp; "_o" &amp; TEXT(E134, "00") &amp; IF(AND(ISNUMBER(F134), F134&lt;&gt;E134), "_" &amp; TEXT(F134, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C134),"arith_" &amp; INDEX(Operations[],J134,2) &amp; "_g" &amp; TEXT(C134, "00") &amp; "_" &amp; TEXT(D134, "00") &amp; "_o" &amp; TEXT(E134, "00") &amp; IF(AND(ISNUMBER(F134), F134&gt;E134), "_" &amp; TEXT(F134, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o02</v>
       </c>
       <c r="B134" t="str">
@@ -6063,7 +6063,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>IF(ISNUMBER(C135),"arith_" &amp; INDEX(Operations[],J135,2) &amp; "_g" &amp; TEXT(C135, "00") &amp; "_" &amp; TEXT(D135, "00") &amp; "_o" &amp; TEXT(E135, "00") &amp; IF(AND(ISNUMBER(F135), F135&lt;&gt;E135), "_" &amp; TEXT(F135, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C135),"arith_" &amp; INDEX(Operations[],J135,2) &amp; "_g" &amp; TEXT(C135, "00") &amp; "_" &amp; TEXT(D135, "00") &amp; "_o" &amp; TEXT(E135, "00") &amp; IF(AND(ISNUMBER(F135), F135&gt;E135), "_" &amp; TEXT(F135, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o03</v>
       </c>
       <c r="B135" t="str">
@@ -6105,7 +6105,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF(ISNUMBER(C136),"arith_" &amp; INDEX(Operations[],J136,2) &amp; "_g" &amp; TEXT(C136, "00") &amp; "_" &amp; TEXT(D136, "00") &amp; "_o" &amp; TEXT(E136, "00") &amp; IF(AND(ISNUMBER(F136), F136&lt;&gt;E136), "_" &amp; TEXT(F136, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C136),"arith_" &amp; INDEX(Operations[],J136,2) &amp; "_g" &amp; TEXT(C136, "00") &amp; "_" &amp; TEXT(D136, "00") &amp; "_o" &amp; TEXT(E136, "00") &amp; IF(AND(ISNUMBER(F136), F136&gt;E136), "_" &amp; TEXT(F136, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o04</v>
       </c>
       <c r="B136" t="str">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>IF(ISNUMBER(C137),"arith_" &amp; INDEX(Operations[],J137,2) &amp; "_g" &amp; TEXT(C137, "00") &amp; "_" &amp; TEXT(D137, "00") &amp; "_o" &amp; TEXT(E137, "00") &amp; IF(AND(ISNUMBER(F137), F137&lt;&gt;E137), "_" &amp; TEXT(F137, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C137),"arith_" &amp; INDEX(Operations[],J137,2) &amp; "_g" &amp; TEXT(C137, "00") &amp; "_" &amp; TEXT(D137, "00") &amp; "_o" &amp; TEXT(E137, "00") &amp; IF(AND(ISNUMBER(F137), F137&gt;E137), "_" &amp; TEXT(F137, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o05</v>
       </c>
       <c r="B137" t="str">
@@ -6189,7 +6189,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>IF(ISNUMBER(C138),"arith_" &amp; INDEX(Operations[],J138,2) &amp; "_g" &amp; TEXT(C138, "00") &amp; "_" &amp; TEXT(D138, "00") &amp; "_o" &amp; TEXT(E138, "00") &amp; IF(AND(ISNUMBER(F138), F138&lt;&gt;E138), "_" &amp; TEXT(F138, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C138),"arith_" &amp; INDEX(Operations[],J138,2) &amp; "_g" &amp; TEXT(C138, "00") &amp; "_" &amp; TEXT(D138, "00") &amp; "_o" &amp; TEXT(E138, "00") &amp; IF(AND(ISNUMBER(F138), F138&gt;E138), "_" &amp; TEXT(F138, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o06</v>
       </c>
       <c r="B138" t="str">
@@ -6231,7 +6231,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>IF(ISNUMBER(C139),"arith_" &amp; INDEX(Operations[],J139,2) &amp; "_g" &amp; TEXT(C139, "00") &amp; "_" &amp; TEXT(D139, "00") &amp; "_o" &amp; TEXT(E139, "00") &amp; IF(AND(ISNUMBER(F139), F139&lt;&gt;E139), "_" &amp; TEXT(F139, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C139),"arith_" &amp; INDEX(Operations[],J139,2) &amp; "_g" &amp; TEXT(C139, "00") &amp; "_" &amp; TEXT(D139, "00") &amp; "_o" &amp; TEXT(E139, "00") &amp; IF(AND(ISNUMBER(F139), F139&gt;E139), "_" &amp; TEXT(F139, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o07</v>
       </c>
       <c r="B139" t="str">
@@ -6273,7 +6273,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f>IF(ISNUMBER(C140),"arith_" &amp; INDEX(Operations[],J140,2) &amp; "_g" &amp; TEXT(C140, "00") &amp; "_" &amp; TEXT(D140, "00") &amp; "_o" &amp; TEXT(E140, "00") &amp; IF(AND(ISNUMBER(F140), F140&lt;&gt;E140), "_" &amp; TEXT(F140, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C140),"arith_" &amp; INDEX(Operations[],J140,2) &amp; "_g" &amp; TEXT(C140, "00") &amp; "_" &amp; TEXT(D140, "00") &amp; "_o" &amp; TEXT(E140, "00") &amp; IF(AND(ISNUMBER(F140), F140&gt;E140), "_" &amp; TEXT(F140, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o08</v>
       </c>
       <c r="B140" t="str">
@@ -6315,7 +6315,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f>IF(ISNUMBER(C141),"arith_" &amp; INDEX(Operations[],J141,2) &amp; "_g" &amp; TEXT(C141, "00") &amp; "_" &amp; TEXT(D141, "00") &amp; "_o" &amp; TEXT(E141, "00") &amp; IF(AND(ISNUMBER(F141), F141&lt;&gt;E141), "_" &amp; TEXT(F141, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C141),"arith_" &amp; INDEX(Operations[],J141,2) &amp; "_g" &amp; TEXT(C141, "00") &amp; "_" &amp; TEXT(D141, "00") &amp; "_o" &amp; TEXT(E141, "00") &amp; IF(AND(ISNUMBER(F141), F141&gt;E141), "_" &amp; TEXT(F141, "00"), ""), "")</f>
         <v>arith_sub_g04_00_o09</v>
       </c>
       <c r="B141" t="str">
@@ -6357,7 +6357,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f>IF(ISNUMBER(C142),"arith_" &amp; INDEX(Operations[],J142,2) &amp; "_g" &amp; TEXT(C142, "00") &amp; "_" &amp; TEXT(D142, "00") &amp; "_o" &amp; TEXT(E142, "00") &amp; IF(AND(ISNUMBER(F142), F142&lt;&gt;E142), "_" &amp; TEXT(F142, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C142),"arith_" &amp; INDEX(Operations[],J142,2) &amp; "_g" &amp; TEXT(C142, "00") &amp; "_" &amp; TEXT(D142, "00") &amp; "_o" &amp; TEXT(E142, "00") &amp; IF(AND(ISNUMBER(F142), F142&gt;E142), "_" &amp; TEXT(F142, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B142" t="str">
@@ -6399,7 +6399,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f>IF(ISNUMBER(C143),"arith_" &amp; INDEX(Operations[],J143,2) &amp; "_g" &amp; TEXT(C143, "00") &amp; "_" &amp; TEXT(D143, "00") &amp; "_o" &amp; TEXT(E143, "00") &amp; IF(AND(ISNUMBER(F143), F143&lt;&gt;E143), "_" &amp; TEXT(F143, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C143),"arith_" &amp; INDEX(Operations[],J143,2) &amp; "_g" &amp; TEXT(C143, "00") &amp; "_" &amp; TEXT(D143, "00") &amp; "_o" &amp; TEXT(E143, "00") &amp; IF(AND(ISNUMBER(F143), F143&gt;E143), "_" &amp; TEXT(F143, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o01</v>
       </c>
       <c r="B143" t="str">
@@ -6441,7 +6441,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f>IF(ISNUMBER(C144),"arith_" &amp; INDEX(Operations[],J144,2) &amp; "_g" &amp; TEXT(C144, "00") &amp; "_" &amp; TEXT(D144, "00") &amp; "_o" &amp; TEXT(E144, "00") &amp; IF(AND(ISNUMBER(F144), F144&lt;&gt;E144), "_" &amp; TEXT(F144, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C144),"arith_" &amp; INDEX(Operations[],J144,2) &amp; "_g" &amp; TEXT(C144, "00") &amp; "_" &amp; TEXT(D144, "00") &amp; "_o" &amp; TEXT(E144, "00") &amp; IF(AND(ISNUMBER(F144), F144&gt;E144), "_" &amp; TEXT(F144, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o02</v>
       </c>
       <c r="B144" t="str">
@@ -6483,7 +6483,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f>IF(ISNUMBER(C145),"arith_" &amp; INDEX(Operations[],J145,2) &amp; "_g" &amp; TEXT(C145, "00") &amp; "_" &amp; TEXT(D145, "00") &amp; "_o" &amp; TEXT(E145, "00") &amp; IF(AND(ISNUMBER(F145), F145&lt;&gt;E145), "_" &amp; TEXT(F145, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C145),"arith_" &amp; INDEX(Operations[],J145,2) &amp; "_g" &amp; TEXT(C145, "00") &amp; "_" &amp; TEXT(D145, "00") &amp; "_o" &amp; TEXT(E145, "00") &amp; IF(AND(ISNUMBER(F145), F145&gt;E145), "_" &amp; TEXT(F145, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o03</v>
       </c>
       <c r="B145" t="str">
@@ -6525,7 +6525,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f>IF(ISNUMBER(C146),"arith_" &amp; INDEX(Operations[],J146,2) &amp; "_g" &amp; TEXT(C146, "00") &amp; "_" &amp; TEXT(D146, "00") &amp; "_o" &amp; TEXT(E146, "00") &amp; IF(AND(ISNUMBER(F146), F146&lt;&gt;E146), "_" &amp; TEXT(F146, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C146),"arith_" &amp; INDEX(Operations[],J146,2) &amp; "_g" &amp; TEXT(C146, "00") &amp; "_" &amp; TEXT(D146, "00") &amp; "_o" &amp; TEXT(E146, "00") &amp; IF(AND(ISNUMBER(F146), F146&gt;E146), "_" &amp; TEXT(F146, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o04</v>
       </c>
       <c r="B146" t="str">
@@ -6567,7 +6567,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f>IF(ISNUMBER(C147),"arith_" &amp; INDEX(Operations[],J147,2) &amp; "_g" &amp; TEXT(C147, "00") &amp; "_" &amp; TEXT(D147, "00") &amp; "_o" &amp; TEXT(E147, "00") &amp; IF(AND(ISNUMBER(F147), F147&lt;&gt;E147), "_" &amp; TEXT(F147, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C147),"arith_" &amp; INDEX(Operations[],J147,2) &amp; "_g" &amp; TEXT(C147, "00") &amp; "_" &amp; TEXT(D147, "00") &amp; "_o" &amp; TEXT(E147, "00") &amp; IF(AND(ISNUMBER(F147), F147&gt;E147), "_" &amp; TEXT(F147, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o05</v>
       </c>
       <c r="B147" t="str">
@@ -6609,7 +6609,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f>IF(ISNUMBER(C148),"arith_" &amp; INDEX(Operations[],J148,2) &amp; "_g" &amp; TEXT(C148, "00") &amp; "_" &amp; TEXT(D148, "00") &amp; "_o" &amp; TEXT(E148, "00") &amp; IF(AND(ISNUMBER(F148), F148&lt;&gt;E148), "_" &amp; TEXT(F148, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C148),"arith_" &amp; INDEX(Operations[],J148,2) &amp; "_g" &amp; TEXT(C148, "00") &amp; "_" &amp; TEXT(D148, "00") &amp; "_o" &amp; TEXT(E148, "00") &amp; IF(AND(ISNUMBER(F148), F148&gt;E148), "_" &amp; TEXT(F148, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o06</v>
       </c>
       <c r="B148" t="str">
@@ -6651,7 +6651,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f>IF(ISNUMBER(C149),"arith_" &amp; INDEX(Operations[],J149,2) &amp; "_g" &amp; TEXT(C149, "00") &amp; "_" &amp; TEXT(D149, "00") &amp; "_o" &amp; TEXT(E149, "00") &amp; IF(AND(ISNUMBER(F149), F149&lt;&gt;E149), "_" &amp; TEXT(F149, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C149),"arith_" &amp; INDEX(Operations[],J149,2) &amp; "_g" &amp; TEXT(C149, "00") &amp; "_" &amp; TEXT(D149, "00") &amp; "_o" &amp; TEXT(E149, "00") &amp; IF(AND(ISNUMBER(F149), F149&gt;E149), "_" &amp; TEXT(F149, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o07</v>
       </c>
       <c r="B149" t="str">
@@ -6693,7 +6693,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f>IF(ISNUMBER(C150),"arith_" &amp; INDEX(Operations[],J150,2) &amp; "_g" &amp; TEXT(C150, "00") &amp; "_" &amp; TEXT(D150, "00") &amp; "_o" &amp; TEXT(E150, "00") &amp; IF(AND(ISNUMBER(F150), F150&lt;&gt;E150), "_" &amp; TEXT(F150, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C150),"arith_" &amp; INDEX(Operations[],J150,2) &amp; "_g" &amp; TEXT(C150, "00") &amp; "_" &amp; TEXT(D150, "00") &amp; "_o" &amp; TEXT(E150, "00") &amp; IF(AND(ISNUMBER(F150), F150&gt;E150), "_" &amp; TEXT(F150, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o08</v>
       </c>
       <c r="B150" t="str">
@@ -6735,7 +6735,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f>IF(ISNUMBER(C151),"arith_" &amp; INDEX(Operations[],J151,2) &amp; "_g" &amp; TEXT(C151, "00") &amp; "_" &amp; TEXT(D151, "00") &amp; "_o" &amp; TEXT(E151, "00") &amp; IF(AND(ISNUMBER(F151), F151&lt;&gt;E151), "_" &amp; TEXT(F151, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C151),"arith_" &amp; INDEX(Operations[],J151,2) &amp; "_g" &amp; TEXT(C151, "00") &amp; "_" &amp; TEXT(D151, "00") &amp; "_o" &amp; TEXT(E151, "00") &amp; IF(AND(ISNUMBER(F151), F151&gt;E151), "_" &amp; TEXT(F151, "00"), ""), "")</f>
         <v>arith_sub_g05_00_o09</v>
       </c>
       <c r="B151" t="str">
@@ -6777,7 +6777,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f>IF(ISNUMBER(C152),"arith_" &amp; INDEX(Operations[],J152,2) &amp; "_g" &amp; TEXT(C152, "00") &amp; "_" &amp; TEXT(D152, "00") &amp; "_o" &amp; TEXT(E152, "00") &amp; IF(AND(ISNUMBER(F152), F152&lt;&gt;E152), "_" &amp; TEXT(F152, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C152),"arith_" &amp; INDEX(Operations[],J152,2) &amp; "_g" &amp; TEXT(C152, "00") &amp; "_" &amp; TEXT(D152, "00") &amp; "_o" &amp; TEXT(E152, "00") &amp; IF(AND(ISNUMBER(F152), F152&gt;E152), "_" &amp; TEXT(F152, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B152" t="str">
@@ -6819,7 +6819,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f>IF(ISNUMBER(C153),"arith_" &amp; INDEX(Operations[],J153,2) &amp; "_g" &amp; TEXT(C153, "00") &amp; "_" &amp; TEXT(D153, "00") &amp; "_o" &amp; TEXT(E153, "00") &amp; IF(AND(ISNUMBER(F153), F153&lt;&gt;E153), "_" &amp; TEXT(F153, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C153),"arith_" &amp; INDEX(Operations[],J153,2) &amp; "_g" &amp; TEXT(C153, "00") &amp; "_" &amp; TEXT(D153, "00") &amp; "_o" &amp; TEXT(E153, "00") &amp; IF(AND(ISNUMBER(F153), F153&gt;E153), "_" &amp; TEXT(F153, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o01</v>
       </c>
       <c r="B153" t="str">
@@ -6861,7 +6861,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f>IF(ISNUMBER(C154),"arith_" &amp; INDEX(Operations[],J154,2) &amp; "_g" &amp; TEXT(C154, "00") &amp; "_" &amp; TEXT(D154, "00") &amp; "_o" &amp; TEXT(E154, "00") &amp; IF(AND(ISNUMBER(F154), F154&lt;&gt;E154), "_" &amp; TEXT(F154, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C154),"arith_" &amp; INDEX(Operations[],J154,2) &amp; "_g" &amp; TEXT(C154, "00") &amp; "_" &amp; TEXT(D154, "00") &amp; "_o" &amp; TEXT(E154, "00") &amp; IF(AND(ISNUMBER(F154), F154&gt;E154), "_" &amp; TEXT(F154, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o02</v>
       </c>
       <c r="B154" t="str">
@@ -6903,7 +6903,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f>IF(ISNUMBER(C155),"arith_" &amp; INDEX(Operations[],J155,2) &amp; "_g" &amp; TEXT(C155, "00") &amp; "_" &amp; TEXT(D155, "00") &amp; "_o" &amp; TEXT(E155, "00") &amp; IF(AND(ISNUMBER(F155), F155&lt;&gt;E155), "_" &amp; TEXT(F155, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C155),"arith_" &amp; INDEX(Operations[],J155,2) &amp; "_g" &amp; TEXT(C155, "00") &amp; "_" &amp; TEXT(D155, "00") &amp; "_o" &amp; TEXT(E155, "00") &amp; IF(AND(ISNUMBER(F155), F155&gt;E155), "_" &amp; TEXT(F155, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o03</v>
       </c>
       <c r="B155" t="str">
@@ -6945,7 +6945,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f>IF(ISNUMBER(C156),"arith_" &amp; INDEX(Operations[],J156,2) &amp; "_g" &amp; TEXT(C156, "00") &amp; "_" &amp; TEXT(D156, "00") &amp; "_o" &amp; TEXT(E156, "00") &amp; IF(AND(ISNUMBER(F156), F156&lt;&gt;E156), "_" &amp; TEXT(F156, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C156),"arith_" &amp; INDEX(Operations[],J156,2) &amp; "_g" &amp; TEXT(C156, "00") &amp; "_" &amp; TEXT(D156, "00") &amp; "_o" &amp; TEXT(E156, "00") &amp; IF(AND(ISNUMBER(F156), F156&gt;E156), "_" &amp; TEXT(F156, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o04</v>
       </c>
       <c r="B156" t="str">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f>IF(ISNUMBER(C157),"arith_" &amp; INDEX(Operations[],J157,2) &amp; "_g" &amp; TEXT(C157, "00") &amp; "_" &amp; TEXT(D157, "00") &amp; "_o" &amp; TEXT(E157, "00") &amp; IF(AND(ISNUMBER(F157), F157&lt;&gt;E157), "_" &amp; TEXT(F157, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C157),"arith_" &amp; INDEX(Operations[],J157,2) &amp; "_g" &amp; TEXT(C157, "00") &amp; "_" &amp; TEXT(D157, "00") &amp; "_o" &amp; TEXT(E157, "00") &amp; IF(AND(ISNUMBER(F157), F157&gt;E157), "_" &amp; TEXT(F157, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o05</v>
       </c>
       <c r="B157" t="str">
@@ -7029,7 +7029,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f>IF(ISNUMBER(C158),"arith_" &amp; INDEX(Operations[],J158,2) &amp; "_g" &amp; TEXT(C158, "00") &amp; "_" &amp; TEXT(D158, "00") &amp; "_o" &amp; TEXT(E158, "00") &amp; IF(AND(ISNUMBER(F158), F158&lt;&gt;E158), "_" &amp; TEXT(F158, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C158),"arith_" &amp; INDEX(Operations[],J158,2) &amp; "_g" &amp; TEXT(C158, "00") &amp; "_" &amp; TEXT(D158, "00") &amp; "_o" &amp; TEXT(E158, "00") &amp; IF(AND(ISNUMBER(F158), F158&gt;E158), "_" &amp; TEXT(F158, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o06</v>
       </c>
       <c r="B158" t="str">
@@ -7071,7 +7071,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f>IF(ISNUMBER(C159),"arith_" &amp; INDEX(Operations[],J159,2) &amp; "_g" &amp; TEXT(C159, "00") &amp; "_" &amp; TEXT(D159, "00") &amp; "_o" &amp; TEXT(E159, "00") &amp; IF(AND(ISNUMBER(F159), F159&lt;&gt;E159), "_" &amp; TEXT(F159, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C159),"arith_" &amp; INDEX(Operations[],J159,2) &amp; "_g" &amp; TEXT(C159, "00") &amp; "_" &amp; TEXT(D159, "00") &amp; "_o" &amp; TEXT(E159, "00") &amp; IF(AND(ISNUMBER(F159), F159&gt;E159), "_" &amp; TEXT(F159, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o07</v>
       </c>
       <c r="B159" t="str">
@@ -7113,7 +7113,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f>IF(ISNUMBER(C160),"arith_" &amp; INDEX(Operations[],J160,2) &amp; "_g" &amp; TEXT(C160, "00") &amp; "_" &amp; TEXT(D160, "00") &amp; "_o" &amp; TEXT(E160, "00") &amp; IF(AND(ISNUMBER(F160), F160&lt;&gt;E160), "_" &amp; TEXT(F160, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C160),"arith_" &amp; INDEX(Operations[],J160,2) &amp; "_g" &amp; TEXT(C160, "00") &amp; "_" &amp; TEXT(D160, "00") &amp; "_o" &amp; TEXT(E160, "00") &amp; IF(AND(ISNUMBER(F160), F160&gt;E160), "_" &amp; TEXT(F160, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o08</v>
       </c>
       <c r="B160" t="str">
@@ -7155,7 +7155,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f>IF(ISNUMBER(C161),"arith_" &amp; INDEX(Operations[],J161,2) &amp; "_g" &amp; TEXT(C161, "00") &amp; "_" &amp; TEXT(D161, "00") &amp; "_o" &amp; TEXT(E161, "00") &amp; IF(AND(ISNUMBER(F161), F161&lt;&gt;E161), "_" &amp; TEXT(F161, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C161),"arith_" &amp; INDEX(Operations[],J161,2) &amp; "_g" &amp; TEXT(C161, "00") &amp; "_" &amp; TEXT(D161, "00") &amp; "_o" &amp; TEXT(E161, "00") &amp; IF(AND(ISNUMBER(F161), F161&gt;E161), "_" &amp; TEXT(F161, "00"), ""), "")</f>
         <v>arith_sub_g06_00_o09</v>
       </c>
       <c r="B161" t="str">
@@ -7197,7 +7197,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f>IF(ISNUMBER(C162),"arith_" &amp; INDEX(Operations[],J162,2) &amp; "_g" &amp; TEXT(C162, "00") &amp; "_" &amp; TEXT(D162, "00") &amp; "_o" &amp; TEXT(E162, "00") &amp; IF(AND(ISNUMBER(F162), F162&lt;&gt;E162), "_" &amp; TEXT(F162, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C162),"arith_" &amp; INDEX(Operations[],J162,2) &amp; "_g" &amp; TEXT(C162, "00") &amp; "_" &amp; TEXT(D162, "00") &amp; "_o" &amp; TEXT(E162, "00") &amp; IF(AND(ISNUMBER(F162), F162&gt;E162), "_" &amp; TEXT(F162, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B162" t="str">
@@ -7239,7 +7239,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f>IF(ISNUMBER(C163),"arith_" &amp; INDEX(Operations[],J163,2) &amp; "_g" &amp; TEXT(C163, "00") &amp; "_" &amp; TEXT(D163, "00") &amp; "_o" &amp; TEXT(E163, "00") &amp; IF(AND(ISNUMBER(F163), F163&lt;&gt;E163), "_" &amp; TEXT(F163, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C163),"arith_" &amp; INDEX(Operations[],J163,2) &amp; "_g" &amp; TEXT(C163, "00") &amp; "_" &amp; TEXT(D163, "00") &amp; "_o" &amp; TEXT(E163, "00") &amp; IF(AND(ISNUMBER(F163), F163&gt;E163), "_" &amp; TEXT(F163, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o01</v>
       </c>
       <c r="B163" t="str">
@@ -7281,7 +7281,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f>IF(ISNUMBER(C164),"arith_" &amp; INDEX(Operations[],J164,2) &amp; "_g" &amp; TEXT(C164, "00") &amp; "_" &amp; TEXT(D164, "00") &amp; "_o" &amp; TEXT(E164, "00") &amp; IF(AND(ISNUMBER(F164), F164&lt;&gt;E164), "_" &amp; TEXT(F164, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C164),"arith_" &amp; INDEX(Operations[],J164,2) &amp; "_g" &amp; TEXT(C164, "00") &amp; "_" &amp; TEXT(D164, "00") &amp; "_o" &amp; TEXT(E164, "00") &amp; IF(AND(ISNUMBER(F164), F164&gt;E164), "_" &amp; TEXT(F164, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o02</v>
       </c>
       <c r="B164" t="str">
@@ -7323,7 +7323,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f>IF(ISNUMBER(C165),"arith_" &amp; INDEX(Operations[],J165,2) &amp; "_g" &amp; TEXT(C165, "00") &amp; "_" &amp; TEXT(D165, "00") &amp; "_o" &amp; TEXT(E165, "00") &amp; IF(AND(ISNUMBER(F165), F165&lt;&gt;E165), "_" &amp; TEXT(F165, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C165),"arith_" &amp; INDEX(Operations[],J165,2) &amp; "_g" &amp; TEXT(C165, "00") &amp; "_" &amp; TEXT(D165, "00") &amp; "_o" &amp; TEXT(E165, "00") &amp; IF(AND(ISNUMBER(F165), F165&gt;E165), "_" &amp; TEXT(F165, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o03</v>
       </c>
       <c r="B165" t="str">
@@ -7365,7 +7365,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f>IF(ISNUMBER(C166),"arith_" &amp; INDEX(Operations[],J166,2) &amp; "_g" &amp; TEXT(C166, "00") &amp; "_" &amp; TEXT(D166, "00") &amp; "_o" &amp; TEXT(E166, "00") &amp; IF(AND(ISNUMBER(F166), F166&lt;&gt;E166), "_" &amp; TEXT(F166, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C166),"arith_" &amp; INDEX(Operations[],J166,2) &amp; "_g" &amp; TEXT(C166, "00") &amp; "_" &amp; TEXT(D166, "00") &amp; "_o" &amp; TEXT(E166, "00") &amp; IF(AND(ISNUMBER(F166), F166&gt;E166), "_" &amp; TEXT(F166, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o04</v>
       </c>
       <c r="B166" t="str">
@@ -7407,7 +7407,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f>IF(ISNUMBER(C167),"arith_" &amp; INDEX(Operations[],J167,2) &amp; "_g" &amp; TEXT(C167, "00") &amp; "_" &amp; TEXT(D167, "00") &amp; "_o" &amp; TEXT(E167, "00") &amp; IF(AND(ISNUMBER(F167), F167&lt;&gt;E167), "_" &amp; TEXT(F167, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C167),"arith_" &amp; INDEX(Operations[],J167,2) &amp; "_g" &amp; TEXT(C167, "00") &amp; "_" &amp; TEXT(D167, "00") &amp; "_o" &amp; TEXT(E167, "00") &amp; IF(AND(ISNUMBER(F167), F167&gt;E167), "_" &amp; TEXT(F167, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o05</v>
       </c>
       <c r="B167" t="str">
@@ -7449,7 +7449,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f>IF(ISNUMBER(C168),"arith_" &amp; INDEX(Operations[],J168,2) &amp; "_g" &amp; TEXT(C168, "00") &amp; "_" &amp; TEXT(D168, "00") &amp; "_o" &amp; TEXT(E168, "00") &amp; IF(AND(ISNUMBER(F168), F168&lt;&gt;E168), "_" &amp; TEXT(F168, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C168),"arith_" &amp; INDEX(Operations[],J168,2) &amp; "_g" &amp; TEXT(C168, "00") &amp; "_" &amp; TEXT(D168, "00") &amp; "_o" &amp; TEXT(E168, "00") &amp; IF(AND(ISNUMBER(F168), F168&gt;E168), "_" &amp; TEXT(F168, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o06</v>
       </c>
       <c r="B168" t="str">
@@ -7491,7 +7491,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f>IF(ISNUMBER(C169),"arith_" &amp; INDEX(Operations[],J169,2) &amp; "_g" &amp; TEXT(C169, "00") &amp; "_" &amp; TEXT(D169, "00") &amp; "_o" &amp; TEXT(E169, "00") &amp; IF(AND(ISNUMBER(F169), F169&lt;&gt;E169), "_" &amp; TEXT(F169, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C169),"arith_" &amp; INDEX(Operations[],J169,2) &amp; "_g" &amp; TEXT(C169, "00") &amp; "_" &amp; TEXT(D169, "00") &amp; "_o" &amp; TEXT(E169, "00") &amp; IF(AND(ISNUMBER(F169), F169&gt;E169), "_" &amp; TEXT(F169, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o07</v>
       </c>
       <c r="B169" t="str">
@@ -7533,7 +7533,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f>IF(ISNUMBER(C170),"arith_" &amp; INDEX(Operations[],J170,2) &amp; "_g" &amp; TEXT(C170, "00") &amp; "_" &amp; TEXT(D170, "00") &amp; "_o" &amp; TEXT(E170, "00") &amp; IF(AND(ISNUMBER(F170), F170&lt;&gt;E170), "_" &amp; TEXT(F170, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C170),"arith_" &amp; INDEX(Operations[],J170,2) &amp; "_g" &amp; TEXT(C170, "00") &amp; "_" &amp; TEXT(D170, "00") &amp; "_o" &amp; TEXT(E170, "00") &amp; IF(AND(ISNUMBER(F170), F170&gt;E170), "_" &amp; TEXT(F170, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o08</v>
       </c>
       <c r="B170" t="str">
@@ -7575,7 +7575,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f>IF(ISNUMBER(C171),"arith_" &amp; INDEX(Operations[],J171,2) &amp; "_g" &amp; TEXT(C171, "00") &amp; "_" &amp; TEXT(D171, "00") &amp; "_o" &amp; TEXT(E171, "00") &amp; IF(AND(ISNUMBER(F171), F171&lt;&gt;E171), "_" &amp; TEXT(F171, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C171),"arith_" &amp; INDEX(Operations[],J171,2) &amp; "_g" &amp; TEXT(C171, "00") &amp; "_" &amp; TEXT(D171, "00") &amp; "_o" &amp; TEXT(E171, "00") &amp; IF(AND(ISNUMBER(F171), F171&gt;E171), "_" &amp; TEXT(F171, "00"), ""), "")</f>
         <v>arith_sub_g07_00_o09</v>
       </c>
       <c r="B171" t="str">
@@ -7617,7 +7617,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f>IF(ISNUMBER(C172),"arith_" &amp; INDEX(Operations[],J172,2) &amp; "_g" &amp; TEXT(C172, "00") &amp; "_" &amp; TEXT(D172, "00") &amp; "_o" &amp; TEXT(E172, "00") &amp; IF(AND(ISNUMBER(F172), F172&lt;&gt;E172), "_" &amp; TEXT(F172, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C172),"arith_" &amp; INDEX(Operations[],J172,2) &amp; "_g" &amp; TEXT(C172, "00") &amp; "_" &amp; TEXT(D172, "00") &amp; "_o" &amp; TEXT(E172, "00") &amp; IF(AND(ISNUMBER(F172), F172&gt;E172), "_" &amp; TEXT(F172, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B172" t="str">
@@ -7659,7 +7659,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f>IF(ISNUMBER(C173),"arith_" &amp; INDEX(Operations[],J173,2) &amp; "_g" &amp; TEXT(C173, "00") &amp; "_" &amp; TEXT(D173, "00") &amp; "_o" &amp; TEXT(E173, "00") &amp; IF(AND(ISNUMBER(F173), F173&lt;&gt;E173), "_" &amp; TEXT(F173, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C173),"arith_" &amp; INDEX(Operations[],J173,2) &amp; "_g" &amp; TEXT(C173, "00") &amp; "_" &amp; TEXT(D173, "00") &amp; "_o" &amp; TEXT(E173, "00") &amp; IF(AND(ISNUMBER(F173), F173&gt;E173), "_" &amp; TEXT(F173, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o01</v>
       </c>
       <c r="B173" t="str">
@@ -7701,7 +7701,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f>IF(ISNUMBER(C174),"arith_" &amp; INDEX(Operations[],J174,2) &amp; "_g" &amp; TEXT(C174, "00") &amp; "_" &amp; TEXT(D174, "00") &amp; "_o" &amp; TEXT(E174, "00") &amp; IF(AND(ISNUMBER(F174), F174&lt;&gt;E174), "_" &amp; TEXT(F174, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C174),"arith_" &amp; INDEX(Operations[],J174,2) &amp; "_g" &amp; TEXT(C174, "00") &amp; "_" &amp; TEXT(D174, "00") &amp; "_o" &amp; TEXT(E174, "00") &amp; IF(AND(ISNUMBER(F174), F174&gt;E174), "_" &amp; TEXT(F174, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o02</v>
       </c>
       <c r="B174" t="str">
@@ -7743,7 +7743,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f>IF(ISNUMBER(C175),"arith_" &amp; INDEX(Operations[],J175,2) &amp; "_g" &amp; TEXT(C175, "00") &amp; "_" &amp; TEXT(D175, "00") &amp; "_o" &amp; TEXT(E175, "00") &amp; IF(AND(ISNUMBER(F175), F175&lt;&gt;E175), "_" &amp; TEXT(F175, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C175),"arith_" &amp; INDEX(Operations[],J175,2) &amp; "_g" &amp; TEXT(C175, "00") &amp; "_" &amp; TEXT(D175, "00") &amp; "_o" &amp; TEXT(E175, "00") &amp; IF(AND(ISNUMBER(F175), F175&gt;E175), "_" &amp; TEXT(F175, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o03</v>
       </c>
       <c r="B175" t="str">
@@ -7785,7 +7785,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f>IF(ISNUMBER(C176),"arith_" &amp; INDEX(Operations[],J176,2) &amp; "_g" &amp; TEXT(C176, "00") &amp; "_" &amp; TEXT(D176, "00") &amp; "_o" &amp; TEXT(E176, "00") &amp; IF(AND(ISNUMBER(F176), F176&lt;&gt;E176), "_" &amp; TEXT(F176, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C176),"arith_" &amp; INDEX(Operations[],J176,2) &amp; "_g" &amp; TEXT(C176, "00") &amp; "_" &amp; TEXT(D176, "00") &amp; "_o" &amp; TEXT(E176, "00") &amp; IF(AND(ISNUMBER(F176), F176&gt;E176), "_" &amp; TEXT(F176, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o04</v>
       </c>
       <c r="B176" t="str">
@@ -7827,7 +7827,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f>IF(ISNUMBER(C177),"arith_" &amp; INDEX(Operations[],J177,2) &amp; "_g" &amp; TEXT(C177, "00") &amp; "_" &amp; TEXT(D177, "00") &amp; "_o" &amp; TEXT(E177, "00") &amp; IF(AND(ISNUMBER(F177), F177&lt;&gt;E177), "_" &amp; TEXT(F177, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C177),"arith_" &amp; INDEX(Operations[],J177,2) &amp; "_g" &amp; TEXT(C177, "00") &amp; "_" &amp; TEXT(D177, "00") &amp; "_o" &amp; TEXT(E177, "00") &amp; IF(AND(ISNUMBER(F177), F177&gt;E177), "_" &amp; TEXT(F177, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o05</v>
       </c>
       <c r="B177" t="str">
@@ -7869,7 +7869,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f>IF(ISNUMBER(C178),"arith_" &amp; INDEX(Operations[],J178,2) &amp; "_g" &amp; TEXT(C178, "00") &amp; "_" &amp; TEXT(D178, "00") &amp; "_o" &amp; TEXT(E178, "00") &amp; IF(AND(ISNUMBER(F178), F178&lt;&gt;E178), "_" &amp; TEXT(F178, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C178),"arith_" &amp; INDEX(Operations[],J178,2) &amp; "_g" &amp; TEXT(C178, "00") &amp; "_" &amp; TEXT(D178, "00") &amp; "_o" &amp; TEXT(E178, "00") &amp; IF(AND(ISNUMBER(F178), F178&gt;E178), "_" &amp; TEXT(F178, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o06</v>
       </c>
       <c r="B178" t="str">
@@ -7911,7 +7911,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f>IF(ISNUMBER(C179),"arith_" &amp; INDEX(Operations[],J179,2) &amp; "_g" &amp; TEXT(C179, "00") &amp; "_" &amp; TEXT(D179, "00") &amp; "_o" &amp; TEXT(E179, "00") &amp; IF(AND(ISNUMBER(F179), F179&lt;&gt;E179), "_" &amp; TEXT(F179, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C179),"arith_" &amp; INDEX(Operations[],J179,2) &amp; "_g" &amp; TEXT(C179, "00") &amp; "_" &amp; TEXT(D179, "00") &amp; "_o" &amp; TEXT(E179, "00") &amp; IF(AND(ISNUMBER(F179), F179&gt;E179), "_" &amp; TEXT(F179, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o07</v>
       </c>
       <c r="B179" t="str">
@@ -7953,7 +7953,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f>IF(ISNUMBER(C180),"arith_" &amp; INDEX(Operations[],J180,2) &amp; "_g" &amp; TEXT(C180, "00") &amp; "_" &amp; TEXT(D180, "00") &amp; "_o" &amp; TEXT(E180, "00") &amp; IF(AND(ISNUMBER(F180), F180&lt;&gt;E180), "_" &amp; TEXT(F180, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C180),"arith_" &amp; INDEX(Operations[],J180,2) &amp; "_g" &amp; TEXT(C180, "00") &amp; "_" &amp; TEXT(D180, "00") &amp; "_o" &amp; TEXT(E180, "00") &amp; IF(AND(ISNUMBER(F180), F180&gt;E180), "_" &amp; TEXT(F180, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o08</v>
       </c>
       <c r="B180" t="str">
@@ -7995,7 +7995,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f>IF(ISNUMBER(C181),"arith_" &amp; INDEX(Operations[],J181,2) &amp; "_g" &amp; TEXT(C181, "00") &amp; "_" &amp; TEXT(D181, "00") &amp; "_o" &amp; TEXT(E181, "00") &amp; IF(AND(ISNUMBER(F181), F181&lt;&gt;E181), "_" &amp; TEXT(F181, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C181),"arith_" &amp; INDEX(Operations[],J181,2) &amp; "_g" &amp; TEXT(C181, "00") &amp; "_" &amp; TEXT(D181, "00") &amp; "_o" &amp; TEXT(E181, "00") &amp; IF(AND(ISNUMBER(F181), F181&gt;E181), "_" &amp; TEXT(F181, "00"), ""), "")</f>
         <v>arith_sub_g08_00_o09</v>
       </c>
       <c r="B181" t="str">
@@ -8037,7 +8037,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f>IF(ISNUMBER(C182),"arith_" &amp; INDEX(Operations[],J182,2) &amp; "_g" &amp; TEXT(C182, "00") &amp; "_" &amp; TEXT(D182, "00") &amp; "_o" &amp; TEXT(E182, "00") &amp; IF(AND(ISNUMBER(F182), F182&lt;&gt;E182), "_" &amp; TEXT(F182, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C182),"arith_" &amp; INDEX(Operations[],J182,2) &amp; "_g" &amp; TEXT(C182, "00") &amp; "_" &amp; TEXT(D182, "00") &amp; "_o" &amp; TEXT(E182, "00") &amp; IF(AND(ISNUMBER(F182), F182&gt;E182), "_" &amp; TEXT(F182, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B182" t="str">
@@ -8079,7 +8079,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f>IF(ISNUMBER(C183),"arith_" &amp; INDEX(Operations[],J183,2) &amp; "_g" &amp; TEXT(C183, "00") &amp; "_" &amp; TEXT(D183, "00") &amp; "_o" &amp; TEXT(E183, "00") &amp; IF(AND(ISNUMBER(F183), F183&lt;&gt;E183), "_" &amp; TEXT(F183, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C183),"arith_" &amp; INDEX(Operations[],J183,2) &amp; "_g" &amp; TEXT(C183, "00") &amp; "_" &amp; TEXT(D183, "00") &amp; "_o" &amp; TEXT(E183, "00") &amp; IF(AND(ISNUMBER(F183), F183&gt;E183), "_" &amp; TEXT(F183, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o01</v>
       </c>
       <c r="B183" t="str">
@@ -8121,7 +8121,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f>IF(ISNUMBER(C184),"arith_" &amp; INDEX(Operations[],J184,2) &amp; "_g" &amp; TEXT(C184, "00") &amp; "_" &amp; TEXT(D184, "00") &amp; "_o" &amp; TEXT(E184, "00") &amp; IF(AND(ISNUMBER(F184), F184&lt;&gt;E184), "_" &amp; TEXT(F184, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C184),"arith_" &amp; INDEX(Operations[],J184,2) &amp; "_g" &amp; TEXT(C184, "00") &amp; "_" &amp; TEXT(D184, "00") &amp; "_o" &amp; TEXT(E184, "00") &amp; IF(AND(ISNUMBER(F184), F184&gt;E184), "_" &amp; TEXT(F184, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o02</v>
       </c>
       <c r="B184" t="str">
@@ -8163,7 +8163,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f>IF(ISNUMBER(C185),"arith_" &amp; INDEX(Operations[],J185,2) &amp; "_g" &amp; TEXT(C185, "00") &amp; "_" &amp; TEXT(D185, "00") &amp; "_o" &amp; TEXT(E185, "00") &amp; IF(AND(ISNUMBER(F185), F185&lt;&gt;E185), "_" &amp; TEXT(F185, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C185),"arith_" &amp; INDEX(Operations[],J185,2) &amp; "_g" &amp; TEXT(C185, "00") &amp; "_" &amp; TEXT(D185, "00") &amp; "_o" &amp; TEXT(E185, "00") &amp; IF(AND(ISNUMBER(F185), F185&gt;E185), "_" &amp; TEXT(F185, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o03</v>
       </c>
       <c r="B185" t="str">
@@ -8205,7 +8205,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f>IF(ISNUMBER(C186),"arith_" &amp; INDEX(Operations[],J186,2) &amp; "_g" &amp; TEXT(C186, "00") &amp; "_" &amp; TEXT(D186, "00") &amp; "_o" &amp; TEXT(E186, "00") &amp; IF(AND(ISNUMBER(F186), F186&lt;&gt;E186), "_" &amp; TEXT(F186, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C186),"arith_" &amp; INDEX(Operations[],J186,2) &amp; "_g" &amp; TEXT(C186, "00") &amp; "_" &amp; TEXT(D186, "00") &amp; "_o" &amp; TEXT(E186, "00") &amp; IF(AND(ISNUMBER(F186), F186&gt;E186), "_" &amp; TEXT(F186, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o04</v>
       </c>
       <c r="B186" t="str">
@@ -8247,7 +8247,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f>IF(ISNUMBER(C187),"arith_" &amp; INDEX(Operations[],J187,2) &amp; "_g" &amp; TEXT(C187, "00") &amp; "_" &amp; TEXT(D187, "00") &amp; "_o" &amp; TEXT(E187, "00") &amp; IF(AND(ISNUMBER(F187), F187&lt;&gt;E187), "_" &amp; TEXT(F187, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C187),"arith_" &amp; INDEX(Operations[],J187,2) &amp; "_g" &amp; TEXT(C187, "00") &amp; "_" &amp; TEXT(D187, "00") &amp; "_o" &amp; TEXT(E187, "00") &amp; IF(AND(ISNUMBER(F187), F187&gt;E187), "_" &amp; TEXT(F187, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o05</v>
       </c>
       <c r="B187" t="str">
@@ -8289,7 +8289,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f>IF(ISNUMBER(C188),"arith_" &amp; INDEX(Operations[],J188,2) &amp; "_g" &amp; TEXT(C188, "00") &amp; "_" &amp; TEXT(D188, "00") &amp; "_o" &amp; TEXT(E188, "00") &amp; IF(AND(ISNUMBER(F188), F188&lt;&gt;E188), "_" &amp; TEXT(F188, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C188),"arith_" &amp; INDEX(Operations[],J188,2) &amp; "_g" &amp; TEXT(C188, "00") &amp; "_" &amp; TEXT(D188, "00") &amp; "_o" &amp; TEXT(E188, "00") &amp; IF(AND(ISNUMBER(F188), F188&gt;E188), "_" &amp; TEXT(F188, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o06</v>
       </c>
       <c r="B188" t="str">
@@ -8331,7 +8331,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f>IF(ISNUMBER(C189),"arith_" &amp; INDEX(Operations[],J189,2) &amp; "_g" &amp; TEXT(C189, "00") &amp; "_" &amp; TEXT(D189, "00") &amp; "_o" &amp; TEXT(E189, "00") &amp; IF(AND(ISNUMBER(F189), F189&lt;&gt;E189), "_" &amp; TEXT(F189, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C189),"arith_" &amp; INDEX(Operations[],J189,2) &amp; "_g" &amp; TEXT(C189, "00") &amp; "_" &amp; TEXT(D189, "00") &amp; "_o" &amp; TEXT(E189, "00") &amp; IF(AND(ISNUMBER(F189), F189&gt;E189), "_" &amp; TEXT(F189, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o07</v>
       </c>
       <c r="B189" t="str">
@@ -8373,7 +8373,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f>IF(ISNUMBER(C190),"arith_" &amp; INDEX(Operations[],J190,2) &amp; "_g" &amp; TEXT(C190, "00") &amp; "_" &amp; TEXT(D190, "00") &amp; "_o" &amp; TEXT(E190, "00") &amp; IF(AND(ISNUMBER(F190), F190&lt;&gt;E190), "_" &amp; TEXT(F190, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C190),"arith_" &amp; INDEX(Operations[],J190,2) &amp; "_g" &amp; TEXT(C190, "00") &amp; "_" &amp; TEXT(D190, "00") &amp; "_o" &amp; TEXT(E190, "00") &amp; IF(AND(ISNUMBER(F190), F190&gt;E190), "_" &amp; TEXT(F190, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o08</v>
       </c>
       <c r="B190" t="str">
@@ -8415,7 +8415,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f>IF(ISNUMBER(C191),"arith_" &amp; INDEX(Operations[],J191,2) &amp; "_g" &amp; TEXT(C191, "00") &amp; "_" &amp; TEXT(D191, "00") &amp; "_o" &amp; TEXT(E191, "00") &amp; IF(AND(ISNUMBER(F191), F191&lt;&gt;E191), "_" &amp; TEXT(F191, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C191),"arith_" &amp; INDEX(Operations[],J191,2) &amp; "_g" &amp; TEXT(C191, "00") &amp; "_" &amp; TEXT(D191, "00") &amp; "_o" &amp; TEXT(E191, "00") &amp; IF(AND(ISNUMBER(F191), F191&gt;E191), "_" &amp; TEXT(F191, "00"), ""), "")</f>
         <v>arith_sub_g09_00_o09</v>
       </c>
       <c r="B191" t="str">
@@ -8457,7 +8457,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f>IF(ISNUMBER(C192),"arith_" &amp; INDEX(Operations[],J192,2) &amp; "_g" &amp; TEXT(C192, "00") &amp; "_" &amp; TEXT(D192, "00") &amp; "_o" &amp; TEXT(E192, "00") &amp; IF(AND(ISNUMBER(F192), F192&lt;&gt;E192), "_" &amp; TEXT(F192, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C192),"arith_" &amp; INDEX(Operations[],J192,2) &amp; "_g" &amp; TEXT(C192, "00") &amp; "_" &amp; TEXT(D192, "00") &amp; "_o" &amp; TEXT(E192, "00") &amp; IF(AND(ISNUMBER(F192), F192&gt;E192), "_" &amp; TEXT(F192, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B192" t="str">
@@ -8499,7 +8499,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f>IF(ISNUMBER(C193),"arith_" &amp; INDEX(Operations[],J193,2) &amp; "_g" &amp; TEXT(C193, "00") &amp; "_" &amp; TEXT(D193, "00") &amp; "_o" &amp; TEXT(E193, "00") &amp; IF(AND(ISNUMBER(F193), F193&lt;&gt;E193), "_" &amp; TEXT(F193, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C193),"arith_" &amp; INDEX(Operations[],J193,2) &amp; "_g" &amp; TEXT(C193, "00") &amp; "_" &amp; TEXT(D193, "00") &amp; "_o" &amp; TEXT(E193, "00") &amp; IF(AND(ISNUMBER(F193), F193&gt;E193), "_" &amp; TEXT(F193, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o01</v>
       </c>
       <c r="B193" t="str">
@@ -8541,7 +8541,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f>IF(ISNUMBER(C194),"arith_" &amp; INDEX(Operations[],J194,2) &amp; "_g" &amp; TEXT(C194, "00") &amp; "_" &amp; TEXT(D194, "00") &amp; "_o" &amp; TEXT(E194, "00") &amp; IF(AND(ISNUMBER(F194), F194&lt;&gt;E194), "_" &amp; TEXT(F194, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C194),"arith_" &amp; INDEX(Operations[],J194,2) &amp; "_g" &amp; TEXT(C194, "00") &amp; "_" &amp; TEXT(D194, "00") &amp; "_o" &amp; TEXT(E194, "00") &amp; IF(AND(ISNUMBER(F194), F194&gt;E194), "_" &amp; TEXT(F194, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o02</v>
       </c>
       <c r="B194" t="str">
@@ -8583,7 +8583,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f>IF(ISNUMBER(C195),"arith_" &amp; INDEX(Operations[],J195,2) &amp; "_g" &amp; TEXT(C195, "00") &amp; "_" &amp; TEXT(D195, "00") &amp; "_o" &amp; TEXT(E195, "00") &amp; IF(AND(ISNUMBER(F195), F195&lt;&gt;E195), "_" &amp; TEXT(F195, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C195),"arith_" &amp; INDEX(Operations[],J195,2) &amp; "_g" &amp; TEXT(C195, "00") &amp; "_" &amp; TEXT(D195, "00") &amp; "_o" &amp; TEXT(E195, "00") &amp; IF(AND(ISNUMBER(F195), F195&gt;E195), "_" &amp; TEXT(F195, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o03</v>
       </c>
       <c r="B195" t="str">
@@ -8625,7 +8625,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f>IF(ISNUMBER(C196),"arith_" &amp; INDEX(Operations[],J196,2) &amp; "_g" &amp; TEXT(C196, "00") &amp; "_" &amp; TEXT(D196, "00") &amp; "_o" &amp; TEXT(E196, "00") &amp; IF(AND(ISNUMBER(F196), F196&lt;&gt;E196), "_" &amp; TEXT(F196, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C196),"arith_" &amp; INDEX(Operations[],J196,2) &amp; "_g" &amp; TEXT(C196, "00") &amp; "_" &amp; TEXT(D196, "00") &amp; "_o" &amp; TEXT(E196, "00") &amp; IF(AND(ISNUMBER(F196), F196&gt;E196), "_" &amp; TEXT(F196, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o04</v>
       </c>
       <c r="B196" t="str">
@@ -8667,7 +8667,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f>IF(ISNUMBER(C197),"arith_" &amp; INDEX(Operations[],J197,2) &amp; "_g" &amp; TEXT(C197, "00") &amp; "_" &amp; TEXT(D197, "00") &amp; "_o" &amp; TEXT(E197, "00") &amp; IF(AND(ISNUMBER(F197), F197&lt;&gt;E197), "_" &amp; TEXT(F197, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C197),"arith_" &amp; INDEX(Operations[],J197,2) &amp; "_g" &amp; TEXT(C197, "00") &amp; "_" &amp; TEXT(D197, "00") &amp; "_o" &amp; TEXT(E197, "00") &amp; IF(AND(ISNUMBER(F197), F197&gt;E197), "_" &amp; TEXT(F197, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o05</v>
       </c>
       <c r="B197" t="str">
@@ -8709,7 +8709,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f>IF(ISNUMBER(C198),"arith_" &amp; INDEX(Operations[],J198,2) &amp; "_g" &amp; TEXT(C198, "00") &amp; "_" &amp; TEXT(D198, "00") &amp; "_o" &amp; TEXT(E198, "00") &amp; IF(AND(ISNUMBER(F198), F198&lt;&gt;E198), "_" &amp; TEXT(F198, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C198),"arith_" &amp; INDEX(Operations[],J198,2) &amp; "_g" &amp; TEXT(C198, "00") &amp; "_" &amp; TEXT(D198, "00") &amp; "_o" &amp; TEXT(E198, "00") &amp; IF(AND(ISNUMBER(F198), F198&gt;E198), "_" &amp; TEXT(F198, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o06</v>
       </c>
       <c r="B198" t="str">
@@ -8751,7 +8751,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f>IF(ISNUMBER(C199),"arith_" &amp; INDEX(Operations[],J199,2) &amp; "_g" &amp; TEXT(C199, "00") &amp; "_" &amp; TEXT(D199, "00") &amp; "_o" &amp; TEXT(E199, "00") &amp; IF(AND(ISNUMBER(F199), F199&lt;&gt;E199), "_" &amp; TEXT(F199, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C199),"arith_" &amp; INDEX(Operations[],J199,2) &amp; "_g" &amp; TEXT(C199, "00") &amp; "_" &amp; TEXT(D199, "00") &amp; "_o" &amp; TEXT(E199, "00") &amp; IF(AND(ISNUMBER(F199), F199&gt;E199), "_" &amp; TEXT(F199, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o07</v>
       </c>
       <c r="B199" t="str">
@@ -8793,7 +8793,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f>IF(ISNUMBER(C200),"arith_" &amp; INDEX(Operations[],J200,2) &amp; "_g" &amp; TEXT(C200, "00") &amp; "_" &amp; TEXT(D200, "00") &amp; "_o" &amp; TEXT(E200, "00") &amp; IF(AND(ISNUMBER(F200), F200&lt;&gt;E200), "_" &amp; TEXT(F200, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C200),"arith_" &amp; INDEX(Operations[],J200,2) &amp; "_g" &amp; TEXT(C200, "00") &amp; "_" &amp; TEXT(D200, "00") &amp; "_o" &amp; TEXT(E200, "00") &amp; IF(AND(ISNUMBER(F200), F200&gt;E200), "_" &amp; TEXT(F200, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o08</v>
       </c>
       <c r="B200" t="str">
@@ -8835,7 +8835,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f>IF(ISNUMBER(C201),"arith_" &amp; INDEX(Operations[],J201,2) &amp; "_g" &amp; TEXT(C201, "00") &amp; "_" &amp; TEXT(D201, "00") &amp; "_o" &amp; TEXT(E201, "00") &amp; IF(AND(ISNUMBER(F201), F201&lt;&gt;E201), "_" &amp; TEXT(F201, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C201),"arith_" &amp; INDEX(Operations[],J201,2) &amp; "_g" &amp; TEXT(C201, "00") &amp; "_" &amp; TEXT(D201, "00") &amp; "_o" &amp; TEXT(E201, "00") &amp; IF(AND(ISNUMBER(F201), F201&gt;E201), "_" &amp; TEXT(F201, "00"), ""), "")</f>
         <v>arith_sub_g10_00_o09</v>
       </c>
       <c r="B201" t="str">
@@ -8877,7 +8877,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f>IF(ISNUMBER(C202),"arith_" &amp; INDEX(Operations[],J202,2) &amp; "_g" &amp; TEXT(C202, "00") &amp; "_" &amp; TEXT(D202, "00") &amp; "_o" &amp; TEXT(E202, "00") &amp; IF(AND(ISNUMBER(F202), F202&lt;&gt;E202), "_" &amp; TEXT(F202, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C202),"arith_" &amp; INDEX(Operations[],J202,2) &amp; "_g" &amp; TEXT(C202, "00") &amp; "_" &amp; TEXT(D202, "00") &amp; "_o" &amp; TEXT(E202, "00") &amp; IF(AND(ISNUMBER(F202), F202&gt;E202), "_" &amp; TEXT(F202, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B202" t="str">
@@ -8919,7 +8919,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f>IF(ISNUMBER(C203),"arith_" &amp; INDEX(Operations[],J203,2) &amp; "_g" &amp; TEXT(C203, "00") &amp; "_" &amp; TEXT(D203, "00") &amp; "_o" &amp; TEXT(E203, "00") &amp; IF(AND(ISNUMBER(F203), F203&lt;&gt;E203), "_" &amp; TEXT(F203, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C203),"arith_" &amp; INDEX(Operations[],J203,2) &amp; "_g" &amp; TEXT(C203, "00") &amp; "_" &amp; TEXT(D203, "00") &amp; "_o" &amp; TEXT(E203, "00") &amp; IF(AND(ISNUMBER(F203), F203&gt;E203), "_" &amp; TEXT(F203, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o01</v>
       </c>
       <c r="B203" t="str">
@@ -8964,7 +8964,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f>IF(ISNUMBER(C204),"arith_" &amp; INDEX(Operations[],J204,2) &amp; "_g" &amp; TEXT(C204, "00") &amp; "_" &amp; TEXT(D204, "00") &amp; "_o" &amp; TEXT(E204, "00") &amp; IF(AND(ISNUMBER(F204), F204&lt;&gt;E204), "_" &amp; TEXT(F204, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C204),"arith_" &amp; INDEX(Operations[],J204,2) &amp; "_g" &amp; TEXT(C204, "00") &amp; "_" &amp; TEXT(D204, "00") &amp; "_o" &amp; TEXT(E204, "00") &amp; IF(AND(ISNUMBER(F204), F204&gt;E204), "_" &amp; TEXT(F204, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o02</v>
       </c>
       <c r="B204" t="str">
@@ -9006,7 +9006,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f>IF(ISNUMBER(C205),"arith_" &amp; INDEX(Operations[],J205,2) &amp; "_g" &amp; TEXT(C205, "00") &amp; "_" &amp; TEXT(D205, "00") &amp; "_o" &amp; TEXT(E205, "00") &amp; IF(AND(ISNUMBER(F205), F205&lt;&gt;E205), "_" &amp; TEXT(F205, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C205),"arith_" &amp; INDEX(Operations[],J205,2) &amp; "_g" &amp; TEXT(C205, "00") &amp; "_" &amp; TEXT(D205, "00") &amp; "_o" &amp; TEXT(E205, "00") &amp; IF(AND(ISNUMBER(F205), F205&gt;E205), "_" &amp; TEXT(F205, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o03</v>
       </c>
       <c r="B205" t="str">
@@ -9048,7 +9048,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f>IF(ISNUMBER(C206),"arith_" &amp; INDEX(Operations[],J206,2) &amp; "_g" &amp; TEXT(C206, "00") &amp; "_" &amp; TEXT(D206, "00") &amp; "_o" &amp; TEXT(E206, "00") &amp; IF(AND(ISNUMBER(F206), F206&lt;&gt;E206), "_" &amp; TEXT(F206, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C206),"arith_" &amp; INDEX(Operations[],J206,2) &amp; "_g" &amp; TEXT(C206, "00") &amp; "_" &amp; TEXT(D206, "00") &amp; "_o" &amp; TEXT(E206, "00") &amp; IF(AND(ISNUMBER(F206), F206&gt;E206), "_" &amp; TEXT(F206, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o04</v>
       </c>
       <c r="B206" t="str">
@@ -9090,7 +9090,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f>IF(ISNUMBER(C207),"arith_" &amp; INDEX(Operations[],J207,2) &amp; "_g" &amp; TEXT(C207, "00") &amp; "_" &amp; TEXT(D207, "00") &amp; "_o" &amp; TEXT(E207, "00") &amp; IF(AND(ISNUMBER(F207), F207&lt;&gt;E207), "_" &amp; TEXT(F207, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C207),"arith_" &amp; INDEX(Operations[],J207,2) &amp; "_g" &amp; TEXT(C207, "00") &amp; "_" &amp; TEXT(D207, "00") &amp; "_o" &amp; TEXT(E207, "00") &amp; IF(AND(ISNUMBER(F207), F207&gt;E207), "_" &amp; TEXT(F207, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o05</v>
       </c>
       <c r="B207" t="str">
@@ -9132,7 +9132,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>IF(ISNUMBER(C208),"arith_" &amp; INDEX(Operations[],J208,2) &amp; "_g" &amp; TEXT(C208, "00") &amp; "_" &amp; TEXT(D208, "00") &amp; "_o" &amp; TEXT(E208, "00") &amp; IF(AND(ISNUMBER(F208), F208&lt;&gt;E208), "_" &amp; TEXT(F208, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C208),"arith_" &amp; INDEX(Operations[],J208,2) &amp; "_g" &amp; TEXT(C208, "00") &amp; "_" &amp; TEXT(D208, "00") &amp; "_o" &amp; TEXT(E208, "00") &amp; IF(AND(ISNUMBER(F208), F208&gt;E208), "_" &amp; TEXT(F208, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o06</v>
       </c>
       <c r="B208" t="str">
@@ -9174,7 +9174,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>IF(ISNUMBER(C209),"arith_" &amp; INDEX(Operations[],J209,2) &amp; "_g" &amp; TEXT(C209, "00") &amp; "_" &amp; TEXT(D209, "00") &amp; "_o" &amp; TEXT(E209, "00") &amp; IF(AND(ISNUMBER(F209), F209&lt;&gt;E209), "_" &amp; TEXT(F209, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C209),"arith_" &amp; INDEX(Operations[],J209,2) &amp; "_g" &amp; TEXT(C209, "00") &amp; "_" &amp; TEXT(D209, "00") &amp; "_o" &amp; TEXT(E209, "00") &amp; IF(AND(ISNUMBER(F209), F209&gt;E209), "_" &amp; TEXT(F209, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o07</v>
       </c>
       <c r="B209" t="str">
@@ -9216,7 +9216,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f>IF(ISNUMBER(C210),"arith_" &amp; INDEX(Operations[],J210,2) &amp; "_g" &amp; TEXT(C210, "00") &amp; "_" &amp; TEXT(D210, "00") &amp; "_o" &amp; TEXT(E210, "00") &amp; IF(AND(ISNUMBER(F210), F210&lt;&gt;E210), "_" &amp; TEXT(F210, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C210),"arith_" &amp; INDEX(Operations[],J210,2) &amp; "_g" &amp; TEXT(C210, "00") &amp; "_" &amp; TEXT(D210, "00") &amp; "_o" &amp; TEXT(E210, "00") &amp; IF(AND(ISNUMBER(F210), F210&gt;E210), "_" &amp; TEXT(F210, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o08</v>
       </c>
       <c r="B210" t="str">
@@ -9258,7 +9258,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f>IF(ISNUMBER(C211),"arith_" &amp; INDEX(Operations[],J211,2) &amp; "_g" &amp; TEXT(C211, "00") &amp; "_" &amp; TEXT(D211, "00") &amp; "_o" &amp; TEXT(E211, "00") &amp; IF(AND(ISNUMBER(F211), F211&lt;&gt;E211), "_" &amp; TEXT(F211, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C211),"arith_" &amp; INDEX(Operations[],J211,2) &amp; "_g" &amp; TEXT(C211, "00") &amp; "_" &amp; TEXT(D211, "00") &amp; "_o" &amp; TEXT(E211, "00") &amp; IF(AND(ISNUMBER(F211), F211&gt;E211), "_" &amp; TEXT(F211, "00"), ""), "")</f>
         <v>arith_mul_g01_00_o09</v>
       </c>
       <c r="B211" t="str">
@@ -9300,7 +9300,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f>IF(ISNUMBER(C212),"arith_" &amp; INDEX(Operations[],J212,2) &amp; "_g" &amp; TEXT(C212, "00") &amp; "_" &amp; TEXT(D212, "00") &amp; "_o" &amp; TEXT(E212, "00") &amp; IF(AND(ISNUMBER(F212), F212&lt;&gt;E212), "_" &amp; TEXT(F212, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C212),"arith_" &amp; INDEX(Operations[],J212,2) &amp; "_g" &amp; TEXT(C212, "00") &amp; "_" &amp; TEXT(D212, "00") &amp; "_o" &amp; TEXT(E212, "00") &amp; IF(AND(ISNUMBER(F212), F212&gt;E212), "_" &amp; TEXT(F212, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B212" t="str">
@@ -9342,7 +9342,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f>IF(ISNUMBER(C213),"arith_" &amp; INDEX(Operations[],J213,2) &amp; "_g" &amp; TEXT(C213, "00") &amp; "_" &amp; TEXT(D213, "00") &amp; "_o" &amp; TEXT(E213, "00") &amp; IF(AND(ISNUMBER(F213), F213&lt;&gt;E213), "_" &amp; TEXT(F213, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C213),"arith_" &amp; INDEX(Operations[],J213,2) &amp; "_g" &amp; TEXT(C213, "00") &amp; "_" &amp; TEXT(D213, "00") &amp; "_o" &amp; TEXT(E213, "00") &amp; IF(AND(ISNUMBER(F213), F213&gt;E213), "_" &amp; TEXT(F213, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o01</v>
       </c>
       <c r="B213" t="str">
@@ -9384,7 +9384,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f>IF(ISNUMBER(C214),"arith_" &amp; INDEX(Operations[],J214,2) &amp; "_g" &amp; TEXT(C214, "00") &amp; "_" &amp; TEXT(D214, "00") &amp; "_o" &amp; TEXT(E214, "00") &amp; IF(AND(ISNUMBER(F214), F214&lt;&gt;E214), "_" &amp; TEXT(F214, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C214),"arith_" &amp; INDEX(Operations[],J214,2) &amp; "_g" &amp; TEXT(C214, "00") &amp; "_" &amp; TEXT(D214, "00") &amp; "_o" &amp; TEXT(E214, "00") &amp; IF(AND(ISNUMBER(F214), F214&gt;E214), "_" &amp; TEXT(F214, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o02</v>
       </c>
       <c r="B214" t="str">
@@ -9426,7 +9426,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f>IF(ISNUMBER(C215),"arith_" &amp; INDEX(Operations[],J215,2) &amp; "_g" &amp; TEXT(C215, "00") &amp; "_" &amp; TEXT(D215, "00") &amp; "_o" &amp; TEXT(E215, "00") &amp; IF(AND(ISNUMBER(F215), F215&lt;&gt;E215), "_" &amp; TEXT(F215, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C215),"arith_" &amp; INDEX(Operations[],J215,2) &amp; "_g" &amp; TEXT(C215, "00") &amp; "_" &amp; TEXT(D215, "00") &amp; "_o" &amp; TEXT(E215, "00") &amp; IF(AND(ISNUMBER(F215), F215&gt;E215), "_" &amp; TEXT(F215, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o03</v>
       </c>
       <c r="B215" t="str">
@@ -9468,7 +9468,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f>IF(ISNUMBER(C216),"arith_" &amp; INDEX(Operations[],J216,2) &amp; "_g" &amp; TEXT(C216, "00") &amp; "_" &amp; TEXT(D216, "00") &amp; "_o" &amp; TEXT(E216, "00") &amp; IF(AND(ISNUMBER(F216), F216&lt;&gt;E216), "_" &amp; TEXT(F216, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C216),"arith_" &amp; INDEX(Operations[],J216,2) &amp; "_g" &amp; TEXT(C216, "00") &amp; "_" &amp; TEXT(D216, "00") &amp; "_o" &amp; TEXT(E216, "00") &amp; IF(AND(ISNUMBER(F216), F216&gt;E216), "_" &amp; TEXT(F216, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o04</v>
       </c>
       <c r="B216" t="str">
@@ -9510,7 +9510,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f>IF(ISNUMBER(C217),"arith_" &amp; INDEX(Operations[],J217,2) &amp; "_g" &amp; TEXT(C217, "00") &amp; "_" &amp; TEXT(D217, "00") &amp; "_o" &amp; TEXT(E217, "00") &amp; IF(AND(ISNUMBER(F217), F217&lt;&gt;E217), "_" &amp; TEXT(F217, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C217),"arith_" &amp; INDEX(Operations[],J217,2) &amp; "_g" &amp; TEXT(C217, "00") &amp; "_" &amp; TEXT(D217, "00") &amp; "_o" &amp; TEXT(E217, "00") &amp; IF(AND(ISNUMBER(F217), F217&gt;E217), "_" &amp; TEXT(F217, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o05</v>
       </c>
       <c r="B217" t="str">
@@ -9552,7 +9552,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f>IF(ISNUMBER(C218),"arith_" &amp; INDEX(Operations[],J218,2) &amp; "_g" &amp; TEXT(C218, "00") &amp; "_" &amp; TEXT(D218, "00") &amp; "_o" &amp; TEXT(E218, "00") &amp; IF(AND(ISNUMBER(F218), F218&lt;&gt;E218), "_" &amp; TEXT(F218, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C218),"arith_" &amp; INDEX(Operations[],J218,2) &amp; "_g" &amp; TEXT(C218, "00") &amp; "_" &amp; TEXT(D218, "00") &amp; "_o" &amp; TEXT(E218, "00") &amp; IF(AND(ISNUMBER(F218), F218&gt;E218), "_" &amp; TEXT(F218, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o06</v>
       </c>
       <c r="B218" t="str">
@@ -9594,7 +9594,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f>IF(ISNUMBER(C219),"arith_" &amp; INDEX(Operations[],J219,2) &amp; "_g" &amp; TEXT(C219, "00") &amp; "_" &amp; TEXT(D219, "00") &amp; "_o" &amp; TEXT(E219, "00") &amp; IF(AND(ISNUMBER(F219), F219&lt;&gt;E219), "_" &amp; TEXT(F219, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C219),"arith_" &amp; INDEX(Operations[],J219,2) &amp; "_g" &amp; TEXT(C219, "00") &amp; "_" &amp; TEXT(D219, "00") &amp; "_o" &amp; TEXT(E219, "00") &amp; IF(AND(ISNUMBER(F219), F219&gt;E219), "_" &amp; TEXT(F219, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o07</v>
       </c>
       <c r="B219" t="str">
@@ -9636,7 +9636,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f>IF(ISNUMBER(C220),"arith_" &amp; INDEX(Operations[],J220,2) &amp; "_g" &amp; TEXT(C220, "00") &amp; "_" &amp; TEXT(D220, "00") &amp; "_o" &amp; TEXT(E220, "00") &amp; IF(AND(ISNUMBER(F220), F220&lt;&gt;E220), "_" &amp; TEXT(F220, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C220),"arith_" &amp; INDEX(Operations[],J220,2) &amp; "_g" &amp; TEXT(C220, "00") &amp; "_" &amp; TEXT(D220, "00") &amp; "_o" &amp; TEXT(E220, "00") &amp; IF(AND(ISNUMBER(F220), F220&gt;E220), "_" &amp; TEXT(F220, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o08</v>
       </c>
       <c r="B220" t="str">
@@ -9678,7 +9678,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
-        <f>IF(ISNUMBER(C221),"arith_" &amp; INDEX(Operations[],J221,2) &amp; "_g" &amp; TEXT(C221, "00") &amp; "_" &amp; TEXT(D221, "00") &amp; "_o" &amp; TEXT(E221, "00") &amp; IF(AND(ISNUMBER(F221), F221&lt;&gt;E221), "_" &amp; TEXT(F221, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C221),"arith_" &amp; INDEX(Operations[],J221,2) &amp; "_g" &amp; TEXT(C221, "00") &amp; "_" &amp; TEXT(D221, "00") &amp; "_o" &amp; TEXT(E221, "00") &amp; IF(AND(ISNUMBER(F221), F221&gt;E221), "_" &amp; TEXT(F221, "00"), ""), "")</f>
         <v>arith_mul_g02_00_o09</v>
       </c>
       <c r="B221" t="str">
@@ -9720,7 +9720,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
-        <f>IF(ISNUMBER(C222),"arith_" &amp; INDEX(Operations[],J222,2) &amp; "_g" &amp; TEXT(C222, "00") &amp; "_" &amp; TEXT(D222, "00") &amp; "_o" &amp; TEXT(E222, "00") &amp; IF(AND(ISNUMBER(F222), F222&lt;&gt;E222), "_" &amp; TEXT(F222, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C222),"arith_" &amp; INDEX(Operations[],J222,2) &amp; "_g" &amp; TEXT(C222, "00") &amp; "_" &amp; TEXT(D222, "00") &amp; "_o" &amp; TEXT(E222, "00") &amp; IF(AND(ISNUMBER(F222), F222&gt;E222), "_" &amp; TEXT(F222, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B222" t="str">
@@ -9762,7 +9762,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
-        <f>IF(ISNUMBER(C223),"arith_" &amp; INDEX(Operations[],J223,2) &amp; "_g" &amp; TEXT(C223, "00") &amp; "_" &amp; TEXT(D223, "00") &amp; "_o" &amp; TEXT(E223, "00") &amp; IF(AND(ISNUMBER(F223), F223&lt;&gt;E223), "_" &amp; TEXT(F223, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C223),"arith_" &amp; INDEX(Operations[],J223,2) &amp; "_g" &amp; TEXT(C223, "00") &amp; "_" &amp; TEXT(D223, "00") &amp; "_o" &amp; TEXT(E223, "00") &amp; IF(AND(ISNUMBER(F223), F223&gt;E223), "_" &amp; TEXT(F223, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o01</v>
       </c>
       <c r="B223" t="str">
@@ -9804,7 +9804,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
-        <f>IF(ISNUMBER(C224),"arith_" &amp; INDEX(Operations[],J224,2) &amp; "_g" &amp; TEXT(C224, "00") &amp; "_" &amp; TEXT(D224, "00") &amp; "_o" &amp; TEXT(E224, "00") &amp; IF(AND(ISNUMBER(F224), F224&lt;&gt;E224), "_" &amp; TEXT(F224, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C224),"arith_" &amp; INDEX(Operations[],J224,2) &amp; "_g" &amp; TEXT(C224, "00") &amp; "_" &amp; TEXT(D224, "00") &amp; "_o" &amp; TEXT(E224, "00") &amp; IF(AND(ISNUMBER(F224), F224&gt;E224), "_" &amp; TEXT(F224, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o02</v>
       </c>
       <c r="B224" t="str">
@@ -9846,7 +9846,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
-        <f>IF(ISNUMBER(C225),"arith_" &amp; INDEX(Operations[],J225,2) &amp; "_g" &amp; TEXT(C225, "00") &amp; "_" &amp; TEXT(D225, "00") &amp; "_o" &amp; TEXT(E225, "00") &amp; IF(AND(ISNUMBER(F225), F225&lt;&gt;E225), "_" &amp; TEXT(F225, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C225),"arith_" &amp; INDEX(Operations[],J225,2) &amp; "_g" &amp; TEXT(C225, "00") &amp; "_" &amp; TEXT(D225, "00") &amp; "_o" &amp; TEXT(E225, "00") &amp; IF(AND(ISNUMBER(F225), F225&gt;E225), "_" &amp; TEXT(F225, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o03</v>
       </c>
       <c r="B225" t="str">
@@ -9888,7 +9888,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
-        <f>IF(ISNUMBER(C226),"arith_" &amp; INDEX(Operations[],J226,2) &amp; "_g" &amp; TEXT(C226, "00") &amp; "_" &amp; TEXT(D226, "00") &amp; "_o" &amp; TEXT(E226, "00") &amp; IF(AND(ISNUMBER(F226), F226&lt;&gt;E226), "_" &amp; TEXT(F226, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C226),"arith_" &amp; INDEX(Operations[],J226,2) &amp; "_g" &amp; TEXT(C226, "00") &amp; "_" &amp; TEXT(D226, "00") &amp; "_o" &amp; TEXT(E226, "00") &amp; IF(AND(ISNUMBER(F226), F226&gt;E226), "_" &amp; TEXT(F226, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o04</v>
       </c>
       <c r="B226" t="str">
@@ -9930,7 +9930,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
-        <f>IF(ISNUMBER(C227),"arith_" &amp; INDEX(Operations[],J227,2) &amp; "_g" &amp; TEXT(C227, "00") &amp; "_" &amp; TEXT(D227, "00") &amp; "_o" &amp; TEXT(E227, "00") &amp; IF(AND(ISNUMBER(F227), F227&lt;&gt;E227), "_" &amp; TEXT(F227, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C227),"arith_" &amp; INDEX(Operations[],J227,2) &amp; "_g" &amp; TEXT(C227, "00") &amp; "_" &amp; TEXT(D227, "00") &amp; "_o" &amp; TEXT(E227, "00") &amp; IF(AND(ISNUMBER(F227), F227&gt;E227), "_" &amp; TEXT(F227, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o05</v>
       </c>
       <c r="B227" t="str">
@@ -9972,7 +9972,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
-        <f>IF(ISNUMBER(C228),"arith_" &amp; INDEX(Operations[],J228,2) &amp; "_g" &amp; TEXT(C228, "00") &amp; "_" &amp; TEXT(D228, "00") &amp; "_o" &amp; TEXT(E228, "00") &amp; IF(AND(ISNUMBER(F228), F228&lt;&gt;E228), "_" &amp; TEXT(F228, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C228),"arith_" &amp; INDEX(Operations[],J228,2) &amp; "_g" &amp; TEXT(C228, "00") &amp; "_" &amp; TEXT(D228, "00") &amp; "_o" &amp; TEXT(E228, "00") &amp; IF(AND(ISNUMBER(F228), F228&gt;E228), "_" &amp; TEXT(F228, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o06</v>
       </c>
       <c r="B228" t="str">
@@ -10014,7 +10014,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
-        <f>IF(ISNUMBER(C229),"arith_" &amp; INDEX(Operations[],J229,2) &amp; "_g" &amp; TEXT(C229, "00") &amp; "_" &amp; TEXT(D229, "00") &amp; "_o" &amp; TEXT(E229, "00") &amp; IF(AND(ISNUMBER(F229), F229&lt;&gt;E229), "_" &amp; TEXT(F229, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C229),"arith_" &amp; INDEX(Operations[],J229,2) &amp; "_g" &amp; TEXT(C229, "00") &amp; "_" &amp; TEXT(D229, "00") &amp; "_o" &amp; TEXT(E229, "00") &amp; IF(AND(ISNUMBER(F229), F229&gt;E229), "_" &amp; TEXT(F229, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o07</v>
       </c>
       <c r="B229" t="str">
@@ -10056,7 +10056,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
-        <f>IF(ISNUMBER(C230),"arith_" &amp; INDEX(Operations[],J230,2) &amp; "_g" &amp; TEXT(C230, "00") &amp; "_" &amp; TEXT(D230, "00") &amp; "_o" &amp; TEXT(E230, "00") &amp; IF(AND(ISNUMBER(F230), F230&lt;&gt;E230), "_" &amp; TEXT(F230, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C230),"arith_" &amp; INDEX(Operations[],J230,2) &amp; "_g" &amp; TEXT(C230, "00") &amp; "_" &amp; TEXT(D230, "00") &amp; "_o" &amp; TEXT(E230, "00") &amp; IF(AND(ISNUMBER(F230), F230&gt;E230), "_" &amp; TEXT(F230, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o08</v>
       </c>
       <c r="B230" t="str">
@@ -10098,7 +10098,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
-        <f>IF(ISNUMBER(C231),"arith_" &amp; INDEX(Operations[],J231,2) &amp; "_g" &amp; TEXT(C231, "00") &amp; "_" &amp; TEXT(D231, "00") &amp; "_o" &amp; TEXT(E231, "00") &amp; IF(AND(ISNUMBER(F231), F231&lt;&gt;E231), "_" &amp; TEXT(F231, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C231),"arith_" &amp; INDEX(Operations[],J231,2) &amp; "_g" &amp; TEXT(C231, "00") &amp; "_" &amp; TEXT(D231, "00") &amp; "_o" &amp; TEXT(E231, "00") &amp; IF(AND(ISNUMBER(F231), F231&gt;E231), "_" &amp; TEXT(F231, "00"), ""), "")</f>
         <v>arith_mul_g03_00_o09</v>
       </c>
       <c r="B231" t="str">
@@ -10140,7 +10140,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
-        <f>IF(ISNUMBER(C232),"arith_" &amp; INDEX(Operations[],J232,2) &amp; "_g" &amp; TEXT(C232, "00") &amp; "_" &amp; TEXT(D232, "00") &amp; "_o" &amp; TEXT(E232, "00") &amp; IF(AND(ISNUMBER(F232), F232&lt;&gt;E232), "_" &amp; TEXT(F232, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C232),"arith_" &amp; INDEX(Operations[],J232,2) &amp; "_g" &amp; TEXT(C232, "00") &amp; "_" &amp; TEXT(D232, "00") &amp; "_o" &amp; TEXT(E232, "00") &amp; IF(AND(ISNUMBER(F232), F232&gt;E232), "_" &amp; TEXT(F232, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B232" t="str">
@@ -10182,7 +10182,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <f>IF(ISNUMBER(C233),"arith_" &amp; INDEX(Operations[],J233,2) &amp; "_g" &amp; TEXT(C233, "00") &amp; "_" &amp; TEXT(D233, "00") &amp; "_o" &amp; TEXT(E233, "00") &amp; IF(AND(ISNUMBER(F233), F233&lt;&gt;E233), "_" &amp; TEXT(F233, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C233),"arith_" &amp; INDEX(Operations[],J233,2) &amp; "_g" &amp; TEXT(C233, "00") &amp; "_" &amp; TEXT(D233, "00") &amp; "_o" &amp; TEXT(E233, "00") &amp; IF(AND(ISNUMBER(F233), F233&gt;E233), "_" &amp; TEXT(F233, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o01</v>
       </c>
       <c r="B233" t="str">
@@ -10224,7 +10224,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
-        <f>IF(ISNUMBER(C234),"arith_" &amp; INDEX(Operations[],J234,2) &amp; "_g" &amp; TEXT(C234, "00") &amp; "_" &amp; TEXT(D234, "00") &amp; "_o" &amp; TEXT(E234, "00") &amp; IF(AND(ISNUMBER(F234), F234&lt;&gt;E234), "_" &amp; TEXT(F234, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C234),"arith_" &amp; INDEX(Operations[],J234,2) &amp; "_g" &amp; TEXT(C234, "00") &amp; "_" &amp; TEXT(D234, "00") &amp; "_o" &amp; TEXT(E234, "00") &amp; IF(AND(ISNUMBER(F234), F234&gt;E234), "_" &amp; TEXT(F234, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o02</v>
       </c>
       <c r="B234" t="str">
@@ -10266,7 +10266,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
-        <f>IF(ISNUMBER(C235),"arith_" &amp; INDEX(Operations[],J235,2) &amp; "_g" &amp; TEXT(C235, "00") &amp; "_" &amp; TEXT(D235, "00") &amp; "_o" &amp; TEXT(E235, "00") &amp; IF(AND(ISNUMBER(F235), F235&lt;&gt;E235), "_" &amp; TEXT(F235, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C235),"arith_" &amp; INDEX(Operations[],J235,2) &amp; "_g" &amp; TEXT(C235, "00") &amp; "_" &amp; TEXT(D235, "00") &amp; "_o" &amp; TEXT(E235, "00") &amp; IF(AND(ISNUMBER(F235), F235&gt;E235), "_" &amp; TEXT(F235, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o03</v>
       </c>
       <c r="B235" t="str">
@@ -10308,7 +10308,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <f>IF(ISNUMBER(C236),"arith_" &amp; INDEX(Operations[],J236,2) &amp; "_g" &amp; TEXT(C236, "00") &amp; "_" &amp; TEXT(D236, "00") &amp; "_o" &amp; TEXT(E236, "00") &amp; IF(AND(ISNUMBER(F236), F236&lt;&gt;E236), "_" &amp; TEXT(F236, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C236),"arith_" &amp; INDEX(Operations[],J236,2) &amp; "_g" &amp; TEXT(C236, "00") &amp; "_" &amp; TEXT(D236, "00") &amp; "_o" &amp; TEXT(E236, "00") &amp; IF(AND(ISNUMBER(F236), F236&gt;E236), "_" &amp; TEXT(F236, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o04</v>
       </c>
       <c r="B236" t="str">
@@ -10350,7 +10350,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <f>IF(ISNUMBER(C237),"arith_" &amp; INDEX(Operations[],J237,2) &amp; "_g" &amp; TEXT(C237, "00") &amp; "_" &amp; TEXT(D237, "00") &amp; "_o" &amp; TEXT(E237, "00") &amp; IF(AND(ISNUMBER(F237), F237&lt;&gt;E237), "_" &amp; TEXT(F237, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C237),"arith_" &amp; INDEX(Operations[],J237,2) &amp; "_g" &amp; TEXT(C237, "00") &amp; "_" &amp; TEXT(D237, "00") &amp; "_o" &amp; TEXT(E237, "00") &amp; IF(AND(ISNUMBER(F237), F237&gt;E237), "_" &amp; TEXT(F237, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o05</v>
       </c>
       <c r="B237" t="str">
@@ -10392,7 +10392,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
-        <f>IF(ISNUMBER(C238),"arith_" &amp; INDEX(Operations[],J238,2) &amp; "_g" &amp; TEXT(C238, "00") &amp; "_" &amp; TEXT(D238, "00") &amp; "_o" &amp; TEXT(E238, "00") &amp; IF(AND(ISNUMBER(F238), F238&lt;&gt;E238), "_" &amp; TEXT(F238, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C238),"arith_" &amp; INDEX(Operations[],J238,2) &amp; "_g" &amp; TEXT(C238, "00") &amp; "_" &amp; TEXT(D238, "00") &amp; "_o" &amp; TEXT(E238, "00") &amp; IF(AND(ISNUMBER(F238), F238&gt;E238), "_" &amp; TEXT(F238, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o06</v>
       </c>
       <c r="B238" t="str">
@@ -10434,7 +10434,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <f>IF(ISNUMBER(C239),"arith_" &amp; INDEX(Operations[],J239,2) &amp; "_g" &amp; TEXT(C239, "00") &amp; "_" &amp; TEXT(D239, "00") &amp; "_o" &amp; TEXT(E239, "00") &amp; IF(AND(ISNUMBER(F239), F239&lt;&gt;E239), "_" &amp; TEXT(F239, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C239),"arith_" &amp; INDEX(Operations[],J239,2) &amp; "_g" &amp; TEXT(C239, "00") &amp; "_" &amp; TEXT(D239, "00") &amp; "_o" &amp; TEXT(E239, "00") &amp; IF(AND(ISNUMBER(F239), F239&gt;E239), "_" &amp; TEXT(F239, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o07</v>
       </c>
       <c r="B239" t="str">
@@ -10476,7 +10476,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
-        <f>IF(ISNUMBER(C240),"arith_" &amp; INDEX(Operations[],J240,2) &amp; "_g" &amp; TEXT(C240, "00") &amp; "_" &amp; TEXT(D240, "00") &amp; "_o" &amp; TEXT(E240, "00") &amp; IF(AND(ISNUMBER(F240), F240&lt;&gt;E240), "_" &amp; TEXT(F240, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C240),"arith_" &amp; INDEX(Operations[],J240,2) &amp; "_g" &amp; TEXT(C240, "00") &amp; "_" &amp; TEXT(D240, "00") &amp; "_o" &amp; TEXT(E240, "00") &amp; IF(AND(ISNUMBER(F240), F240&gt;E240), "_" &amp; TEXT(F240, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o08</v>
       </c>
       <c r="B240" t="str">
@@ -10518,7 +10518,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
-        <f>IF(ISNUMBER(C241),"arith_" &amp; INDEX(Operations[],J241,2) &amp; "_g" &amp; TEXT(C241, "00") &amp; "_" &amp; TEXT(D241, "00") &amp; "_o" &amp; TEXT(E241, "00") &amp; IF(AND(ISNUMBER(F241), F241&lt;&gt;E241), "_" &amp; TEXT(F241, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C241),"arith_" &amp; INDEX(Operations[],J241,2) &amp; "_g" &amp; TEXT(C241, "00") &amp; "_" &amp; TEXT(D241, "00") &amp; "_o" &amp; TEXT(E241, "00") &amp; IF(AND(ISNUMBER(F241), F241&gt;E241), "_" &amp; TEXT(F241, "00"), ""), "")</f>
         <v>arith_mul_g04_00_o09</v>
       </c>
       <c r="B241" t="str">
@@ -10560,7 +10560,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
-        <f>IF(ISNUMBER(C242),"arith_" &amp; INDEX(Operations[],J242,2) &amp; "_g" &amp; TEXT(C242, "00") &amp; "_" &amp; TEXT(D242, "00") &amp; "_o" &amp; TEXT(E242, "00") &amp; IF(AND(ISNUMBER(F242), F242&lt;&gt;E242), "_" &amp; TEXT(F242, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C242),"arith_" &amp; INDEX(Operations[],J242,2) &amp; "_g" &amp; TEXT(C242, "00") &amp; "_" &amp; TEXT(D242, "00") &amp; "_o" &amp; TEXT(E242, "00") &amp; IF(AND(ISNUMBER(F242), F242&gt;E242), "_" &amp; TEXT(F242, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B242" t="str">
@@ -10602,7 +10602,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <f>IF(ISNUMBER(C243),"arith_" &amp; INDEX(Operations[],J243,2) &amp; "_g" &amp; TEXT(C243, "00") &amp; "_" &amp; TEXT(D243, "00") &amp; "_o" &amp; TEXT(E243, "00") &amp; IF(AND(ISNUMBER(F243), F243&lt;&gt;E243), "_" &amp; TEXT(F243, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C243),"arith_" &amp; INDEX(Operations[],J243,2) &amp; "_g" &amp; TEXT(C243, "00") &amp; "_" &amp; TEXT(D243, "00") &amp; "_o" &amp; TEXT(E243, "00") &amp; IF(AND(ISNUMBER(F243), F243&gt;E243), "_" &amp; TEXT(F243, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o01</v>
       </c>
       <c r="B243" t="str">
@@ -10644,7 +10644,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <f>IF(ISNUMBER(C244),"arith_" &amp; INDEX(Operations[],J244,2) &amp; "_g" &amp; TEXT(C244, "00") &amp; "_" &amp; TEXT(D244, "00") &amp; "_o" &amp; TEXT(E244, "00") &amp; IF(AND(ISNUMBER(F244), F244&lt;&gt;E244), "_" &amp; TEXT(F244, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C244),"arith_" &amp; INDEX(Operations[],J244,2) &amp; "_g" &amp; TEXT(C244, "00") &amp; "_" &amp; TEXT(D244, "00") &amp; "_o" &amp; TEXT(E244, "00") &amp; IF(AND(ISNUMBER(F244), F244&gt;E244), "_" &amp; TEXT(F244, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o02</v>
       </c>
       <c r="B244" t="str">
@@ -10686,7 +10686,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
-        <f>IF(ISNUMBER(C245),"arith_" &amp; INDEX(Operations[],J245,2) &amp; "_g" &amp; TEXT(C245, "00") &amp; "_" &amp; TEXT(D245, "00") &amp; "_o" &amp; TEXT(E245, "00") &amp; IF(AND(ISNUMBER(F245), F245&lt;&gt;E245), "_" &amp; TEXT(F245, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C245),"arith_" &amp; INDEX(Operations[],J245,2) &amp; "_g" &amp; TEXT(C245, "00") &amp; "_" &amp; TEXT(D245, "00") &amp; "_o" &amp; TEXT(E245, "00") &amp; IF(AND(ISNUMBER(F245), F245&gt;E245), "_" &amp; TEXT(F245, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o03</v>
       </c>
       <c r="B245" t="str">
@@ -10728,7 +10728,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
-        <f>IF(ISNUMBER(C246),"arith_" &amp; INDEX(Operations[],J246,2) &amp; "_g" &amp; TEXT(C246, "00") &amp; "_" &amp; TEXT(D246, "00") &amp; "_o" &amp; TEXT(E246, "00") &amp; IF(AND(ISNUMBER(F246), F246&lt;&gt;E246), "_" &amp; TEXT(F246, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C246),"arith_" &amp; INDEX(Operations[],J246,2) &amp; "_g" &amp; TEXT(C246, "00") &amp; "_" &amp; TEXT(D246, "00") &amp; "_o" &amp; TEXT(E246, "00") &amp; IF(AND(ISNUMBER(F246), F246&gt;E246), "_" &amp; TEXT(F246, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o04</v>
       </c>
       <c r="B246" t="str">
@@ -10770,7 +10770,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
-        <f>IF(ISNUMBER(C247),"arith_" &amp; INDEX(Operations[],J247,2) &amp; "_g" &amp; TEXT(C247, "00") &amp; "_" &amp; TEXT(D247, "00") &amp; "_o" &amp; TEXT(E247, "00") &amp; IF(AND(ISNUMBER(F247), F247&lt;&gt;E247), "_" &amp; TEXT(F247, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C247),"arith_" &amp; INDEX(Operations[],J247,2) &amp; "_g" &amp; TEXT(C247, "00") &amp; "_" &amp; TEXT(D247, "00") &amp; "_o" &amp; TEXT(E247, "00") &amp; IF(AND(ISNUMBER(F247), F247&gt;E247), "_" &amp; TEXT(F247, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o05</v>
       </c>
       <c r="B247" t="str">
@@ -10812,7 +10812,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
-        <f>IF(ISNUMBER(C248),"arith_" &amp; INDEX(Operations[],J248,2) &amp; "_g" &amp; TEXT(C248, "00") &amp; "_" &amp; TEXT(D248, "00") &amp; "_o" &amp; TEXT(E248, "00") &amp; IF(AND(ISNUMBER(F248), F248&lt;&gt;E248), "_" &amp; TEXT(F248, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C248),"arith_" &amp; INDEX(Operations[],J248,2) &amp; "_g" &amp; TEXT(C248, "00") &amp; "_" &amp; TEXT(D248, "00") &amp; "_o" &amp; TEXT(E248, "00") &amp; IF(AND(ISNUMBER(F248), F248&gt;E248), "_" &amp; TEXT(F248, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o06</v>
       </c>
       <c r="B248" t="str">
@@ -10854,7 +10854,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
-        <f>IF(ISNUMBER(C249),"arith_" &amp; INDEX(Operations[],J249,2) &amp; "_g" &amp; TEXT(C249, "00") &amp; "_" &amp; TEXT(D249, "00") &amp; "_o" &amp; TEXT(E249, "00") &amp; IF(AND(ISNUMBER(F249), F249&lt;&gt;E249), "_" &amp; TEXT(F249, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C249),"arith_" &amp; INDEX(Operations[],J249,2) &amp; "_g" &amp; TEXT(C249, "00") &amp; "_" &amp; TEXT(D249, "00") &amp; "_o" &amp; TEXT(E249, "00") &amp; IF(AND(ISNUMBER(F249), F249&gt;E249), "_" &amp; TEXT(F249, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o07</v>
       </c>
       <c r="B249" t="str">
@@ -10896,7 +10896,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
-        <f>IF(ISNUMBER(C250),"arith_" &amp; INDEX(Operations[],J250,2) &amp; "_g" &amp; TEXT(C250, "00") &amp; "_" &amp; TEXT(D250, "00") &amp; "_o" &amp; TEXT(E250, "00") &amp; IF(AND(ISNUMBER(F250), F250&lt;&gt;E250), "_" &amp; TEXT(F250, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C250),"arith_" &amp; INDEX(Operations[],J250,2) &amp; "_g" &amp; TEXT(C250, "00") &amp; "_" &amp; TEXT(D250, "00") &amp; "_o" &amp; TEXT(E250, "00") &amp; IF(AND(ISNUMBER(F250), F250&gt;E250), "_" &amp; TEXT(F250, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o08</v>
       </c>
       <c r="B250" t="str">
@@ -10938,7 +10938,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
-        <f>IF(ISNUMBER(C251),"arith_" &amp; INDEX(Operations[],J251,2) &amp; "_g" &amp; TEXT(C251, "00") &amp; "_" &amp; TEXT(D251, "00") &amp; "_o" &amp; TEXT(E251, "00") &amp; IF(AND(ISNUMBER(F251), F251&lt;&gt;E251), "_" &amp; TEXT(F251, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C251),"arith_" &amp; INDEX(Operations[],J251,2) &amp; "_g" &amp; TEXT(C251, "00") &amp; "_" &amp; TEXT(D251, "00") &amp; "_o" &amp; TEXT(E251, "00") &amp; IF(AND(ISNUMBER(F251), F251&gt;E251), "_" &amp; TEXT(F251, "00"), ""), "")</f>
         <v>arith_mul_g05_00_o09</v>
       </c>
       <c r="B251" t="str">
@@ -10980,7 +10980,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
-        <f>IF(ISNUMBER(C252),"arith_" &amp; INDEX(Operations[],J252,2) &amp; "_g" &amp; TEXT(C252, "00") &amp; "_" &amp; TEXT(D252, "00") &amp; "_o" &amp; TEXT(E252, "00") &amp; IF(AND(ISNUMBER(F252), F252&lt;&gt;E252), "_" &amp; TEXT(F252, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C252),"arith_" &amp; INDEX(Operations[],J252,2) &amp; "_g" &amp; TEXT(C252, "00") &amp; "_" &amp; TEXT(D252, "00") &amp; "_o" &amp; TEXT(E252, "00") &amp; IF(AND(ISNUMBER(F252), F252&gt;E252), "_" &amp; TEXT(F252, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B252" t="str">
@@ -11022,7 +11022,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
-        <f>IF(ISNUMBER(C253),"arith_" &amp; INDEX(Operations[],J253,2) &amp; "_g" &amp; TEXT(C253, "00") &amp; "_" &amp; TEXT(D253, "00") &amp; "_o" &amp; TEXT(E253, "00") &amp; IF(AND(ISNUMBER(F253), F253&lt;&gt;E253), "_" &amp; TEXT(F253, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C253),"arith_" &amp; INDEX(Operations[],J253,2) &amp; "_g" &amp; TEXT(C253, "00") &amp; "_" &amp; TEXT(D253, "00") &amp; "_o" &amp; TEXT(E253, "00") &amp; IF(AND(ISNUMBER(F253), F253&gt;E253), "_" &amp; TEXT(F253, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o01</v>
       </c>
       <c r="B253" t="str">
@@ -11064,7 +11064,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <f>IF(ISNUMBER(C254),"arith_" &amp; INDEX(Operations[],J254,2) &amp; "_g" &amp; TEXT(C254, "00") &amp; "_" &amp; TEXT(D254, "00") &amp; "_o" &amp; TEXT(E254, "00") &amp; IF(AND(ISNUMBER(F254), F254&lt;&gt;E254), "_" &amp; TEXT(F254, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C254),"arith_" &amp; INDEX(Operations[],J254,2) &amp; "_g" &amp; TEXT(C254, "00") &amp; "_" &amp; TEXT(D254, "00") &amp; "_o" &amp; TEXT(E254, "00") &amp; IF(AND(ISNUMBER(F254), F254&gt;E254), "_" &amp; TEXT(F254, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o02</v>
       </c>
       <c r="B254" t="str">
@@ -11106,7 +11106,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <f>IF(ISNUMBER(C255),"arith_" &amp; INDEX(Operations[],J255,2) &amp; "_g" &amp; TEXT(C255, "00") &amp; "_" &amp; TEXT(D255, "00") &amp; "_o" &amp; TEXT(E255, "00") &amp; IF(AND(ISNUMBER(F255), F255&lt;&gt;E255), "_" &amp; TEXT(F255, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C255),"arith_" &amp; INDEX(Operations[],J255,2) &amp; "_g" &amp; TEXT(C255, "00") &amp; "_" &amp; TEXT(D255, "00") &amp; "_o" &amp; TEXT(E255, "00") &amp; IF(AND(ISNUMBER(F255), F255&gt;E255), "_" &amp; TEXT(F255, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o03</v>
       </c>
       <c r="B255" t="str">
@@ -11148,7 +11148,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
-        <f>IF(ISNUMBER(C256),"arith_" &amp; INDEX(Operations[],J256,2) &amp; "_g" &amp; TEXT(C256, "00") &amp; "_" &amp; TEXT(D256, "00") &amp; "_o" &amp; TEXT(E256, "00") &amp; IF(AND(ISNUMBER(F256), F256&lt;&gt;E256), "_" &amp; TEXT(F256, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C256),"arith_" &amp; INDEX(Operations[],J256,2) &amp; "_g" &amp; TEXT(C256, "00") &amp; "_" &amp; TEXT(D256, "00") &amp; "_o" &amp; TEXT(E256, "00") &amp; IF(AND(ISNUMBER(F256), F256&gt;E256), "_" &amp; TEXT(F256, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o04</v>
       </c>
       <c r="B256" t="str">
@@ -11190,7 +11190,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <f>IF(ISNUMBER(C257),"arith_" &amp; INDEX(Operations[],J257,2) &amp; "_g" &amp; TEXT(C257, "00") &amp; "_" &amp; TEXT(D257, "00") &amp; "_o" &amp; TEXT(E257, "00") &amp; IF(AND(ISNUMBER(F257), F257&lt;&gt;E257), "_" &amp; TEXT(F257, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C257),"arith_" &amp; INDEX(Operations[],J257,2) &amp; "_g" &amp; TEXT(C257, "00") &amp; "_" &amp; TEXT(D257, "00") &amp; "_o" &amp; TEXT(E257, "00") &amp; IF(AND(ISNUMBER(F257), F257&gt;E257), "_" &amp; TEXT(F257, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o05</v>
       </c>
       <c r="B257" t="str">
@@ -11232,7 +11232,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f>IF(ISNUMBER(C258),"arith_" &amp; INDEX(Operations[],J258,2) &amp; "_g" &amp; TEXT(C258, "00") &amp; "_" &amp; TEXT(D258, "00") &amp; "_o" &amp; TEXT(E258, "00") &amp; IF(AND(ISNUMBER(F258), F258&lt;&gt;E258), "_" &amp; TEXT(F258, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C258),"arith_" &amp; INDEX(Operations[],J258,2) &amp; "_g" &amp; TEXT(C258, "00") &amp; "_" &amp; TEXT(D258, "00") &amp; "_o" &amp; TEXT(E258, "00") &amp; IF(AND(ISNUMBER(F258), F258&gt;E258), "_" &amp; TEXT(F258, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o06</v>
       </c>
       <c r="B258" t="str">
@@ -11274,7 +11274,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f>IF(ISNUMBER(C259),"arith_" &amp; INDEX(Operations[],J259,2) &amp; "_g" &amp; TEXT(C259, "00") &amp; "_" &amp; TEXT(D259, "00") &amp; "_o" &amp; TEXT(E259, "00") &amp; IF(AND(ISNUMBER(F259), F259&lt;&gt;E259), "_" &amp; TEXT(F259, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C259),"arith_" &amp; INDEX(Operations[],J259,2) &amp; "_g" &amp; TEXT(C259, "00") &amp; "_" &amp; TEXT(D259, "00") &amp; "_o" &amp; TEXT(E259, "00") &amp; IF(AND(ISNUMBER(F259), F259&gt;E259), "_" &amp; TEXT(F259, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o07</v>
       </c>
       <c r="B259" t="str">
@@ -11316,7 +11316,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
-        <f>IF(ISNUMBER(C260),"arith_" &amp; INDEX(Operations[],J260,2) &amp; "_g" &amp; TEXT(C260, "00") &amp; "_" &amp; TEXT(D260, "00") &amp; "_o" &amp; TEXT(E260, "00") &amp; IF(AND(ISNUMBER(F260), F260&lt;&gt;E260), "_" &amp; TEXT(F260, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C260),"arith_" &amp; INDEX(Operations[],J260,2) &amp; "_g" &amp; TEXT(C260, "00") &amp; "_" &amp; TEXT(D260, "00") &amp; "_o" &amp; TEXT(E260, "00") &amp; IF(AND(ISNUMBER(F260), F260&gt;E260), "_" &amp; TEXT(F260, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o08</v>
       </c>
       <c r="B260" t="str">
@@ -11358,7 +11358,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
-        <f>IF(ISNUMBER(C261),"arith_" &amp; INDEX(Operations[],J261,2) &amp; "_g" &amp; TEXT(C261, "00") &amp; "_" &amp; TEXT(D261, "00") &amp; "_o" &amp; TEXT(E261, "00") &amp; IF(AND(ISNUMBER(F261), F261&lt;&gt;E261), "_" &amp; TEXT(F261, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C261),"arith_" &amp; INDEX(Operations[],J261,2) &amp; "_g" &amp; TEXT(C261, "00") &amp; "_" &amp; TEXT(D261, "00") &amp; "_o" &amp; TEXT(E261, "00") &amp; IF(AND(ISNUMBER(F261), F261&gt;E261), "_" &amp; TEXT(F261, "00"), ""), "")</f>
         <v>arith_mul_g06_00_o09</v>
       </c>
       <c r="B261" t="str">
@@ -11400,7 +11400,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
-        <f>IF(ISNUMBER(C262),"arith_" &amp; INDEX(Operations[],J262,2) &amp; "_g" &amp; TEXT(C262, "00") &amp; "_" &amp; TEXT(D262, "00") &amp; "_o" &amp; TEXT(E262, "00") &amp; IF(AND(ISNUMBER(F262), F262&lt;&gt;E262), "_" &amp; TEXT(F262, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C262),"arith_" &amp; INDEX(Operations[],J262,2) &amp; "_g" &amp; TEXT(C262, "00") &amp; "_" &amp; TEXT(D262, "00") &amp; "_o" &amp; TEXT(E262, "00") &amp; IF(AND(ISNUMBER(F262), F262&gt;E262), "_" &amp; TEXT(F262, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B262" t="str">
@@ -11442,7 +11442,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
-        <f>IF(ISNUMBER(C263),"arith_" &amp; INDEX(Operations[],J263,2) &amp; "_g" &amp; TEXT(C263, "00") &amp; "_" &amp; TEXT(D263, "00") &amp; "_o" &amp; TEXT(E263, "00") &amp; IF(AND(ISNUMBER(F263), F263&lt;&gt;E263), "_" &amp; TEXT(F263, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C263),"arith_" &amp; INDEX(Operations[],J263,2) &amp; "_g" &amp; TEXT(C263, "00") &amp; "_" &amp; TEXT(D263, "00") &amp; "_o" &amp; TEXT(E263, "00") &amp; IF(AND(ISNUMBER(F263), F263&gt;E263), "_" &amp; TEXT(F263, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o01</v>
       </c>
       <c r="B263" t="str">
@@ -11484,7 +11484,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
-        <f>IF(ISNUMBER(C264),"arith_" &amp; INDEX(Operations[],J264,2) &amp; "_g" &amp; TEXT(C264, "00") &amp; "_" &amp; TEXT(D264, "00") &amp; "_o" &amp; TEXT(E264, "00") &amp; IF(AND(ISNUMBER(F264), F264&lt;&gt;E264), "_" &amp; TEXT(F264, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C264),"arith_" &amp; INDEX(Operations[],J264,2) &amp; "_g" &amp; TEXT(C264, "00") &amp; "_" &amp; TEXT(D264, "00") &amp; "_o" &amp; TEXT(E264, "00") &amp; IF(AND(ISNUMBER(F264), F264&gt;E264), "_" &amp; TEXT(F264, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o02</v>
       </c>
       <c r="B264" t="str">
@@ -11526,7 +11526,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
-        <f>IF(ISNUMBER(C265),"arith_" &amp; INDEX(Operations[],J265,2) &amp; "_g" &amp; TEXT(C265, "00") &amp; "_" &amp; TEXT(D265, "00") &amp; "_o" &amp; TEXT(E265, "00") &amp; IF(AND(ISNUMBER(F265), F265&lt;&gt;E265), "_" &amp; TEXT(F265, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C265),"arith_" &amp; INDEX(Operations[],J265,2) &amp; "_g" &amp; TEXT(C265, "00") &amp; "_" &amp; TEXT(D265, "00") &amp; "_o" &amp; TEXT(E265, "00") &amp; IF(AND(ISNUMBER(F265), F265&gt;E265), "_" &amp; TEXT(F265, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o03</v>
       </c>
       <c r="B265" t="str">
@@ -11568,7 +11568,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
-        <f>IF(ISNUMBER(C266),"arith_" &amp; INDEX(Operations[],J266,2) &amp; "_g" &amp; TEXT(C266, "00") &amp; "_" &amp; TEXT(D266, "00") &amp; "_o" &amp; TEXT(E266, "00") &amp; IF(AND(ISNUMBER(F266), F266&lt;&gt;E266), "_" &amp; TEXT(F266, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C266),"arith_" &amp; INDEX(Operations[],J266,2) &amp; "_g" &amp; TEXT(C266, "00") &amp; "_" &amp; TEXT(D266, "00") &amp; "_o" &amp; TEXT(E266, "00") &amp; IF(AND(ISNUMBER(F266), F266&gt;E266), "_" &amp; TEXT(F266, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o04</v>
       </c>
       <c r="B266" t="str">
@@ -11610,7 +11610,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
-        <f>IF(ISNUMBER(C267),"arith_" &amp; INDEX(Operations[],J267,2) &amp; "_g" &amp; TEXT(C267, "00") &amp; "_" &amp; TEXT(D267, "00") &amp; "_o" &amp; TEXT(E267, "00") &amp; IF(AND(ISNUMBER(F267), F267&lt;&gt;E267), "_" &amp; TEXT(F267, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C267),"arith_" &amp; INDEX(Operations[],J267,2) &amp; "_g" &amp; TEXT(C267, "00") &amp; "_" &amp; TEXT(D267, "00") &amp; "_o" &amp; TEXT(E267, "00") &amp; IF(AND(ISNUMBER(F267), F267&gt;E267), "_" &amp; TEXT(F267, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o05</v>
       </c>
       <c r="B267" t="str">
@@ -11652,7 +11652,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
-        <f>IF(ISNUMBER(C268),"arith_" &amp; INDEX(Operations[],J268,2) &amp; "_g" &amp; TEXT(C268, "00") &amp; "_" &amp; TEXT(D268, "00") &amp; "_o" &amp; TEXT(E268, "00") &amp; IF(AND(ISNUMBER(F268), F268&lt;&gt;E268), "_" &amp; TEXT(F268, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C268),"arith_" &amp; INDEX(Operations[],J268,2) &amp; "_g" &amp; TEXT(C268, "00") &amp; "_" &amp; TEXT(D268, "00") &amp; "_o" &amp; TEXT(E268, "00") &amp; IF(AND(ISNUMBER(F268), F268&gt;E268), "_" &amp; TEXT(F268, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o06</v>
       </c>
       <c r="B268" t="str">
@@ -11694,7 +11694,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
-        <f>IF(ISNUMBER(C269),"arith_" &amp; INDEX(Operations[],J269,2) &amp; "_g" &amp; TEXT(C269, "00") &amp; "_" &amp; TEXT(D269, "00") &amp; "_o" &amp; TEXT(E269, "00") &amp; IF(AND(ISNUMBER(F269), F269&lt;&gt;E269), "_" &amp; TEXT(F269, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C269),"arith_" &amp; INDEX(Operations[],J269,2) &amp; "_g" &amp; TEXT(C269, "00") &amp; "_" &amp; TEXT(D269, "00") &amp; "_o" &amp; TEXT(E269, "00") &amp; IF(AND(ISNUMBER(F269), F269&gt;E269), "_" &amp; TEXT(F269, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o07</v>
       </c>
       <c r="B269" t="str">
@@ -11736,7 +11736,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
-        <f>IF(ISNUMBER(C270),"arith_" &amp; INDEX(Operations[],J270,2) &amp; "_g" &amp; TEXT(C270, "00") &amp; "_" &amp; TEXT(D270, "00") &amp; "_o" &amp; TEXT(E270, "00") &amp; IF(AND(ISNUMBER(F270), F270&lt;&gt;E270), "_" &amp; TEXT(F270, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C270),"arith_" &amp; INDEX(Operations[],J270,2) &amp; "_g" &amp; TEXT(C270, "00") &amp; "_" &amp; TEXT(D270, "00") &amp; "_o" &amp; TEXT(E270, "00") &amp; IF(AND(ISNUMBER(F270), F270&gt;E270), "_" &amp; TEXT(F270, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o08</v>
       </c>
       <c r="B270" t="str">
@@ -11778,7 +11778,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
-        <f>IF(ISNUMBER(C271),"arith_" &amp; INDEX(Operations[],J271,2) &amp; "_g" &amp; TEXT(C271, "00") &amp; "_" &amp; TEXT(D271, "00") &amp; "_o" &amp; TEXT(E271, "00") &amp; IF(AND(ISNUMBER(F271), F271&lt;&gt;E271), "_" &amp; TEXT(F271, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C271),"arith_" &amp; INDEX(Operations[],J271,2) &amp; "_g" &amp; TEXT(C271, "00") &amp; "_" &amp; TEXT(D271, "00") &amp; "_o" &amp; TEXT(E271, "00") &amp; IF(AND(ISNUMBER(F271), F271&gt;E271), "_" &amp; TEXT(F271, "00"), ""), "")</f>
         <v>arith_mul_g07_00_o09</v>
       </c>
       <c r="B271" t="str">
@@ -11820,7 +11820,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
-        <f>IF(ISNUMBER(C272),"arith_" &amp; INDEX(Operations[],J272,2) &amp; "_g" &amp; TEXT(C272, "00") &amp; "_" &amp; TEXT(D272, "00") &amp; "_o" &amp; TEXT(E272, "00") &amp; IF(AND(ISNUMBER(F272), F272&lt;&gt;E272), "_" &amp; TEXT(F272, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C272),"arith_" &amp; INDEX(Operations[],J272,2) &amp; "_g" &amp; TEXT(C272, "00") &amp; "_" &amp; TEXT(D272, "00") &amp; "_o" &amp; TEXT(E272, "00") &amp; IF(AND(ISNUMBER(F272), F272&gt;E272), "_" &amp; TEXT(F272, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B272" t="str">
@@ -11862,7 +11862,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
-        <f>IF(ISNUMBER(C273),"arith_" &amp; INDEX(Operations[],J273,2) &amp; "_g" &amp; TEXT(C273, "00") &amp; "_" &amp; TEXT(D273, "00") &amp; "_o" &amp; TEXT(E273, "00") &amp; IF(AND(ISNUMBER(F273), F273&lt;&gt;E273), "_" &amp; TEXT(F273, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C273),"arith_" &amp; INDEX(Operations[],J273,2) &amp; "_g" &amp; TEXT(C273, "00") &amp; "_" &amp; TEXT(D273, "00") &amp; "_o" &amp; TEXT(E273, "00") &amp; IF(AND(ISNUMBER(F273), F273&gt;E273), "_" &amp; TEXT(F273, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o01</v>
       </c>
       <c r="B273" t="str">
@@ -11904,7 +11904,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
-        <f>IF(ISNUMBER(C274),"arith_" &amp; INDEX(Operations[],J274,2) &amp; "_g" &amp; TEXT(C274, "00") &amp; "_" &amp; TEXT(D274, "00") &amp; "_o" &amp; TEXT(E274, "00") &amp; IF(AND(ISNUMBER(F274), F274&lt;&gt;E274), "_" &amp; TEXT(F274, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C274),"arith_" &amp; INDEX(Operations[],J274,2) &amp; "_g" &amp; TEXT(C274, "00") &amp; "_" &amp; TEXT(D274, "00") &amp; "_o" &amp; TEXT(E274, "00") &amp; IF(AND(ISNUMBER(F274), F274&gt;E274), "_" &amp; TEXT(F274, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o02</v>
       </c>
       <c r="B274" t="str">
@@ -11946,7 +11946,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
-        <f>IF(ISNUMBER(C275),"arith_" &amp; INDEX(Operations[],J275,2) &amp; "_g" &amp; TEXT(C275, "00") &amp; "_" &amp; TEXT(D275, "00") &amp; "_o" &amp; TEXT(E275, "00") &amp; IF(AND(ISNUMBER(F275), F275&lt;&gt;E275), "_" &amp; TEXT(F275, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C275),"arith_" &amp; INDEX(Operations[],J275,2) &amp; "_g" &amp; TEXT(C275, "00") &amp; "_" &amp; TEXT(D275, "00") &amp; "_o" &amp; TEXT(E275, "00") &amp; IF(AND(ISNUMBER(F275), F275&gt;E275), "_" &amp; TEXT(F275, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o03</v>
       </c>
       <c r="B275" t="str">
@@ -11988,7 +11988,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
-        <f>IF(ISNUMBER(C276),"arith_" &amp; INDEX(Operations[],J276,2) &amp; "_g" &amp; TEXT(C276, "00") &amp; "_" &amp; TEXT(D276, "00") &amp; "_o" &amp; TEXT(E276, "00") &amp; IF(AND(ISNUMBER(F276), F276&lt;&gt;E276), "_" &amp; TEXT(F276, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C276),"arith_" &amp; INDEX(Operations[],J276,2) &amp; "_g" &amp; TEXT(C276, "00") &amp; "_" &amp; TEXT(D276, "00") &amp; "_o" &amp; TEXT(E276, "00") &amp; IF(AND(ISNUMBER(F276), F276&gt;E276), "_" &amp; TEXT(F276, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o04</v>
       </c>
       <c r="B276" t="str">
@@ -12030,7 +12030,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
-        <f>IF(ISNUMBER(C277),"arith_" &amp; INDEX(Operations[],J277,2) &amp; "_g" &amp; TEXT(C277, "00") &amp; "_" &amp; TEXT(D277, "00") &amp; "_o" &amp; TEXT(E277, "00") &amp; IF(AND(ISNUMBER(F277), F277&lt;&gt;E277), "_" &amp; TEXT(F277, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C277),"arith_" &amp; INDEX(Operations[],J277,2) &amp; "_g" &amp; TEXT(C277, "00") &amp; "_" &amp; TEXT(D277, "00") &amp; "_o" &amp; TEXT(E277, "00") &amp; IF(AND(ISNUMBER(F277), F277&gt;E277), "_" &amp; TEXT(F277, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o05</v>
       </c>
       <c r="B277" t="str">
@@ -12072,7 +12072,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
-        <f>IF(ISNUMBER(C278),"arith_" &amp; INDEX(Operations[],J278,2) &amp; "_g" &amp; TEXT(C278, "00") &amp; "_" &amp; TEXT(D278, "00") &amp; "_o" &amp; TEXT(E278, "00") &amp; IF(AND(ISNUMBER(F278), F278&lt;&gt;E278), "_" &amp; TEXT(F278, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C278),"arith_" &amp; INDEX(Operations[],J278,2) &amp; "_g" &amp; TEXT(C278, "00") &amp; "_" &amp; TEXT(D278, "00") &amp; "_o" &amp; TEXT(E278, "00") &amp; IF(AND(ISNUMBER(F278), F278&gt;E278), "_" &amp; TEXT(F278, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o06</v>
       </c>
       <c r="B278" t="str">
@@ -12114,7 +12114,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
-        <f>IF(ISNUMBER(C279),"arith_" &amp; INDEX(Operations[],J279,2) &amp; "_g" &amp; TEXT(C279, "00") &amp; "_" &amp; TEXT(D279, "00") &amp; "_o" &amp; TEXT(E279, "00") &amp; IF(AND(ISNUMBER(F279), F279&lt;&gt;E279), "_" &amp; TEXT(F279, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C279),"arith_" &amp; INDEX(Operations[],J279,2) &amp; "_g" &amp; TEXT(C279, "00") &amp; "_" &amp; TEXT(D279, "00") &amp; "_o" &amp; TEXT(E279, "00") &amp; IF(AND(ISNUMBER(F279), F279&gt;E279), "_" &amp; TEXT(F279, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o07</v>
       </c>
       <c r="B279" t="str">
@@ -12156,7 +12156,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
-        <f>IF(ISNUMBER(C280),"arith_" &amp; INDEX(Operations[],J280,2) &amp; "_g" &amp; TEXT(C280, "00") &amp; "_" &amp; TEXT(D280, "00") &amp; "_o" &amp; TEXT(E280, "00") &amp; IF(AND(ISNUMBER(F280), F280&lt;&gt;E280), "_" &amp; TEXT(F280, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C280),"arith_" &amp; INDEX(Operations[],J280,2) &amp; "_g" &amp; TEXT(C280, "00") &amp; "_" &amp; TEXT(D280, "00") &amp; "_o" &amp; TEXT(E280, "00") &amp; IF(AND(ISNUMBER(F280), F280&gt;E280), "_" &amp; TEXT(F280, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o08</v>
       </c>
       <c r="B280" t="str">
@@ -12198,7 +12198,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
-        <f>IF(ISNUMBER(C281),"arith_" &amp; INDEX(Operations[],J281,2) &amp; "_g" &amp; TEXT(C281, "00") &amp; "_" &amp; TEXT(D281, "00") &amp; "_o" &amp; TEXT(E281, "00") &amp; IF(AND(ISNUMBER(F281), F281&lt;&gt;E281), "_" &amp; TEXT(F281, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C281),"arith_" &amp; INDEX(Operations[],J281,2) &amp; "_g" &amp; TEXT(C281, "00") &amp; "_" &amp; TEXT(D281, "00") &amp; "_o" &amp; TEXT(E281, "00") &amp; IF(AND(ISNUMBER(F281), F281&gt;E281), "_" &amp; TEXT(F281, "00"), ""), "")</f>
         <v>arith_mul_g08_00_o09</v>
       </c>
       <c r="B281" t="str">
@@ -12240,7 +12240,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
-        <f>IF(ISNUMBER(C282),"arith_" &amp; INDEX(Operations[],J282,2) &amp; "_g" &amp; TEXT(C282, "00") &amp; "_" &amp; TEXT(D282, "00") &amp; "_o" &amp; TEXT(E282, "00") &amp; IF(AND(ISNUMBER(F282), F282&lt;&gt;E282), "_" &amp; TEXT(F282, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C282),"arith_" &amp; INDEX(Operations[],J282,2) &amp; "_g" &amp; TEXT(C282, "00") &amp; "_" &amp; TEXT(D282, "00") &amp; "_o" &amp; TEXT(E282, "00") &amp; IF(AND(ISNUMBER(F282), F282&gt;E282), "_" &amp; TEXT(F282, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B282" t="str">
@@ -12282,7 +12282,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
-        <f>IF(ISNUMBER(C283),"arith_" &amp; INDEX(Operations[],J283,2) &amp; "_g" &amp; TEXT(C283, "00") &amp; "_" &amp; TEXT(D283, "00") &amp; "_o" &amp; TEXT(E283, "00") &amp; IF(AND(ISNUMBER(F283), F283&lt;&gt;E283), "_" &amp; TEXT(F283, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C283),"arith_" &amp; INDEX(Operations[],J283,2) &amp; "_g" &amp; TEXT(C283, "00") &amp; "_" &amp; TEXT(D283, "00") &amp; "_o" &amp; TEXT(E283, "00") &amp; IF(AND(ISNUMBER(F283), F283&gt;E283), "_" &amp; TEXT(F283, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o01</v>
       </c>
       <c r="B283" t="str">
@@ -12324,7 +12324,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
-        <f>IF(ISNUMBER(C284),"arith_" &amp; INDEX(Operations[],J284,2) &amp; "_g" &amp; TEXT(C284, "00") &amp; "_" &amp; TEXT(D284, "00") &amp; "_o" &amp; TEXT(E284, "00") &amp; IF(AND(ISNUMBER(F284), F284&lt;&gt;E284), "_" &amp; TEXT(F284, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C284),"arith_" &amp; INDEX(Operations[],J284,2) &amp; "_g" &amp; TEXT(C284, "00") &amp; "_" &amp; TEXT(D284, "00") &amp; "_o" &amp; TEXT(E284, "00") &amp; IF(AND(ISNUMBER(F284), F284&gt;E284), "_" &amp; TEXT(F284, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o02</v>
       </c>
       <c r="B284" t="str">
@@ -12366,7 +12366,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
-        <f>IF(ISNUMBER(C285),"arith_" &amp; INDEX(Operations[],J285,2) &amp; "_g" &amp; TEXT(C285, "00") &amp; "_" &amp; TEXT(D285, "00") &amp; "_o" &amp; TEXT(E285, "00") &amp; IF(AND(ISNUMBER(F285), F285&lt;&gt;E285), "_" &amp; TEXT(F285, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C285),"arith_" &amp; INDEX(Operations[],J285,2) &amp; "_g" &amp; TEXT(C285, "00") &amp; "_" &amp; TEXT(D285, "00") &amp; "_o" &amp; TEXT(E285, "00") &amp; IF(AND(ISNUMBER(F285), F285&gt;E285), "_" &amp; TEXT(F285, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o03</v>
       </c>
       <c r="B285" t="str">
@@ -12408,7 +12408,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
-        <f>IF(ISNUMBER(C286),"arith_" &amp; INDEX(Operations[],J286,2) &amp; "_g" &amp; TEXT(C286, "00") &amp; "_" &amp; TEXT(D286, "00") &amp; "_o" &amp; TEXT(E286, "00") &amp; IF(AND(ISNUMBER(F286), F286&lt;&gt;E286), "_" &amp; TEXT(F286, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C286),"arith_" &amp; INDEX(Operations[],J286,2) &amp; "_g" &amp; TEXT(C286, "00") &amp; "_" &amp; TEXT(D286, "00") &amp; "_o" &amp; TEXT(E286, "00") &amp; IF(AND(ISNUMBER(F286), F286&gt;E286), "_" &amp; TEXT(F286, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o04</v>
       </c>
       <c r="B286" t="str">
@@ -12450,7 +12450,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
-        <f>IF(ISNUMBER(C287),"arith_" &amp; INDEX(Operations[],J287,2) &amp; "_g" &amp; TEXT(C287, "00") &amp; "_" &amp; TEXT(D287, "00") &amp; "_o" &amp; TEXT(E287, "00") &amp; IF(AND(ISNUMBER(F287), F287&lt;&gt;E287), "_" &amp; TEXT(F287, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C287),"arith_" &amp; INDEX(Operations[],J287,2) &amp; "_g" &amp; TEXT(C287, "00") &amp; "_" &amp; TEXT(D287, "00") &amp; "_o" &amp; TEXT(E287, "00") &amp; IF(AND(ISNUMBER(F287), F287&gt;E287), "_" &amp; TEXT(F287, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o05</v>
       </c>
       <c r="B287" t="str">
@@ -12492,7 +12492,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
-        <f>IF(ISNUMBER(C288),"arith_" &amp; INDEX(Operations[],J288,2) &amp; "_g" &amp; TEXT(C288, "00") &amp; "_" &amp; TEXT(D288, "00") &amp; "_o" &amp; TEXT(E288, "00") &amp; IF(AND(ISNUMBER(F288), F288&lt;&gt;E288), "_" &amp; TEXT(F288, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C288),"arith_" &amp; INDEX(Operations[],J288,2) &amp; "_g" &amp; TEXT(C288, "00") &amp; "_" &amp; TEXT(D288, "00") &amp; "_o" &amp; TEXT(E288, "00") &amp; IF(AND(ISNUMBER(F288), F288&gt;E288), "_" &amp; TEXT(F288, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o06</v>
       </c>
       <c r="B288" t="str">
@@ -12534,7 +12534,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
-        <f>IF(ISNUMBER(C289),"arith_" &amp; INDEX(Operations[],J289,2) &amp; "_g" &amp; TEXT(C289, "00") &amp; "_" &amp; TEXT(D289, "00") &amp; "_o" &amp; TEXT(E289, "00") &amp; IF(AND(ISNUMBER(F289), F289&lt;&gt;E289), "_" &amp; TEXT(F289, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C289),"arith_" &amp; INDEX(Operations[],J289,2) &amp; "_g" &amp; TEXT(C289, "00") &amp; "_" &amp; TEXT(D289, "00") &amp; "_o" &amp; TEXT(E289, "00") &amp; IF(AND(ISNUMBER(F289), F289&gt;E289), "_" &amp; TEXT(F289, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o07</v>
       </c>
       <c r="B289" t="str">
@@ -12576,7 +12576,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
-        <f>IF(ISNUMBER(C290),"arith_" &amp; INDEX(Operations[],J290,2) &amp; "_g" &amp; TEXT(C290, "00") &amp; "_" &amp; TEXT(D290, "00") &amp; "_o" &amp; TEXT(E290, "00") &amp; IF(AND(ISNUMBER(F290), F290&lt;&gt;E290), "_" &amp; TEXT(F290, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C290),"arith_" &amp; INDEX(Operations[],J290,2) &amp; "_g" &amp; TEXT(C290, "00") &amp; "_" &amp; TEXT(D290, "00") &amp; "_o" &amp; TEXT(E290, "00") &amp; IF(AND(ISNUMBER(F290), F290&gt;E290), "_" &amp; TEXT(F290, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o08</v>
       </c>
       <c r="B290" t="str">
@@ -12618,7 +12618,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <f>IF(ISNUMBER(C291),"arith_" &amp; INDEX(Operations[],J291,2) &amp; "_g" &amp; TEXT(C291, "00") &amp; "_" &amp; TEXT(D291, "00") &amp; "_o" &amp; TEXT(E291, "00") &amp; IF(AND(ISNUMBER(F291), F291&lt;&gt;E291), "_" &amp; TEXT(F291, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C291),"arith_" &amp; INDEX(Operations[],J291,2) &amp; "_g" &amp; TEXT(C291, "00") &amp; "_" &amp; TEXT(D291, "00") &amp; "_o" &amp; TEXT(E291, "00") &amp; IF(AND(ISNUMBER(F291), F291&gt;E291), "_" &amp; TEXT(F291, "00"), ""), "")</f>
         <v>arith_mul_g09_00_o09</v>
       </c>
       <c r="B291" t="str">
@@ -12660,7 +12660,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
-        <f>IF(ISNUMBER(C292),"arith_" &amp; INDEX(Operations[],J292,2) &amp; "_g" &amp; TEXT(C292, "00") &amp; "_" &amp; TEXT(D292, "00") &amp; "_o" &amp; TEXT(E292, "00") &amp; IF(AND(ISNUMBER(F292), F292&lt;&gt;E292), "_" &amp; TEXT(F292, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C292),"arith_" &amp; INDEX(Operations[],J292,2) &amp; "_g" &amp; TEXT(C292, "00") &amp; "_" &amp; TEXT(D292, "00") &amp; "_o" &amp; TEXT(E292, "00") &amp; IF(AND(ISNUMBER(F292), F292&gt;E292), "_" &amp; TEXT(F292, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B292" t="str">
@@ -12702,7 +12702,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
-        <f>IF(ISNUMBER(C293),"arith_" &amp; INDEX(Operations[],J293,2) &amp; "_g" &amp; TEXT(C293, "00") &amp; "_" &amp; TEXT(D293, "00") &amp; "_o" &amp; TEXT(E293, "00") &amp; IF(AND(ISNUMBER(F293), F293&lt;&gt;E293), "_" &amp; TEXT(F293, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C293),"arith_" &amp; INDEX(Operations[],J293,2) &amp; "_g" &amp; TEXT(C293, "00") &amp; "_" &amp; TEXT(D293, "00") &amp; "_o" &amp; TEXT(E293, "00") &amp; IF(AND(ISNUMBER(F293), F293&gt;E293), "_" &amp; TEXT(F293, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o01</v>
       </c>
       <c r="B293" t="str">
@@ -12744,7 +12744,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
-        <f>IF(ISNUMBER(C294),"arith_" &amp; INDEX(Operations[],J294,2) &amp; "_g" &amp; TEXT(C294, "00") &amp; "_" &amp; TEXT(D294, "00") &amp; "_o" &amp; TEXT(E294, "00") &amp; IF(AND(ISNUMBER(F294), F294&lt;&gt;E294), "_" &amp; TEXT(F294, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C294),"arith_" &amp; INDEX(Operations[],J294,2) &amp; "_g" &amp; TEXT(C294, "00") &amp; "_" &amp; TEXT(D294, "00") &amp; "_o" &amp; TEXT(E294, "00") &amp; IF(AND(ISNUMBER(F294), F294&gt;E294), "_" &amp; TEXT(F294, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o02</v>
       </c>
       <c r="B294" t="str">
@@ -12786,7 +12786,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
-        <f>IF(ISNUMBER(C295),"arith_" &amp; INDEX(Operations[],J295,2) &amp; "_g" &amp; TEXT(C295, "00") &amp; "_" &amp; TEXT(D295, "00") &amp; "_o" &amp; TEXT(E295, "00") &amp; IF(AND(ISNUMBER(F295), F295&lt;&gt;E295), "_" &amp; TEXT(F295, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C295),"arith_" &amp; INDEX(Operations[],J295,2) &amp; "_g" &amp; TEXT(C295, "00") &amp; "_" &amp; TEXT(D295, "00") &amp; "_o" &amp; TEXT(E295, "00") &amp; IF(AND(ISNUMBER(F295), F295&gt;E295), "_" &amp; TEXT(F295, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o03</v>
       </c>
       <c r="B295" t="str">
@@ -12828,7 +12828,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
-        <f>IF(ISNUMBER(C296),"arith_" &amp; INDEX(Operations[],J296,2) &amp; "_g" &amp; TEXT(C296, "00") &amp; "_" &amp; TEXT(D296, "00") &amp; "_o" &amp; TEXT(E296, "00") &amp; IF(AND(ISNUMBER(F296), F296&lt;&gt;E296), "_" &amp; TEXT(F296, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C296),"arith_" &amp; INDEX(Operations[],J296,2) &amp; "_g" &amp; TEXT(C296, "00") &amp; "_" &amp; TEXT(D296, "00") &amp; "_o" &amp; TEXT(E296, "00") &amp; IF(AND(ISNUMBER(F296), F296&gt;E296), "_" &amp; TEXT(F296, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o04</v>
       </c>
       <c r="B296" t="str">
@@ -12870,7 +12870,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
-        <f>IF(ISNUMBER(C297),"arith_" &amp; INDEX(Operations[],J297,2) &amp; "_g" &amp; TEXT(C297, "00") &amp; "_" &amp; TEXT(D297, "00") &amp; "_o" &amp; TEXT(E297, "00") &amp; IF(AND(ISNUMBER(F297), F297&lt;&gt;E297), "_" &amp; TEXT(F297, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C297),"arith_" &amp; INDEX(Operations[],J297,2) &amp; "_g" &amp; TEXT(C297, "00") &amp; "_" &amp; TEXT(D297, "00") &amp; "_o" &amp; TEXT(E297, "00") &amp; IF(AND(ISNUMBER(F297), F297&gt;E297), "_" &amp; TEXT(F297, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o05</v>
       </c>
       <c r="B297" t="str">
@@ -12912,7 +12912,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
-        <f>IF(ISNUMBER(C298),"arith_" &amp; INDEX(Operations[],J298,2) &amp; "_g" &amp; TEXT(C298, "00") &amp; "_" &amp; TEXT(D298, "00") &amp; "_o" &amp; TEXT(E298, "00") &amp; IF(AND(ISNUMBER(F298), F298&lt;&gt;E298), "_" &amp; TEXT(F298, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C298),"arith_" &amp; INDEX(Operations[],J298,2) &amp; "_g" &amp; TEXT(C298, "00") &amp; "_" &amp; TEXT(D298, "00") &amp; "_o" &amp; TEXT(E298, "00") &amp; IF(AND(ISNUMBER(F298), F298&gt;E298), "_" &amp; TEXT(F298, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o06</v>
       </c>
       <c r="B298" t="str">
@@ -12954,7 +12954,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
-        <f>IF(ISNUMBER(C299),"arith_" &amp; INDEX(Operations[],J299,2) &amp; "_g" &amp; TEXT(C299, "00") &amp; "_" &amp; TEXT(D299, "00") &amp; "_o" &amp; TEXT(E299, "00") &amp; IF(AND(ISNUMBER(F299), F299&lt;&gt;E299), "_" &amp; TEXT(F299, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C299),"arith_" &amp; INDEX(Operations[],J299,2) &amp; "_g" &amp; TEXT(C299, "00") &amp; "_" &amp; TEXT(D299, "00") &amp; "_o" &amp; TEXT(E299, "00") &amp; IF(AND(ISNUMBER(F299), F299&gt;E299), "_" &amp; TEXT(F299, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o07</v>
       </c>
       <c r="B299" t="str">
@@ -12996,7 +12996,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
-        <f>IF(ISNUMBER(C300),"arith_" &amp; INDEX(Operations[],J300,2) &amp; "_g" &amp; TEXT(C300, "00") &amp; "_" &amp; TEXT(D300, "00") &amp; "_o" &amp; TEXT(E300, "00") &amp; IF(AND(ISNUMBER(F300), F300&lt;&gt;E300), "_" &amp; TEXT(F300, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C300),"arith_" &amp; INDEX(Operations[],J300,2) &amp; "_g" &amp; TEXT(C300, "00") &amp; "_" &amp; TEXT(D300, "00") &amp; "_o" &amp; TEXT(E300, "00") &amp; IF(AND(ISNUMBER(F300), F300&gt;E300), "_" &amp; TEXT(F300, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o08</v>
       </c>
       <c r="B300" t="str">
@@ -13038,7 +13038,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
-        <f>IF(ISNUMBER(C301),"arith_" &amp; INDEX(Operations[],J301,2) &amp; "_g" &amp; TEXT(C301, "00") &amp; "_" &amp; TEXT(D301, "00") &amp; "_o" &amp; TEXT(E301, "00") &amp; IF(AND(ISNUMBER(F301), F301&lt;&gt;E301), "_" &amp; TEXT(F301, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C301),"arith_" &amp; INDEX(Operations[],J301,2) &amp; "_g" &amp; TEXT(C301, "00") &amp; "_" &amp; TEXT(D301, "00") &amp; "_o" &amp; TEXT(E301, "00") &amp; IF(AND(ISNUMBER(F301), F301&gt;E301), "_" &amp; TEXT(F301, "00"), ""), "")</f>
         <v>arith_mul_g10_00_o09</v>
       </c>
       <c r="B301" t="str">
@@ -13080,7 +13080,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
-        <f>IF(ISNUMBER(C302),"arith_" &amp; INDEX(Operations[],J302,2) &amp; "_g" &amp; TEXT(C302, "00") &amp; "_" &amp; TEXT(D302, "00") &amp; "_o" &amp; TEXT(E302, "00") &amp; IF(AND(ISNUMBER(F302), F302&lt;&gt;E302), "_" &amp; TEXT(F302, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C302),"arith_" &amp; INDEX(Operations[],J302,2) &amp; "_g" &amp; TEXT(C302, "00") &amp; "_" &amp; TEXT(D302, "00") &amp; "_o" &amp; TEXT(E302, "00") &amp; IF(AND(ISNUMBER(F302), F302&gt;E302), "_" &amp; TEXT(F302, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B302" t="str">
@@ -13122,7 +13122,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
-        <f>IF(ISNUMBER(C303),"arith_" &amp; INDEX(Operations[],J303,2) &amp; "_g" &amp; TEXT(C303, "00") &amp; "_" &amp; TEXT(D303, "00") &amp; "_o" &amp; TEXT(E303, "00") &amp; IF(AND(ISNUMBER(F303), F303&lt;&gt;E303), "_" &amp; TEXT(F303, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C303),"arith_" &amp; INDEX(Operations[],J303,2) &amp; "_g" &amp; TEXT(C303, "00") &amp; "_" &amp; TEXT(D303, "00") &amp; "_o" &amp; TEXT(E303, "00") &amp; IF(AND(ISNUMBER(F303), F303&gt;E303), "_" &amp; TEXT(F303, "00"), ""), "")</f>
         <v>arith_div_g01_00_o01</v>
       </c>
       <c r="B303" t="str">
@@ -13164,7 +13164,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
-        <f>IF(ISNUMBER(C304),"arith_" &amp; INDEX(Operations[],J304,2) &amp; "_g" &amp; TEXT(C304, "00") &amp; "_" &amp; TEXT(D304, "00") &amp; "_o" &amp; TEXT(E304, "00") &amp; IF(AND(ISNUMBER(F304), F304&lt;&gt;E304), "_" &amp; TEXT(F304, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C304),"arith_" &amp; INDEX(Operations[],J304,2) &amp; "_g" &amp; TEXT(C304, "00") &amp; "_" &amp; TEXT(D304, "00") &amp; "_o" &amp; TEXT(E304, "00") &amp; IF(AND(ISNUMBER(F304), F304&gt;E304), "_" &amp; TEXT(F304, "00"), ""), "")</f>
         <v>arith_div_g01_00_o02</v>
       </c>
       <c r="B304" t="str">
@@ -13206,7 +13206,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
-        <f>IF(ISNUMBER(C305),"arith_" &amp; INDEX(Operations[],J305,2) &amp; "_g" &amp; TEXT(C305, "00") &amp; "_" &amp; TEXT(D305, "00") &amp; "_o" &amp; TEXT(E305, "00") &amp; IF(AND(ISNUMBER(F305), F305&lt;&gt;E305), "_" &amp; TEXT(F305, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C305),"arith_" &amp; INDEX(Operations[],J305,2) &amp; "_g" &amp; TEXT(C305, "00") &amp; "_" &amp; TEXT(D305, "00") &amp; "_o" &amp; TEXT(E305, "00") &amp; IF(AND(ISNUMBER(F305), F305&gt;E305), "_" &amp; TEXT(F305, "00"), ""), "")</f>
         <v>arith_div_g01_00_o03</v>
       </c>
       <c r="B305" t="str">
@@ -13248,7 +13248,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
-        <f>IF(ISNUMBER(C306),"arith_" &amp; INDEX(Operations[],J306,2) &amp; "_g" &amp; TEXT(C306, "00") &amp; "_" &amp; TEXT(D306, "00") &amp; "_o" &amp; TEXT(E306, "00") &amp; IF(AND(ISNUMBER(F306), F306&lt;&gt;E306), "_" &amp; TEXT(F306, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C306),"arith_" &amp; INDEX(Operations[],J306,2) &amp; "_g" &amp; TEXT(C306, "00") &amp; "_" &amp; TEXT(D306, "00") &amp; "_o" &amp; TEXT(E306, "00") &amp; IF(AND(ISNUMBER(F306), F306&gt;E306), "_" &amp; TEXT(F306, "00"), ""), "")</f>
         <v>arith_div_g01_00_o04</v>
       </c>
       <c r="B306" t="str">
@@ -13290,7 +13290,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <f>IF(ISNUMBER(C307),"arith_" &amp; INDEX(Operations[],J307,2) &amp; "_g" &amp; TEXT(C307, "00") &amp; "_" &amp; TEXT(D307, "00") &amp; "_o" &amp; TEXT(E307, "00") &amp; IF(AND(ISNUMBER(F307), F307&lt;&gt;E307), "_" &amp; TEXT(F307, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C307),"arith_" &amp; INDEX(Operations[],J307,2) &amp; "_g" &amp; TEXT(C307, "00") &amp; "_" &amp; TEXT(D307, "00") &amp; "_o" &amp; TEXT(E307, "00") &amp; IF(AND(ISNUMBER(F307), F307&gt;E307), "_" &amp; TEXT(F307, "00"), ""), "")</f>
         <v>arith_div_g01_00_o05</v>
       </c>
       <c r="B307" t="str">
@@ -13332,7 +13332,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
-        <f>IF(ISNUMBER(C308),"arith_" &amp; INDEX(Operations[],J308,2) &amp; "_g" &amp; TEXT(C308, "00") &amp; "_" &amp; TEXT(D308, "00") &amp; "_o" &amp; TEXT(E308, "00") &amp; IF(AND(ISNUMBER(F308), F308&lt;&gt;E308), "_" &amp; TEXT(F308, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C308),"arith_" &amp; INDEX(Operations[],J308,2) &amp; "_g" &amp; TEXT(C308, "00") &amp; "_" &amp; TEXT(D308, "00") &amp; "_o" &amp; TEXT(E308, "00") &amp; IF(AND(ISNUMBER(F308), F308&gt;E308), "_" &amp; TEXT(F308, "00"), ""), "")</f>
         <v>arith_div_g01_00_o06</v>
       </c>
       <c r="B308" t="str">
@@ -13374,7 +13374,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
-        <f>IF(ISNUMBER(C309),"arith_" &amp; INDEX(Operations[],J309,2) &amp; "_g" &amp; TEXT(C309, "00") &amp; "_" &amp; TEXT(D309, "00") &amp; "_o" &amp; TEXT(E309, "00") &amp; IF(AND(ISNUMBER(F309), F309&lt;&gt;E309), "_" &amp; TEXT(F309, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C309),"arith_" &amp; INDEX(Operations[],J309,2) &amp; "_g" &amp; TEXT(C309, "00") &amp; "_" &amp; TEXT(D309, "00") &amp; "_o" &amp; TEXT(E309, "00") &amp; IF(AND(ISNUMBER(F309), F309&gt;E309), "_" &amp; TEXT(F309, "00"), ""), "")</f>
         <v>arith_div_g01_00_o07</v>
       </c>
       <c r="B309" t="str">
@@ -13416,7 +13416,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <f>IF(ISNUMBER(C310),"arith_" &amp; INDEX(Operations[],J310,2) &amp; "_g" &amp; TEXT(C310, "00") &amp; "_" &amp; TEXT(D310, "00") &amp; "_o" &amp; TEXT(E310, "00") &amp; IF(AND(ISNUMBER(F310), F310&lt;&gt;E310), "_" &amp; TEXT(F310, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C310),"arith_" &amp; INDEX(Operations[],J310,2) &amp; "_g" &amp; TEXT(C310, "00") &amp; "_" &amp; TEXT(D310, "00") &amp; "_o" &amp; TEXT(E310, "00") &amp; IF(AND(ISNUMBER(F310), F310&gt;E310), "_" &amp; TEXT(F310, "00"), ""), "")</f>
         <v>arith_div_g01_00_o08</v>
       </c>
       <c r="B310" t="str">
@@ -13458,7 +13458,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
-        <f>IF(ISNUMBER(C311),"arith_" &amp; INDEX(Operations[],J311,2) &amp; "_g" &amp; TEXT(C311, "00") &amp; "_" &amp; TEXT(D311, "00") &amp; "_o" &amp; TEXT(E311, "00") &amp; IF(AND(ISNUMBER(F311), F311&lt;&gt;E311), "_" &amp; TEXT(F311, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C311),"arith_" &amp; INDEX(Operations[],J311,2) &amp; "_g" &amp; TEXT(C311, "00") &amp; "_" &amp; TEXT(D311, "00") &amp; "_o" &amp; TEXT(E311, "00") &amp; IF(AND(ISNUMBER(F311), F311&gt;E311), "_" &amp; TEXT(F311, "00"), ""), "")</f>
         <v>arith_div_g01_00_o09</v>
       </c>
       <c r="B311" t="str">
@@ -13500,7 +13500,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
-        <f>IF(ISNUMBER(C312),"arith_" &amp; INDEX(Operations[],J312,2) &amp; "_g" &amp; TEXT(C312, "00") &amp; "_" &amp; TEXT(D312, "00") &amp; "_o" &amp; TEXT(E312, "00") &amp; IF(AND(ISNUMBER(F312), F312&lt;&gt;E312), "_" &amp; TEXT(F312, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C312),"arith_" &amp; INDEX(Operations[],J312,2) &amp; "_g" &amp; TEXT(C312, "00") &amp; "_" &amp; TEXT(D312, "00") &amp; "_o" &amp; TEXT(E312, "00") &amp; IF(AND(ISNUMBER(F312), F312&gt;E312), "_" &amp; TEXT(F312, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B312" t="str">
@@ -13542,7 +13542,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <f>IF(ISNUMBER(C313),"arith_" &amp; INDEX(Operations[],J313,2) &amp; "_g" &amp; TEXT(C313, "00") &amp; "_" &amp; TEXT(D313, "00") &amp; "_o" &amp; TEXT(E313, "00") &amp; IF(AND(ISNUMBER(F313), F313&lt;&gt;E313), "_" &amp; TEXT(F313, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C313),"arith_" &amp; INDEX(Operations[],J313,2) &amp; "_g" &amp; TEXT(C313, "00") &amp; "_" &amp; TEXT(D313, "00") &amp; "_o" &amp; TEXT(E313, "00") &amp; IF(AND(ISNUMBER(F313), F313&gt;E313), "_" &amp; TEXT(F313, "00"), ""), "")</f>
         <v>arith_div_g02_00_o01</v>
       </c>
       <c r="B313" t="str">
@@ -13584,7 +13584,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f>IF(ISNUMBER(C314),"arith_" &amp; INDEX(Operations[],J314,2) &amp; "_g" &amp; TEXT(C314, "00") &amp; "_" &amp; TEXT(D314, "00") &amp; "_o" &amp; TEXT(E314, "00") &amp; IF(AND(ISNUMBER(F314), F314&lt;&gt;E314), "_" &amp; TEXT(F314, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C314),"arith_" &amp; INDEX(Operations[],J314,2) &amp; "_g" &amp; TEXT(C314, "00") &amp; "_" &amp; TEXT(D314, "00") &amp; "_o" &amp; TEXT(E314, "00") &amp; IF(AND(ISNUMBER(F314), F314&gt;E314), "_" &amp; TEXT(F314, "00"), ""), "")</f>
         <v>arith_div_g02_00_o02</v>
       </c>
       <c r="B314" t="str">
@@ -13626,7 +13626,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f>IF(ISNUMBER(C315),"arith_" &amp; INDEX(Operations[],J315,2) &amp; "_g" &amp; TEXT(C315, "00") &amp; "_" &amp; TEXT(D315, "00") &amp; "_o" &amp; TEXT(E315, "00") &amp; IF(AND(ISNUMBER(F315), F315&lt;&gt;E315), "_" &amp; TEXT(F315, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C315),"arith_" &amp; INDEX(Operations[],J315,2) &amp; "_g" &amp; TEXT(C315, "00") &amp; "_" &amp; TEXT(D315, "00") &amp; "_o" &amp; TEXT(E315, "00") &amp; IF(AND(ISNUMBER(F315), F315&gt;E315), "_" &amp; TEXT(F315, "00"), ""), "")</f>
         <v>arith_div_g02_00_o03</v>
       </c>
       <c r="B315" t="str">
@@ -13668,7 +13668,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f>IF(ISNUMBER(C316),"arith_" &amp; INDEX(Operations[],J316,2) &amp; "_g" &amp; TEXT(C316, "00") &amp; "_" &amp; TEXT(D316, "00") &amp; "_o" &amp; TEXT(E316, "00") &amp; IF(AND(ISNUMBER(F316), F316&lt;&gt;E316), "_" &amp; TEXT(F316, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C316),"arith_" &amp; INDEX(Operations[],J316,2) &amp; "_g" &amp; TEXT(C316, "00") &amp; "_" &amp; TEXT(D316, "00") &amp; "_o" &amp; TEXT(E316, "00") &amp; IF(AND(ISNUMBER(F316), F316&gt;E316), "_" &amp; TEXT(F316, "00"), ""), "")</f>
         <v>arith_div_g02_00_o04</v>
       </c>
       <c r="B316" t="str">
@@ -13710,7 +13710,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f>IF(ISNUMBER(C317),"arith_" &amp; INDEX(Operations[],J317,2) &amp; "_g" &amp; TEXT(C317, "00") &amp; "_" &amp; TEXT(D317, "00") &amp; "_o" &amp; TEXT(E317, "00") &amp; IF(AND(ISNUMBER(F317), F317&lt;&gt;E317), "_" &amp; TEXT(F317, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C317),"arith_" &amp; INDEX(Operations[],J317,2) &amp; "_g" &amp; TEXT(C317, "00") &amp; "_" &amp; TEXT(D317, "00") &amp; "_o" &amp; TEXT(E317, "00") &amp; IF(AND(ISNUMBER(F317), F317&gt;E317), "_" &amp; TEXT(F317, "00"), ""), "")</f>
         <v>arith_div_g02_00_o05</v>
       </c>
       <c r="B317" t="str">
@@ -13752,7 +13752,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f>IF(ISNUMBER(C318),"arith_" &amp; INDEX(Operations[],J318,2) &amp; "_g" &amp; TEXT(C318, "00") &amp; "_" &amp; TEXT(D318, "00") &amp; "_o" &amp; TEXT(E318, "00") &amp; IF(AND(ISNUMBER(F318), F318&lt;&gt;E318), "_" &amp; TEXT(F318, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C318),"arith_" &amp; INDEX(Operations[],J318,2) &amp; "_g" &amp; TEXT(C318, "00") &amp; "_" &amp; TEXT(D318, "00") &amp; "_o" &amp; TEXT(E318, "00") &amp; IF(AND(ISNUMBER(F318), F318&gt;E318), "_" &amp; TEXT(F318, "00"), ""), "")</f>
         <v>arith_div_g02_00_o06</v>
       </c>
       <c r="B318" t="str">
@@ -13794,7 +13794,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f>IF(ISNUMBER(C319),"arith_" &amp; INDEX(Operations[],J319,2) &amp; "_g" &amp; TEXT(C319, "00") &amp; "_" &amp; TEXT(D319, "00") &amp; "_o" &amp; TEXT(E319, "00") &amp; IF(AND(ISNUMBER(F319), F319&lt;&gt;E319), "_" &amp; TEXT(F319, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C319),"arith_" &amp; INDEX(Operations[],J319,2) &amp; "_g" &amp; TEXT(C319, "00") &amp; "_" &amp; TEXT(D319, "00") &amp; "_o" &amp; TEXT(E319, "00") &amp; IF(AND(ISNUMBER(F319), F319&gt;E319), "_" &amp; TEXT(F319, "00"), ""), "")</f>
         <v>arith_div_g02_00_o07</v>
       </c>
       <c r="B319" t="str">
@@ -13836,7 +13836,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f>IF(ISNUMBER(C320),"arith_" &amp; INDEX(Operations[],J320,2) &amp; "_g" &amp; TEXT(C320, "00") &amp; "_" &amp; TEXT(D320, "00") &amp; "_o" &amp; TEXT(E320, "00") &amp; IF(AND(ISNUMBER(F320), F320&lt;&gt;E320), "_" &amp; TEXT(F320, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C320),"arith_" &amp; INDEX(Operations[],J320,2) &amp; "_g" &amp; TEXT(C320, "00") &amp; "_" &amp; TEXT(D320, "00") &amp; "_o" &amp; TEXT(E320, "00") &amp; IF(AND(ISNUMBER(F320), F320&gt;E320), "_" &amp; TEXT(F320, "00"), ""), "")</f>
         <v>arith_div_g02_00_o08</v>
       </c>
       <c r="B320" t="str">
@@ -13878,7 +13878,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f>IF(ISNUMBER(C321),"arith_" &amp; INDEX(Operations[],J321,2) &amp; "_g" &amp; TEXT(C321, "00") &amp; "_" &amp; TEXT(D321, "00") &amp; "_o" &amp; TEXT(E321, "00") &amp; IF(AND(ISNUMBER(F321), F321&lt;&gt;E321), "_" &amp; TEXT(F321, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C321),"arith_" &amp; INDEX(Operations[],J321,2) &amp; "_g" &amp; TEXT(C321, "00") &amp; "_" &amp; TEXT(D321, "00") &amp; "_o" &amp; TEXT(E321, "00") &amp; IF(AND(ISNUMBER(F321), F321&gt;E321), "_" &amp; TEXT(F321, "00"), ""), "")</f>
         <v>arith_div_g02_00_o09</v>
       </c>
       <c r="B321" t="str">
@@ -13920,7 +13920,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f>IF(ISNUMBER(C322),"arith_" &amp; INDEX(Operations[],J322,2) &amp; "_g" &amp; TEXT(C322, "00") &amp; "_" &amp; TEXT(D322, "00") &amp; "_o" &amp; TEXT(E322, "00") &amp; IF(AND(ISNUMBER(F322), F322&lt;&gt;E322), "_" &amp; TEXT(F322, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C322),"arith_" &amp; INDEX(Operations[],J322,2) &amp; "_g" &amp; TEXT(C322, "00") &amp; "_" &amp; TEXT(D322, "00") &amp; "_o" &amp; TEXT(E322, "00") &amp; IF(AND(ISNUMBER(F322), F322&gt;E322), "_" &amp; TEXT(F322, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B322" t="str">
@@ -13962,7 +13962,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f>IF(ISNUMBER(C323),"arith_" &amp; INDEX(Operations[],J323,2) &amp; "_g" &amp; TEXT(C323, "00") &amp; "_" &amp; TEXT(D323, "00") &amp; "_o" &amp; TEXT(E323, "00") &amp; IF(AND(ISNUMBER(F323), F323&lt;&gt;E323), "_" &amp; TEXT(F323, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C323),"arith_" &amp; INDEX(Operations[],J323,2) &amp; "_g" &amp; TEXT(C323, "00") &amp; "_" &amp; TEXT(D323, "00") &amp; "_o" &amp; TEXT(E323, "00") &amp; IF(AND(ISNUMBER(F323), F323&gt;E323), "_" &amp; TEXT(F323, "00"), ""), "")</f>
         <v>arith_div_g03_00_o01</v>
       </c>
       <c r="B323" t="str">
@@ -14004,7 +14004,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f>IF(ISNUMBER(C324),"arith_" &amp; INDEX(Operations[],J324,2) &amp; "_g" &amp; TEXT(C324, "00") &amp; "_" &amp; TEXT(D324, "00") &amp; "_o" &amp; TEXT(E324, "00") &amp; IF(AND(ISNUMBER(F324), F324&lt;&gt;E324), "_" &amp; TEXT(F324, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C324),"arith_" &amp; INDEX(Operations[],J324,2) &amp; "_g" &amp; TEXT(C324, "00") &amp; "_" &amp; TEXT(D324, "00") &amp; "_o" &amp; TEXT(E324, "00") &amp; IF(AND(ISNUMBER(F324), F324&gt;E324), "_" &amp; TEXT(F324, "00"), ""), "")</f>
         <v>arith_div_g03_00_o02</v>
       </c>
       <c r="B324" t="str">
@@ -14046,7 +14046,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f>IF(ISNUMBER(C325),"arith_" &amp; INDEX(Operations[],J325,2) &amp; "_g" &amp; TEXT(C325, "00") &amp; "_" &amp; TEXT(D325, "00") &amp; "_o" &amp; TEXT(E325, "00") &amp; IF(AND(ISNUMBER(F325), F325&lt;&gt;E325), "_" &amp; TEXT(F325, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C325),"arith_" &amp; INDEX(Operations[],J325,2) &amp; "_g" &amp; TEXT(C325, "00") &amp; "_" &amp; TEXT(D325, "00") &amp; "_o" &amp; TEXT(E325, "00") &amp; IF(AND(ISNUMBER(F325), F325&gt;E325), "_" &amp; TEXT(F325, "00"), ""), "")</f>
         <v>arith_div_g03_00_o03</v>
       </c>
       <c r="B325" t="str">
@@ -14088,7 +14088,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
-        <f>IF(ISNUMBER(C326),"arith_" &amp; INDEX(Operations[],J326,2) &amp; "_g" &amp; TEXT(C326, "00") &amp; "_" &amp; TEXT(D326, "00") &amp; "_o" &amp; TEXT(E326, "00") &amp; IF(AND(ISNUMBER(F326), F326&lt;&gt;E326), "_" &amp; TEXT(F326, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C326),"arith_" &amp; INDEX(Operations[],J326,2) &amp; "_g" &amp; TEXT(C326, "00") &amp; "_" &amp; TEXT(D326, "00") &amp; "_o" &amp; TEXT(E326, "00") &amp; IF(AND(ISNUMBER(F326), F326&gt;E326), "_" &amp; TEXT(F326, "00"), ""), "")</f>
         <v>arith_div_g03_00_o04</v>
       </c>
       <c r="B326" t="str">
@@ -14130,7 +14130,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
-        <f>IF(ISNUMBER(C327),"arith_" &amp; INDEX(Operations[],J327,2) &amp; "_g" &amp; TEXT(C327, "00") &amp; "_" &amp; TEXT(D327, "00") &amp; "_o" &amp; TEXT(E327, "00") &amp; IF(AND(ISNUMBER(F327), F327&lt;&gt;E327), "_" &amp; TEXT(F327, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C327),"arith_" &amp; INDEX(Operations[],J327,2) &amp; "_g" &amp; TEXT(C327, "00") &amp; "_" &amp; TEXT(D327, "00") &amp; "_o" &amp; TEXT(E327, "00") &amp; IF(AND(ISNUMBER(F327), F327&gt;E327), "_" &amp; TEXT(F327, "00"), ""), "")</f>
         <v>arith_div_g03_00_o05</v>
       </c>
       <c r="B327" t="str">
@@ -14172,7 +14172,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
-        <f>IF(ISNUMBER(C328),"arith_" &amp; INDEX(Operations[],J328,2) &amp; "_g" &amp; TEXT(C328, "00") &amp; "_" &amp; TEXT(D328, "00") &amp; "_o" &amp; TEXT(E328, "00") &amp; IF(AND(ISNUMBER(F328), F328&lt;&gt;E328), "_" &amp; TEXT(F328, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C328),"arith_" &amp; INDEX(Operations[],J328,2) &amp; "_g" &amp; TEXT(C328, "00") &amp; "_" &amp; TEXT(D328, "00") &amp; "_o" &amp; TEXT(E328, "00") &amp; IF(AND(ISNUMBER(F328), F328&gt;E328), "_" &amp; TEXT(F328, "00"), ""), "")</f>
         <v>arith_div_g03_00_o06</v>
       </c>
       <c r="B328" t="str">
@@ -14214,7 +14214,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
-        <f>IF(ISNUMBER(C329),"arith_" &amp; INDEX(Operations[],J329,2) &amp; "_g" &amp; TEXT(C329, "00") &amp; "_" &amp; TEXT(D329, "00") &amp; "_o" &amp; TEXT(E329, "00") &amp; IF(AND(ISNUMBER(F329), F329&lt;&gt;E329), "_" &amp; TEXT(F329, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C329),"arith_" &amp; INDEX(Operations[],J329,2) &amp; "_g" &amp; TEXT(C329, "00") &amp; "_" &amp; TEXT(D329, "00") &amp; "_o" &amp; TEXT(E329, "00") &amp; IF(AND(ISNUMBER(F329), F329&gt;E329), "_" &amp; TEXT(F329, "00"), ""), "")</f>
         <v>arith_div_g03_00_o07</v>
       </c>
       <c r="B329" t="str">
@@ -14256,7 +14256,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
-        <f>IF(ISNUMBER(C330),"arith_" &amp; INDEX(Operations[],J330,2) &amp; "_g" &amp; TEXT(C330, "00") &amp; "_" &amp; TEXT(D330, "00") &amp; "_o" &amp; TEXT(E330, "00") &amp; IF(AND(ISNUMBER(F330), F330&lt;&gt;E330), "_" &amp; TEXT(F330, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C330),"arith_" &amp; INDEX(Operations[],J330,2) &amp; "_g" &amp; TEXT(C330, "00") &amp; "_" &amp; TEXT(D330, "00") &amp; "_o" &amp; TEXT(E330, "00") &amp; IF(AND(ISNUMBER(F330), F330&gt;E330), "_" &amp; TEXT(F330, "00"), ""), "")</f>
         <v>arith_div_g03_00_o08</v>
       </c>
       <c r="B330" t="str">
@@ -14298,7 +14298,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
-        <f>IF(ISNUMBER(C331),"arith_" &amp; INDEX(Operations[],J331,2) &amp; "_g" &amp; TEXT(C331, "00") &amp; "_" &amp; TEXT(D331, "00") &amp; "_o" &amp; TEXT(E331, "00") &amp; IF(AND(ISNUMBER(F331), F331&lt;&gt;E331), "_" &amp; TEXT(F331, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C331),"arith_" &amp; INDEX(Operations[],J331,2) &amp; "_g" &amp; TEXT(C331, "00") &amp; "_" &amp; TEXT(D331, "00") &amp; "_o" &amp; TEXT(E331, "00") &amp; IF(AND(ISNUMBER(F331), F331&gt;E331), "_" &amp; TEXT(F331, "00"), ""), "")</f>
         <v>arith_div_g03_00_o09</v>
       </c>
       <c r="B331" t="str">
@@ -14340,7 +14340,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
-        <f>IF(ISNUMBER(C332),"arith_" &amp; INDEX(Operations[],J332,2) &amp; "_g" &amp; TEXT(C332, "00") &amp; "_" &amp; TEXT(D332, "00") &amp; "_o" &amp; TEXT(E332, "00") &amp; IF(AND(ISNUMBER(F332), F332&lt;&gt;E332), "_" &amp; TEXT(F332, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C332),"arith_" &amp; INDEX(Operations[],J332,2) &amp; "_g" &amp; TEXT(C332, "00") &amp; "_" &amp; TEXT(D332, "00") &amp; "_o" &amp; TEXT(E332, "00") &amp; IF(AND(ISNUMBER(F332), F332&gt;E332), "_" &amp; TEXT(F332, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B332" t="str">
@@ -14382,7 +14382,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
-        <f>IF(ISNUMBER(C333),"arith_" &amp; INDEX(Operations[],J333,2) &amp; "_g" &amp; TEXT(C333, "00") &amp; "_" &amp; TEXT(D333, "00") &amp; "_o" &amp; TEXT(E333, "00") &amp; IF(AND(ISNUMBER(F333), F333&lt;&gt;E333), "_" &amp; TEXT(F333, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C333),"arith_" &amp; INDEX(Operations[],J333,2) &amp; "_g" &amp; TEXT(C333, "00") &amp; "_" &amp; TEXT(D333, "00") &amp; "_o" &amp; TEXT(E333, "00") &amp; IF(AND(ISNUMBER(F333), F333&gt;E333), "_" &amp; TEXT(F333, "00"), ""), "")</f>
         <v>arith_div_g04_00_o01</v>
       </c>
       <c r="B333" t="str">
@@ -14424,7 +14424,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
-        <f>IF(ISNUMBER(C334),"arith_" &amp; INDEX(Operations[],J334,2) &amp; "_g" &amp; TEXT(C334, "00") &amp; "_" &amp; TEXT(D334, "00") &amp; "_o" &amp; TEXT(E334, "00") &amp; IF(AND(ISNUMBER(F334), F334&lt;&gt;E334), "_" &amp; TEXT(F334, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C334),"arith_" &amp; INDEX(Operations[],J334,2) &amp; "_g" &amp; TEXT(C334, "00") &amp; "_" &amp; TEXT(D334, "00") &amp; "_o" &amp; TEXT(E334, "00") &amp; IF(AND(ISNUMBER(F334), F334&gt;E334), "_" &amp; TEXT(F334, "00"), ""), "")</f>
         <v>arith_div_g04_00_o02</v>
       </c>
       <c r="B334" t="str">
@@ -14466,7 +14466,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
-        <f>IF(ISNUMBER(C335),"arith_" &amp; INDEX(Operations[],J335,2) &amp; "_g" &amp; TEXT(C335, "00") &amp; "_" &amp; TEXT(D335, "00") &amp; "_o" &amp; TEXT(E335, "00") &amp; IF(AND(ISNUMBER(F335), F335&lt;&gt;E335), "_" &amp; TEXT(F335, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C335),"arith_" &amp; INDEX(Operations[],J335,2) &amp; "_g" &amp; TEXT(C335, "00") &amp; "_" &amp; TEXT(D335, "00") &amp; "_o" &amp; TEXT(E335, "00") &amp; IF(AND(ISNUMBER(F335), F335&gt;E335), "_" &amp; TEXT(F335, "00"), ""), "")</f>
         <v>arith_div_g04_00_o03</v>
       </c>
       <c r="B335" t="str">
@@ -14508,7 +14508,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
-        <f>IF(ISNUMBER(C336),"arith_" &amp; INDEX(Operations[],J336,2) &amp; "_g" &amp; TEXT(C336, "00") &amp; "_" &amp; TEXT(D336, "00") &amp; "_o" &amp; TEXT(E336, "00") &amp; IF(AND(ISNUMBER(F336), F336&lt;&gt;E336), "_" &amp; TEXT(F336, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C336),"arith_" &amp; INDEX(Operations[],J336,2) &amp; "_g" &amp; TEXT(C336, "00") &amp; "_" &amp; TEXT(D336, "00") &amp; "_o" &amp; TEXT(E336, "00") &amp; IF(AND(ISNUMBER(F336), F336&gt;E336), "_" &amp; TEXT(F336, "00"), ""), "")</f>
         <v>arith_div_g04_00_o04</v>
       </c>
       <c r="B336" t="str">
@@ -14550,7 +14550,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <f>IF(ISNUMBER(C337),"arith_" &amp; INDEX(Operations[],J337,2) &amp; "_g" &amp; TEXT(C337, "00") &amp; "_" &amp; TEXT(D337, "00") &amp; "_o" &amp; TEXT(E337, "00") &amp; IF(AND(ISNUMBER(F337), F337&lt;&gt;E337), "_" &amp; TEXT(F337, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C337),"arith_" &amp; INDEX(Operations[],J337,2) &amp; "_g" &amp; TEXT(C337, "00") &amp; "_" &amp; TEXT(D337, "00") &amp; "_o" &amp; TEXT(E337, "00") &amp; IF(AND(ISNUMBER(F337), F337&gt;E337), "_" &amp; TEXT(F337, "00"), ""), "")</f>
         <v>arith_div_g04_00_o05</v>
       </c>
       <c r="B337" t="str">
@@ -14592,7 +14592,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
-        <f>IF(ISNUMBER(C338),"arith_" &amp; INDEX(Operations[],J338,2) &amp; "_g" &amp; TEXT(C338, "00") &amp; "_" &amp; TEXT(D338, "00") &amp; "_o" &amp; TEXT(E338, "00") &amp; IF(AND(ISNUMBER(F338), F338&lt;&gt;E338), "_" &amp; TEXT(F338, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C338),"arith_" &amp; INDEX(Operations[],J338,2) &amp; "_g" &amp; TEXT(C338, "00") &amp; "_" &amp; TEXT(D338, "00") &amp; "_o" &amp; TEXT(E338, "00") &amp; IF(AND(ISNUMBER(F338), F338&gt;E338), "_" &amp; TEXT(F338, "00"), ""), "")</f>
         <v>arith_div_g04_00_o06</v>
       </c>
       <c r="B338" t="str">
@@ -14634,7 +14634,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
-        <f>IF(ISNUMBER(C339),"arith_" &amp; INDEX(Operations[],J339,2) &amp; "_g" &amp; TEXT(C339, "00") &amp; "_" &amp; TEXT(D339, "00") &amp; "_o" &amp; TEXT(E339, "00") &amp; IF(AND(ISNUMBER(F339), F339&lt;&gt;E339), "_" &amp; TEXT(F339, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C339),"arith_" &amp; INDEX(Operations[],J339,2) &amp; "_g" &amp; TEXT(C339, "00") &amp; "_" &amp; TEXT(D339, "00") &amp; "_o" &amp; TEXT(E339, "00") &amp; IF(AND(ISNUMBER(F339), F339&gt;E339), "_" &amp; TEXT(F339, "00"), ""), "")</f>
         <v>arith_div_g04_00_o07</v>
       </c>
       <c r="B339" t="str">
@@ -14676,7 +14676,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
-        <f>IF(ISNUMBER(C340),"arith_" &amp; INDEX(Operations[],J340,2) &amp; "_g" &amp; TEXT(C340, "00") &amp; "_" &amp; TEXT(D340, "00") &amp; "_o" &amp; TEXT(E340, "00") &amp; IF(AND(ISNUMBER(F340), F340&lt;&gt;E340), "_" &amp; TEXT(F340, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C340),"arith_" &amp; INDEX(Operations[],J340,2) &amp; "_g" &amp; TEXT(C340, "00") &amp; "_" &amp; TEXT(D340, "00") &amp; "_o" &amp; TEXT(E340, "00") &amp; IF(AND(ISNUMBER(F340), F340&gt;E340), "_" &amp; TEXT(F340, "00"), ""), "")</f>
         <v>arith_div_g04_00_o08</v>
       </c>
       <c r="B340" t="str">
@@ -14718,7 +14718,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
-        <f>IF(ISNUMBER(C341),"arith_" &amp; INDEX(Operations[],J341,2) &amp; "_g" &amp; TEXT(C341, "00") &amp; "_" &amp; TEXT(D341, "00") &amp; "_o" &amp; TEXT(E341, "00") &amp; IF(AND(ISNUMBER(F341), F341&lt;&gt;E341), "_" &amp; TEXT(F341, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C341),"arith_" &amp; INDEX(Operations[],J341,2) &amp; "_g" &amp; TEXT(C341, "00") &amp; "_" &amp; TEXT(D341, "00") &amp; "_o" &amp; TEXT(E341, "00") &amp; IF(AND(ISNUMBER(F341), F341&gt;E341), "_" &amp; TEXT(F341, "00"), ""), "")</f>
         <v>arith_div_g04_00_o09</v>
       </c>
       <c r="B341" t="str">
@@ -14760,7 +14760,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
-        <f>IF(ISNUMBER(C342),"arith_" &amp; INDEX(Operations[],J342,2) &amp; "_g" &amp; TEXT(C342, "00") &amp; "_" &amp; TEXT(D342, "00") &amp; "_o" &amp; TEXT(E342, "00") &amp; IF(AND(ISNUMBER(F342), F342&lt;&gt;E342), "_" &amp; TEXT(F342, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C342),"arith_" &amp; INDEX(Operations[],J342,2) &amp; "_g" &amp; TEXT(C342, "00") &amp; "_" &amp; TEXT(D342, "00") &amp; "_o" &amp; TEXT(E342, "00") &amp; IF(AND(ISNUMBER(F342), F342&gt;E342), "_" &amp; TEXT(F342, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B342" t="str">
@@ -14802,7 +14802,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
-        <f>IF(ISNUMBER(C343),"arith_" &amp; INDEX(Operations[],J343,2) &amp; "_g" &amp; TEXT(C343, "00") &amp; "_" &amp; TEXT(D343, "00") &amp; "_o" &amp; TEXT(E343, "00") &amp; IF(AND(ISNUMBER(F343), F343&lt;&gt;E343), "_" &amp; TEXT(F343, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C343),"arith_" &amp; INDEX(Operations[],J343,2) &amp; "_g" &amp; TEXT(C343, "00") &amp; "_" &amp; TEXT(D343, "00") &amp; "_o" &amp; TEXT(E343, "00") &amp; IF(AND(ISNUMBER(F343), F343&gt;E343), "_" &amp; TEXT(F343, "00"), ""), "")</f>
         <v>arith_div_g05_00_o01</v>
       </c>
       <c r="B343" t="str">
@@ -14844,7 +14844,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f>IF(ISNUMBER(C344),"arith_" &amp; INDEX(Operations[],J344,2) &amp; "_g" &amp; TEXT(C344, "00") &amp; "_" &amp; TEXT(D344, "00") &amp; "_o" &amp; TEXT(E344, "00") &amp; IF(AND(ISNUMBER(F344), F344&lt;&gt;E344), "_" &amp; TEXT(F344, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C344),"arith_" &amp; INDEX(Operations[],J344,2) &amp; "_g" &amp; TEXT(C344, "00") &amp; "_" &amp; TEXT(D344, "00") &amp; "_o" &amp; TEXT(E344, "00") &amp; IF(AND(ISNUMBER(F344), F344&gt;E344), "_" &amp; TEXT(F344, "00"), ""), "")</f>
         <v>arith_div_g05_00_o02</v>
       </c>
       <c r="B344" t="str">
@@ -14886,7 +14886,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>IF(ISNUMBER(C345),"arith_" &amp; INDEX(Operations[],J345,2) &amp; "_g" &amp; TEXT(C345, "00") &amp; "_" &amp; TEXT(D345, "00") &amp; "_o" &amp; TEXT(E345, "00") &amp; IF(AND(ISNUMBER(F345), F345&lt;&gt;E345), "_" &amp; TEXT(F345, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C345),"arith_" &amp; INDEX(Operations[],J345,2) &amp; "_g" &amp; TEXT(C345, "00") &amp; "_" &amp; TEXT(D345, "00") &amp; "_o" &amp; TEXT(E345, "00") &amp; IF(AND(ISNUMBER(F345), F345&gt;E345), "_" &amp; TEXT(F345, "00"), ""), "")</f>
         <v>arith_div_g05_00_o03</v>
       </c>
       <c r="B345" t="str">
@@ -14928,7 +14928,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>IF(ISNUMBER(C346),"arith_" &amp; INDEX(Operations[],J346,2) &amp; "_g" &amp; TEXT(C346, "00") &amp; "_" &amp; TEXT(D346, "00") &amp; "_o" &amp; TEXT(E346, "00") &amp; IF(AND(ISNUMBER(F346), F346&lt;&gt;E346), "_" &amp; TEXT(F346, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C346),"arith_" &amp; INDEX(Operations[],J346,2) &amp; "_g" &amp; TEXT(C346, "00") &amp; "_" &amp; TEXT(D346, "00") &amp; "_o" &amp; TEXT(E346, "00") &amp; IF(AND(ISNUMBER(F346), F346&gt;E346), "_" &amp; TEXT(F346, "00"), ""), "")</f>
         <v>arith_div_g05_00_o04</v>
       </c>
       <c r="B346" t="str">
@@ -14970,7 +14970,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
-        <f>IF(ISNUMBER(C347),"arith_" &amp; INDEX(Operations[],J347,2) &amp; "_g" &amp; TEXT(C347, "00") &amp; "_" &amp; TEXT(D347, "00") &amp; "_o" &amp; TEXT(E347, "00") &amp; IF(AND(ISNUMBER(F347), F347&lt;&gt;E347), "_" &amp; TEXT(F347, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C347),"arith_" &amp; INDEX(Operations[],J347,2) &amp; "_g" &amp; TEXT(C347, "00") &amp; "_" &amp; TEXT(D347, "00") &amp; "_o" &amp; TEXT(E347, "00") &amp; IF(AND(ISNUMBER(F347), F347&gt;E347), "_" &amp; TEXT(F347, "00"), ""), "")</f>
         <v>arith_div_g05_00_o05</v>
       </c>
       <c r="B347" t="str">
@@ -15012,7 +15012,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
-        <f>IF(ISNUMBER(C348),"arith_" &amp; INDEX(Operations[],J348,2) &amp; "_g" &amp; TEXT(C348, "00") &amp; "_" &amp; TEXT(D348, "00") &amp; "_o" &amp; TEXT(E348, "00") &amp; IF(AND(ISNUMBER(F348), F348&lt;&gt;E348), "_" &amp; TEXT(F348, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C348),"arith_" &amp; INDEX(Operations[],J348,2) &amp; "_g" &amp; TEXT(C348, "00") &amp; "_" &amp; TEXT(D348, "00") &amp; "_o" &amp; TEXT(E348, "00") &amp; IF(AND(ISNUMBER(F348), F348&gt;E348), "_" &amp; TEXT(F348, "00"), ""), "")</f>
         <v>arith_div_g05_00_o06</v>
       </c>
       <c r="B348" t="str">
@@ -15054,7 +15054,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
-        <f>IF(ISNUMBER(C349),"arith_" &amp; INDEX(Operations[],J349,2) &amp; "_g" &amp; TEXT(C349, "00") &amp; "_" &amp; TEXT(D349, "00") &amp; "_o" &amp; TEXT(E349, "00") &amp; IF(AND(ISNUMBER(F349), F349&lt;&gt;E349), "_" &amp; TEXT(F349, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C349),"arith_" &amp; INDEX(Operations[],J349,2) &amp; "_g" &amp; TEXT(C349, "00") &amp; "_" &amp; TEXT(D349, "00") &amp; "_o" &amp; TEXT(E349, "00") &amp; IF(AND(ISNUMBER(F349), F349&gt;E349), "_" &amp; TEXT(F349, "00"), ""), "")</f>
         <v>arith_div_g05_00_o07</v>
       </c>
       <c r="B349" t="str">
@@ -15096,7 +15096,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
-        <f>IF(ISNUMBER(C350),"arith_" &amp; INDEX(Operations[],J350,2) &amp; "_g" &amp; TEXT(C350, "00") &amp; "_" &amp; TEXT(D350, "00") &amp; "_o" &amp; TEXT(E350, "00") &amp; IF(AND(ISNUMBER(F350), F350&lt;&gt;E350), "_" &amp; TEXT(F350, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C350),"arith_" &amp; INDEX(Operations[],J350,2) &amp; "_g" &amp; TEXT(C350, "00") &amp; "_" &amp; TEXT(D350, "00") &amp; "_o" &amp; TEXT(E350, "00") &amp; IF(AND(ISNUMBER(F350), F350&gt;E350), "_" &amp; TEXT(F350, "00"), ""), "")</f>
         <v>arith_div_g05_00_o08</v>
       </c>
       <c r="B350" t="str">
@@ -15138,7 +15138,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
-        <f>IF(ISNUMBER(C351),"arith_" &amp; INDEX(Operations[],J351,2) &amp; "_g" &amp; TEXT(C351, "00") &amp; "_" &amp; TEXT(D351, "00") &amp; "_o" &amp; TEXT(E351, "00") &amp; IF(AND(ISNUMBER(F351), F351&lt;&gt;E351), "_" &amp; TEXT(F351, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C351),"arith_" &amp; INDEX(Operations[],J351,2) &amp; "_g" &amp; TEXT(C351, "00") &amp; "_" &amp; TEXT(D351, "00") &amp; "_o" &amp; TEXT(E351, "00") &amp; IF(AND(ISNUMBER(F351), F351&gt;E351), "_" &amp; TEXT(F351, "00"), ""), "")</f>
         <v>arith_div_g05_00_o09</v>
       </c>
       <c r="B351" t="str">
@@ -15180,7 +15180,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
-        <f>IF(ISNUMBER(C352),"arith_" &amp; INDEX(Operations[],J352,2) &amp; "_g" &amp; TEXT(C352, "00") &amp; "_" &amp; TEXT(D352, "00") &amp; "_o" &amp; TEXT(E352, "00") &amp; IF(AND(ISNUMBER(F352), F352&lt;&gt;E352), "_" &amp; TEXT(F352, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C352),"arith_" &amp; INDEX(Operations[],J352,2) &amp; "_g" &amp; TEXT(C352, "00") &amp; "_" &amp; TEXT(D352, "00") &amp; "_o" &amp; TEXT(E352, "00") &amp; IF(AND(ISNUMBER(F352), F352&gt;E352), "_" &amp; TEXT(F352, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B352" t="str">
@@ -15222,7 +15222,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
-        <f>IF(ISNUMBER(C353),"arith_" &amp; INDEX(Operations[],J353,2) &amp; "_g" &amp; TEXT(C353, "00") &amp; "_" &amp; TEXT(D353, "00") &amp; "_o" &amp; TEXT(E353, "00") &amp; IF(AND(ISNUMBER(F353), F353&lt;&gt;E353), "_" &amp; TEXT(F353, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C353),"arith_" &amp; INDEX(Operations[],J353,2) &amp; "_g" &amp; TEXT(C353, "00") &amp; "_" &amp; TEXT(D353, "00") &amp; "_o" &amp; TEXT(E353, "00") &amp; IF(AND(ISNUMBER(F353), F353&gt;E353), "_" &amp; TEXT(F353, "00"), ""), "")</f>
         <v>arith_div_g06_00_o01</v>
       </c>
       <c r="B353" t="str">
@@ -15264,7 +15264,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
-        <f>IF(ISNUMBER(C354),"arith_" &amp; INDEX(Operations[],J354,2) &amp; "_g" &amp; TEXT(C354, "00") &amp; "_" &amp; TEXT(D354, "00") &amp; "_o" &amp; TEXT(E354, "00") &amp; IF(AND(ISNUMBER(F354), F354&lt;&gt;E354), "_" &amp; TEXT(F354, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C354),"arith_" &amp; INDEX(Operations[],J354,2) &amp; "_g" &amp; TEXT(C354, "00") &amp; "_" &amp; TEXT(D354, "00") &amp; "_o" &amp; TEXT(E354, "00") &amp; IF(AND(ISNUMBER(F354), F354&gt;E354), "_" &amp; TEXT(F354, "00"), ""), "")</f>
         <v>arith_div_g06_00_o02</v>
       </c>
       <c r="B354" t="str">
@@ -15306,7 +15306,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
-        <f>IF(ISNUMBER(C355),"arith_" &amp; INDEX(Operations[],J355,2) &amp; "_g" &amp; TEXT(C355, "00") &amp; "_" &amp; TEXT(D355, "00") &amp; "_o" &amp; TEXT(E355, "00") &amp; IF(AND(ISNUMBER(F355), F355&lt;&gt;E355), "_" &amp; TEXT(F355, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C355),"arith_" &amp; INDEX(Operations[],J355,2) &amp; "_g" &amp; TEXT(C355, "00") &amp; "_" &amp; TEXT(D355, "00") &amp; "_o" &amp; TEXT(E355, "00") &amp; IF(AND(ISNUMBER(F355), F355&gt;E355), "_" &amp; TEXT(F355, "00"), ""), "")</f>
         <v>arith_div_g06_00_o03</v>
       </c>
       <c r="B355" t="str">
@@ -15348,7 +15348,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
-        <f>IF(ISNUMBER(C356),"arith_" &amp; INDEX(Operations[],J356,2) &amp; "_g" &amp; TEXT(C356, "00") &amp; "_" &amp; TEXT(D356, "00") &amp; "_o" &amp; TEXT(E356, "00") &amp; IF(AND(ISNUMBER(F356), F356&lt;&gt;E356), "_" &amp; TEXT(F356, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C356),"arith_" &amp; INDEX(Operations[],J356,2) &amp; "_g" &amp; TEXT(C356, "00") &amp; "_" &amp; TEXT(D356, "00") &amp; "_o" &amp; TEXT(E356, "00") &amp; IF(AND(ISNUMBER(F356), F356&gt;E356), "_" &amp; TEXT(F356, "00"), ""), "")</f>
         <v>arith_div_g06_00_o04</v>
       </c>
       <c r="B356" t="str">
@@ -15390,7 +15390,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
-        <f>IF(ISNUMBER(C357),"arith_" &amp; INDEX(Operations[],J357,2) &amp; "_g" &amp; TEXT(C357, "00") &amp; "_" &amp; TEXT(D357, "00") &amp; "_o" &amp; TEXT(E357, "00") &amp; IF(AND(ISNUMBER(F357), F357&lt;&gt;E357), "_" &amp; TEXT(F357, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C357),"arith_" &amp; INDEX(Operations[],J357,2) &amp; "_g" &amp; TEXT(C357, "00") &amp; "_" &amp; TEXT(D357, "00") &amp; "_o" &amp; TEXT(E357, "00") &amp; IF(AND(ISNUMBER(F357), F357&gt;E357), "_" &amp; TEXT(F357, "00"), ""), "")</f>
         <v>arith_div_g06_00_o05</v>
       </c>
       <c r="B357" t="str">
@@ -15432,7 +15432,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
-        <f>IF(ISNUMBER(C358),"arith_" &amp; INDEX(Operations[],J358,2) &amp; "_g" &amp; TEXT(C358, "00") &amp; "_" &amp; TEXT(D358, "00") &amp; "_o" &amp; TEXT(E358, "00") &amp; IF(AND(ISNUMBER(F358), F358&lt;&gt;E358), "_" &amp; TEXT(F358, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C358),"arith_" &amp; INDEX(Operations[],J358,2) &amp; "_g" &amp; TEXT(C358, "00") &amp; "_" &amp; TEXT(D358, "00") &amp; "_o" &amp; TEXT(E358, "00") &amp; IF(AND(ISNUMBER(F358), F358&gt;E358), "_" &amp; TEXT(F358, "00"), ""), "")</f>
         <v>arith_div_g06_00_o06</v>
       </c>
       <c r="B358" t="str">
@@ -15474,7 +15474,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
-        <f>IF(ISNUMBER(C359),"arith_" &amp; INDEX(Operations[],J359,2) &amp; "_g" &amp; TEXT(C359, "00") &amp; "_" &amp; TEXT(D359, "00") &amp; "_o" &amp; TEXT(E359, "00") &amp; IF(AND(ISNUMBER(F359), F359&lt;&gt;E359), "_" &amp; TEXT(F359, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C359),"arith_" &amp; INDEX(Operations[],J359,2) &amp; "_g" &amp; TEXT(C359, "00") &amp; "_" &amp; TEXT(D359, "00") &amp; "_o" &amp; TEXT(E359, "00") &amp; IF(AND(ISNUMBER(F359), F359&gt;E359), "_" &amp; TEXT(F359, "00"), ""), "")</f>
         <v>arith_div_g06_00_o07</v>
       </c>
       <c r="B359" t="str">
@@ -15516,7 +15516,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
-        <f>IF(ISNUMBER(C360),"arith_" &amp; INDEX(Operations[],J360,2) &amp; "_g" &amp; TEXT(C360, "00") &amp; "_" &amp; TEXT(D360, "00") &amp; "_o" &amp; TEXT(E360, "00") &amp; IF(AND(ISNUMBER(F360), F360&lt;&gt;E360), "_" &amp; TEXT(F360, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C360),"arith_" &amp; INDEX(Operations[],J360,2) &amp; "_g" &amp; TEXT(C360, "00") &amp; "_" &amp; TEXT(D360, "00") &amp; "_o" &amp; TEXT(E360, "00") &amp; IF(AND(ISNUMBER(F360), F360&gt;E360), "_" &amp; TEXT(F360, "00"), ""), "")</f>
         <v>arith_div_g06_00_o08</v>
       </c>
       <c r="B360" t="str">
@@ -15558,7 +15558,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
-        <f>IF(ISNUMBER(C361),"arith_" &amp; INDEX(Operations[],J361,2) &amp; "_g" &amp; TEXT(C361, "00") &amp; "_" &amp; TEXT(D361, "00") &amp; "_o" &amp; TEXT(E361, "00") &amp; IF(AND(ISNUMBER(F361), F361&lt;&gt;E361), "_" &amp; TEXT(F361, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C361),"arith_" &amp; INDEX(Operations[],J361,2) &amp; "_g" &amp; TEXT(C361, "00") &amp; "_" &amp; TEXT(D361, "00") &amp; "_o" &amp; TEXT(E361, "00") &amp; IF(AND(ISNUMBER(F361), F361&gt;E361), "_" &amp; TEXT(F361, "00"), ""), "")</f>
         <v>arith_div_g06_00_o09</v>
       </c>
       <c r="B361" t="str">
@@ -15600,7 +15600,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
-        <f>IF(ISNUMBER(C362),"arith_" &amp; INDEX(Operations[],J362,2) &amp; "_g" &amp; TEXT(C362, "00") &amp; "_" &amp; TEXT(D362, "00") &amp; "_o" &amp; TEXT(E362, "00") &amp; IF(AND(ISNUMBER(F362), F362&lt;&gt;E362), "_" &amp; TEXT(F362, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C362),"arith_" &amp; INDEX(Operations[],J362,2) &amp; "_g" &amp; TEXT(C362, "00") &amp; "_" &amp; TEXT(D362, "00") &amp; "_o" &amp; TEXT(E362, "00") &amp; IF(AND(ISNUMBER(F362), F362&gt;E362), "_" &amp; TEXT(F362, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B362" t="str">
@@ -15642,7 +15642,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
-        <f>IF(ISNUMBER(C363),"arith_" &amp; INDEX(Operations[],J363,2) &amp; "_g" &amp; TEXT(C363, "00") &amp; "_" &amp; TEXT(D363, "00") &amp; "_o" &amp; TEXT(E363, "00") &amp; IF(AND(ISNUMBER(F363), F363&lt;&gt;E363), "_" &amp; TEXT(F363, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C363),"arith_" &amp; INDEX(Operations[],J363,2) &amp; "_g" &amp; TEXT(C363, "00") &amp; "_" &amp; TEXT(D363, "00") &amp; "_o" &amp; TEXT(E363, "00") &amp; IF(AND(ISNUMBER(F363), F363&gt;E363), "_" &amp; TEXT(F363, "00"), ""), "")</f>
         <v>arith_div_g07_00_o01</v>
       </c>
       <c r="B363" t="str">
@@ -15684,7 +15684,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
-        <f>IF(ISNUMBER(C364),"arith_" &amp; INDEX(Operations[],J364,2) &amp; "_g" &amp; TEXT(C364, "00") &amp; "_" &amp; TEXT(D364, "00") &amp; "_o" &amp; TEXT(E364, "00") &amp; IF(AND(ISNUMBER(F364), F364&lt;&gt;E364), "_" &amp; TEXT(F364, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C364),"arith_" &amp; INDEX(Operations[],J364,2) &amp; "_g" &amp; TEXT(C364, "00") &amp; "_" &amp; TEXT(D364, "00") &amp; "_o" &amp; TEXT(E364, "00") &amp; IF(AND(ISNUMBER(F364), F364&gt;E364), "_" &amp; TEXT(F364, "00"), ""), "")</f>
         <v>arith_div_g07_00_o02</v>
       </c>
       <c r="B364" t="str">
@@ -15726,7 +15726,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
-        <f>IF(ISNUMBER(C365),"arith_" &amp; INDEX(Operations[],J365,2) &amp; "_g" &amp; TEXT(C365, "00") &amp; "_" &amp; TEXT(D365, "00") &amp; "_o" &amp; TEXT(E365, "00") &amp; IF(AND(ISNUMBER(F365), F365&lt;&gt;E365), "_" &amp; TEXT(F365, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C365),"arith_" &amp; INDEX(Operations[],J365,2) &amp; "_g" &amp; TEXT(C365, "00") &amp; "_" &amp; TEXT(D365, "00") &amp; "_o" &amp; TEXT(E365, "00") &amp; IF(AND(ISNUMBER(F365), F365&gt;E365), "_" &amp; TEXT(F365, "00"), ""), "")</f>
         <v>arith_div_g07_00_o03</v>
       </c>
       <c r="B365" t="str">
@@ -15768,7 +15768,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
-        <f>IF(ISNUMBER(C366),"arith_" &amp; INDEX(Operations[],J366,2) &amp; "_g" &amp; TEXT(C366, "00") &amp; "_" &amp; TEXT(D366, "00") &amp; "_o" &amp; TEXT(E366, "00") &amp; IF(AND(ISNUMBER(F366), F366&lt;&gt;E366), "_" &amp; TEXT(F366, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C366),"arith_" &amp; INDEX(Operations[],J366,2) &amp; "_g" &amp; TEXT(C366, "00") &amp; "_" &amp; TEXT(D366, "00") &amp; "_o" &amp; TEXT(E366, "00") &amp; IF(AND(ISNUMBER(F366), F366&gt;E366), "_" &amp; TEXT(F366, "00"), ""), "")</f>
         <v>arith_div_g07_00_o04</v>
       </c>
       <c r="B366" t="str">
@@ -15810,7 +15810,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
-        <f>IF(ISNUMBER(C367),"arith_" &amp; INDEX(Operations[],J367,2) &amp; "_g" &amp; TEXT(C367, "00") &amp; "_" &amp; TEXT(D367, "00") &amp; "_o" &amp; TEXT(E367, "00") &amp; IF(AND(ISNUMBER(F367), F367&lt;&gt;E367), "_" &amp; TEXT(F367, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C367),"arith_" &amp; INDEX(Operations[],J367,2) &amp; "_g" &amp; TEXT(C367, "00") &amp; "_" &amp; TEXT(D367, "00") &amp; "_o" &amp; TEXT(E367, "00") &amp; IF(AND(ISNUMBER(F367), F367&gt;E367), "_" &amp; TEXT(F367, "00"), ""), "")</f>
         <v>arith_div_g07_00_o05</v>
       </c>
       <c r="B367" t="str">
@@ -15852,7 +15852,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>IF(ISNUMBER(C368),"arith_" &amp; INDEX(Operations[],J368,2) &amp; "_g" &amp; TEXT(C368, "00") &amp; "_" &amp; TEXT(D368, "00") &amp; "_o" &amp; TEXT(E368, "00") &amp; IF(AND(ISNUMBER(F368), F368&lt;&gt;E368), "_" &amp; TEXT(F368, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C368),"arith_" &amp; INDEX(Operations[],J368,2) &amp; "_g" &amp; TEXT(C368, "00") &amp; "_" &amp; TEXT(D368, "00") &amp; "_o" &amp; TEXT(E368, "00") &amp; IF(AND(ISNUMBER(F368), F368&gt;E368), "_" &amp; TEXT(F368, "00"), ""), "")</f>
         <v>arith_div_g07_00_o06</v>
       </c>
       <c r="B368" t="str">
@@ -15894,7 +15894,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
-        <f>IF(ISNUMBER(C369),"arith_" &amp; INDEX(Operations[],J369,2) &amp; "_g" &amp; TEXT(C369, "00") &amp; "_" &amp; TEXT(D369, "00") &amp; "_o" &amp; TEXT(E369, "00") &amp; IF(AND(ISNUMBER(F369), F369&lt;&gt;E369), "_" &amp; TEXT(F369, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C369),"arith_" &amp; INDEX(Operations[],J369,2) &amp; "_g" &amp; TEXT(C369, "00") &amp; "_" &amp; TEXT(D369, "00") &amp; "_o" &amp; TEXT(E369, "00") &amp; IF(AND(ISNUMBER(F369), F369&gt;E369), "_" &amp; TEXT(F369, "00"), ""), "")</f>
         <v>arith_div_g07_00_o07</v>
       </c>
       <c r="B369" t="str">
@@ -15936,7 +15936,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
-        <f>IF(ISNUMBER(C370),"arith_" &amp; INDEX(Operations[],J370,2) &amp; "_g" &amp; TEXT(C370, "00") &amp; "_" &amp; TEXT(D370, "00") &amp; "_o" &amp; TEXT(E370, "00") &amp; IF(AND(ISNUMBER(F370), F370&lt;&gt;E370), "_" &amp; TEXT(F370, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C370),"arith_" &amp; INDEX(Operations[],J370,2) &amp; "_g" &amp; TEXT(C370, "00") &amp; "_" &amp; TEXT(D370, "00") &amp; "_o" &amp; TEXT(E370, "00") &amp; IF(AND(ISNUMBER(F370), F370&gt;E370), "_" &amp; TEXT(F370, "00"), ""), "")</f>
         <v>arith_div_g07_00_o08</v>
       </c>
       <c r="B370" t="str">
@@ -15978,7 +15978,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
-        <f>IF(ISNUMBER(C371),"arith_" &amp; INDEX(Operations[],J371,2) &amp; "_g" &amp; TEXT(C371, "00") &amp; "_" &amp; TEXT(D371, "00") &amp; "_o" &amp; TEXT(E371, "00") &amp; IF(AND(ISNUMBER(F371), F371&lt;&gt;E371), "_" &amp; TEXT(F371, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C371),"arith_" &amp; INDEX(Operations[],J371,2) &amp; "_g" &amp; TEXT(C371, "00") &amp; "_" &amp; TEXT(D371, "00") &amp; "_o" &amp; TEXT(E371, "00") &amp; IF(AND(ISNUMBER(F371), F371&gt;E371), "_" &amp; TEXT(F371, "00"), ""), "")</f>
         <v>arith_div_g07_00_o09</v>
       </c>
       <c r="B371" t="str">
@@ -16020,7 +16020,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
-        <f>IF(ISNUMBER(C372),"arith_" &amp; INDEX(Operations[],J372,2) &amp; "_g" &amp; TEXT(C372, "00") &amp; "_" &amp; TEXT(D372, "00") &amp; "_o" &amp; TEXT(E372, "00") &amp; IF(AND(ISNUMBER(F372), F372&lt;&gt;E372), "_" &amp; TEXT(F372, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C372),"arith_" &amp; INDEX(Operations[],J372,2) &amp; "_g" &amp; TEXT(C372, "00") &amp; "_" &amp; TEXT(D372, "00") &amp; "_o" &amp; TEXT(E372, "00") &amp; IF(AND(ISNUMBER(F372), F372&gt;E372), "_" &amp; TEXT(F372, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B372" t="str">
@@ -16062,7 +16062,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
-        <f>IF(ISNUMBER(C373),"arith_" &amp; INDEX(Operations[],J373,2) &amp; "_g" &amp; TEXT(C373, "00") &amp; "_" &amp; TEXT(D373, "00") &amp; "_o" &amp; TEXT(E373, "00") &amp; IF(AND(ISNUMBER(F373), F373&lt;&gt;E373), "_" &amp; TEXT(F373, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C373),"arith_" &amp; INDEX(Operations[],J373,2) &amp; "_g" &amp; TEXT(C373, "00") &amp; "_" &amp; TEXT(D373, "00") &amp; "_o" &amp; TEXT(E373, "00") &amp; IF(AND(ISNUMBER(F373), F373&gt;E373), "_" &amp; TEXT(F373, "00"), ""), "")</f>
         <v>arith_div_g08_00_o01</v>
       </c>
       <c r="B373" t="str">
@@ -16104,7 +16104,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
-        <f>IF(ISNUMBER(C374),"arith_" &amp; INDEX(Operations[],J374,2) &amp; "_g" &amp; TEXT(C374, "00") &amp; "_" &amp; TEXT(D374, "00") &amp; "_o" &amp; TEXT(E374, "00") &amp; IF(AND(ISNUMBER(F374), F374&lt;&gt;E374), "_" &amp; TEXT(F374, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C374),"arith_" &amp; INDEX(Operations[],J374,2) &amp; "_g" &amp; TEXT(C374, "00") &amp; "_" &amp; TEXT(D374, "00") &amp; "_o" &amp; TEXT(E374, "00") &amp; IF(AND(ISNUMBER(F374), F374&gt;E374), "_" &amp; TEXT(F374, "00"), ""), "")</f>
         <v>arith_div_g08_00_o02</v>
       </c>
       <c r="B374" t="str">
@@ -16146,7 +16146,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
-        <f>IF(ISNUMBER(C375),"arith_" &amp; INDEX(Operations[],J375,2) &amp; "_g" &amp; TEXT(C375, "00") &amp; "_" &amp; TEXT(D375, "00") &amp; "_o" &amp; TEXT(E375, "00") &amp; IF(AND(ISNUMBER(F375), F375&lt;&gt;E375), "_" &amp; TEXT(F375, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C375),"arith_" &amp; INDEX(Operations[],J375,2) &amp; "_g" &amp; TEXT(C375, "00") &amp; "_" &amp; TEXT(D375, "00") &amp; "_o" &amp; TEXT(E375, "00") &amp; IF(AND(ISNUMBER(F375), F375&gt;E375), "_" &amp; TEXT(F375, "00"), ""), "")</f>
         <v>arith_div_g08_00_o03</v>
       </c>
       <c r="B375" t="str">
@@ -16188,7 +16188,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
-        <f>IF(ISNUMBER(C376),"arith_" &amp; INDEX(Operations[],J376,2) &amp; "_g" &amp; TEXT(C376, "00") &amp; "_" &amp; TEXT(D376, "00") &amp; "_o" &amp; TEXT(E376, "00") &amp; IF(AND(ISNUMBER(F376), F376&lt;&gt;E376), "_" &amp; TEXT(F376, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C376),"arith_" &amp; INDEX(Operations[],J376,2) &amp; "_g" &amp; TEXT(C376, "00") &amp; "_" &amp; TEXT(D376, "00") &amp; "_o" &amp; TEXT(E376, "00") &amp; IF(AND(ISNUMBER(F376), F376&gt;E376), "_" &amp; TEXT(F376, "00"), ""), "")</f>
         <v>arith_div_g08_00_o04</v>
       </c>
       <c r="B376" t="str">
@@ -16230,7 +16230,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
-        <f>IF(ISNUMBER(C377),"arith_" &amp; INDEX(Operations[],J377,2) &amp; "_g" &amp; TEXT(C377, "00") &amp; "_" &amp; TEXT(D377, "00") &amp; "_o" &amp; TEXT(E377, "00") &amp; IF(AND(ISNUMBER(F377), F377&lt;&gt;E377), "_" &amp; TEXT(F377, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C377),"arith_" &amp; INDEX(Operations[],J377,2) &amp; "_g" &amp; TEXT(C377, "00") &amp; "_" &amp; TEXT(D377, "00") &amp; "_o" &amp; TEXT(E377, "00") &amp; IF(AND(ISNUMBER(F377), F377&gt;E377), "_" &amp; TEXT(F377, "00"), ""), "")</f>
         <v>arith_div_g08_00_o05</v>
       </c>
       <c r="B377" t="str">
@@ -16272,7 +16272,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
-        <f>IF(ISNUMBER(C378),"arith_" &amp; INDEX(Operations[],J378,2) &amp; "_g" &amp; TEXT(C378, "00") &amp; "_" &amp; TEXT(D378, "00") &amp; "_o" &amp; TEXT(E378, "00") &amp; IF(AND(ISNUMBER(F378), F378&lt;&gt;E378), "_" &amp; TEXT(F378, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C378),"arith_" &amp; INDEX(Operations[],J378,2) &amp; "_g" &amp; TEXT(C378, "00") &amp; "_" &amp; TEXT(D378, "00") &amp; "_o" &amp; TEXT(E378, "00") &amp; IF(AND(ISNUMBER(F378), F378&gt;E378), "_" &amp; TEXT(F378, "00"), ""), "")</f>
         <v>arith_div_g08_00_o06</v>
       </c>
       <c r="B378" t="str">
@@ -16314,7 +16314,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
-        <f>IF(ISNUMBER(C379),"arith_" &amp; INDEX(Operations[],J379,2) &amp; "_g" &amp; TEXT(C379, "00") &amp; "_" &amp; TEXT(D379, "00") &amp; "_o" &amp; TEXT(E379, "00") &amp; IF(AND(ISNUMBER(F379), F379&lt;&gt;E379), "_" &amp; TEXT(F379, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C379),"arith_" &amp; INDEX(Operations[],J379,2) &amp; "_g" &amp; TEXT(C379, "00") &amp; "_" &amp; TEXT(D379, "00") &amp; "_o" &amp; TEXT(E379, "00") &amp; IF(AND(ISNUMBER(F379), F379&gt;E379), "_" &amp; TEXT(F379, "00"), ""), "")</f>
         <v>arith_div_g08_00_o07</v>
       </c>
       <c r="B379" t="str">
@@ -16356,7 +16356,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
-        <f>IF(ISNUMBER(C380),"arith_" &amp; INDEX(Operations[],J380,2) &amp; "_g" &amp; TEXT(C380, "00") &amp; "_" &amp; TEXT(D380, "00") &amp; "_o" &amp; TEXT(E380, "00") &amp; IF(AND(ISNUMBER(F380), F380&lt;&gt;E380), "_" &amp; TEXT(F380, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C380),"arith_" &amp; INDEX(Operations[],J380,2) &amp; "_g" &amp; TEXT(C380, "00") &amp; "_" &amp; TEXT(D380, "00") &amp; "_o" &amp; TEXT(E380, "00") &amp; IF(AND(ISNUMBER(F380), F380&gt;E380), "_" &amp; TEXT(F380, "00"), ""), "")</f>
         <v>arith_div_g08_00_o08</v>
       </c>
       <c r="B380" t="str">
@@ -16398,7 +16398,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
-        <f>IF(ISNUMBER(C381),"arith_" &amp; INDEX(Operations[],J381,2) &amp; "_g" &amp; TEXT(C381, "00") &amp; "_" &amp; TEXT(D381, "00") &amp; "_o" &amp; TEXT(E381, "00") &amp; IF(AND(ISNUMBER(F381), F381&lt;&gt;E381), "_" &amp; TEXT(F381, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C381),"arith_" &amp; INDEX(Operations[],J381,2) &amp; "_g" &amp; TEXT(C381, "00") &amp; "_" &amp; TEXT(D381, "00") &amp; "_o" &amp; TEXT(E381, "00") &amp; IF(AND(ISNUMBER(F381), F381&gt;E381), "_" &amp; TEXT(F381, "00"), ""), "")</f>
         <v>arith_div_g08_00_o09</v>
       </c>
       <c r="B381" t="str">
@@ -16440,7 +16440,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
-        <f>IF(ISNUMBER(C382),"arith_" &amp; INDEX(Operations[],J382,2) &amp; "_g" &amp; TEXT(C382, "00") &amp; "_" &amp; TEXT(D382, "00") &amp; "_o" &amp; TEXT(E382, "00") &amp; IF(AND(ISNUMBER(F382), F382&lt;&gt;E382), "_" &amp; TEXT(F382, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C382),"arith_" &amp; INDEX(Operations[],J382,2) &amp; "_g" &amp; TEXT(C382, "00") &amp; "_" &amp; TEXT(D382, "00") &amp; "_o" &amp; TEXT(E382, "00") &amp; IF(AND(ISNUMBER(F382), F382&gt;E382), "_" &amp; TEXT(F382, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B382" t="str">
@@ -16482,7 +16482,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
-        <f>IF(ISNUMBER(C383),"arith_" &amp; INDEX(Operations[],J383,2) &amp; "_g" &amp; TEXT(C383, "00") &amp; "_" &amp; TEXT(D383, "00") &amp; "_o" &amp; TEXT(E383, "00") &amp; IF(AND(ISNUMBER(F383), F383&lt;&gt;E383), "_" &amp; TEXT(F383, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C383),"arith_" &amp; INDEX(Operations[],J383,2) &amp; "_g" &amp; TEXT(C383, "00") &amp; "_" &amp; TEXT(D383, "00") &amp; "_o" &amp; TEXT(E383, "00") &amp; IF(AND(ISNUMBER(F383), F383&gt;E383), "_" &amp; TEXT(F383, "00"), ""), "")</f>
         <v>arith_div_g09_00_o01</v>
       </c>
       <c r="B383" t="str">
@@ -16524,7 +16524,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f>IF(ISNUMBER(C384),"arith_" &amp; INDEX(Operations[],J384,2) &amp; "_g" &amp; TEXT(C384, "00") &amp; "_" &amp; TEXT(D384, "00") &amp; "_o" &amp; TEXT(E384, "00") &amp; IF(AND(ISNUMBER(F384), F384&lt;&gt;E384), "_" &amp; TEXT(F384, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C384),"arith_" &amp; INDEX(Operations[],J384,2) &amp; "_g" &amp; TEXT(C384, "00") &amp; "_" &amp; TEXT(D384, "00") &amp; "_o" &amp; TEXT(E384, "00") &amp; IF(AND(ISNUMBER(F384), F384&gt;E384), "_" &amp; TEXT(F384, "00"), ""), "")</f>
         <v>arith_div_g09_00_o02</v>
       </c>
       <c r="B384" t="str">
@@ -16566,7 +16566,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
-        <f>IF(ISNUMBER(C385),"arith_" &amp; INDEX(Operations[],J385,2) &amp; "_g" &amp; TEXT(C385, "00") &amp; "_" &amp; TEXT(D385, "00") &amp; "_o" &amp; TEXT(E385, "00") &amp; IF(AND(ISNUMBER(F385), F385&lt;&gt;E385), "_" &amp; TEXT(F385, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C385),"arith_" &amp; INDEX(Operations[],J385,2) &amp; "_g" &amp; TEXT(C385, "00") &amp; "_" &amp; TEXT(D385, "00") &amp; "_o" &amp; TEXT(E385, "00") &amp; IF(AND(ISNUMBER(F385), F385&gt;E385), "_" &amp; TEXT(F385, "00"), ""), "")</f>
         <v>arith_div_g09_00_o03</v>
       </c>
       <c r="B385" t="str">
@@ -16608,7 +16608,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
-        <f>IF(ISNUMBER(C386),"arith_" &amp; INDEX(Operations[],J386,2) &amp; "_g" &amp; TEXT(C386, "00") &amp; "_" &amp; TEXT(D386, "00") &amp; "_o" &amp; TEXT(E386, "00") &amp; IF(AND(ISNUMBER(F386), F386&lt;&gt;E386), "_" &amp; TEXT(F386, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C386),"arith_" &amp; INDEX(Operations[],J386,2) &amp; "_g" &amp; TEXT(C386, "00") &amp; "_" &amp; TEXT(D386, "00") &amp; "_o" &amp; TEXT(E386, "00") &amp; IF(AND(ISNUMBER(F386), F386&gt;E386), "_" &amp; TEXT(F386, "00"), ""), "")</f>
         <v>arith_div_g09_00_o04</v>
       </c>
       <c r="B386" t="str">
@@ -16650,7 +16650,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f>IF(ISNUMBER(C387),"arith_" &amp; INDEX(Operations[],J387,2) &amp; "_g" &amp; TEXT(C387, "00") &amp; "_" &amp; TEXT(D387, "00") &amp; "_o" &amp; TEXT(E387, "00") &amp; IF(AND(ISNUMBER(F387), F387&lt;&gt;E387), "_" &amp; TEXT(F387, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C387),"arith_" &amp; INDEX(Operations[],J387,2) &amp; "_g" &amp; TEXT(C387, "00") &amp; "_" &amp; TEXT(D387, "00") &amp; "_o" &amp; TEXT(E387, "00") &amp; IF(AND(ISNUMBER(F387), F387&gt;E387), "_" &amp; TEXT(F387, "00"), ""), "")</f>
         <v>arith_div_g09_00_o05</v>
       </c>
       <c r="B387" t="str">
@@ -16692,7 +16692,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
-        <f>IF(ISNUMBER(C388),"arith_" &amp; INDEX(Operations[],J388,2) &amp; "_g" &amp; TEXT(C388, "00") &amp; "_" &amp; TEXT(D388, "00") &amp; "_o" &amp; TEXT(E388, "00") &amp; IF(AND(ISNUMBER(F388), F388&lt;&gt;E388), "_" &amp; TEXT(F388, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C388),"arith_" &amp; INDEX(Operations[],J388,2) &amp; "_g" &amp; TEXT(C388, "00") &amp; "_" &amp; TEXT(D388, "00") &amp; "_o" &amp; TEXT(E388, "00") &amp; IF(AND(ISNUMBER(F388), F388&gt;E388), "_" &amp; TEXT(F388, "00"), ""), "")</f>
         <v>arith_div_g09_00_o06</v>
       </c>
       <c r="B388" t="str">
@@ -16734,7 +16734,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
-        <f>IF(ISNUMBER(C389),"arith_" &amp; INDEX(Operations[],J389,2) &amp; "_g" &amp; TEXT(C389, "00") &amp; "_" &amp; TEXT(D389, "00") &amp; "_o" &amp; TEXT(E389, "00") &amp; IF(AND(ISNUMBER(F389), F389&lt;&gt;E389), "_" &amp; TEXT(F389, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C389),"arith_" &amp; INDEX(Operations[],J389,2) &amp; "_g" &amp; TEXT(C389, "00") &amp; "_" &amp; TEXT(D389, "00") &amp; "_o" &amp; TEXT(E389, "00") &amp; IF(AND(ISNUMBER(F389), F389&gt;E389), "_" &amp; TEXT(F389, "00"), ""), "")</f>
         <v>arith_div_g09_00_o07</v>
       </c>
       <c r="B389" t="str">
@@ -16776,7 +16776,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
-        <f>IF(ISNUMBER(C390),"arith_" &amp; INDEX(Operations[],J390,2) &amp; "_g" &amp; TEXT(C390, "00") &amp; "_" &amp; TEXT(D390, "00") &amp; "_o" &amp; TEXT(E390, "00") &amp; IF(AND(ISNUMBER(F390), F390&lt;&gt;E390), "_" &amp; TEXT(F390, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C390),"arith_" &amp; INDEX(Operations[],J390,2) &amp; "_g" &amp; TEXT(C390, "00") &amp; "_" &amp; TEXT(D390, "00") &amp; "_o" &amp; TEXT(E390, "00") &amp; IF(AND(ISNUMBER(F390), F390&gt;E390), "_" &amp; TEXT(F390, "00"), ""), "")</f>
         <v>arith_div_g09_00_o08</v>
       </c>
       <c r="B390" t="str">
@@ -16818,7 +16818,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
-        <f>IF(ISNUMBER(C391),"arith_" &amp; INDEX(Operations[],J391,2) &amp; "_g" &amp; TEXT(C391, "00") &amp; "_" &amp; TEXT(D391, "00") &amp; "_o" &amp; TEXT(E391, "00") &amp; IF(AND(ISNUMBER(F391), F391&lt;&gt;E391), "_" &amp; TEXT(F391, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C391),"arith_" &amp; INDEX(Operations[],J391,2) &amp; "_g" &amp; TEXT(C391, "00") &amp; "_" &amp; TEXT(D391, "00") &amp; "_o" &amp; TEXT(E391, "00") &amp; IF(AND(ISNUMBER(F391), F391&gt;E391), "_" &amp; TEXT(F391, "00"), ""), "")</f>
         <v>arith_div_g09_00_o09</v>
       </c>
       <c r="B391" t="str">
@@ -16860,7 +16860,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
-        <f>IF(ISNUMBER(C392),"arith_" &amp; INDEX(Operations[],J392,2) &amp; "_g" &amp; TEXT(C392, "00") &amp; "_" &amp; TEXT(D392, "00") &amp; "_o" &amp; TEXT(E392, "00") &amp; IF(AND(ISNUMBER(F392), F392&lt;&gt;E392), "_" &amp; TEXT(F392, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C392),"arith_" &amp; INDEX(Operations[],J392,2) &amp; "_g" &amp; TEXT(C392, "00") &amp; "_" &amp; TEXT(D392, "00") &amp; "_o" &amp; TEXT(E392, "00") &amp; IF(AND(ISNUMBER(F392), F392&gt;E392), "_" &amp; TEXT(F392, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B392" t="str">
@@ -16902,7 +16902,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
-        <f>IF(ISNUMBER(C393),"arith_" &amp; INDEX(Operations[],J393,2) &amp; "_g" &amp; TEXT(C393, "00") &amp; "_" &amp; TEXT(D393, "00") &amp; "_o" &amp; TEXT(E393, "00") &amp; IF(AND(ISNUMBER(F393), F393&lt;&gt;E393), "_" &amp; TEXT(F393, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C393),"arith_" &amp; INDEX(Operations[],J393,2) &amp; "_g" &amp; TEXT(C393, "00") &amp; "_" &amp; TEXT(D393, "00") &amp; "_o" &amp; TEXT(E393, "00") &amp; IF(AND(ISNUMBER(F393), F393&gt;E393), "_" &amp; TEXT(F393, "00"), ""), "")</f>
         <v>arith_div_g10_00_o01</v>
       </c>
       <c r="B393" t="str">
@@ -16944,7 +16944,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
-        <f>IF(ISNUMBER(C394),"arith_" &amp; INDEX(Operations[],J394,2) &amp; "_g" &amp; TEXT(C394, "00") &amp; "_" &amp; TEXT(D394, "00") &amp; "_o" &amp; TEXT(E394, "00") &amp; IF(AND(ISNUMBER(F394), F394&lt;&gt;E394), "_" &amp; TEXT(F394, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C394),"arith_" &amp; INDEX(Operations[],J394,2) &amp; "_g" &amp; TEXT(C394, "00") &amp; "_" &amp; TEXT(D394, "00") &amp; "_o" &amp; TEXT(E394, "00") &amp; IF(AND(ISNUMBER(F394), F394&gt;E394), "_" &amp; TEXT(F394, "00"), ""), "")</f>
         <v>arith_div_g10_00_o02</v>
       </c>
       <c r="B394" t="str">
@@ -16986,7 +16986,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
-        <f>IF(ISNUMBER(C395),"arith_" &amp; INDEX(Operations[],J395,2) &amp; "_g" &amp; TEXT(C395, "00") &amp; "_" &amp; TEXT(D395, "00") &amp; "_o" &amp; TEXT(E395, "00") &amp; IF(AND(ISNUMBER(F395), F395&lt;&gt;E395), "_" &amp; TEXT(F395, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C395),"arith_" &amp; INDEX(Operations[],J395,2) &amp; "_g" &amp; TEXT(C395, "00") &amp; "_" &amp; TEXT(D395, "00") &amp; "_o" &amp; TEXT(E395, "00") &amp; IF(AND(ISNUMBER(F395), F395&gt;E395), "_" &amp; TEXT(F395, "00"), ""), "")</f>
         <v>arith_div_g10_00_o03</v>
       </c>
       <c r="B395" t="str">
@@ -17028,7 +17028,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
-        <f>IF(ISNUMBER(C396),"arith_" &amp; INDEX(Operations[],J396,2) &amp; "_g" &amp; TEXT(C396, "00") &amp; "_" &amp; TEXT(D396, "00") &amp; "_o" &amp; TEXT(E396, "00") &amp; IF(AND(ISNUMBER(F396), F396&lt;&gt;E396), "_" &amp; TEXT(F396, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C396),"arith_" &amp; INDEX(Operations[],J396,2) &amp; "_g" &amp; TEXT(C396, "00") &amp; "_" &amp; TEXT(D396, "00") &amp; "_o" &amp; TEXT(E396, "00") &amp; IF(AND(ISNUMBER(F396), F396&gt;E396), "_" &amp; TEXT(F396, "00"), ""), "")</f>
         <v>arith_div_g10_00_o04</v>
       </c>
       <c r="B396" t="str">
@@ -17070,7 +17070,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
-        <f>IF(ISNUMBER(C397),"arith_" &amp; INDEX(Operations[],J397,2) &amp; "_g" &amp; TEXT(C397, "00") &amp; "_" &amp; TEXT(D397, "00") &amp; "_o" &amp; TEXT(E397, "00") &amp; IF(AND(ISNUMBER(F397), F397&lt;&gt;E397), "_" &amp; TEXT(F397, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C397),"arith_" &amp; INDEX(Operations[],J397,2) &amp; "_g" &amp; TEXT(C397, "00") &amp; "_" &amp; TEXT(D397, "00") &amp; "_o" &amp; TEXT(E397, "00") &amp; IF(AND(ISNUMBER(F397), F397&gt;E397), "_" &amp; TEXT(F397, "00"), ""), "")</f>
         <v>arith_div_g10_00_o05</v>
       </c>
       <c r="B397" t="str">
@@ -17112,7 +17112,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
-        <f>IF(ISNUMBER(C398),"arith_" &amp; INDEX(Operations[],J398,2) &amp; "_g" &amp; TEXT(C398, "00") &amp; "_" &amp; TEXT(D398, "00") &amp; "_o" &amp; TEXT(E398, "00") &amp; IF(AND(ISNUMBER(F398), F398&lt;&gt;E398), "_" &amp; TEXT(F398, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C398),"arith_" &amp; INDEX(Operations[],J398,2) &amp; "_g" &amp; TEXT(C398, "00") &amp; "_" &amp; TEXT(D398, "00") &amp; "_o" &amp; TEXT(E398, "00") &amp; IF(AND(ISNUMBER(F398), F398&gt;E398), "_" &amp; TEXT(F398, "00"), ""), "")</f>
         <v>arith_div_g10_00_o06</v>
       </c>
       <c r="B398" t="str">
@@ -17154,7 +17154,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
-        <f>IF(ISNUMBER(C399),"arith_" &amp; INDEX(Operations[],J399,2) &amp; "_g" &amp; TEXT(C399, "00") &amp; "_" &amp; TEXT(D399, "00") &amp; "_o" &amp; TEXT(E399, "00") &amp; IF(AND(ISNUMBER(F399), F399&lt;&gt;E399), "_" &amp; TEXT(F399, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C399),"arith_" &amp; INDEX(Operations[],J399,2) &amp; "_g" &amp; TEXT(C399, "00") &amp; "_" &amp; TEXT(D399, "00") &amp; "_o" &amp; TEXT(E399, "00") &amp; IF(AND(ISNUMBER(F399), F399&gt;E399), "_" &amp; TEXT(F399, "00"), ""), "")</f>
         <v>arith_div_g10_00_o07</v>
       </c>
       <c r="B399" t="str">
@@ -17196,7 +17196,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
-        <f>IF(ISNUMBER(C400),"arith_" &amp; INDEX(Operations[],J400,2) &amp; "_g" &amp; TEXT(C400, "00") &amp; "_" &amp; TEXT(D400, "00") &amp; "_o" &amp; TEXT(E400, "00") &amp; IF(AND(ISNUMBER(F400), F400&lt;&gt;E400), "_" &amp; TEXT(F400, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C400),"arith_" &amp; INDEX(Operations[],J400,2) &amp; "_g" &amp; TEXT(C400, "00") &amp; "_" &amp; TEXT(D400, "00") &amp; "_o" &amp; TEXT(E400, "00") &amp; IF(AND(ISNUMBER(F400), F400&gt;E400), "_" &amp; TEXT(F400, "00"), ""), "")</f>
         <v>arith_div_g10_00_o08</v>
       </c>
       <c r="B400" t="str">
@@ -17238,7 +17238,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
-        <f>IF(ISNUMBER(C401),"arith_" &amp; INDEX(Operations[],J401,2) &amp; "_g" &amp; TEXT(C401, "00") &amp; "_" &amp; TEXT(D401, "00") &amp; "_o" &amp; TEXT(E401, "00") &amp; IF(AND(ISNUMBER(F401), F401&lt;&gt;E401), "_" &amp; TEXT(F401, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C401),"arith_" &amp; INDEX(Operations[],J401,2) &amp; "_g" &amp; TEXT(C401, "00") &amp; "_" &amp; TEXT(D401, "00") &amp; "_o" &amp; TEXT(E401, "00") &amp; IF(AND(ISNUMBER(F401), F401&gt;E401), "_" &amp; TEXT(F401, "00"), ""), "")</f>
         <v>arith_div_g10_00_o09</v>
       </c>
       <c r="B401" t="str">
@@ -17280,7 +17280,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
-        <f>IF(ISNUMBER(C402),"arith_" &amp; INDEX(Operations[],J402,2) &amp; "_g" &amp; TEXT(C402, "00") &amp; "_" &amp; TEXT(D402, "00") &amp; "_o" &amp; TEXT(E402, "00") &amp; IF(AND(ISNUMBER(F402), F402&lt;&gt;E402), "_" &amp; TEXT(F402, "00"), ""), "")</f>
+        <f>IF(ISNUMBER(C402),"arith_" &amp; INDEX(Operations[],J402,2) &amp; "_g" &amp; TEXT(C402, "00") &amp; "_" &amp; TEXT(D402, "00") &amp; "_o" &amp; TEXT(E402, "00") &amp; IF(AND(ISNUMBER(F402), F402&gt;E402), "_" &amp; TEXT(F402, "00"), ""), "")</f>
         <v/>
       </c>
       <c r="B402" t="str">
